--- a/fcst_results/orig_series_IAH-Int_results.xlsx
+++ b/fcst_results/orig_series_IAH-Int_results.xlsx
@@ -58,6 +58,7 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -74,74 +75,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -434,7 +367,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,20 +383,25 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>lstm_reg</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>lstm</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>arima</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>prophet</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>weighted_ensemble</t>
         </is>
@@ -474,16 +412,19 @@
         <v>44470</v>
       </c>
       <c r="B2" t="n">
-        <v>339273.730833292</v>
+        <v>330055.055757165</v>
       </c>
       <c r="C2" t="n">
-        <v>301421.5766542687</v>
+        <v>320866.927567482</v>
       </c>
       <c r="D2" t="n">
+        <v>301421.5771608846</v>
+      </c>
+      <c r="E2" t="n">
         <v>237909.6658678285</v>
       </c>
-      <c r="E2" t="n">
-        <v>312285.7766663464</v>
+      <c r="F2" t="n">
+        <v>314686.7148449883</v>
       </c>
     </row>
     <row r="3">
@@ -491,16 +432,19 @@
         <v>44501</v>
       </c>
       <c r="B3" t="n">
-        <v>358404.6730591059</v>
+        <v>318164.2193721533</v>
       </c>
       <c r="C3" t="n">
-        <v>330448.6784802167</v>
+        <v>300379.5126655102</v>
       </c>
       <c r="D3" t="n">
+        <v>330448.6832331219</v>
+      </c>
+      <c r="E3" t="n">
         <v>253360.9167199809</v>
       </c>
-      <c r="E3" t="n">
-        <v>336899.3029162106</v>
+      <c r="F3" t="n">
+        <v>314017.5468636747</v>
       </c>
     </row>
     <row r="4">
@@ -508,16 +452,19 @@
         <v>44531</v>
       </c>
       <c r="B4" t="n">
-        <v>355093.9567393064</v>
+        <v>311917.0519253016</v>
       </c>
       <c r="C4" t="n">
-        <v>419332.212600098</v>
+        <v>327611.6998444796</v>
       </c>
       <c r="D4" t="n">
+        <v>419332.2205968756</v>
+      </c>
+      <c r="E4" t="n">
         <v>319890.449488445</v>
       </c>
-      <c r="E4" t="n">
-        <v>390092.7165001847</v>
+      <c r="F4" t="n">
+        <v>352545.5913846163</v>
       </c>
     </row>
     <row r="5">
@@ -525,16 +472,19 @@
         <v>44562</v>
       </c>
       <c r="B5" t="n">
-        <v>380042.698322773</v>
+        <v>297748.9254057407</v>
       </c>
       <c r="C5" t="n">
-        <v>340470.8198964694</v>
+        <v>333575.7819212675</v>
       </c>
       <c r="D5" t="n">
+        <v>340470.8315165763</v>
+      </c>
+      <c r="E5" t="n">
         <v>269269.0763516328</v>
       </c>
-      <c r="E5" t="n">
-        <v>351578.1763222594</v>
+      <c r="F5" t="n">
+        <v>323098.0691303523</v>
       </c>
     </row>
     <row r="6">
@@ -542,16 +492,19 @@
         <v>44593</v>
       </c>
       <c r="B6" t="n">
-        <v>375899.974350214</v>
+        <v>336787.8462812901</v>
       </c>
       <c r="C6" t="n">
-        <v>288946.3864360521</v>
+        <v>331061.7863336802</v>
       </c>
       <c r="D6" t="n">
+        <v>288946.3972521224</v>
+      </c>
+      <c r="E6" t="n">
         <v>227426.2772998255</v>
       </c>
-      <c r="E6" t="n">
-        <v>318301.9054451712</v>
+      <c r="F6" t="n">
+        <v>315817.3992249403</v>
       </c>
     </row>
     <row r="7">
@@ -559,16 +512,19 @@
         <v>44621</v>
       </c>
       <c r="B7" t="n">
-        <v>362938.7131804228</v>
+        <v>344469.9603022337</v>
       </c>
       <c r="C7" t="n">
-        <v>293852.3750744588</v>
+        <v>334062.2608380318</v>
       </c>
       <c r="D7" t="n">
-        <v>281555.144882616</v>
+        <v>293852.4134323303</v>
       </c>
       <c r="E7" t="n">
-        <v>319082.7963158787</v>
+        <v>281555.1448826159</v>
+      </c>
+      <c r="F7" t="n">
+        <v>322437.4936040284</v>
       </c>
     </row>
     <row r="8">
@@ -576,16 +532,19 @@
         <v>44652</v>
       </c>
       <c r="B8" t="n">
-        <v>343606.2207545042</v>
+        <v>347075.8269674778</v>
       </c>
       <c r="C8" t="n">
-        <v>219030.1178269128</v>
+        <v>321544.5549428463</v>
       </c>
       <c r="D8" t="n">
+        <v>219030.1684519101</v>
+      </c>
+      <c r="E8" t="n">
         <v>239001.292239888</v>
       </c>
-      <c r="E8" t="n">
-        <v>266722.3777415932</v>
+      <c r="F8" t="n">
+        <v>293213.0062900797</v>
       </c>
     </row>
     <row r="9">
@@ -593,16 +552,19 @@
         <v>44682</v>
       </c>
       <c r="B9" t="n">
-        <v>359039.5084599257</v>
+        <v>334150.116053462</v>
       </c>
       <c r="C9" t="n">
-        <v>259453.2199462371</v>
+        <v>331233.6125699282</v>
       </c>
       <c r="D9" t="n">
+        <v>259453.2764103757</v>
+      </c>
+      <c r="E9" t="n">
         <v>270931.6339870065</v>
       </c>
-      <c r="E9" t="n">
-        <v>297344.6007694862</v>
+      <c r="F9" t="n">
+        <v>306844.7496257848</v>
       </c>
     </row>
     <row r="10">
@@ -610,16 +572,19 @@
         <v>44713</v>
       </c>
       <c r="B10" t="n">
-        <v>373177.3514282703</v>
+        <v>320164.3162623644</v>
       </c>
       <c r="C10" t="n">
-        <v>314243.1274654085</v>
+        <v>315676.4256397486</v>
       </c>
       <c r="D10" t="n">
+        <v>314243.1906952466</v>
+      </c>
+      <c r="E10" t="n">
         <v>322606.7886248189</v>
       </c>
-      <c r="E10" t="n">
-        <v>336748.7712837544</v>
+      <c r="F10" t="n">
+        <v>316768.2753401938</v>
       </c>
     </row>
     <row r="11">
@@ -627,16 +592,19 @@
         <v>44743</v>
       </c>
       <c r="B11" t="n">
-        <v>361623.1232984066</v>
+        <v>340509.5630581379</v>
       </c>
       <c r="C11" t="n">
-        <v>330452.4641152457</v>
+        <v>337130.0504100323</v>
       </c>
       <c r="D11" t="n">
+        <v>330452.5268980288</v>
+      </c>
+      <c r="E11" t="n">
         <v>337319.5932923692</v>
       </c>
-      <c r="E11" t="n">
-        <v>342483.2056859025</v>
+      <c r="F11" t="n">
+        <v>335971.9118387104</v>
       </c>
     </row>
     <row r="12">
@@ -644,16 +612,19 @@
         <v>44774</v>
       </c>
       <c r="B12" t="n">
-        <v>384654.4881701469</v>
+        <v>340836.3291591406</v>
       </c>
       <c r="C12" t="n">
-        <v>276961.4126227596</v>
+        <v>352611.5942959785</v>
       </c>
       <c r="D12" t="n">
+        <v>276961.4563110399</v>
+      </c>
+      <c r="E12" t="n">
         <v>266376.5056685093</v>
       </c>
-      <c r="E12" t="n">
-        <v>316738.5332591048</v>
+      <c r="F12" t="n">
+        <v>321758.8508200543</v>
       </c>
     </row>
     <row r="13">
@@ -661,16 +632,19 @@
         <v>44805</v>
       </c>
       <c r="B13" t="n">
-        <v>362347.9535133839</v>
+        <v>353183.2292420864</v>
       </c>
       <c r="C13" t="n">
-        <v>234784.6115813034</v>
+        <v>345203.0197430849</v>
       </c>
       <c r="D13" t="n">
+        <v>234784.6467521381</v>
+      </c>
+      <c r="E13" t="n">
         <v>184179.0482621371</v>
       </c>
-      <c r="E13" t="n">
-        <v>279916.6005215821</v>
+      <c r="F13" t="n">
+        <v>306595.2433261461</v>
       </c>
     </row>
     <row r="14">
@@ -678,16 +652,19 @@
         <v>44835</v>
       </c>
       <c r="B14" t="n">
-        <v>365243.8180984259</v>
+        <v>344944.8195520639</v>
       </c>
       <c r="C14" t="n">
-        <v>278721.0853976347</v>
+        <v>329427.0341553688</v>
       </c>
       <c r="D14" t="n">
+        <v>278721.1197505922</v>
+      </c>
+      <c r="E14" t="n">
         <v>208124.9386780533</v>
       </c>
-      <c r="E14" t="n">
-        <v>307442.154081614</v>
+      <c r="F14" t="n">
+        <v>313760.0781817181</v>
       </c>
     </row>
     <row r="15">
@@ -695,16 +672,19 @@
         <v>44866</v>
       </c>
       <c r="B15" t="n">
-        <v>355228.4552069902</v>
+        <v>354208.3932845592</v>
       </c>
       <c r="C15" t="n">
-        <v>302799.1838191341</v>
+        <v>354796.1575133801</v>
       </c>
       <c r="D15" t="n">
+        <v>302799.2166932539</v>
+      </c>
+      <c r="E15" t="n">
         <v>225350.7003419966</v>
       </c>
-      <c r="E15" t="n">
-        <v>318395.7517808117</v>
+      <c r="F15" t="n">
+        <v>333638.8854519605</v>
       </c>
     </row>
     <row r="16">
@@ -712,16 +692,19 @@
         <v>44896</v>
       </c>
       <c r="B16" t="n">
-        <v>387037.2111465931</v>
+        <v>343876.1722800732</v>
       </c>
       <c r="C16" t="n">
-        <v>386671.2633577595</v>
+        <v>347335.8705050945</v>
       </c>
       <c r="D16" t="n">
+        <v>386671.2982425368</v>
+      </c>
+      <c r="E16" t="n">
         <v>292693.0546175304</v>
       </c>
-      <c r="E16" t="n">
-        <v>381909.53073323</v>
+      <c r="F16" t="n">
+        <v>357401.2956441351</v>
       </c>
     </row>
     <row r="17">
@@ -729,16 +712,19 @@
         <v>44927</v>
       </c>
       <c r="B17" t="n">
-        <v>385340.0485192537</v>
+        <v>339391.375846386</v>
       </c>
       <c r="C17" t="n">
-        <v>304381.7090716425</v>
+        <v>332892.6903399229</v>
       </c>
       <c r="D17" t="n">
+        <v>304381.7491225498</v>
+      </c>
+      <c r="E17" t="n">
         <v>241180.9959155005</v>
       </c>
-      <c r="E17" t="n">
-        <v>331404.5245719729</v>
+      <c r="F17" t="n">
+        <v>322682.4358114549</v>
       </c>
     </row>
     <row r="18">
@@ -746,16 +732,19 @@
         <v>44958</v>
       </c>
       <c r="B18" t="n">
-        <v>374105.7726913691</v>
+        <v>328145.6449360847</v>
       </c>
       <c r="C18" t="n">
-        <v>256148.0829751698</v>
+        <v>349527.6096074581</v>
       </c>
       <c r="D18" t="n">
+        <v>256148.1202861682</v>
+      </c>
+      <c r="E18" t="n">
         <v>198074.6162606399</v>
       </c>
-      <c r="E18" t="n">
-        <v>297293.6725451395</v>
+      <c r="F18" t="n">
+        <v>307989.1795384227</v>
       </c>
     </row>
     <row r="19">
@@ -763,16 +752,19 @@
         <v>44986</v>
       </c>
       <c r="B19" t="n">
-        <v>378139.146710515</v>
+        <v>372196.4277040958</v>
       </c>
       <c r="C19" t="n">
-        <v>268057.1055993116</v>
+        <v>331244.8701509237</v>
       </c>
       <c r="D19" t="n">
+        <v>268057.1635662459</v>
+      </c>
+      <c r="E19" t="n">
         <v>249157.5171221843</v>
       </c>
-      <c r="E19" t="n">
-        <v>308295.4286790809</v>
+      <c r="F19" t="n">
+        <v>320344.1587213284</v>
       </c>
     </row>
     <row r="20">
@@ -780,16 +772,19 @@
         <v>45017</v>
       </c>
       <c r="B20" t="n">
-        <v>354240.7176837921</v>
+        <v>343747.8292733431</v>
       </c>
       <c r="C20" t="n">
-        <v>212497.6299248364</v>
+        <v>341925.1544929743</v>
       </c>
       <c r="D20" t="n">
+        <v>212497.6871153303</v>
+      </c>
+      <c r="E20" t="n">
         <v>210426.4297828418</v>
       </c>
-      <c r="E20" t="n">
-        <v>265469.5821912462</v>
+      <c r="F20" t="n">
+        <v>296209.94305552</v>
       </c>
     </row>
     <row r="21">
@@ -797,16 +792,19 @@
         <v>45047</v>
       </c>
       <c r="B21" t="n">
-        <v>359800.5801856518</v>
+        <v>348807.3877589703</v>
       </c>
       <c r="C21" t="n">
-        <v>257740.1577890346</v>
+        <v>329799.0939155817</v>
       </c>
       <c r="D21" t="n">
-        <v>243274.2587527445</v>
+        <v>257740.2163509536</v>
       </c>
       <c r="E21" t="n">
-        <v>295205.6605827525</v>
+        <v>243274.2587527444</v>
+      </c>
+      <c r="F21" t="n">
+        <v>309310.2723246166</v>
       </c>
     </row>
     <row r="22">
@@ -814,16 +812,19 @@
         <v>45078</v>
       </c>
       <c r="B22" t="n">
-        <v>380813.0196983814</v>
+        <v>339914.820445776</v>
       </c>
       <c r="C22" t="n">
-        <v>313759.034910945</v>
+        <v>345095.3485517502</v>
       </c>
       <c r="D22" t="n">
+        <v>313759.0988127182</v>
+      </c>
+      <c r="E22" t="n">
         <v>295048.2070439143</v>
       </c>
-      <c r="E22" t="n">
-        <v>337894.0613774031</v>
+      <c r="F22" t="n">
+        <v>331776.6213626058</v>
       </c>
     </row>
     <row r="23">
@@ -831,16 +832,19 @@
         <v>45108</v>
       </c>
       <c r="B23" t="n">
-        <v>369836.7794770002</v>
+        <v>342315.7464698553</v>
       </c>
       <c r="C23" t="n">
-        <v>329378.3702304029</v>
+        <v>330924.2595108747</v>
       </c>
       <c r="D23" t="n">
+        <v>329378.4334879573</v>
+      </c>
+      <c r="E23" t="n">
         <v>308499.171536146</v>
       </c>
-      <c r="E23" t="n">
-        <v>343440.8620424542</v>
+      <c r="F23" t="n">
+        <v>333125.1504166825</v>
       </c>
     </row>
     <row r="24">
@@ -848,16 +852,19 @@
         <v>45139</v>
       </c>
       <c r="B24" t="n">
-        <v>373204.0141201019</v>
+        <v>357101.3611820936</v>
       </c>
       <c r="C24" t="n">
-        <v>273766.4568796919</v>
+        <v>344176.3744399548</v>
       </c>
       <c r="D24" t="n">
+        <v>273766.5034968133</v>
+      </c>
+      <c r="E24" t="n">
         <v>237095.5833340205</v>
       </c>
-      <c r="E24" t="n">
-        <v>309092.2780127866</v>
+      <c r="F24" t="n">
+        <v>321762.7383502393</v>
       </c>
     </row>
     <row r="25">
@@ -865,16 +872,19 @@
         <v>45170</v>
       </c>
       <c r="B25" t="n">
-        <v>397993.7670596838</v>
+        <v>352004.2774264812</v>
       </c>
       <c r="C25" t="n">
-        <v>231832.9991593398</v>
+        <v>346909.2674357891</v>
       </c>
       <c r="D25" t="n">
+        <v>231833.0365899653</v>
+      </c>
+      <c r="E25" t="n">
         <v>153016.9563506184</v>
       </c>
-      <c r="E25" t="n">
-        <v>289948.423967039</v>
+      <c r="F25" t="n">
+        <v>304893.9160538405</v>
       </c>
     </row>
     <row r="26">
@@ -882,16 +892,19 @@
         <v>45200</v>
       </c>
       <c r="B26" t="n">
-        <v>365029.4632228613</v>
+        <v>349209.2702337503</v>
       </c>
       <c r="C26" t="n">
-        <v>276233.3095742022</v>
+        <v>339601.4844413996</v>
       </c>
       <c r="D26" t="n">
+        <v>276233.3460204019</v>
+      </c>
+      <c r="E26" t="n">
         <v>178408.4395346413</v>
       </c>
-      <c r="E26" t="n">
-        <v>304386.3852468919</v>
+      <c r="F26" t="n">
+        <v>316796.3989064043</v>
       </c>
     </row>
     <row r="27">
@@ -899,16 +912,19 @@
         <v>45231</v>
       </c>
       <c r="B27" t="n">
-        <v>353003.2396137714</v>
+        <v>360685.68280375</v>
       </c>
       <c r="C27" t="n">
-        <v>301167.1510240989</v>
+        <v>336413.4165040255</v>
       </c>
       <c r="D27" t="n">
+        <v>301167.1865144034</v>
+      </c>
+      <c r="E27" t="n">
         <v>197402.8110617171</v>
       </c>
-      <c r="E27" t="n">
-        <v>315169.8256237888</v>
+      <c r="F27" t="n">
+        <v>327844.1469431137</v>
       </c>
     </row>
     <row r="28">
@@ -916,16 +932,19 @@
         <v>45261</v>
       </c>
       <c r="B28" t="n">
-        <v>373188.3785909414</v>
+        <v>354109.3792388439</v>
       </c>
       <c r="C28" t="n">
-        <v>385408.5213084235</v>
+        <v>339701.1897420883</v>
       </c>
       <c r="D28" t="n">
+        <v>385408.5588154499</v>
+      </c>
+      <c r="E28" t="n">
         <v>265461.0283505826</v>
       </c>
-      <c r="E28" t="n">
-        <v>374579.8598211078</v>
+      <c r="F28" t="n">
+        <v>356570.5803429538</v>
       </c>
     </row>
     <row r="29">
@@ -933,16 +952,19 @@
         <v>45292</v>
       </c>
       <c r="B29" t="n">
-        <v>379013.9463378191</v>
+        <v>349483.5997074842</v>
       </c>
       <c r="C29" t="n">
-        <v>303027.2017124582</v>
+        <v>349507.9252991676</v>
       </c>
       <c r="D29" t="n">
+        <v>303027.2438841106</v>
+      </c>
+      <c r="E29" t="n">
         <v>213037.1540754306</v>
       </c>
-      <c r="E29" t="n">
-        <v>326791.816340517</v>
+      <c r="F29" t="n">
+        <v>330095.6479191423</v>
       </c>
     </row>
     <row r="30">
@@ -950,16 +972,19 @@
         <v>45323</v>
       </c>
       <c r="B30" t="n">
-        <v>373035.775826335</v>
+        <v>367178.7066028118</v>
       </c>
       <c r="C30" t="n">
-        <v>254863.1437533888</v>
+        <v>360556.4181237221</v>
       </c>
       <c r="D30" t="n">
+        <v>254863.1826659798</v>
+      </c>
+      <c r="E30" t="n">
         <v>168672.3114747705</v>
       </c>
-      <c r="E30" t="n">
-        <v>294623.5597733338</v>
+      <c r="F30" t="n">
+        <v>322115.9725078526</v>
       </c>
     </row>
     <row r="31">
@@ -967,16 +992,19 @@
         <v>45352</v>
       </c>
       <c r="B31" t="n">
-        <v>385176.0565060377</v>
+        <v>351174.4093724489</v>
       </c>
       <c r="C31" t="n">
-        <v>267098.6845002077</v>
+        <v>330938.7758653164</v>
       </c>
       <c r="D31" t="n">
+        <v>267098.7437698035</v>
+      </c>
+      <c r="E31" t="n">
         <v>230241.6692261397</v>
       </c>
-      <c r="E31" t="n">
-        <v>309395.0359865497</v>
+      <c r="F31" t="n">
+        <v>313049.9334197125</v>
       </c>
     </row>
     <row r="32">
@@ -984,16 +1012,19 @@
         <v>45383</v>
       </c>
       <c r="B32" t="n">
-        <v>361124.5309611559</v>
+        <v>350345.6934100389</v>
       </c>
       <c r="C32" t="n">
-        <v>211763.4980051675</v>
+        <v>326865.802811265</v>
       </c>
       <c r="D32" t="n">
+        <v>211763.5564347279</v>
+      </c>
+      <c r="E32" t="n">
         <v>180307.0920146088</v>
       </c>
-      <c r="E32" t="n">
-        <v>266056.4631130729</v>
+      <c r="F32" t="n">
+        <v>291819.3069321567</v>
       </c>
     </row>
     <row r="33">
@@ -1001,16 +1032,19 @@
         <v>45413</v>
       </c>
       <c r="B33" t="n">
-        <v>373139.2994878292</v>
+        <v>351429.9103773832</v>
       </c>
       <c r="C33" t="n">
-        <v>257026.9260475409</v>
+        <v>346737.5070333481</v>
       </c>
       <c r="D33" t="n">
+        <v>257026.9858270561</v>
+      </c>
+      <c r="E33" t="n">
         <v>210223.2292145643</v>
       </c>
-      <c r="E33" t="n">
-        <v>298068.9377930138</v>
+      <c r="F33" t="n">
+        <v>314656.7493450278</v>
       </c>
     </row>
     <row r="34">
@@ -1018,16 +1052,19 @@
         <v>45444</v>
       </c>
       <c r="B34" t="n">
-        <v>370741.5334864855</v>
+        <v>345919.0282279253</v>
       </c>
       <c r="C34" t="n">
-        <v>313075.6465014099</v>
+        <v>355154.2275896072</v>
       </c>
       <c r="D34" t="n">
+        <v>313075.7114229609</v>
+      </c>
+      <c r="E34" t="n">
         <v>261498.5586691144</v>
       </c>
-      <c r="E34" t="n">
-        <v>331981.8111404721</v>
+      <c r="F34" t="n">
+        <v>335760.987270989</v>
       </c>
     </row>
     <row r="35">
@@ -1035,16 +1072,19 @@
         <v>45474</v>
       </c>
       <c r="B35" t="n">
-        <v>360552.6655967236</v>
+        <v>345343.311585784</v>
       </c>
       <c r="C35" t="n">
-        <v>328828.6939740207</v>
+        <v>321476.351118803</v>
       </c>
       <c r="D35" t="n">
+        <v>328828.7579654094</v>
+      </c>
+      <c r="E35" t="n">
         <v>278609.4832585234</v>
       </c>
-      <c r="E35" t="n">
-        <v>338090.9180860562</v>
+      <c r="F35" t="n">
+        <v>329665.2496912739</v>
       </c>
     </row>
     <row r="36">
@@ -1052,16 +1092,19 @@
         <v>45505</v>
       </c>
       <c r="B36" t="n">
-        <v>375485.2542830706</v>
+        <v>354851.6883295774</v>
       </c>
       <c r="C36" t="n">
-        <v>273339.5158814964</v>
+        <v>334449.7915428877</v>
       </c>
       <c r="D36" t="n">
+        <v>273339.5631104768</v>
+      </c>
+      <c r="E36" t="n">
         <v>208645.8245708317</v>
       </c>
-      <c r="E36" t="n">
-        <v>308218.7593898384</v>
+      <c r="F36" t="n">
+        <v>316714.1907860073</v>
       </c>
     </row>
     <row r="37">
@@ -1069,16 +1112,19 @@
         <v>45536</v>
       </c>
       <c r="B37" t="n">
-        <v>370934.6240423918</v>
+        <v>347521.2585055828</v>
       </c>
       <c r="C37" t="n">
-        <v>231446.4062612295</v>
+        <v>337302.7983195782</v>
       </c>
       <c r="D37" t="n">
+        <v>231446.4443339751</v>
+      </c>
+      <c r="E37" t="n">
         <v>130429.2623455103</v>
       </c>
-      <c r="E37" t="n">
-        <v>278416.2311338318</v>
+      <c r="F37" t="n">
+        <v>299415.5010116574</v>
       </c>
     </row>
     <row r="38">
@@ -1086,16 +1132,19 @@
         <v>45566</v>
       </c>
       <c r="B38" t="n">
-        <v>386290.9849443436</v>
+        <v>348700.4736564159</v>
       </c>
       <c r="C38" t="n">
-        <v>275868.0910850656</v>
+        <v>341138.4075825214</v>
       </c>
       <c r="D38" t="n">
+        <v>275868.1281291808</v>
+      </c>
+      <c r="E38" t="n">
         <v>151625.9767832904</v>
       </c>
-      <c r="E38" t="n">
-        <v>310742.8997569066</v>
+      <c r="F38" t="n">
+        <v>316216.399960347</v>
       </c>
     </row>
     <row r="39">
@@ -1103,16 +1152,19 @@
         <v>45597</v>
       </c>
       <c r="B39" t="n">
-        <v>374930.0448718071</v>
+        <v>348495.5000983477</v>
       </c>
       <c r="C39" t="n">
-        <v>300858.9567995011</v>
+        <v>373737.9592117071</v>
       </c>
       <c r="D39" t="n">
+        <v>300858.9927257499</v>
+      </c>
+      <c r="E39" t="n">
         <v>165299.824813613</v>
       </c>
-      <c r="E39" t="n">
-        <v>321530.8314342416</v>
+      <c r="F39" t="n">
+        <v>335938.4802636686</v>
       </c>
     </row>
   </sheetData>
@@ -1126,7 +1178,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG5"/>
+  <dimension ref="A1:AG6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1304,21 +1356,25 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>arima</t>
+          <t>lstm</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>arima</t>
+          <t>rnn</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
         <is>
-          <t>{'order': (4, 0, 2), 'seasonal_order': (0, 1, 2, 12), 'trend': None}</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr"/>
+          <t>{'lags': 36, 'epochs': 15, 'validation_split': 0.2, 'shuffle': True, 'hidden_layers_struct': {'lstm': {'units': 72, 'dropout': 0}}, 'verbose': 0, 'random_seed': 1}</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>minmax</t>
+        </is>
+      </c>
       <c r="F2" t="n">
         <v>249</v>
       </c>
@@ -1335,19 +1391,19 @@
         <v>74</v>
       </c>
       <c r="K2" t="n">
-        <v>151537.9812989001</v>
+        <v>157170.0045104478</v>
       </c>
       <c r="L2" t="n">
-        <v>1.511243293116215</v>
+        <v>1.485142199016892</v>
       </c>
       <c r="M2" t="n">
-        <v>88358.46170687856</v>
+        <v>112338.5982745338</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.09340297464265102</v>
+        <v>-0.1761875749283168</v>
       </c>
       <c r="O2" t="n">
-        <v>358495.2450820481</v>
+        <v>338218.0638218522</v>
       </c>
       <c r="P2" t="n">
         <v>252301</v>
@@ -1356,19 +1412,19 @@
         <v>0.95</v>
       </c>
       <c r="R2" t="n">
-        <v>90342.12476202897</v>
+        <v>224191.034457843</v>
       </c>
       <c r="S2" t="n">
-        <v>39195.67532417826</v>
+        <v>101204.7032799311</v>
       </c>
       <c r="T2" t="n">
-        <v>0.148140427669229</v>
+        <v>0.6033600769119026</v>
       </c>
       <c r="U2" t="n">
-        <v>22000.90262724375</v>
+        <v>67352.33407906823</v>
       </c>
       <c r="V2" t="n">
-        <v>0.8550923345239461</v>
+        <v>-0.004074202033055752</v>
       </c>
       <c r="W2" t="inlineStr"/>
       <c r="X2" t="inlineStr"/>
@@ -1379,16 +1435,16 @@
       <c r="AA2" t="inlineStr"/>
       <c r="AB2" t="inlineStr"/>
       <c r="AC2" t="n">
-        <v>151537.9812989001</v>
+        <v>157170.0045104478</v>
       </c>
       <c r="AD2" t="n">
-        <v>1.511243293116215</v>
+        <v>1.485142199016892</v>
       </c>
       <c r="AE2" t="n">
-        <v>88358.46170687856</v>
+        <v>112338.5982745338</v>
       </c>
       <c r="AF2" t="n">
-        <v>-0.09340297464265102</v>
+        <v>-0.1761875749283168</v>
       </c>
       <c r="AG2" t="b">
         <v>1</v>
@@ -1397,18 +1453,18 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>weighted_ensemble</t>
+          <t>arima</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>combo</t>
+          <t>arima</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
         <is>
-          <t>{'how': 'weighted', 'determine_best_by': 'TestSetMAPE'}</t>
+          <t>{'order': (4, 0, 2), 'seasonal_order': (0, 1, 2, 12), 'trend': None}</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
@@ -1418,7 +1474,9 @@
       <c r="G3" t="b">
         <v>0</v>
       </c>
-      <c r="H3" t="inlineStr"/>
+      <c r="H3" t="b">
+        <v>1</v>
+      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
@@ -1426,19 +1484,19 @@
         <v>74</v>
       </c>
       <c r="K3" t="n">
-        <v>155890.1663015926</v>
+        <v>151540.4985982018</v>
       </c>
       <c r="L3" t="n">
-        <v>1.583910458586714</v>
+        <v>1.511243670158461</v>
       </c>
       <c r="M3" t="n">
-        <v>98288.8412103529</v>
+        <v>88355.82638978961</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.1571101327680258</v>
+        <v>-0.09343930144840784</v>
       </c>
       <c r="O3" t="n">
-        <v>376520.4018846015</v>
+        <v>358509.2136830766</v>
       </c>
       <c r="P3" t="n">
         <v>252301</v>
@@ -1447,45 +1505,39 @@
         <v>0.95</v>
       </c>
       <c r="R3" t="n">
-        <v>94075.10873961044</v>
+        <v>82680.47090100731</v>
       </c>
       <c r="S3" t="n">
-        <v>49400.08276913883</v>
+        <v>39195.67555356155</v>
       </c>
       <c r="T3" t="n">
-        <v>0.3016332759656038</v>
+        <v>0.1481404192987691</v>
       </c>
       <c r="U3" t="n">
-        <v>32026.68295849093</v>
+        <v>22000.90324779396</v>
       </c>
       <c r="V3" t="n">
-        <v>0.7607677250853817</v>
+        <v>0.8550923328278712</v>
       </c>
       <c r="W3" t="inlineStr"/>
       <c r="X3" t="inlineStr"/>
       <c r="Y3" t="inlineStr"/>
-      <c r="Z3" t="inlineStr"/>
-      <c r="AA3" t="inlineStr">
-        <is>
-          <t>['arima', 'lstm', 'prophet']</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>(0.5733935560358585, 0.3744797570517907, 0.05212668691235077)</t>
-        </is>
-      </c>
+      <c r="Z3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA3" t="inlineStr"/>
+      <c r="AB3" t="inlineStr"/>
       <c r="AC3" t="n">
-        <v>155890.1663015926</v>
+        <v>151540.4985982018</v>
       </c>
       <c r="AD3" t="n">
-        <v>1.583910458586714</v>
+        <v>1.511243670158461</v>
       </c>
       <c r="AE3" t="n">
-        <v>98288.8412103529</v>
+        <v>88355.82638978961</v>
       </c>
       <c r="AF3" t="n">
-        <v>-0.1571101327680258</v>
+        <v>-0.09343930144840784</v>
       </c>
       <c r="AG3" t="b">
         <v>0</v>
@@ -1494,34 +1546,28 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>lstm</t>
+          <t>weighted_ensemble</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>rnn</t>
+          <t>combo</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
-          <t>{'lags': 36, 'epochs': 15, 'validation_split': 0.2, 'shuffle': True, 'hidden_layers_struct': {'lstm': {'units': 72}}, 'verbose': 0, 'random_seed': 1}</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>minmax</t>
-        </is>
-      </c>
+          <t>{'how': 'weighted', 'determine_best_by': 'TestSetMAPE'}</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="n">
         <v>249</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
       </c>
-      <c r="H4" t="b">
-        <v>1</v>
-      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="n">
         <v>0</v>
       </c>
@@ -1529,19 +1575,19 @@
         <v>74</v>
       </c>
       <c r="K4" t="n">
-        <v>167969.2089378429</v>
+        <v>156205.4952880543</v>
       </c>
       <c r="L4" t="n">
-        <v>1.67002289861322</v>
+        <v>1.519977314009543</v>
       </c>
       <c r="M4" t="n">
-        <v>119617.5671483778</v>
+        <v>107443.4301301883</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.3433729828472731</v>
+        <v>-0.1617959881666093</v>
       </c>
       <c r="O4" t="n">
-        <v>389503.6837879419</v>
+        <v>376560.9842407824</v>
       </c>
       <c r="P4" t="n">
         <v>252301</v>
@@ -1550,39 +1596,45 @@
         <v>0.95</v>
       </c>
       <c r="R4" t="n">
-        <v>185561.1355334161</v>
+        <v>177746.426115563</v>
       </c>
       <c r="S4" t="n">
-        <v>103176.3280125968</v>
+        <v>70156.58242003263</v>
       </c>
       <c r="T4" t="n">
-        <v>0.6070755506580956</v>
+        <v>0.4314670514144189</v>
       </c>
       <c r="U4" t="n">
-        <v>71040.16683995498</v>
+        <v>45917.04888184273</v>
       </c>
       <c r="V4" t="n">
-        <v>-0.043577127615678</v>
+        <v>0.5174956127528014</v>
       </c>
       <c r="W4" t="inlineStr"/>
       <c r="X4" t="inlineStr"/>
       <c r="Y4" t="inlineStr"/>
-      <c r="Z4" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA4" t="inlineStr"/>
-      <c r="AB4" t="inlineStr"/>
+      <c r="Z4" t="inlineStr"/>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>['lstm', 'arima', 'lstm_reg', 'prophet']</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>(0.344103627093033, 0.3256386375871177, 0.2989755874023008, 0.03128214791754846)</t>
+        </is>
+      </c>
       <c r="AC4" t="n">
-        <v>167969.2089378429</v>
+        <v>156205.4952880543</v>
       </c>
       <c r="AD4" t="n">
-        <v>1.67002289861322</v>
+        <v>1.519977314009543</v>
       </c>
       <c r="AE4" t="n">
-        <v>119617.5671483778</v>
+        <v>107443.4301301883</v>
       </c>
       <c r="AF4" t="n">
-        <v>-0.3433729828472731</v>
+        <v>-0.1617959881666093</v>
       </c>
       <c r="AG4" t="b">
         <v>0</v>
@@ -1591,21 +1643,25 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>prophet</t>
+          <t>lstm_reg</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>prophet</t>
+          <t>rnn</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr">
         <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr"/>
+          <t>{'lags': 36, 'epochs': 15, 'validation_split': 0.2, 'shuffle': True, 'hidden_layers_struct': {'lstm': {'units': 72, 'dropout': 0.2}}, 'verbose': 0, 'random_seed': 1}</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>minmax</t>
+        </is>
+      </c>
       <c r="F5" t="n">
         <v>249</v>
       </c>
@@ -1622,19 +1678,19 @@
         <v>74</v>
       </c>
       <c r="K5" t="n">
-        <v>201354.5255471396</v>
+        <v>176261.3311707298</v>
       </c>
       <c r="L5" t="n">
-        <v>1.927335833004404</v>
+        <v>1.54893363660671</v>
       </c>
       <c r="M5" t="n">
-        <v>122706.0989392031</v>
+        <v>129847.5984068553</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.9304566165304173</v>
+        <v>-0.4792832761220365</v>
       </c>
       <c r="O5" t="n">
-        <v>481524.8214715531</v>
+        <v>429370.6394199133</v>
       </c>
       <c r="P5" t="n">
         <v>252301</v>
@@ -1643,19 +1699,19 @@
         <v>0.95</v>
       </c>
       <c r="R5" t="n">
-        <v>145797.5424541752</v>
+        <v>207900.3522297689</v>
       </c>
       <c r="S5" t="n">
-        <v>65110.63286527008</v>
+        <v>101071.962960017</v>
       </c>
       <c r="T5" t="n">
-        <v>0.3648559408385847</v>
+        <v>0.6101954133890002</v>
       </c>
       <c r="U5" t="n">
-        <v>36688.01034311278</v>
+        <v>67272.18222281562</v>
       </c>
       <c r="V5" t="n">
-        <v>0.6001299379934649</v>
+        <v>-0.001442037310251498</v>
       </c>
       <c r="W5" t="inlineStr"/>
       <c r="X5" t="inlineStr"/>
@@ -1666,18 +1722,111 @@
       <c r="AA5" t="inlineStr"/>
       <c r="AB5" t="inlineStr"/>
       <c r="AC5" t="n">
+        <v>176261.3311707298</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>1.54893363660671</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>129847.5984068553</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>-0.4792832761220365</v>
+      </c>
+      <c r="AG5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>prophet</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>prophet</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="n">
+        <v>249</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>74</v>
+      </c>
+      <c r="K6" t="n">
         <v>201354.5255471396</v>
       </c>
-      <c r="AD5" t="n">
+      <c r="L6" t="n">
         <v>1.927335833004404</v>
       </c>
-      <c r="AE5" t="n">
+      <c r="M6" t="n">
         <v>122706.0989392031</v>
       </c>
-      <c r="AF5" t="n">
+      <c r="N6" t="n">
         <v>-0.9304566165304173</v>
       </c>
-      <c r="AG5" t="b">
+      <c r="O6" t="n">
+        <v>481524.8214715531</v>
+      </c>
+      <c r="P6" t="n">
+        <v>252301</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="R6" t="n">
+        <v>155657.4219100965</v>
+      </c>
+      <c r="S6" t="n">
+        <v>65110.63286527008</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.3648559408385847</v>
+      </c>
+      <c r="U6" t="n">
+        <v>36688.01034311278</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.6001299379934649</v>
+      </c>
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" t="inlineStr"/>
+      <c r="Y6" t="inlineStr"/>
+      <c r="Z6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA6" t="inlineStr"/>
+      <c r="AB6" t="inlineStr"/>
+      <c r="AC6" t="n">
+        <v>201354.5255471396</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>1.927335833004404</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>122706.0989392031</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>-0.9304566165304173</v>
+      </c>
+      <c r="AG6" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4959,11 +5108,11 @@
         <v>44470</v>
       </c>
       <c r="B251" t="n">
-        <v>301421.5766542687</v>
+        <v>320866.927567482</v>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>arima</t>
+          <t>lstm</t>
         </is>
       </c>
     </row>
@@ -4972,11 +5121,11 @@
         <v>44501</v>
       </c>
       <c r="B252" t="n">
-        <v>330448.6784802167</v>
+        <v>300379.5126655102</v>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>arima</t>
+          <t>lstm</t>
         </is>
       </c>
     </row>
@@ -4985,11 +5134,11 @@
         <v>44531</v>
       </c>
       <c r="B253" t="n">
-        <v>419332.212600098</v>
+        <v>327611.6998444796</v>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>arima</t>
+          <t>lstm</t>
         </is>
       </c>
     </row>
@@ -4998,11 +5147,11 @@
         <v>44562</v>
       </c>
       <c r="B254" t="n">
-        <v>340470.8198964694</v>
+        <v>333575.7819212675</v>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>arima</t>
+          <t>lstm</t>
         </is>
       </c>
     </row>
@@ -5011,11 +5160,11 @@
         <v>44593</v>
       </c>
       <c r="B255" t="n">
-        <v>288946.3864360521</v>
+        <v>331061.7863336802</v>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>arima</t>
+          <t>lstm</t>
         </is>
       </c>
     </row>
@@ -5024,11 +5173,11 @@
         <v>44621</v>
       </c>
       <c r="B256" t="n">
-        <v>293852.3750744588</v>
+        <v>334062.2608380318</v>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>arima</t>
+          <t>lstm</t>
         </is>
       </c>
     </row>
@@ -5037,11 +5186,11 @@
         <v>44652</v>
       </c>
       <c r="B257" t="n">
-        <v>219030.1178269128</v>
+        <v>321544.5549428463</v>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>arima</t>
+          <t>lstm</t>
         </is>
       </c>
     </row>
@@ -5050,11 +5199,11 @@
         <v>44682</v>
       </c>
       <c r="B258" t="n">
-        <v>259453.2199462371</v>
+        <v>331233.6125699282</v>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>arima</t>
+          <t>lstm</t>
         </is>
       </c>
     </row>
@@ -5063,11 +5212,11 @@
         <v>44713</v>
       </c>
       <c r="B259" t="n">
-        <v>314243.1274654085</v>
+        <v>315676.4256397486</v>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>arima</t>
+          <t>lstm</t>
         </is>
       </c>
     </row>
@@ -5076,11 +5225,11 @@
         <v>44743</v>
       </c>
       <c r="B260" t="n">
-        <v>330452.4641152457</v>
+        <v>337130.0504100323</v>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>arima</t>
+          <t>lstm</t>
         </is>
       </c>
     </row>
@@ -5089,11 +5238,11 @@
         <v>44774</v>
       </c>
       <c r="B261" t="n">
-        <v>276961.4126227596</v>
+        <v>352611.5942959785</v>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>arima</t>
+          <t>lstm</t>
         </is>
       </c>
     </row>
@@ -5102,11 +5251,11 @@
         <v>44805</v>
       </c>
       <c r="B262" t="n">
-        <v>234784.6115813034</v>
+        <v>345203.0197430849</v>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>arima</t>
+          <t>lstm</t>
         </is>
       </c>
     </row>
@@ -5115,11 +5264,11 @@
         <v>44835</v>
       </c>
       <c r="B263" t="n">
-        <v>278721.0853976347</v>
+        <v>329427.0341553688</v>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>arima</t>
+          <t>lstm</t>
         </is>
       </c>
     </row>
@@ -5128,11 +5277,11 @@
         <v>44866</v>
       </c>
       <c r="B264" t="n">
-        <v>302799.1838191341</v>
+        <v>354796.1575133801</v>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>arima</t>
+          <t>lstm</t>
         </is>
       </c>
     </row>
@@ -5141,11 +5290,11 @@
         <v>44896</v>
       </c>
       <c r="B265" t="n">
-        <v>386671.2633577595</v>
+        <v>347335.8705050945</v>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>arima</t>
+          <t>lstm</t>
         </is>
       </c>
     </row>
@@ -5154,11 +5303,11 @@
         <v>44927</v>
       </c>
       <c r="B266" t="n">
-        <v>304381.7090716425</v>
+        <v>332892.6903399229</v>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>arima</t>
+          <t>lstm</t>
         </is>
       </c>
     </row>
@@ -5167,11 +5316,11 @@
         <v>44958</v>
       </c>
       <c r="B267" t="n">
-        <v>256148.0829751698</v>
+        <v>349527.6096074581</v>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>arima</t>
+          <t>lstm</t>
         </is>
       </c>
     </row>
@@ -5180,11 +5329,11 @@
         <v>44986</v>
       </c>
       <c r="B268" t="n">
-        <v>268057.1055993116</v>
+        <v>331244.8701509237</v>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>arima</t>
+          <t>lstm</t>
         </is>
       </c>
     </row>
@@ -5193,11 +5342,11 @@
         <v>45017</v>
       </c>
       <c r="B269" t="n">
-        <v>212497.6299248364</v>
+        <v>341925.1544929743</v>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>arima</t>
+          <t>lstm</t>
         </is>
       </c>
     </row>
@@ -5206,11 +5355,11 @@
         <v>45047</v>
       </c>
       <c r="B270" t="n">
-        <v>257740.1577890346</v>
+        <v>329799.0939155817</v>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>arima</t>
+          <t>lstm</t>
         </is>
       </c>
     </row>
@@ -5219,11 +5368,11 @@
         <v>45078</v>
       </c>
       <c r="B271" t="n">
-        <v>313759.034910945</v>
+        <v>345095.3485517502</v>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>arima</t>
+          <t>lstm</t>
         </is>
       </c>
     </row>
@@ -5232,11 +5381,11 @@
         <v>45108</v>
       </c>
       <c r="B272" t="n">
-        <v>329378.3702304029</v>
+        <v>330924.2595108747</v>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>arima</t>
+          <t>lstm</t>
         </is>
       </c>
     </row>
@@ -5245,11 +5394,11 @@
         <v>45139</v>
       </c>
       <c r="B273" t="n">
-        <v>273766.4568796919</v>
+        <v>344176.3744399548</v>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>arima</t>
+          <t>lstm</t>
         </is>
       </c>
     </row>
@@ -5258,11 +5407,11 @@
         <v>45170</v>
       </c>
       <c r="B274" t="n">
-        <v>231832.9991593398</v>
+        <v>346909.2674357891</v>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>arima</t>
+          <t>lstm</t>
         </is>
       </c>
     </row>
@@ -5271,11 +5420,11 @@
         <v>45200</v>
       </c>
       <c r="B275" t="n">
-        <v>276233.3095742022</v>
+        <v>339601.4844413996</v>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>arima</t>
+          <t>lstm</t>
         </is>
       </c>
     </row>
@@ -5284,11 +5433,11 @@
         <v>45231</v>
       </c>
       <c r="B276" t="n">
-        <v>301167.1510240989</v>
+        <v>336413.4165040255</v>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>arima</t>
+          <t>lstm</t>
         </is>
       </c>
     </row>
@@ -5297,11 +5446,11 @@
         <v>45261</v>
       </c>
       <c r="B277" t="n">
-        <v>385408.5213084235</v>
+        <v>339701.1897420883</v>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>arima</t>
+          <t>lstm</t>
         </is>
       </c>
     </row>
@@ -5310,11 +5459,11 @@
         <v>45292</v>
       </c>
       <c r="B278" t="n">
-        <v>303027.2017124582</v>
+        <v>349507.9252991676</v>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>arima</t>
+          <t>lstm</t>
         </is>
       </c>
     </row>
@@ -5323,11 +5472,11 @@
         <v>45323</v>
       </c>
       <c r="B279" t="n">
-        <v>254863.1437533888</v>
+        <v>360556.4181237221</v>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>arima</t>
+          <t>lstm</t>
         </is>
       </c>
     </row>
@@ -5336,11 +5485,11 @@
         <v>45352</v>
       </c>
       <c r="B280" t="n">
-        <v>267098.6845002077</v>
+        <v>330938.7758653164</v>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>arima</t>
+          <t>lstm</t>
         </is>
       </c>
     </row>
@@ -5349,11 +5498,11 @@
         <v>45383</v>
       </c>
       <c r="B281" t="n">
-        <v>211763.4980051675</v>
+        <v>326865.802811265</v>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>arima</t>
+          <t>lstm</t>
         </is>
       </c>
     </row>
@@ -5362,11 +5511,11 @@
         <v>45413</v>
       </c>
       <c r="B282" t="n">
-        <v>257026.9260475409</v>
+        <v>346737.5070333481</v>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>arima</t>
+          <t>lstm</t>
         </is>
       </c>
     </row>
@@ -5375,11 +5524,11 @@
         <v>45444</v>
       </c>
       <c r="B283" t="n">
-        <v>313075.6465014099</v>
+        <v>355154.2275896072</v>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>arima</t>
+          <t>lstm</t>
         </is>
       </c>
     </row>
@@ -5388,11 +5537,11 @@
         <v>45474</v>
       </c>
       <c r="B284" t="n">
-        <v>328828.6939740207</v>
+        <v>321476.351118803</v>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>arima</t>
+          <t>lstm</t>
         </is>
       </c>
     </row>
@@ -5401,11 +5550,11 @@
         <v>45505</v>
       </c>
       <c r="B285" t="n">
-        <v>273339.5158814964</v>
+        <v>334449.7915428877</v>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>arima</t>
+          <t>lstm</t>
         </is>
       </c>
     </row>
@@ -5414,11 +5563,11 @@
         <v>45536</v>
       </c>
       <c r="B286" t="n">
-        <v>231446.4062612295</v>
+        <v>337302.7983195782</v>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>arima</t>
+          <t>lstm</t>
         </is>
       </c>
     </row>
@@ -5427,11 +5576,11 @@
         <v>45566</v>
       </c>
       <c r="B287" t="n">
-        <v>275868.0910850656</v>
+        <v>341138.4075825214</v>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>arima</t>
+          <t>lstm</t>
         </is>
       </c>
     </row>
@@ -5440,11 +5589,11 @@
         <v>45597</v>
       </c>
       <c r="B288" t="n">
-        <v>300858.9567995011</v>
+        <v>373737.9592117071</v>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>arima</t>
+          <t>lstm</t>
         </is>
       </c>
     </row>
@@ -5459,7 +5608,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F75"/>
+  <dimension ref="A1:G75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5480,20 +5629,25 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>lstm</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>arima</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>weighted_ensemble</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>lstm</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>lstm_reg</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>prophet</t>
         </is>
@@ -5507,15 +5661,18 @@
         <v>467457</v>
       </c>
       <c r="C2" t="n">
-        <v>451285.4040904046</v>
+        <v>373760.689026475</v>
       </c>
       <c r="D2" t="n">
-        <v>426202.1529501132</v>
+        <v>451281.4787121088</v>
       </c>
       <c r="E2" t="n">
-        <v>385912.4249396324</v>
+        <v>394370.3999504459</v>
       </c>
       <c r="F2" t="n">
+        <v>351358.5728708506</v>
+      </c>
+      <c r="G2" t="n">
         <v>439729.0626875589</v>
       </c>
     </row>
@@ -5527,15 +5684,18 @@
         <v>360593</v>
       </c>
       <c r="C3" t="n">
-        <v>358743.2067200664</v>
+        <v>340508.8475230932</v>
       </c>
       <c r="D3" t="n">
-        <v>348265.9400898342</v>
+        <v>358750.0082543613</v>
       </c>
       <c r="E3" t="n">
-        <v>330164.9034816623</v>
+        <v>362623.3750057576</v>
       </c>
       <c r="F3" t="n">
+        <v>392249.6162602901</v>
+      </c>
+      <c r="G3" t="n">
         <v>363054.4230422495</v>
       </c>
     </row>
@@ -5547,15 +5707,18 @@
         <v>397613</v>
       </c>
       <c r="C4" t="n">
-        <v>375988.6944769993</v>
+        <v>338025.4232258201</v>
       </c>
       <c r="D4" t="n">
-        <v>364673.1171044402</v>
+        <v>376020.7899066192</v>
       </c>
       <c r="E4" t="n">
-        <v>345178.3810970783</v>
+        <v>348171.0629129006</v>
       </c>
       <c r="F4" t="n">
+        <v>326157.9815021753</v>
+      </c>
+      <c r="G4" t="n">
         <v>380252.5621771832</v>
       </c>
     </row>
@@ -5567,15 +5730,18 @@
         <v>420034</v>
       </c>
       <c r="C5" t="n">
-        <v>390126.4097070204</v>
+        <v>359212.8904921412</v>
       </c>
       <c r="D5" t="n">
-        <v>392170.070858971</v>
+        <v>390159.1538418726</v>
       </c>
       <c r="E5" t="n">
-        <v>393725.0444678068</v>
+        <v>387101.7395084519</v>
       </c>
       <c r="F5" t="n">
+        <v>414156.5055993795</v>
+      </c>
+      <c r="G5" t="n">
         <v>403479.3642537682</v>
       </c>
     </row>
@@ -5587,15 +5753,18 @@
         <v>519636</v>
       </c>
       <c r="C6" t="n">
-        <v>474111.4002716879</v>
+        <v>371734.2028067112</v>
       </c>
       <c r="D6" t="n">
-        <v>434659.5935871442</v>
+        <v>474130.9676041915</v>
       </c>
       <c r="E6" t="n">
-        <v>369504.8721084595</v>
+        <v>413136.7340971605</v>
       </c>
       <c r="F6" t="n">
+        <v>388534.6051124334</v>
+      </c>
+      <c r="G6" t="n">
         <v>468763.2868875506</v>
       </c>
     </row>
@@ -5607,15 +5776,18 @@
         <v>449336</v>
       </c>
       <c r="C7" t="n">
-        <v>408845.4049488608</v>
+        <v>371866.4422217607</v>
       </c>
       <c r="D7" t="n">
-        <v>408715.25724496</v>
+        <v>408842.4915521462</v>
       </c>
       <c r="E7" t="n">
-        <v>405939.1159472466</v>
+        <v>384700.1390305019</v>
       </c>
       <c r="F7" t="n">
+        <v>368725.8951482773</v>
+      </c>
+      <c r="G7" t="n">
         <v>427227.5188353079</v>
       </c>
     </row>
@@ -5627,15 +5799,18 @@
         <v>388763</v>
       </c>
       <c r="C8" t="n">
-        <v>353844.0509543302</v>
+        <v>356161.4702213407</v>
       </c>
       <c r="D8" t="n">
-        <v>350591.6098624803</v>
+        <v>353827.2258612859</v>
       </c>
       <c r="E8" t="n">
-        <v>338894.989867568</v>
+        <v>356039.6549080261</v>
       </c>
       <c r="F8" t="n">
+        <v>353830.5601150393</v>
+      </c>
+      <c r="G8" t="n">
         <v>398843.6435050212</v>
       </c>
     </row>
@@ -5647,15 +5822,18 @@
         <v>464430</v>
       </c>
       <c r="C9" t="n">
-        <v>433403.0253548989</v>
+        <v>397136.913259387</v>
       </c>
       <c r="D9" t="n">
-        <v>414278.7300207983</v>
+        <v>433384.6561601199</v>
       </c>
       <c r="E9" t="n">
-        <v>378077.6566997766</v>
+        <v>400841.7334821311</v>
       </c>
       <c r="F9" t="n">
+        <v>363054.2774496078</v>
+      </c>
+      <c r="G9" t="n">
         <v>463981.1298362083</v>
       </c>
     </row>
@@ -5667,15 +5845,18 @@
         <v>392441</v>
       </c>
       <c r="C10" t="n">
-        <v>388867.2114069504</v>
+        <v>381028.4889349937</v>
       </c>
       <c r="D10" t="n">
-        <v>382027.9934067285</v>
+        <v>388856.2680611631</v>
       </c>
       <c r="E10" t="n">
-        <v>364631.2850651741</v>
+        <v>374813.8924399211</v>
       </c>
       <c r="F10" t="n">
+        <v>346406.643222928</v>
+      </c>
+      <c r="G10" t="n">
         <v>431775.09488576</v>
       </c>
     </row>
@@ -5687,15 +5868,18 @@
         <v>473082</v>
       </c>
       <c r="C11" t="n">
-        <v>448636.7004745384</v>
+        <v>362103.6963335276</v>
       </c>
       <c r="D11" t="n">
-        <v>426870.9788432377</v>
+        <v>448638.73776481</v>
       </c>
       <c r="E11" t="n">
-        <v>389857.3136005402</v>
+        <v>392315.5201977967</v>
       </c>
       <c r="F11" t="n">
+        <v>359354.7172043324</v>
+      </c>
+      <c r="G11" t="n">
         <v>453355.3752934641</v>
       </c>
     </row>
@@ -5707,15 +5891,18 @@
         <v>541016</v>
       </c>
       <c r="C12" t="n">
-        <v>517822.0750035333</v>
+        <v>349977.5184861422</v>
       </c>
       <c r="D12" t="n">
-        <v>471218.2117600528</v>
+        <v>517832.0421885421</v>
       </c>
       <c r="E12" t="n">
-        <v>395120.6309220791</v>
+        <v>327992.2692980419</v>
       </c>
       <c r="F12" t="n">
+        <v>77370.52830180526</v>
+      </c>
+      <c r="G12" t="n">
         <v>505263.1284690171</v>
       </c>
     </row>
@@ -5727,15 +5914,18 @@
         <v>559606</v>
       </c>
       <c r="C13" t="n">
-        <v>552874.5354405972</v>
+        <v>391897.6306751966</v>
       </c>
       <c r="D13" t="n">
-        <v>485434.4745267631</v>
+        <v>552886.6424637184</v>
       </c>
       <c r="E13" t="n">
-        <v>376714.8338965178</v>
+        <v>459244.6185376564</v>
       </c>
       <c r="F13" t="n">
+        <v>427921.6639313698</v>
+      </c>
+      <c r="G13" t="n">
         <v>524639.1196781083</v>
       </c>
     </row>
@@ -5747,15 +5937,18 @@
         <v>451152</v>
       </c>
       <c r="C14" t="n">
-        <v>450726.7466562079</v>
+        <v>265928.7190130949</v>
       </c>
       <c r="D14" t="n">
-        <v>441389.5634975574</v>
+        <v>450730.5193669277</v>
       </c>
       <c r="E14" t="n">
-        <v>422756.734282136</v>
+        <v>375050.9961893999</v>
       </c>
       <c r="F14" t="n">
+        <v>408015.3884086609</v>
+      </c>
+      <c r="G14" t="n">
         <v>472539.3794413942</v>
       </c>
     </row>
@@ -5767,15 +5960,18 @@
         <v>378001</v>
       </c>
       <c r="C15" t="n">
-        <v>357715.6281940724</v>
+        <v>387602.7875337601</v>
       </c>
       <c r="D15" t="n">
-        <v>383231.9322127549</v>
+        <v>357723.0234982009</v>
       </c>
       <c r="E15" t="n">
-        <v>423287.0218322277</v>
+        <v>369694.2126422228</v>
       </c>
       <c r="F15" t="n">
+        <v>361445.3524765968</v>
+      </c>
+      <c r="G15" t="n">
         <v>376154.2537129904</v>
       </c>
     </row>
@@ -5787,15 +5983,18 @@
         <v>398024</v>
       </c>
       <c r="C16" t="n">
-        <v>372932.3225724506</v>
+        <v>393374.3404129744</v>
       </c>
       <c r="D16" t="n">
-        <v>372083.3352455623</v>
+        <v>372959.0403296486</v>
       </c>
       <c r="E16" t="n">
-        <v>366054.4123301506</v>
+        <v>384376.1766571025</v>
       </c>
       <c r="F16" t="n">
+        <v>384186.7114541531</v>
+      </c>
+      <c r="G16" t="n">
         <v>406056.4463552554</v>
       </c>
     </row>
@@ -5807,15 +6006,18 @@
         <v>403968</v>
       </c>
       <c r="C17" t="n">
-        <v>384607.5746850896</v>
+        <v>365909.6719501019</v>
       </c>
       <c r="D17" t="n">
-        <v>380955.9001953515</v>
+        <v>384636.8321431476</v>
       </c>
       <c r="E17" t="n">
-        <v>369438.1841752529</v>
+        <v>366028.8494604453</v>
       </c>
       <c r="F17" t="n">
+        <v>339882.0220566392</v>
+      </c>
+      <c r="G17" t="n">
         <v>423531.1146833431</v>
       </c>
     </row>
@@ -5827,15 +6029,18 @@
         <v>503379</v>
       </c>
       <c r="C18" t="n">
-        <v>470280.1644497839</v>
+        <v>393275.4933241606</v>
       </c>
       <c r="D18" t="n">
-        <v>420267.8472664389</v>
+        <v>470305.0042697655</v>
       </c>
       <c r="E18" t="n">
-        <v>335016.6440609694</v>
+        <v>402361.5942900921</v>
       </c>
       <c r="F18" t="n">
+        <v>330423.1680989861</v>
+      </c>
+      <c r="G18" t="n">
         <v>482579.6814113411</v>
       </c>
     </row>
@@ -5847,15 +6052,18 @@
         <v>426440</v>
       </c>
       <c r="C19" t="n">
-        <v>405290.18621852</v>
+        <v>355372.1080300808</v>
       </c>
       <c r="D19" t="n">
-        <v>353617.8643466541</v>
+        <v>405295.9819160004</v>
       </c>
       <c r="E19" t="n">
-        <v>260728.6560908556</v>
+        <v>388970.0629443061</v>
       </c>
       <c r="F19" t="n">
+        <v>403205.9504178762</v>
+      </c>
+      <c r="G19" t="n">
         <v>452541.3152518788</v>
       </c>
     </row>
@@ -5867,15 +6075,18 @@
         <v>357556</v>
       </c>
       <c r="C20" t="n">
-        <v>353424.2108102121</v>
+        <v>405741.2525109053</v>
       </c>
       <c r="D20" t="n">
-        <v>376090.6523858106</v>
+        <v>353416.755226565</v>
       </c>
       <c r="E20" t="n">
-        <v>405180.6918308735</v>
+        <v>379022.6973490227</v>
       </c>
       <c r="F20" t="n">
+        <v>372245.920257926</v>
+      </c>
+      <c r="G20" t="n">
         <v>416437.7520822426</v>
       </c>
     </row>
@@ -5887,15 +6098,18 @@
         <v>442013</v>
       </c>
       <c r="C21" t="n">
-        <v>436222.1437917445</v>
+        <v>398931.6359404325</v>
       </c>
       <c r="D21" t="n">
-        <v>422428.3206085</v>
+        <v>436209.4501091006</v>
       </c>
       <c r="E21" t="n">
-        <v>392826.304877758</v>
+        <v>426770.0048535178</v>
       </c>
       <c r="F21" t="n">
+        <v>442608.2183412313</v>
+      </c>
+      <c r="G21" t="n">
         <v>483358.0769550246</v>
       </c>
     </row>
@@ -5907,15 +6121,18 @@
         <v>414088</v>
       </c>
       <c r="C22" t="n">
-        <v>392421.4962368557</v>
+        <v>415698.2348630428</v>
       </c>
       <c r="D22" t="n">
-        <v>380426.8032524796</v>
+        <v>392409.7932336996</v>
       </c>
       <c r="E22" t="n">
-        <v>352391.0752043724</v>
+        <v>389712.2218760173</v>
       </c>
       <c r="F22" t="n">
+        <v>350568.7149933577</v>
+      </c>
+      <c r="G22" t="n">
         <v>449894.7318481408</v>
       </c>
     </row>
@@ -5927,15 +6144,18 @@
         <v>458758</v>
       </c>
       <c r="C23" t="n">
-        <v>452797.5255259827</v>
+        <v>387502.828173399</v>
       </c>
       <c r="D23" t="n">
-        <v>436989.7185776078</v>
+        <v>452796.2373627304</v>
       </c>
       <c r="E23" t="n">
-        <v>407359.7526911497</v>
+        <v>407250.6949056244</v>
       </c>
       <c r="F23" t="n">
+        <v>373182.1869227886</v>
+      </c>
+      <c r="G23" t="n">
         <v>475966.4483047994</v>
       </c>
     </row>
@@ -5947,16 +6167,19 @@
         <v>537494</v>
       </c>
       <c r="C24" t="n">
-        <v>522581.954108257</v>
+        <v>419893.5055211782</v>
       </c>
       <c r="D24" t="n">
-        <v>482172.8073825132</v>
+        <v>522591.7242005236</v>
       </c>
       <c r="E24" t="n">
-        <v>414062.0350573063</v>
+        <v>445996.8815344822</v>
       </c>
       <c r="F24" t="n">
-        <v>526982.1224159392</v>
+        <v>384141.108320713</v>
+      </c>
+      <c r="G24" t="n">
+        <v>526982.1224159393</v>
       </c>
     </row>
     <row r="25">
@@ -5967,15 +6190,18 @@
         <v>558294</v>
       </c>
       <c r="C25" t="n">
-        <v>558001.9886874615</v>
+        <v>388666.3609311581</v>
       </c>
       <c r="D25" t="n">
-        <v>488963.3727869433</v>
+        <v>558020.3948604177</v>
       </c>
       <c r="E25" t="n">
-        <v>375209.6886948347</v>
+        <v>452010.7849032689</v>
       </c>
       <c r="F25" t="n">
+        <v>399540.3386346102</v>
+      </c>
+      <c r="G25" t="n">
         <v>546748.6395281788</v>
       </c>
     </row>
@@ -5987,15 +6213,18 @@
         <v>376395</v>
       </c>
       <c r="C26" t="n">
-        <v>451536.1373969507</v>
+        <v>397586.1984250546</v>
       </c>
       <c r="D26" t="n">
-        <v>442135.0471921795</v>
+        <v>451546.6773895613</v>
       </c>
       <c r="E26" t="n">
-        <v>421208.5731873512</v>
+        <v>425662.6597923013</v>
       </c>
       <c r="F26" t="n">
+        <v>423151.3730630875</v>
+      </c>
+      <c r="G26" t="n">
         <v>489059.5018820384</v>
       </c>
     </row>
@@ -6007,15 +6236,18 @@
         <v>344907</v>
       </c>
       <c r="C27" t="n">
-        <v>357860.1418151034</v>
+        <v>375540.8796379566</v>
       </c>
       <c r="D27" t="n">
-        <v>378942.8985988774</v>
+        <v>357876.7071951425</v>
       </c>
       <c r="E27" t="n">
-        <v>408407.4157694578</v>
+        <v>348118.8247366403</v>
       </c>
       <c r="F27" t="n">
+        <v>300587.0157981515</v>
+      </c>
+      <c r="G27" t="n">
         <v>399179.2058357761</v>
       </c>
     </row>
@@ -6027,15 +6259,18 @@
         <v>390963</v>
       </c>
       <c r="C28" t="n">
-        <v>373653.5109094762</v>
+        <v>382067.9792354107</v>
       </c>
       <c r="D28" t="n">
-        <v>381120.2676439087</v>
+        <v>373689.4649508736</v>
       </c>
       <c r="E28" t="n">
-        <v>386459.1547647715</v>
+        <v>378023.731435668</v>
       </c>
       <c r="F28" t="n">
+        <v>373185.1368603706</v>
+      </c>
+      <c r="G28" t="n">
         <v>424899.8588521626</v>
       </c>
     </row>
@@ -6047,15 +6282,18 @@
         <v>398818</v>
       </c>
       <c r="C29" t="n">
-        <v>386392.971534946</v>
+        <v>409725.8202502728</v>
       </c>
       <c r="D29" t="n">
-        <v>394260.4722181543</v>
+        <v>386427.3034008006</v>
       </c>
       <c r="E29" t="n">
-        <v>399349.8500422239</v>
+        <v>400732.9801564231</v>
       </c>
       <c r="F29" t="n">
+        <v>401411.9531313181</v>
+      </c>
+      <c r="G29" t="n">
         <v>444240.7294928526</v>
       </c>
     </row>
@@ -6067,15 +6305,18 @@
         <v>483044</v>
       </c>
       <c r="C30" t="n">
-        <v>472667.0816990059</v>
+        <v>374741.422373414</v>
       </c>
       <c r="D30" t="n">
-        <v>451612.1975692923</v>
+        <v>472691.0884126544</v>
       </c>
       <c r="E30" t="n">
-        <v>411877.2919402122</v>
+        <v>413285.9101440695</v>
       </c>
       <c r="F30" t="n">
+        <v>383300.5453685522</v>
+      </c>
+      <c r="G30" t="n">
         <v>505465.2829977713</v>
       </c>
     </row>
@@ -6087,15 +6328,18 @@
         <v>419855</v>
       </c>
       <c r="C31" t="n">
-        <v>407427.5660413297</v>
+        <v>362805.6122193336</v>
       </c>
       <c r="D31" t="n">
-        <v>386422.8686785816</v>
+        <v>407428.0797831447</v>
       </c>
       <c r="E31" t="n">
-        <v>342407.3137057424</v>
+        <v>385594.6588039951</v>
       </c>
       <c r="F31" t="n">
+        <v>379046.2034193277</v>
+      </c>
+      <c r="G31" t="n">
         <v>471580.3279644437</v>
       </c>
     </row>
@@ -6107,16 +6351,19 @@
         <v>369121</v>
       </c>
       <c r="C32" t="n">
-        <v>354603.6608196225</v>
+        <v>354374.3762723207</v>
       </c>
       <c r="D32" t="n">
-        <v>363550.9914026635</v>
+        <v>354590.1176875778</v>
       </c>
       <c r="E32" t="n">
-        <v>366886.0287503004</v>
+        <v>351336.8013668092</v>
       </c>
       <c r="F32" t="n">
-        <v>438012.6146948365</v>
+        <v>335228.2899925709</v>
+      </c>
+      <c r="G32" t="n">
+        <v>438012.6146948366</v>
       </c>
     </row>
     <row r="33">
@@ -6127,15 +6374,18 @@
         <v>466849</v>
       </c>
       <c r="C33" t="n">
-        <v>436229.2164824298</v>
+        <v>410537.5366816521</v>
       </c>
       <c r="D33" t="n">
-        <v>423629.2188422482</v>
+        <v>436213.1684197127</v>
       </c>
       <c r="E33" t="n">
-        <v>393331.4454189539</v>
+        <v>418719.0526866397</v>
       </c>
       <c r="F33" t="n">
+        <v>400295.3292170763</v>
+      </c>
+      <c r="G33" t="n">
         <v>502689.4012925135</v>
       </c>
     </row>
@@ -6147,15 +6397,18 @@
         <v>415682</v>
       </c>
       <c r="C34" t="n">
-        <v>391572.2352561004</v>
+        <v>325898.4474444985</v>
       </c>
       <c r="D34" t="n">
-        <v>405652.6178222214</v>
+        <v>391561.427301854</v>
       </c>
       <c r="E34" t="n">
-        <v>418522.8242776394</v>
+        <v>359793.9569873804</v>
       </c>
       <c r="F34" t="n">
+        <v>352875.4331935048</v>
+      </c>
+      <c r="G34" t="n">
         <v>468076.8583801065</v>
       </c>
     </row>
@@ -6167,15 +6420,18 @@
         <v>455766</v>
       </c>
       <c r="C35" t="n">
-        <v>451711.2979979586</v>
+        <v>371274.7862980366</v>
       </c>
       <c r="D35" t="n">
-        <v>445449.3960902991</v>
+        <v>451714.0944956696</v>
       </c>
       <c r="E35" t="n">
-        <v>428457.4161199331</v>
+        <v>401757.5053013342</v>
       </c>
       <c r="F35" t="n">
+        <v>372292.7082023621</v>
+      </c>
+      <c r="G35" t="n">
         <v>498639.3932488187</v>
       </c>
     </row>
@@ -6187,15 +6443,18 @@
         <v>542537</v>
       </c>
       <c r="C36" t="n">
-        <v>521849.056582364</v>
+        <v>356288.4142566323</v>
       </c>
       <c r="D36" t="n">
-        <v>482231.7368273518</v>
+        <v>521863.3957696371</v>
       </c>
       <c r="E36" t="n">
-        <v>412321.4026252031</v>
+        <v>439140.6012416431</v>
       </c>
       <c r="F36" t="n">
+        <v>432937.4041143656</v>
+      </c>
+      <c r="G36" t="n">
         <v>548679.2576206472</v>
       </c>
     </row>
@@ -6207,15 +6466,18 @@
         <v>552404</v>
       </c>
       <c r="C37" t="n">
-        <v>557922.8660883973</v>
+        <v>432103.8533089161</v>
       </c>
       <c r="D37" t="n">
-        <v>478176.4387993734</v>
+        <v>557943.6733851117</v>
       </c>
       <c r="E37" t="n">
-        <v>343461.7350426912</v>
+        <v>477495.5027827855</v>
       </c>
       <c r="F37" t="n">
+        <v>432566.8726102114</v>
+      </c>
+      <c r="G37" t="n">
         <v>568760.4043147223</v>
       </c>
     </row>
@@ -6227,16 +6489,19 @@
         <v>445793</v>
       </c>
       <c r="C38" t="n">
-        <v>452041.4967882864</v>
+        <v>446129.2348233461</v>
       </c>
       <c r="D38" t="n">
-        <v>436115.0648532526</v>
+        <v>452051.1115802818</v>
       </c>
       <c r="E38" t="n">
-        <v>402061.0119388103</v>
+        <v>438268.5310135167</v>
       </c>
       <c r="F38" t="n">
-        <v>505569.6999794936</v>
+        <v>407167.7891299725</v>
+      </c>
+      <c r="G38" t="n">
+        <v>505569.6999794937</v>
       </c>
     </row>
     <row r="39">
@@ -6247,15 +6512,18 @@
         <v>369424</v>
       </c>
       <c r="C39" t="n">
-        <v>358616.0718913526</v>
+        <v>399077.5127718449</v>
       </c>
       <c r="D39" t="n">
-        <v>341986.1745984087</v>
+        <v>358629.1672833778</v>
       </c>
       <c r="E39" t="n">
-        <v>305348.7953711152</v>
+        <v>386097.6752898635</v>
       </c>
       <c r="F39" t="n">
+        <v>397292.9697934389</v>
+      </c>
+      <c r="G39" t="n">
         <v>422261.3882097219</v>
       </c>
     </row>
@@ -6267,15 +6535,18 @@
         <v>408507</v>
       </c>
       <c r="C40" t="n">
-        <v>374268.601300222</v>
+        <v>417387.9446021318</v>
       </c>
       <c r="D40" t="n">
-        <v>390443.7903233374</v>
+        <v>374300.6102180384</v>
       </c>
       <c r="E40" t="n">
-        <v>407791.1689726114</v>
+        <v>400601.731092494</v>
       </c>
       <c r="F40" t="n">
+        <v>405414.1479567289</v>
+      </c>
+      <c r="G40" t="n">
         <v>443746.7561558419</v>
       </c>
     </row>
@@ -6287,15 +6558,18 @@
         <v>431053</v>
       </c>
       <c r="C41" t="n">
-        <v>386612.4113708346</v>
+        <v>436441.9299618006</v>
       </c>
       <c r="D41" t="n">
-        <v>402346.1735122015</v>
+        <v>386644.4256610567</v>
       </c>
       <c r="E41" t="n">
-        <v>417715.2425948381</v>
+        <v>414999.4209291202</v>
       </c>
       <c r="F41" t="n">
+        <v>415971.8536636829</v>
+      </c>
+      <c r="G41" t="n">
         <v>465005.6817478752</v>
       </c>
     </row>
@@ -6307,15 +6581,18 @@
         <v>513430</v>
       </c>
       <c r="C42" t="n">
-        <v>472466.2606356317</v>
+        <v>429287.4366722107</v>
       </c>
       <c r="D42" t="n">
-        <v>467294.6873724791</v>
+        <v>472490.5982187153</v>
       </c>
       <c r="E42" t="n">
-        <v>450883.0350569487</v>
+        <v>435021.3436083698</v>
       </c>
       <c r="F42" t="n">
+        <v>391049.1125634909</v>
+      </c>
+      <c r="G42" t="n">
         <v>528309.2075092979</v>
       </c>
     </row>
@@ -6327,15 +6604,18 @@
         <v>440389</v>
       </c>
       <c r="C43" t="n">
-        <v>406980.7671545794</v>
+        <v>398856.8961284161</v>
       </c>
       <c r="D43" t="n">
-        <v>387417.4578221507</v>
+        <v>406983.7918984177</v>
       </c>
       <c r="E43" t="n">
-        <v>343101.1898026466</v>
+        <v>402294.0221718501</v>
       </c>
       <c r="F43" t="n">
+        <v>391903.3854714632</v>
+      </c>
+      <c r="G43" t="n">
         <v>490590.5174197833</v>
       </c>
     </row>
@@ -6347,15 +6627,18 @@
         <v>379682</v>
       </c>
       <c r="C44" t="n">
-        <v>354166.0119822463</v>
+        <v>387735.1478478909</v>
       </c>
       <c r="D44" t="n">
-        <v>377930.6449177415</v>
+        <v>354155.6223734029</v>
       </c>
       <c r="E44" t="n">
-        <v>402950.7082775831</v>
+        <v>368491.2003506499</v>
       </c>
       <c r="F44" t="n">
+        <v>352424.1048333645</v>
+      </c>
+      <c r="G44" t="n">
         <v>459596.6856832807</v>
       </c>
     </row>
@@ -6367,15 +6650,18 @@
         <v>479188</v>
       </c>
       <c r="C45" t="n">
-        <v>436003.1543473253</v>
+        <v>359273.5092914701</v>
       </c>
       <c r="D45" t="n">
-        <v>430468.3444718882</v>
+        <v>435989.2164496377</v>
       </c>
       <c r="E45" t="n">
-        <v>409255.8129820824</v>
+        <v>394569.073595012</v>
       </c>
       <c r="F45" t="n">
+        <v>376747.3557493687</v>
+      </c>
+      <c r="G45" t="n">
         <v>521976.9287469126</v>
       </c>
     </row>
@@ -6387,15 +6673,18 @@
         <v>435196</v>
       </c>
       <c r="C46" t="n">
-        <v>391623.4989193973</v>
+        <v>401767.5415090322</v>
       </c>
       <c r="D46" t="n">
-        <v>425296.1181387817</v>
+        <v>391612.8048969175</v>
       </c>
       <c r="E46" t="n">
-        <v>468359.7951827049</v>
+        <v>391369.2787421889</v>
       </c>
       <c r="F46" t="n">
+        <v>369201.0043576956</v>
+      </c>
+      <c r="G46" t="n">
         <v>486324.1202335281</v>
       </c>
     </row>
@@ -6407,16 +6696,19 @@
         <v>486277</v>
       </c>
       <c r="C47" t="n">
-        <v>451964.2010382975</v>
+        <v>404544.0130892992</v>
       </c>
       <c r="D47" t="n">
-        <v>435039.3749010244</v>
+        <v>451965.2898310425</v>
       </c>
       <c r="E47" t="n">
-        <v>397107.3171643019</v>
+        <v>419153.5668708899</v>
       </c>
       <c r="F47" t="n">
-        <v>521371.3823265028</v>
+        <v>389535.238448143</v>
+      </c>
+      <c r="G47" t="n">
+        <v>521371.3823265029</v>
       </c>
     </row>
     <row r="48">
@@ -6427,15 +6719,18 @@
         <v>555663</v>
       </c>
       <c r="C48" t="n">
-        <v>522148.3358096154</v>
+        <v>412957.0174548626</v>
       </c>
       <c r="D48" t="n">
-        <v>479390.4971518795</v>
+        <v>522160.2181263911</v>
       </c>
       <c r="E48" t="n">
-        <v>401259.2334119081</v>
+        <v>416550.5851420186</v>
       </c>
       <c r="F48" t="n">
+        <v>289566.1457110047</v>
+      </c>
+      <c r="G48" t="n">
         <v>570351.7261879757</v>
       </c>
     </row>
@@ -6447,16 +6742,19 @@
         <v>550212</v>
       </c>
       <c r="C49" t="n">
-        <v>558120.8495424639</v>
+        <v>493133.7336937189</v>
       </c>
       <c r="D49" t="n">
-        <v>509035.7146401579</v>
+        <v>558139.7667513604</v>
       </c>
       <c r="E49" t="n">
-        <v>422514.0172866583</v>
+        <v>474706.5399196576</v>
       </c>
       <c r="F49" t="n">
-        <v>590673.8237659035</v>
+        <v>350490.2031300068</v>
+      </c>
+      <c r="G49" t="n">
+        <v>590673.8237659036</v>
       </c>
     </row>
     <row r="50">
@@ -6467,15 +6765,18 @@
         <v>479833</v>
       </c>
       <c r="C50" t="n">
-        <v>452065.3265494981</v>
+        <v>476306.0323754549</v>
       </c>
       <c r="D50" t="n">
-        <v>441614.3148882901</v>
+        <v>452074.4857549077</v>
       </c>
       <c r="E50" t="n">
-        <v>414412.1104369164</v>
+        <v>435405.0743065153</v>
       </c>
       <c r="F50" t="n">
+        <v>361106.0854748487</v>
+      </c>
+      <c r="G50" t="n">
         <v>522074.6783233112</v>
       </c>
     </row>
@@ -6487,15 +6788,18 @@
         <v>374481</v>
       </c>
       <c r="C51" t="n">
-        <v>358487.500825932</v>
+        <v>350937.9045177102</v>
       </c>
       <c r="D51" t="n">
-        <v>365418.3077831464</v>
+        <v>358501.6188752083</v>
       </c>
       <c r="E51" t="n">
-        <v>364897.311403513</v>
+        <v>316230.5143918865</v>
       </c>
       <c r="F51" t="n">
+        <v>216728.263635844</v>
+      </c>
+      <c r="G51" t="n">
         <v>445400.0386780257</v>
       </c>
     </row>
@@ -6507,15 +6811,18 @@
         <v>434298</v>
       </c>
       <c r="C52" t="n">
-        <v>374076.0917165835</v>
+        <v>392074.2884126902</v>
       </c>
       <c r="D52" t="n">
-        <v>394309.946783982</v>
+        <v>374109.9072724041</v>
       </c>
       <c r="E52" t="n">
-        <v>415785.9350565672</v>
+        <v>395613.8434337366</v>
       </c>
       <c r="F52" t="n">
+        <v>416100.707904458</v>
+      </c>
+      <c r="G52" t="n">
         <v>462598.1778129459</v>
       </c>
     </row>
@@ -6527,15 +6834,18 @@
         <v>457767</v>
       </c>
       <c r="C53" t="n">
-        <v>386457.4794458256</v>
+        <v>446068.0840680599</v>
       </c>
       <c r="D53" t="n">
-        <v>399009.3511287544</v>
+        <v>386491.0940162221</v>
       </c>
       <c r="E53" t="n">
-        <v>406143.9189908504</v>
+        <v>407023.0008493712</v>
       </c>
       <c r="F53" t="n">
+        <v>376202.1976122856</v>
+      </c>
+      <c r="G53" t="n">
         <v>485824.9798895555</v>
       </c>
     </row>
@@ -6547,15 +6857,18 @@
         <v>542765</v>
       </c>
       <c r="C54" t="n">
-        <v>472413.8487118969</v>
+        <v>371146.9234297276</v>
       </c>
       <c r="D54" t="n">
-        <v>462813.4196550948</v>
+        <v>472438.8228993702</v>
       </c>
       <c r="E54" t="n">
-        <v>435822.9750255346</v>
+        <v>430567.3141093561</v>
       </c>
       <c r="F54" t="n">
+        <v>440738.6833087206</v>
+      </c>
+      <c r="G54" t="n">
         <v>551108.9025233381</v>
       </c>
     </row>
@@ -6567,15 +6880,18 @@
         <v>458189</v>
       </c>
       <c r="C55" t="n">
-        <v>407035.9494534837</v>
+        <v>392736.6219393015</v>
       </c>
       <c r="D55" t="n">
-        <v>408599.8973314078</v>
+        <v>407038.4645004032</v>
       </c>
       <c r="E55" t="n">
-        <v>396939.3399808407</v>
+        <v>373120.5625995756</v>
       </c>
       <c r="F55" t="n">
+        <v>299323.6808488369</v>
+      </c>
+      <c r="G55" t="n">
         <v>509573.134471083</v>
       </c>
     </row>
@@ -6587,15 +6903,18 @@
         <v>395074</v>
       </c>
       <c r="C56" t="n">
-        <v>354282.9041416887</v>
+        <v>405189.880161047</v>
       </c>
       <c r="D56" t="n">
-        <v>386128.5416924251</v>
+        <v>354271.2618695559</v>
       </c>
       <c r="E56" t="n">
-        <v>421657.5198355913</v>
+        <v>393028.1510460452</v>
       </c>
       <c r="F56" t="n">
+        <v>412019.5901588202</v>
+      </c>
+      <c r="G56" t="n">
         <v>481189.2591407957</v>
       </c>
     </row>
@@ -6607,15 +6926,18 @@
         <v>222108</v>
       </c>
       <c r="C57" t="n">
-        <v>436115.8268110618</v>
+        <v>359493.062022984</v>
       </c>
       <c r="D57" t="n">
-        <v>440346.2295535959</v>
+        <v>436100.604145974</v>
       </c>
       <c r="E57" t="n">
-        <v>432071.4765349627</v>
+        <v>423052.5337069515</v>
       </c>
       <c r="F57" t="n">
+        <v>469095.7804296017</v>
+      </c>
+      <c r="G57" t="n">
         <v>546326.7454719767</v>
       </c>
     </row>
@@ -6627,15 +6949,18 @@
         <v>12647</v>
       </c>
       <c r="C58" t="n">
-        <v>391680.3879996235</v>
+        <v>406276.7387214899</v>
       </c>
       <c r="D58" t="n">
-        <v>449233.1982525792</v>
+        <v>391669.0051956544</v>
       </c>
       <c r="E58" t="n">
-        <v>528324.36122334</v>
+        <v>409902.3729046694</v>
       </c>
       <c r="F58" t="n">
+        <v>423030.2321836948</v>
+      </c>
+      <c r="G58" t="n">
         <v>514120.7105215341</v>
       </c>
     </row>
@@ -6647,15 +6972,18 @@
         <v>15108</v>
       </c>
       <c r="C59" t="n">
-        <v>451949.3683868933</v>
+        <v>446174.9830356836</v>
       </c>
       <c r="D59" t="n">
-        <v>450439.9298317853</v>
+        <v>451950.6149567931</v>
       </c>
       <c r="E59" t="n">
-        <v>436260.5813399553</v>
+        <v>437721.91930274</v>
       </c>
       <c r="F59" t="n">
+        <v>402243.6420909166</v>
+      </c>
+      <c r="G59" t="n">
         <v>535700.9909292457</v>
       </c>
     </row>
@@ -6667,15 +6995,18 @@
         <v>30337</v>
       </c>
       <c r="C60" t="n">
-        <v>522082.1716682678</v>
+        <v>332130.9643406272</v>
       </c>
       <c r="D60" t="n">
-        <v>503099.7467056423</v>
+        <v>522094.8628259554</v>
       </c>
       <c r="E60" t="n">
-        <v>462270.9063950777</v>
+        <v>429913.3032439309</v>
       </c>
       <c r="F60" t="n">
+        <v>425552.8398731947</v>
+      </c>
+      <c r="G60" t="n">
         <v>587608.7441048066</v>
       </c>
     </row>
@@ -6687,15 +7018,18 @@
         <v>57641</v>
       </c>
       <c r="C61" t="n">
-        <v>558043.7612040136</v>
+        <v>471593.0960313082</v>
       </c>
       <c r="D61" t="n">
-        <v>513210.3052330142</v>
+        <v>558063.655329029</v>
       </c>
       <c r="E61" t="n">
-        <v>431509.3199870586</v>
+        <v>510041.1130554014</v>
       </c>
       <c r="F61" t="n">
+        <v>491843.9822951555</v>
+      </c>
+      <c r="G61" t="n">
         <v>606984.7353138692</v>
       </c>
     </row>
@@ -6707,15 +7041,18 @@
         <v>67932</v>
       </c>
       <c r="C62" t="n">
-        <v>452015.1940095781</v>
+        <v>421767.4412802458</v>
       </c>
       <c r="D62" t="n">
-        <v>434662.5682848727</v>
+        <v>452025.0032138075</v>
       </c>
       <c r="E62" t="n">
-        <v>391358.0097160339</v>
+        <v>437177.5712395767</v>
       </c>
       <c r="F62" t="n">
+        <v>426426.3357350826</v>
+      </c>
+      <c r="G62" t="n">
         <v>554884.9950771797</v>
       </c>
     </row>
@@ -6727,15 +7064,18 @@
         <v>83870</v>
       </c>
       <c r="C63" t="n">
-        <v>358482.5491476187</v>
+        <v>446917.6660916805</v>
       </c>
       <c r="D63" t="n">
-        <v>387079.2980900384</v>
+        <v>358496.7246013153</v>
       </c>
       <c r="E63" t="n">
-        <v>420924.3152675629</v>
+        <v>389105.7290133775</v>
       </c>
       <c r="F63" t="n">
+        <v>348645.5007687807</v>
+      </c>
+      <c r="G63" t="n">
         <v>458499.8693487801</v>
       </c>
     </row>
@@ -6747,15 +7087,18 @@
         <v>114801</v>
       </c>
       <c r="C64" t="n">
-        <v>374110.120253586</v>
+        <v>457721.8850252628</v>
       </c>
       <c r="D64" t="n">
-        <v>403086.7315286907</v>
+        <v>374143.4592147531</v>
       </c>
       <c r="E64" t="n">
-        <v>435579.2666575909</v>
+        <v>436372.0428311482</v>
       </c>
       <c r="F64" t="n">
+        <v>474133.8627628088</v>
+      </c>
+      <c r="G64" t="n">
         <v>488402.0619910226</v>
       </c>
     </row>
@@ -6767,15 +7110,18 @@
         <v>137031</v>
       </c>
       <c r="C65" t="n">
-        <v>386507.3397150005</v>
+        <v>399953.3298960924</v>
       </c>
       <c r="D65" t="n">
-        <v>414817.7881112923</v>
+        <v>386540.2507054842</v>
       </c>
       <c r="E65" t="n">
-        <v>445490.8151350021</v>
+        <v>417354.9920519429</v>
       </c>
       <c r="F65" t="n">
+        <v>461684.013895154</v>
+      </c>
+      <c r="G65" t="n">
         <v>505876.730319127</v>
       </c>
     </row>
@@ -6787,15 +7133,18 @@
         <v>213203</v>
       </c>
       <c r="C66" t="n">
-        <v>472453.3909673161</v>
+        <v>389068.5679945946</v>
       </c>
       <c r="D66" t="n">
-        <v>464704.0254203666</v>
+        <v>472477.8054158176</v>
       </c>
       <c r="E66" t="n">
-        <v>438887.839274168</v>
+        <v>452002.2730953876</v>
       </c>
       <c r="F66" t="n">
+        <v>490318.5018680096</v>
+      </c>
+      <c r="G66" t="n">
         <v>564925.2970471132</v>
       </c>
     </row>
@@ -6807,15 +7156,18 @@
         <v>121733</v>
       </c>
       <c r="C67" t="n">
-        <v>407048.7395718622</v>
+        <v>383474.4707868099</v>
       </c>
       <c r="D67" t="n">
-        <v>443509.063503126</v>
+        <v>407051.0854495196</v>
       </c>
       <c r="E67" t="n">
-        <v>486616.572000742</v>
+        <v>411324.8117936415</v>
       </c>
       <c r="F67" t="n">
+        <v>435105.3664389849</v>
+      </c>
+      <c r="G67" t="n">
         <v>534886.9308876521</v>
       </c>
     </row>
@@ -6827,15 +7179,18 @@
         <v>89788</v>
       </c>
       <c r="C68" t="n">
-        <v>354268.0325273531</v>
+        <v>437067.6552466154</v>
       </c>
       <c r="D68" t="n">
-        <v>379853.62431958</v>
+        <v>354256.6342624812</v>
       </c>
       <c r="E68" t="n">
-        <v>402474.8736736774</v>
+        <v>400844.0103547921</v>
       </c>
       <c r="F68" t="n">
+        <v>399647.2859618664</v>
+      </c>
+      <c r="G68" t="n">
         <v>498783.367718015</v>
       </c>
     </row>
@@ -6847,15 +7202,18 @@
         <v>177155</v>
       </c>
       <c r="C69" t="n">
-        <v>436085.409766098</v>
+        <v>394148.2154319286</v>
       </c>
       <c r="D69" t="n">
-        <v>452981.8989795147</v>
+        <v>436070.6655959893</v>
       </c>
       <c r="E69" t="n">
-        <v>463162.7547374964</v>
+        <v>424033.9477041761</v>
       </c>
       <c r="F69" t="n">
+        <v>430497.4672166109</v>
+      </c>
+      <c r="G69" t="n">
         <v>565703.6925908024</v>
       </c>
     </row>
@@ -6867,15 +7225,18 @@
         <v>226409</v>
       </c>
       <c r="C70" t="n">
-        <v>391651.4859789911</v>
+        <v>406938.9271692038</v>
       </c>
       <c r="D70" t="n">
-        <v>400352.4678940314</v>
+        <v>391640.5522558682</v>
       </c>
       <c r="E70" t="n">
-        <v>395316.7050520182</v>
+        <v>405696.81125546</v>
       </c>
       <c r="F70" t="n">
+        <v>406336.6321263313</v>
+      </c>
+      <c r="G70" t="n">
         <v>532240.3474839255</v>
       </c>
     </row>
@@ -6887,15 +7248,18 @@
         <v>299382</v>
       </c>
       <c r="C71" t="n">
-        <v>451935.1274305064</v>
+        <v>427833.2625231743</v>
       </c>
       <c r="D71" t="n">
-        <v>458284.0203474165</v>
+        <v>451936.5838871634</v>
       </c>
       <c r="E71" t="n">
-        <v>454081.6136894226</v>
+        <v>433599.8642640144</v>
       </c>
       <c r="F71" t="n">
+        <v>407216.100402832</v>
+      </c>
+      <c r="G71" t="n">
         <v>558312.0639405902</v>
       </c>
     </row>
@@ -6907,15 +7271,18 @@
         <v>371306</v>
       </c>
       <c r="C72" t="n">
-        <v>522086.4508743783</v>
+        <v>417016.3250062466</v>
       </c>
       <c r="D72" t="n">
-        <v>483537.6378465644</v>
+        <v>522099.0491830423</v>
       </c>
       <c r="E72" t="n">
-        <v>407003.027862072</v>
+        <v>455272.2042431549</v>
       </c>
       <c r="F72" t="n">
+        <v>410396.9552299976</v>
+      </c>
+      <c r="G72" t="n">
         <v>609327.7380517054</v>
       </c>
     </row>
@@ -6927,15 +7294,18 @@
         <v>385452</v>
       </c>
       <c r="C73" t="n">
-        <v>558061.0869353145</v>
+        <v>468655.8770326376</v>
       </c>
       <c r="D73" t="n">
-        <v>532678.4766810415</v>
+        <v>558080.6761281084</v>
       </c>
       <c r="E73" t="n">
-        <v>480392.4455008507</v>
+        <v>496181.4017564057</v>
       </c>
       <c r="F73" t="n">
+        <v>446535.3348371983</v>
+      </c>
+      <c r="G73" t="n">
         <v>629094.2551639751</v>
       </c>
     </row>
@@ -6947,15 +7317,18 @@
         <v>305847</v>
       </c>
       <c r="C74" t="n">
-        <v>452035.0597524696</v>
+        <v>452111.2246433496</v>
       </c>
       <c r="D74" t="n">
-        <v>422776.9979843684</v>
+        <v>452044.5297478006</v>
       </c>
       <c r="E74" t="n">
-        <v>357289.1443116069</v>
+        <v>464210.4507884619</v>
       </c>
       <c r="F74" t="n">
+        <v>480170.958384037</v>
+      </c>
+      <c r="G74" t="n">
         <v>571405.1175177998</v>
       </c>
     </row>
@@ -6967,15 +7340,18 @@
         <v>252301</v>
       </c>
       <c r="C75" t="n">
-        <v>358495.2450820481</v>
+        <v>338218.0638218522</v>
       </c>
       <c r="D75" t="n">
-        <v>376520.4018846015</v>
+        <v>358509.2136830766</v>
       </c>
       <c r="E75" t="n">
-        <v>389503.6837879419</v>
+        <v>376560.9842407824</v>
       </c>
       <c r="F75" t="n">
+        <v>429370.6394199133</v>
+      </c>
+      <c r="G75" t="n">
         <v>481524.8214715531</v>
       </c>
     </row>
@@ -6990,7 +7366,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F75"/>
+  <dimension ref="A1:G75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7011,20 +7387,25 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>lstm</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>arima</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>weighted_ensemble</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>lstm</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>lstm_reg</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>prophet</t>
         </is>
@@ -7038,15 +7419,18 @@
         <v>467457</v>
       </c>
       <c r="C2" t="n">
-        <v>451285.4040904046</v>
+        <v>373760.689026475</v>
       </c>
       <c r="D2" t="n">
-        <v>426202.1529501132</v>
+        <v>451281.4787121088</v>
       </c>
       <c r="E2" t="n">
-        <v>385912.4249396324</v>
+        <v>394370.3999504459</v>
       </c>
       <c r="F2" t="n">
+        <v>351358.5728708506</v>
+      </c>
+      <c r="G2" t="n">
         <v>439729.0626875589</v>
       </c>
     </row>
@@ -7058,15 +7442,18 @@
         <v>360593</v>
       </c>
       <c r="C3" t="n">
-        <v>358743.2067200664</v>
+        <v>340508.8475230932</v>
       </c>
       <c r="D3" t="n">
-        <v>348265.9400898342</v>
+        <v>358750.0082543613</v>
       </c>
       <c r="E3" t="n">
-        <v>330164.9034816623</v>
+        <v>362623.3750057576</v>
       </c>
       <c r="F3" t="n">
+        <v>392249.6162602901</v>
+      </c>
+      <c r="G3" t="n">
         <v>363054.4230422495</v>
       </c>
     </row>
@@ -7078,15 +7465,18 @@
         <v>397613</v>
       </c>
       <c r="C4" t="n">
-        <v>375988.6944769993</v>
+        <v>338025.4232258201</v>
       </c>
       <c r="D4" t="n">
-        <v>364673.1171044402</v>
+        <v>376020.7899066192</v>
       </c>
       <c r="E4" t="n">
-        <v>345178.3810970783</v>
+        <v>348171.0629129006</v>
       </c>
       <c r="F4" t="n">
+        <v>326157.9815021753</v>
+      </c>
+      <c r="G4" t="n">
         <v>380252.5621771832</v>
       </c>
     </row>
@@ -7098,15 +7488,18 @@
         <v>420034</v>
       </c>
       <c r="C5" t="n">
-        <v>390126.4097070204</v>
+        <v>359212.8904921412</v>
       </c>
       <c r="D5" t="n">
-        <v>392170.070858971</v>
+        <v>390159.1538418726</v>
       </c>
       <c r="E5" t="n">
-        <v>393725.0444678068</v>
+        <v>387101.7395084519</v>
       </c>
       <c r="F5" t="n">
+        <v>414156.5055993795</v>
+      </c>
+      <c r="G5" t="n">
         <v>403479.3642537682</v>
       </c>
     </row>
@@ -7118,15 +7511,18 @@
         <v>519636</v>
       </c>
       <c r="C6" t="n">
-        <v>474111.4002716879</v>
+        <v>371734.2028067112</v>
       </c>
       <c r="D6" t="n">
-        <v>434659.5935871442</v>
+        <v>474130.9676041915</v>
       </c>
       <c r="E6" t="n">
-        <v>369504.8721084595</v>
+        <v>413136.7340971605</v>
       </c>
       <c r="F6" t="n">
+        <v>388534.6051124334</v>
+      </c>
+      <c r="G6" t="n">
         <v>468763.2868875506</v>
       </c>
     </row>
@@ -7138,15 +7534,18 @@
         <v>449336</v>
       </c>
       <c r="C7" t="n">
-        <v>408845.4049488608</v>
+        <v>371866.4422217607</v>
       </c>
       <c r="D7" t="n">
-        <v>408715.25724496</v>
+        <v>408842.4915521462</v>
       </c>
       <c r="E7" t="n">
-        <v>405939.1159472466</v>
+        <v>384700.1390305019</v>
       </c>
       <c r="F7" t="n">
+        <v>368725.8951482773</v>
+      </c>
+      <c r="G7" t="n">
         <v>427227.5188353079</v>
       </c>
     </row>
@@ -7158,15 +7557,18 @@
         <v>388763</v>
       </c>
       <c r="C8" t="n">
-        <v>353844.0509543302</v>
+        <v>356161.4702213407</v>
       </c>
       <c r="D8" t="n">
-        <v>350591.6098624803</v>
+        <v>353827.2258612859</v>
       </c>
       <c r="E8" t="n">
-        <v>338894.989867568</v>
+        <v>356039.6549080261</v>
       </c>
       <c r="F8" t="n">
+        <v>353830.5601150393</v>
+      </c>
+      <c r="G8" t="n">
         <v>398843.6435050212</v>
       </c>
     </row>
@@ -7178,15 +7580,18 @@
         <v>464430</v>
       </c>
       <c r="C9" t="n">
-        <v>433403.0253548989</v>
+        <v>397136.913259387</v>
       </c>
       <c r="D9" t="n">
-        <v>414278.7300207983</v>
+        <v>433384.6561601199</v>
       </c>
       <c r="E9" t="n">
-        <v>378077.6566997766</v>
+        <v>400841.7334821311</v>
       </c>
       <c r="F9" t="n">
+        <v>363054.2774496078</v>
+      </c>
+      <c r="G9" t="n">
         <v>463981.1298362083</v>
       </c>
     </row>
@@ -7198,15 +7603,18 @@
         <v>392441</v>
       </c>
       <c r="C10" t="n">
-        <v>388867.2114069504</v>
+        <v>381028.4889349937</v>
       </c>
       <c r="D10" t="n">
-        <v>382027.9934067285</v>
+        <v>388856.2680611631</v>
       </c>
       <c r="E10" t="n">
-        <v>364631.2850651741</v>
+        <v>374813.8924399211</v>
       </c>
       <c r="F10" t="n">
+        <v>346406.643222928</v>
+      </c>
+      <c r="G10" t="n">
         <v>431775.09488576</v>
       </c>
     </row>
@@ -7218,15 +7626,18 @@
         <v>473082</v>
       </c>
       <c r="C11" t="n">
-        <v>448636.7004745384</v>
+        <v>362103.6963335276</v>
       </c>
       <c r="D11" t="n">
-        <v>426870.9788432377</v>
+        <v>448638.73776481</v>
       </c>
       <c r="E11" t="n">
-        <v>389857.3136005402</v>
+        <v>392315.5201977967</v>
       </c>
       <c r="F11" t="n">
+        <v>359354.7172043324</v>
+      </c>
+      <c r="G11" t="n">
         <v>453355.3752934641</v>
       </c>
     </row>
@@ -7238,15 +7649,18 @@
         <v>541016</v>
       </c>
       <c r="C12" t="n">
-        <v>517822.0750035333</v>
+        <v>349977.5184861422</v>
       </c>
       <c r="D12" t="n">
-        <v>471218.2117600528</v>
+        <v>517832.0421885421</v>
       </c>
       <c r="E12" t="n">
-        <v>395120.6309220791</v>
+        <v>327992.2692980419</v>
       </c>
       <c r="F12" t="n">
+        <v>77370.52830180526</v>
+      </c>
+      <c r="G12" t="n">
         <v>505263.1284690171</v>
       </c>
     </row>
@@ -7258,15 +7672,18 @@
         <v>559606</v>
       </c>
       <c r="C13" t="n">
-        <v>552874.5354405972</v>
+        <v>391897.6306751966</v>
       </c>
       <c r="D13" t="n">
-        <v>485434.4745267631</v>
+        <v>552886.6424637184</v>
       </c>
       <c r="E13" t="n">
-        <v>376714.8338965178</v>
+        <v>459244.6185376564</v>
       </c>
       <c r="F13" t="n">
+        <v>427921.6639313698</v>
+      </c>
+      <c r="G13" t="n">
         <v>524639.1196781083</v>
       </c>
     </row>
@@ -7278,15 +7695,18 @@
         <v>451152</v>
       </c>
       <c r="C14" t="n">
-        <v>450726.7466562079</v>
+        <v>265928.7190130949</v>
       </c>
       <c r="D14" t="n">
-        <v>441389.5634975574</v>
+        <v>450730.5193669277</v>
       </c>
       <c r="E14" t="n">
-        <v>422756.734282136</v>
+        <v>375050.9961893999</v>
       </c>
       <c r="F14" t="n">
+        <v>408015.3884086609</v>
+      </c>
+      <c r="G14" t="n">
         <v>472539.3794413942</v>
       </c>
     </row>
@@ -7298,15 +7718,18 @@
         <v>378001</v>
       </c>
       <c r="C15" t="n">
-        <v>357715.6281940724</v>
+        <v>387602.7875337601</v>
       </c>
       <c r="D15" t="n">
-        <v>383231.9322127549</v>
+        <v>357723.0234982009</v>
       </c>
       <c r="E15" t="n">
-        <v>423287.0218322277</v>
+        <v>369694.2126422228</v>
       </c>
       <c r="F15" t="n">
+        <v>361445.3524765968</v>
+      </c>
+      <c r="G15" t="n">
         <v>376154.2537129904</v>
       </c>
     </row>
@@ -7318,15 +7741,18 @@
         <v>398024</v>
       </c>
       <c r="C16" t="n">
-        <v>372932.3225724506</v>
+        <v>393374.3404129744</v>
       </c>
       <c r="D16" t="n">
-        <v>372083.3352455623</v>
+        <v>372959.0403296486</v>
       </c>
       <c r="E16" t="n">
-        <v>366054.4123301506</v>
+        <v>384376.1766571025</v>
       </c>
       <c r="F16" t="n">
+        <v>384186.7114541531</v>
+      </c>
+      <c r="G16" t="n">
         <v>406056.4463552554</v>
       </c>
     </row>
@@ -7338,15 +7764,18 @@
         <v>403968</v>
       </c>
       <c r="C17" t="n">
-        <v>384607.5746850896</v>
+        <v>365909.6719501019</v>
       </c>
       <c r="D17" t="n">
-        <v>380955.9001953515</v>
+        <v>384636.8321431476</v>
       </c>
       <c r="E17" t="n">
-        <v>369438.1841752529</v>
+        <v>366028.8494604453</v>
       </c>
       <c r="F17" t="n">
+        <v>339882.0220566392</v>
+      </c>
+      <c r="G17" t="n">
         <v>423531.1146833431</v>
       </c>
     </row>
@@ -7358,15 +7787,18 @@
         <v>503379</v>
       </c>
       <c r="C18" t="n">
-        <v>470280.1644497839</v>
+        <v>393275.4933241606</v>
       </c>
       <c r="D18" t="n">
-        <v>420267.8472664389</v>
+        <v>470305.0042697655</v>
       </c>
       <c r="E18" t="n">
-        <v>335016.6440609694</v>
+        <v>402361.5942900921</v>
       </c>
       <c r="F18" t="n">
+        <v>330423.1680989861</v>
+      </c>
+      <c r="G18" t="n">
         <v>482579.6814113411</v>
       </c>
     </row>
@@ -7378,15 +7810,18 @@
         <v>426440</v>
       </c>
       <c r="C19" t="n">
-        <v>405290.18621852</v>
+        <v>355372.1080300808</v>
       </c>
       <c r="D19" t="n">
-        <v>353617.8643466541</v>
+        <v>405295.9819160004</v>
       </c>
       <c r="E19" t="n">
-        <v>260728.6560908556</v>
+        <v>388970.0629443061</v>
       </c>
       <c r="F19" t="n">
+        <v>403205.9504178762</v>
+      </c>
+      <c r="G19" t="n">
         <v>452541.3152518788</v>
       </c>
     </row>
@@ -7398,15 +7833,18 @@
         <v>357556</v>
       </c>
       <c r="C20" t="n">
-        <v>353424.2108102121</v>
+        <v>405741.2525109053</v>
       </c>
       <c r="D20" t="n">
-        <v>376090.6523858106</v>
+        <v>353416.755226565</v>
       </c>
       <c r="E20" t="n">
-        <v>405180.6918308735</v>
+        <v>379022.6973490227</v>
       </c>
       <c r="F20" t="n">
+        <v>372245.920257926</v>
+      </c>
+      <c r="G20" t="n">
         <v>416437.7520822426</v>
       </c>
     </row>
@@ -7418,15 +7856,18 @@
         <v>442013</v>
       </c>
       <c r="C21" t="n">
-        <v>436222.1437917445</v>
+        <v>398931.6359404325</v>
       </c>
       <c r="D21" t="n">
-        <v>422428.3206085</v>
+        <v>436209.4501091006</v>
       </c>
       <c r="E21" t="n">
-        <v>392826.304877758</v>
+        <v>426770.0048535178</v>
       </c>
       <c r="F21" t="n">
+        <v>442608.2183412313</v>
+      </c>
+      <c r="G21" t="n">
         <v>483358.0769550246</v>
       </c>
     </row>
@@ -7438,15 +7879,18 @@
         <v>414088</v>
       </c>
       <c r="C22" t="n">
-        <v>392421.4962368557</v>
+        <v>415698.2348630428</v>
       </c>
       <c r="D22" t="n">
-        <v>380426.8032524796</v>
+        <v>392409.7932336996</v>
       </c>
       <c r="E22" t="n">
-        <v>352391.0752043724</v>
+        <v>389712.2218760173</v>
       </c>
       <c r="F22" t="n">
+        <v>350568.7149933577</v>
+      </c>
+      <c r="G22" t="n">
         <v>449894.7318481408</v>
       </c>
     </row>
@@ -7458,15 +7902,18 @@
         <v>458758</v>
       </c>
       <c r="C23" t="n">
-        <v>452797.5255259827</v>
+        <v>387502.828173399</v>
       </c>
       <c r="D23" t="n">
-        <v>436989.7185776078</v>
+        <v>452796.2373627304</v>
       </c>
       <c r="E23" t="n">
-        <v>407359.7526911497</v>
+        <v>407250.6949056244</v>
       </c>
       <c r="F23" t="n">
+        <v>373182.1869227886</v>
+      </c>
+      <c r="G23" t="n">
         <v>475966.4483047994</v>
       </c>
     </row>
@@ -7478,16 +7925,19 @@
         <v>537494</v>
       </c>
       <c r="C24" t="n">
-        <v>522581.954108257</v>
+        <v>419893.5055211782</v>
       </c>
       <c r="D24" t="n">
-        <v>482172.8073825132</v>
+        <v>522591.7242005236</v>
       </c>
       <c r="E24" t="n">
-        <v>414062.0350573063</v>
+        <v>445996.8815344822</v>
       </c>
       <c r="F24" t="n">
-        <v>526982.1224159392</v>
+        <v>384141.108320713</v>
+      </c>
+      <c r="G24" t="n">
+        <v>526982.1224159393</v>
       </c>
     </row>
     <row r="25">
@@ -7498,15 +7948,18 @@
         <v>558294</v>
       </c>
       <c r="C25" t="n">
-        <v>558001.9886874615</v>
+        <v>388666.3609311581</v>
       </c>
       <c r="D25" t="n">
-        <v>488963.3727869433</v>
+        <v>558020.3948604177</v>
       </c>
       <c r="E25" t="n">
-        <v>375209.6886948347</v>
+        <v>452010.7849032689</v>
       </c>
       <c r="F25" t="n">
+        <v>399540.3386346102</v>
+      </c>
+      <c r="G25" t="n">
         <v>546748.6395281788</v>
       </c>
     </row>
@@ -7518,15 +7971,18 @@
         <v>376395</v>
       </c>
       <c r="C26" t="n">
-        <v>451536.1373969507</v>
+        <v>397586.1984250546</v>
       </c>
       <c r="D26" t="n">
-        <v>442135.0471921795</v>
+        <v>451546.6773895613</v>
       </c>
       <c r="E26" t="n">
-        <v>421208.5731873512</v>
+        <v>425662.6597923013</v>
       </c>
       <c r="F26" t="n">
+        <v>423151.3730630875</v>
+      </c>
+      <c r="G26" t="n">
         <v>489059.5018820384</v>
       </c>
     </row>
@@ -7538,15 +7994,18 @@
         <v>344907</v>
       </c>
       <c r="C27" t="n">
-        <v>357860.1418151034</v>
+        <v>375540.8796379566</v>
       </c>
       <c r="D27" t="n">
-        <v>378942.8985988774</v>
+        <v>357876.7071951425</v>
       </c>
       <c r="E27" t="n">
-        <v>408407.4157694578</v>
+        <v>348118.8247366403</v>
       </c>
       <c r="F27" t="n">
+        <v>300587.0157981515</v>
+      </c>
+      <c r="G27" t="n">
         <v>399179.2058357761</v>
       </c>
     </row>
@@ -7558,15 +8017,18 @@
         <v>390963</v>
       </c>
       <c r="C28" t="n">
-        <v>373653.5109094762</v>
+        <v>382067.9792354107</v>
       </c>
       <c r="D28" t="n">
-        <v>381120.2676439087</v>
+        <v>373689.4649508736</v>
       </c>
       <c r="E28" t="n">
-        <v>386459.1547647715</v>
+        <v>378023.731435668</v>
       </c>
       <c r="F28" t="n">
+        <v>373185.1368603706</v>
+      </c>
+      <c r="G28" t="n">
         <v>424899.8588521626</v>
       </c>
     </row>
@@ -7578,15 +8040,18 @@
         <v>398818</v>
       </c>
       <c r="C29" t="n">
-        <v>386392.971534946</v>
+        <v>409725.8202502728</v>
       </c>
       <c r="D29" t="n">
-        <v>394260.4722181543</v>
+        <v>386427.3034008006</v>
       </c>
       <c r="E29" t="n">
-        <v>399349.8500422239</v>
+        <v>400732.9801564231</v>
       </c>
       <c r="F29" t="n">
+        <v>401411.9531313181</v>
+      </c>
+      <c r="G29" t="n">
         <v>444240.7294928526</v>
       </c>
     </row>
@@ -7598,15 +8063,18 @@
         <v>483044</v>
       </c>
       <c r="C30" t="n">
-        <v>472667.0816990059</v>
+        <v>374741.422373414</v>
       </c>
       <c r="D30" t="n">
-        <v>451612.1975692923</v>
+        <v>472691.0884126544</v>
       </c>
       <c r="E30" t="n">
-        <v>411877.2919402122</v>
+        <v>413285.9101440695</v>
       </c>
       <c r="F30" t="n">
+        <v>383300.5453685522</v>
+      </c>
+      <c r="G30" t="n">
         <v>505465.2829977713</v>
       </c>
     </row>
@@ -7618,15 +8086,18 @@
         <v>419855</v>
       </c>
       <c r="C31" t="n">
-        <v>407427.5660413297</v>
+        <v>362805.6122193336</v>
       </c>
       <c r="D31" t="n">
-        <v>386422.8686785816</v>
+        <v>407428.0797831447</v>
       </c>
       <c r="E31" t="n">
-        <v>342407.3137057424</v>
+        <v>385594.6588039951</v>
       </c>
       <c r="F31" t="n">
+        <v>379046.2034193277</v>
+      </c>
+      <c r="G31" t="n">
         <v>471580.3279644437</v>
       </c>
     </row>
@@ -7638,16 +8109,19 @@
         <v>369121</v>
       </c>
       <c r="C32" t="n">
-        <v>354603.6608196225</v>
+        <v>354374.3762723207</v>
       </c>
       <c r="D32" t="n">
-        <v>363550.9914026635</v>
+        <v>354590.1176875778</v>
       </c>
       <c r="E32" t="n">
-        <v>366886.0287503004</v>
+        <v>351336.8013668092</v>
       </c>
       <c r="F32" t="n">
-        <v>438012.6146948365</v>
+        <v>335228.2899925709</v>
+      </c>
+      <c r="G32" t="n">
+        <v>438012.6146948366</v>
       </c>
     </row>
     <row r="33">
@@ -7658,15 +8132,18 @@
         <v>466849</v>
       </c>
       <c r="C33" t="n">
-        <v>436229.2164824298</v>
+        <v>410537.5366816521</v>
       </c>
       <c r="D33" t="n">
-        <v>423629.2188422482</v>
+        <v>436213.1684197127</v>
       </c>
       <c r="E33" t="n">
-        <v>393331.4454189539</v>
+        <v>418719.0526866397</v>
       </c>
       <c r="F33" t="n">
+        <v>400295.3292170763</v>
+      </c>
+      <c r="G33" t="n">
         <v>502689.4012925135</v>
       </c>
     </row>
@@ -7678,15 +8155,18 @@
         <v>415682</v>
       </c>
       <c r="C34" t="n">
-        <v>391572.2352561004</v>
+        <v>325898.4474444985</v>
       </c>
       <c r="D34" t="n">
-        <v>405652.6178222214</v>
+        <v>391561.427301854</v>
       </c>
       <c r="E34" t="n">
-        <v>418522.8242776394</v>
+        <v>359793.9569873804</v>
       </c>
       <c r="F34" t="n">
+        <v>352875.4331935048</v>
+      </c>
+      <c r="G34" t="n">
         <v>468076.8583801065</v>
       </c>
     </row>
@@ -7698,15 +8178,18 @@
         <v>455766</v>
       </c>
       <c r="C35" t="n">
-        <v>451711.2979979586</v>
+        <v>371274.7862980366</v>
       </c>
       <c r="D35" t="n">
-        <v>445449.3960902991</v>
+        <v>451714.0944956696</v>
       </c>
       <c r="E35" t="n">
-        <v>428457.4161199331</v>
+        <v>401757.5053013342</v>
       </c>
       <c r="F35" t="n">
+        <v>372292.7082023621</v>
+      </c>
+      <c r="G35" t="n">
         <v>498639.3932488187</v>
       </c>
     </row>
@@ -7718,15 +8201,18 @@
         <v>542537</v>
       </c>
       <c r="C36" t="n">
-        <v>521849.056582364</v>
+        <v>356288.4142566323</v>
       </c>
       <c r="D36" t="n">
-        <v>482231.7368273518</v>
+        <v>521863.3957696371</v>
       </c>
       <c r="E36" t="n">
-        <v>412321.4026252031</v>
+        <v>439140.6012416431</v>
       </c>
       <c r="F36" t="n">
+        <v>432937.4041143656</v>
+      </c>
+      <c r="G36" t="n">
         <v>548679.2576206472</v>
       </c>
     </row>
@@ -7738,15 +8224,18 @@
         <v>552404</v>
       </c>
       <c r="C37" t="n">
-        <v>557922.8660883973</v>
+        <v>432103.8533089161</v>
       </c>
       <c r="D37" t="n">
-        <v>478176.4387993734</v>
+        <v>557943.6733851117</v>
       </c>
       <c r="E37" t="n">
-        <v>343461.7350426912</v>
+        <v>477495.5027827855</v>
       </c>
       <c r="F37" t="n">
+        <v>432566.8726102114</v>
+      </c>
+      <c r="G37" t="n">
         <v>568760.4043147223</v>
       </c>
     </row>
@@ -7758,16 +8247,19 @@
         <v>445793</v>
       </c>
       <c r="C38" t="n">
-        <v>452041.4967882864</v>
+        <v>446129.2348233461</v>
       </c>
       <c r="D38" t="n">
-        <v>436115.0648532526</v>
+        <v>452051.1115802818</v>
       </c>
       <c r="E38" t="n">
-        <v>402061.0119388103</v>
+        <v>438268.5310135167</v>
       </c>
       <c r="F38" t="n">
-        <v>505569.6999794936</v>
+        <v>407167.7891299725</v>
+      </c>
+      <c r="G38" t="n">
+        <v>505569.6999794937</v>
       </c>
     </row>
     <row r="39">
@@ -7778,15 +8270,18 @@
         <v>369424</v>
       </c>
       <c r="C39" t="n">
-        <v>358616.0718913526</v>
+        <v>399077.5127718449</v>
       </c>
       <c r="D39" t="n">
-        <v>341986.1745984087</v>
+        <v>358629.1672833778</v>
       </c>
       <c r="E39" t="n">
-        <v>305348.7953711152</v>
+        <v>386097.6752898635</v>
       </c>
       <c r="F39" t="n">
+        <v>397292.9697934389</v>
+      </c>
+      <c r="G39" t="n">
         <v>422261.3882097219</v>
       </c>
     </row>
@@ -7798,15 +8293,18 @@
         <v>408507</v>
       </c>
       <c r="C40" t="n">
-        <v>374268.601300222</v>
+        <v>417387.9446021318</v>
       </c>
       <c r="D40" t="n">
-        <v>390443.7903233374</v>
+        <v>374300.6102180384</v>
       </c>
       <c r="E40" t="n">
-        <v>407791.1689726114</v>
+        <v>400601.731092494</v>
       </c>
       <c r="F40" t="n">
+        <v>405414.1479567289</v>
+      </c>
+      <c r="G40" t="n">
         <v>443746.7561558419</v>
       </c>
     </row>
@@ -7818,15 +8316,18 @@
         <v>431053</v>
       </c>
       <c r="C41" t="n">
-        <v>386612.4113708346</v>
+        <v>436441.9299618006</v>
       </c>
       <c r="D41" t="n">
-        <v>402346.1735122015</v>
+        <v>386644.4256610567</v>
       </c>
       <c r="E41" t="n">
-        <v>417715.2425948381</v>
+        <v>414999.4209291202</v>
       </c>
       <c r="F41" t="n">
+        <v>415971.8536636829</v>
+      </c>
+      <c r="G41" t="n">
         <v>465005.6817478752</v>
       </c>
     </row>
@@ -7838,15 +8339,18 @@
         <v>513430</v>
       </c>
       <c r="C42" t="n">
-        <v>472466.2606356317</v>
+        <v>429287.4366722107</v>
       </c>
       <c r="D42" t="n">
-        <v>467294.6873724791</v>
+        <v>472490.5982187153</v>
       </c>
       <c r="E42" t="n">
-        <v>450883.0350569487</v>
+        <v>435021.3436083698</v>
       </c>
       <c r="F42" t="n">
+        <v>391049.1125634909</v>
+      </c>
+      <c r="G42" t="n">
         <v>528309.2075092979</v>
       </c>
     </row>
@@ -7858,15 +8362,18 @@
         <v>440389</v>
       </c>
       <c r="C43" t="n">
-        <v>406980.7671545794</v>
+        <v>398856.8961284161</v>
       </c>
       <c r="D43" t="n">
-        <v>387417.4578221507</v>
+        <v>406983.7918984177</v>
       </c>
       <c r="E43" t="n">
-        <v>343101.1898026466</v>
+        <v>402294.0221718501</v>
       </c>
       <c r="F43" t="n">
+        <v>391903.3854714632</v>
+      </c>
+      <c r="G43" t="n">
         <v>490590.5174197833</v>
       </c>
     </row>
@@ -7878,15 +8385,18 @@
         <v>379682</v>
       </c>
       <c r="C44" t="n">
-        <v>354166.0119822463</v>
+        <v>387735.1478478909</v>
       </c>
       <c r="D44" t="n">
-        <v>377930.6449177415</v>
+        <v>354155.6223734029</v>
       </c>
       <c r="E44" t="n">
-        <v>402950.7082775831</v>
+        <v>368491.2003506499</v>
       </c>
       <c r="F44" t="n">
+        <v>352424.1048333645</v>
+      </c>
+      <c r="G44" t="n">
         <v>459596.6856832807</v>
       </c>
     </row>
@@ -7898,15 +8408,18 @@
         <v>479188</v>
       </c>
       <c r="C45" t="n">
-        <v>436003.1543473253</v>
+        <v>359273.5092914701</v>
       </c>
       <c r="D45" t="n">
-        <v>430468.3444718882</v>
+        <v>435989.2164496377</v>
       </c>
       <c r="E45" t="n">
-        <v>409255.8129820824</v>
+        <v>394569.073595012</v>
       </c>
       <c r="F45" t="n">
+        <v>376747.3557493687</v>
+      </c>
+      <c r="G45" t="n">
         <v>521976.9287469126</v>
       </c>
     </row>
@@ -7918,15 +8431,18 @@
         <v>435196</v>
       </c>
       <c r="C46" t="n">
-        <v>391623.4989193973</v>
+        <v>401767.5415090322</v>
       </c>
       <c r="D46" t="n">
-        <v>425296.1181387817</v>
+        <v>391612.8048969175</v>
       </c>
       <c r="E46" t="n">
-        <v>468359.7951827049</v>
+        <v>391369.2787421889</v>
       </c>
       <c r="F46" t="n">
+        <v>369201.0043576956</v>
+      </c>
+      <c r="G46" t="n">
         <v>486324.1202335281</v>
       </c>
     </row>
@@ -7938,16 +8454,19 @@
         <v>486277</v>
       </c>
       <c r="C47" t="n">
-        <v>451964.2010382975</v>
+        <v>404544.0130892992</v>
       </c>
       <c r="D47" t="n">
-        <v>435039.3749010244</v>
+        <v>451965.2898310425</v>
       </c>
       <c r="E47" t="n">
-        <v>397107.3171643019</v>
+        <v>419153.5668708899</v>
       </c>
       <c r="F47" t="n">
-        <v>521371.3823265028</v>
+        <v>389535.238448143</v>
+      </c>
+      <c r="G47" t="n">
+        <v>521371.3823265029</v>
       </c>
     </row>
     <row r="48">
@@ -7958,15 +8477,18 @@
         <v>555663</v>
       </c>
       <c r="C48" t="n">
-        <v>522148.3358096154</v>
+        <v>412957.0174548626</v>
       </c>
       <c r="D48" t="n">
-        <v>479390.4971518795</v>
+        <v>522160.2181263911</v>
       </c>
       <c r="E48" t="n">
-        <v>401259.2334119081</v>
+        <v>416550.5851420186</v>
       </c>
       <c r="F48" t="n">
+        <v>289566.1457110047</v>
+      </c>
+      <c r="G48" t="n">
         <v>570351.7261879757</v>
       </c>
     </row>
@@ -7978,16 +8500,19 @@
         <v>550212</v>
       </c>
       <c r="C49" t="n">
-        <v>558120.8495424639</v>
+        <v>493133.7336937189</v>
       </c>
       <c r="D49" t="n">
-        <v>509035.7146401579</v>
+        <v>558139.7667513604</v>
       </c>
       <c r="E49" t="n">
-        <v>422514.0172866583</v>
+        <v>474706.5399196576</v>
       </c>
       <c r="F49" t="n">
-        <v>590673.8237659035</v>
+        <v>350490.2031300068</v>
+      </c>
+      <c r="G49" t="n">
+        <v>590673.8237659036</v>
       </c>
     </row>
     <row r="50">
@@ -7998,15 +8523,18 @@
         <v>479833</v>
       </c>
       <c r="C50" t="n">
-        <v>452065.3265494981</v>
+        <v>476306.0323754549</v>
       </c>
       <c r="D50" t="n">
-        <v>441614.3148882901</v>
+        <v>452074.4857549077</v>
       </c>
       <c r="E50" t="n">
-        <v>414412.1104369164</v>
+        <v>435405.0743065153</v>
       </c>
       <c r="F50" t="n">
+        <v>361106.0854748487</v>
+      </c>
+      <c r="G50" t="n">
         <v>522074.6783233112</v>
       </c>
     </row>
@@ -8018,15 +8546,18 @@
         <v>374481</v>
       </c>
       <c r="C51" t="n">
-        <v>358487.500825932</v>
+        <v>350937.9045177102</v>
       </c>
       <c r="D51" t="n">
-        <v>365418.3077831464</v>
+        <v>358501.6188752083</v>
       </c>
       <c r="E51" t="n">
-        <v>364897.311403513</v>
+        <v>316230.5143918865</v>
       </c>
       <c r="F51" t="n">
+        <v>216728.263635844</v>
+      </c>
+      <c r="G51" t="n">
         <v>445400.0386780257</v>
       </c>
     </row>
@@ -8038,15 +8569,18 @@
         <v>434298</v>
       </c>
       <c r="C52" t="n">
-        <v>374076.0917165835</v>
+        <v>392074.2884126902</v>
       </c>
       <c r="D52" t="n">
-        <v>394309.946783982</v>
+        <v>374109.9072724041</v>
       </c>
       <c r="E52" t="n">
-        <v>415785.9350565672</v>
+        <v>395613.8434337366</v>
       </c>
       <c r="F52" t="n">
+        <v>416100.707904458</v>
+      </c>
+      <c r="G52" t="n">
         <v>462598.1778129459</v>
       </c>
     </row>
@@ -8058,15 +8592,18 @@
         <v>457767</v>
       </c>
       <c r="C53" t="n">
-        <v>386457.4794458256</v>
+        <v>446068.0840680599</v>
       </c>
       <c r="D53" t="n">
-        <v>399009.3511287544</v>
+        <v>386491.0940162221</v>
       </c>
       <c r="E53" t="n">
-        <v>406143.9189908504</v>
+        <v>407023.0008493712</v>
       </c>
       <c r="F53" t="n">
+        <v>376202.1976122856</v>
+      </c>
+      <c r="G53" t="n">
         <v>485824.9798895555</v>
       </c>
     </row>
@@ -8078,15 +8615,18 @@
         <v>542765</v>
       </c>
       <c r="C54" t="n">
-        <v>472413.8487118969</v>
+        <v>371146.9234297276</v>
       </c>
       <c r="D54" t="n">
-        <v>462813.4196550948</v>
+        <v>472438.8228993702</v>
       </c>
       <c r="E54" t="n">
-        <v>435822.9750255346</v>
+        <v>430567.3141093561</v>
       </c>
       <c r="F54" t="n">
+        <v>440738.6833087206</v>
+      </c>
+      <c r="G54" t="n">
         <v>551108.9025233381</v>
       </c>
     </row>
@@ -8098,15 +8638,18 @@
         <v>458189</v>
       </c>
       <c r="C55" t="n">
-        <v>407035.9494534837</v>
+        <v>392736.6219393015</v>
       </c>
       <c r="D55" t="n">
-        <v>408599.8973314078</v>
+        <v>407038.4645004032</v>
       </c>
       <c r="E55" t="n">
-        <v>396939.3399808407</v>
+        <v>373120.5625995756</v>
       </c>
       <c r="F55" t="n">
+        <v>299323.6808488369</v>
+      </c>
+      <c r="G55" t="n">
         <v>509573.134471083</v>
       </c>
     </row>
@@ -8118,15 +8661,18 @@
         <v>395074</v>
       </c>
       <c r="C56" t="n">
-        <v>354282.9041416887</v>
+        <v>405189.880161047</v>
       </c>
       <c r="D56" t="n">
-        <v>386128.5416924251</v>
+        <v>354271.2618695559</v>
       </c>
       <c r="E56" t="n">
-        <v>421657.5198355913</v>
+        <v>393028.1510460452</v>
       </c>
       <c r="F56" t="n">
+        <v>412019.5901588202</v>
+      </c>
+      <c r="G56" t="n">
         <v>481189.2591407957</v>
       </c>
     </row>
@@ -8138,15 +8684,18 @@
         <v>222108</v>
       </c>
       <c r="C57" t="n">
-        <v>436115.8268110618</v>
+        <v>359493.062022984</v>
       </c>
       <c r="D57" t="n">
-        <v>440346.2295535959</v>
+        <v>436100.604145974</v>
       </c>
       <c r="E57" t="n">
-        <v>432071.4765349627</v>
+        <v>423052.5337069515</v>
       </c>
       <c r="F57" t="n">
+        <v>469095.7804296017</v>
+      </c>
+      <c r="G57" t="n">
         <v>546326.7454719767</v>
       </c>
     </row>
@@ -8158,15 +8707,18 @@
         <v>12647</v>
       </c>
       <c r="C58" t="n">
-        <v>391680.3879996235</v>
+        <v>406276.7387214899</v>
       </c>
       <c r="D58" t="n">
-        <v>449233.1982525792</v>
+        <v>391669.0051956544</v>
       </c>
       <c r="E58" t="n">
-        <v>528324.36122334</v>
+        <v>409902.3729046694</v>
       </c>
       <c r="F58" t="n">
+        <v>423030.2321836948</v>
+      </c>
+      <c r="G58" t="n">
         <v>514120.7105215341</v>
       </c>
     </row>
@@ -8178,15 +8730,18 @@
         <v>15108</v>
       </c>
       <c r="C59" t="n">
-        <v>451949.3683868933</v>
+        <v>446174.9830356836</v>
       </c>
       <c r="D59" t="n">
-        <v>450439.9298317853</v>
+        <v>451950.6149567931</v>
       </c>
       <c r="E59" t="n">
-        <v>436260.5813399553</v>
+        <v>437721.91930274</v>
       </c>
       <c r="F59" t="n">
+        <v>402243.6420909166</v>
+      </c>
+      <c r="G59" t="n">
         <v>535700.9909292457</v>
       </c>
     </row>
@@ -8198,15 +8753,18 @@
         <v>30337</v>
       </c>
       <c r="C60" t="n">
-        <v>522082.1716682678</v>
+        <v>332130.9643406272</v>
       </c>
       <c r="D60" t="n">
-        <v>503099.7467056423</v>
+        <v>522094.8628259554</v>
       </c>
       <c r="E60" t="n">
-        <v>462270.9063950777</v>
+        <v>429913.3032439309</v>
       </c>
       <c r="F60" t="n">
+        <v>425552.8398731947</v>
+      </c>
+      <c r="G60" t="n">
         <v>587608.7441048066</v>
       </c>
     </row>
@@ -8218,15 +8776,18 @@
         <v>57641</v>
       </c>
       <c r="C61" t="n">
-        <v>558043.7612040136</v>
+        <v>471593.0960313082</v>
       </c>
       <c r="D61" t="n">
-        <v>513210.3052330142</v>
+        <v>558063.655329029</v>
       </c>
       <c r="E61" t="n">
-        <v>431509.3199870586</v>
+        <v>510041.1130554014</v>
       </c>
       <c r="F61" t="n">
+        <v>491843.9822951555</v>
+      </c>
+      <c r="G61" t="n">
         <v>606984.7353138692</v>
       </c>
     </row>
@@ -8238,15 +8799,18 @@
         <v>67932</v>
       </c>
       <c r="C62" t="n">
-        <v>452015.1940095781</v>
+        <v>421767.4412802458</v>
       </c>
       <c r="D62" t="n">
-        <v>434662.5682848727</v>
+        <v>452025.0032138075</v>
       </c>
       <c r="E62" t="n">
-        <v>391358.0097160339</v>
+        <v>437177.5712395767</v>
       </c>
       <c r="F62" t="n">
+        <v>426426.3357350826</v>
+      </c>
+      <c r="G62" t="n">
         <v>554884.9950771797</v>
       </c>
     </row>
@@ -8258,15 +8822,18 @@
         <v>83870</v>
       </c>
       <c r="C63" t="n">
-        <v>358482.5491476187</v>
+        <v>446917.6660916805</v>
       </c>
       <c r="D63" t="n">
-        <v>387079.2980900384</v>
+        <v>358496.7246013153</v>
       </c>
       <c r="E63" t="n">
-        <v>420924.3152675629</v>
+        <v>389105.7290133775</v>
       </c>
       <c r="F63" t="n">
+        <v>348645.5007687807</v>
+      </c>
+      <c r="G63" t="n">
         <v>458499.8693487801</v>
       </c>
     </row>
@@ -8278,15 +8845,18 @@
         <v>114801</v>
       </c>
       <c r="C64" t="n">
-        <v>374110.120253586</v>
+        <v>457721.8850252628</v>
       </c>
       <c r="D64" t="n">
-        <v>403086.7315286907</v>
+        <v>374143.4592147531</v>
       </c>
       <c r="E64" t="n">
-        <v>435579.2666575909</v>
+        <v>436372.0428311482</v>
       </c>
       <c r="F64" t="n">
+        <v>474133.8627628088</v>
+      </c>
+      <c r="G64" t="n">
         <v>488402.0619910226</v>
       </c>
     </row>
@@ -8298,15 +8868,18 @@
         <v>137031</v>
       </c>
       <c r="C65" t="n">
-        <v>386507.3397150005</v>
+        <v>399953.3298960924</v>
       </c>
       <c r="D65" t="n">
-        <v>414817.7881112923</v>
+        <v>386540.2507054842</v>
       </c>
       <c r="E65" t="n">
-        <v>445490.8151350021</v>
+        <v>417354.9920519429</v>
       </c>
       <c r="F65" t="n">
+        <v>461684.013895154</v>
+      </c>
+      <c r="G65" t="n">
         <v>505876.730319127</v>
       </c>
     </row>
@@ -8318,15 +8891,18 @@
         <v>213203</v>
       </c>
       <c r="C66" t="n">
-        <v>472453.3909673161</v>
+        <v>389068.5679945946</v>
       </c>
       <c r="D66" t="n">
-        <v>464704.0254203666</v>
+        <v>472477.8054158176</v>
       </c>
       <c r="E66" t="n">
-        <v>438887.839274168</v>
+        <v>452002.2730953876</v>
       </c>
       <c r="F66" t="n">
+        <v>490318.5018680096</v>
+      </c>
+      <c r="G66" t="n">
         <v>564925.2970471132</v>
       </c>
     </row>
@@ -8338,15 +8914,18 @@
         <v>121733</v>
       </c>
       <c r="C67" t="n">
-        <v>407048.7395718622</v>
+        <v>383474.4707868099</v>
       </c>
       <c r="D67" t="n">
-        <v>443509.063503126</v>
+        <v>407051.0854495196</v>
       </c>
       <c r="E67" t="n">
-        <v>486616.572000742</v>
+        <v>411324.8117936415</v>
       </c>
       <c r="F67" t="n">
+        <v>435105.3664389849</v>
+      </c>
+      <c r="G67" t="n">
         <v>534886.9308876521</v>
       </c>
     </row>
@@ -8358,15 +8937,18 @@
         <v>89788</v>
       </c>
       <c r="C68" t="n">
-        <v>354268.0325273531</v>
+        <v>437067.6552466154</v>
       </c>
       <c r="D68" t="n">
-        <v>379853.62431958</v>
+        <v>354256.6342624812</v>
       </c>
       <c r="E68" t="n">
-        <v>402474.8736736774</v>
+        <v>400844.0103547921</v>
       </c>
       <c r="F68" t="n">
+        <v>399647.2859618664</v>
+      </c>
+      <c r="G68" t="n">
         <v>498783.367718015</v>
       </c>
     </row>
@@ -8378,15 +8960,18 @@
         <v>177155</v>
       </c>
       <c r="C69" t="n">
-        <v>436085.409766098</v>
+        <v>394148.2154319286</v>
       </c>
       <c r="D69" t="n">
-        <v>452981.8989795147</v>
+        <v>436070.6655959893</v>
       </c>
       <c r="E69" t="n">
-        <v>463162.7547374964</v>
+        <v>424033.9477041761</v>
       </c>
       <c r="F69" t="n">
+        <v>430497.4672166109</v>
+      </c>
+      <c r="G69" t="n">
         <v>565703.6925908024</v>
       </c>
     </row>
@@ -8398,15 +8983,18 @@
         <v>226409</v>
       </c>
       <c r="C70" t="n">
-        <v>391651.4859789911</v>
+        <v>406938.9271692038</v>
       </c>
       <c r="D70" t="n">
-        <v>400352.4678940314</v>
+        <v>391640.5522558682</v>
       </c>
       <c r="E70" t="n">
-        <v>395316.7050520182</v>
+        <v>405696.81125546</v>
       </c>
       <c r="F70" t="n">
+        <v>406336.6321263313</v>
+      </c>
+      <c r="G70" t="n">
         <v>532240.3474839255</v>
       </c>
     </row>
@@ -8418,15 +9006,18 @@
         <v>299382</v>
       </c>
       <c r="C71" t="n">
-        <v>451935.1274305064</v>
+        <v>427833.2625231743</v>
       </c>
       <c r="D71" t="n">
-        <v>458284.0203474165</v>
+        <v>451936.5838871634</v>
       </c>
       <c r="E71" t="n">
-        <v>454081.6136894226</v>
+        <v>433599.8642640144</v>
       </c>
       <c r="F71" t="n">
+        <v>407216.100402832</v>
+      </c>
+      <c r="G71" t="n">
         <v>558312.0639405902</v>
       </c>
     </row>
@@ -8438,15 +9029,18 @@
         <v>371306</v>
       </c>
       <c r="C72" t="n">
-        <v>522086.4508743783</v>
+        <v>417016.3250062466</v>
       </c>
       <c r="D72" t="n">
-        <v>483537.6378465644</v>
+        <v>522099.0491830423</v>
       </c>
       <c r="E72" t="n">
-        <v>407003.027862072</v>
+        <v>455272.2042431549</v>
       </c>
       <c r="F72" t="n">
+        <v>410396.9552299976</v>
+      </c>
+      <c r="G72" t="n">
         <v>609327.7380517054</v>
       </c>
     </row>
@@ -8458,15 +9052,18 @@
         <v>385452</v>
       </c>
       <c r="C73" t="n">
-        <v>558061.0869353145</v>
+        <v>468655.8770326376</v>
       </c>
       <c r="D73" t="n">
-        <v>532678.4766810415</v>
+        <v>558080.6761281084</v>
       </c>
       <c r="E73" t="n">
-        <v>480392.4455008507</v>
+        <v>496181.4017564057</v>
       </c>
       <c r="F73" t="n">
+        <v>446535.3348371983</v>
+      </c>
+      <c r="G73" t="n">
         <v>629094.2551639751</v>
       </c>
     </row>
@@ -8478,15 +9075,18 @@
         <v>305847</v>
       </c>
       <c r="C74" t="n">
-        <v>452035.0597524696</v>
+        <v>452111.2246433496</v>
       </c>
       <c r="D74" t="n">
-        <v>422776.9979843684</v>
+        <v>452044.5297478006</v>
       </c>
       <c r="E74" t="n">
-        <v>357289.1443116069</v>
+        <v>464210.4507884619</v>
       </c>
       <c r="F74" t="n">
+        <v>480170.958384037</v>
+      </c>
+      <c r="G74" t="n">
         <v>571405.1175177998</v>
       </c>
     </row>
@@ -8498,15 +9098,18 @@
         <v>252301</v>
       </c>
       <c r="C75" t="n">
-        <v>358495.2450820481</v>
+        <v>338218.0638218522</v>
       </c>
       <c r="D75" t="n">
-        <v>376520.4018846015</v>
+        <v>358509.2136830766</v>
       </c>
       <c r="E75" t="n">
-        <v>389503.6837879419</v>
+        <v>376560.9842407824</v>
       </c>
       <c r="F75" t="n">
+        <v>429370.6394199133</v>
+      </c>
+      <c r="G75" t="n">
         <v>481524.8214715531</v>
       </c>
     </row>
@@ -8521,7 +9124,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8537,20 +9140,25 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>lstm</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>arima</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>weighted_ensemble</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>lstm</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>lstm_reg</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>prophet</t>
         </is>
@@ -8561,15 +9169,18 @@
         <v>44470</v>
       </c>
       <c r="B2" t="n">
-        <v>301421.5766542687</v>
+        <v>320866.927567482</v>
       </c>
       <c r="C2" t="n">
-        <v>312285.7766663464</v>
+        <v>301421.5771608846</v>
       </c>
       <c r="D2" t="n">
-        <v>339273.730833292</v>
+        <v>314686.7148449883</v>
       </c>
       <c r="E2" t="n">
+        <v>330055.055757165</v>
+      </c>
+      <c r="F2" t="n">
         <v>237909.6658678285</v>
       </c>
     </row>
@@ -8578,15 +9189,18 @@
         <v>44501</v>
       </c>
       <c r="B3" t="n">
-        <v>330448.6784802167</v>
+        <v>300379.5126655102</v>
       </c>
       <c r="C3" t="n">
-        <v>336899.3029162106</v>
+        <v>330448.6832331219</v>
       </c>
       <c r="D3" t="n">
-        <v>358404.6730591059</v>
+        <v>314017.5468636747</v>
       </c>
       <c r="E3" t="n">
+        <v>318164.2193721533</v>
+      </c>
+      <c r="F3" t="n">
         <v>253360.9167199809</v>
       </c>
     </row>
@@ -8595,15 +9209,18 @@
         <v>44531</v>
       </c>
       <c r="B4" t="n">
-        <v>419332.212600098</v>
+        <v>327611.6998444796</v>
       </c>
       <c r="C4" t="n">
-        <v>390092.7165001847</v>
+        <v>419332.2205968756</v>
       </c>
       <c r="D4" t="n">
-        <v>355093.9567393064</v>
+        <v>352545.5913846163</v>
       </c>
       <c r="E4" t="n">
+        <v>311917.0519253016</v>
+      </c>
+      <c r="F4" t="n">
         <v>319890.449488445</v>
       </c>
     </row>
@@ -8612,15 +9229,18 @@
         <v>44562</v>
       </c>
       <c r="B5" t="n">
-        <v>340470.8198964694</v>
+        <v>333575.7819212675</v>
       </c>
       <c r="C5" t="n">
-        <v>351578.1763222594</v>
+        <v>340470.8315165763</v>
       </c>
       <c r="D5" t="n">
-        <v>380042.698322773</v>
+        <v>323098.0691303523</v>
       </c>
       <c r="E5" t="n">
+        <v>297748.9254057407</v>
+      </c>
+      <c r="F5" t="n">
         <v>269269.0763516328</v>
       </c>
     </row>
@@ -8629,15 +9249,18 @@
         <v>44593</v>
       </c>
       <c r="B6" t="n">
-        <v>288946.3864360521</v>
+        <v>331061.7863336802</v>
       </c>
       <c r="C6" t="n">
-        <v>318301.9054451712</v>
+        <v>288946.3972521224</v>
       </c>
       <c r="D6" t="n">
-        <v>375899.974350214</v>
+        <v>315817.3992249403</v>
       </c>
       <c r="E6" t="n">
+        <v>336787.8462812901</v>
+      </c>
+      <c r="F6" t="n">
         <v>227426.2772998255</v>
       </c>
     </row>
@@ -8646,16 +9269,19 @@
         <v>44621</v>
       </c>
       <c r="B7" t="n">
-        <v>293852.3750744588</v>
+        <v>334062.2608380318</v>
       </c>
       <c r="C7" t="n">
-        <v>319082.7963158787</v>
+        <v>293852.4134323303</v>
       </c>
       <c r="D7" t="n">
-        <v>362938.7131804228</v>
+        <v>322437.4936040284</v>
       </c>
       <c r="E7" t="n">
-        <v>281555.144882616</v>
+        <v>344469.9603022337</v>
+      </c>
+      <c r="F7" t="n">
+        <v>281555.1448826159</v>
       </c>
     </row>
     <row r="8">
@@ -8663,15 +9289,18 @@
         <v>44652</v>
       </c>
       <c r="B8" t="n">
-        <v>219030.1178269128</v>
+        <v>321544.5549428463</v>
       </c>
       <c r="C8" t="n">
-        <v>266722.3777415932</v>
+        <v>219030.1684519101</v>
       </c>
       <c r="D8" t="n">
-        <v>343606.2207545042</v>
+        <v>293213.0062900797</v>
       </c>
       <c r="E8" t="n">
+        <v>347075.8269674778</v>
+      </c>
+      <c r="F8" t="n">
         <v>239001.292239888</v>
       </c>
     </row>
@@ -8680,15 +9309,18 @@
         <v>44682</v>
       </c>
       <c r="B9" t="n">
-        <v>259453.2199462371</v>
+        <v>331233.6125699282</v>
       </c>
       <c r="C9" t="n">
-        <v>297344.6007694862</v>
+        <v>259453.2764103757</v>
       </c>
       <c r="D9" t="n">
-        <v>359039.5084599257</v>
+        <v>306844.7496257848</v>
       </c>
       <c r="E9" t="n">
+        <v>334150.116053462</v>
+      </c>
+      <c r="F9" t="n">
         <v>270931.6339870065</v>
       </c>
     </row>
@@ -8697,15 +9329,18 @@
         <v>44713</v>
       </c>
       <c r="B10" t="n">
-        <v>314243.1274654085</v>
+        <v>315676.4256397486</v>
       </c>
       <c r="C10" t="n">
-        <v>336748.7712837544</v>
+        <v>314243.1906952466</v>
       </c>
       <c r="D10" t="n">
-        <v>373177.3514282703</v>
+        <v>316768.2753401938</v>
       </c>
       <c r="E10" t="n">
+        <v>320164.3162623644</v>
+      </c>
+      <c r="F10" t="n">
         <v>322606.7886248189</v>
       </c>
     </row>
@@ -8714,15 +9349,18 @@
         <v>44743</v>
       </c>
       <c r="B11" t="n">
-        <v>330452.4641152457</v>
+        <v>337130.0504100323</v>
       </c>
       <c r="C11" t="n">
-        <v>342483.2056859025</v>
+        <v>330452.5268980288</v>
       </c>
       <c r="D11" t="n">
-        <v>361623.1232984066</v>
+        <v>335971.9118387104</v>
       </c>
       <c r="E11" t="n">
+        <v>340509.5630581379</v>
+      </c>
+      <c r="F11" t="n">
         <v>337319.5932923692</v>
       </c>
     </row>
@@ -8731,15 +9369,18 @@
         <v>44774</v>
       </c>
       <c r="B12" t="n">
-        <v>276961.4126227596</v>
+        <v>352611.5942959785</v>
       </c>
       <c r="C12" t="n">
-        <v>316738.5332591048</v>
+        <v>276961.4563110399</v>
       </c>
       <c r="D12" t="n">
-        <v>384654.4881701469</v>
+        <v>321758.8508200543</v>
       </c>
       <c r="E12" t="n">
+        <v>340836.3291591406</v>
+      </c>
+      <c r="F12" t="n">
         <v>266376.5056685093</v>
       </c>
     </row>
@@ -8748,15 +9389,18 @@
         <v>44805</v>
       </c>
       <c r="B13" t="n">
-        <v>234784.6115813034</v>
+        <v>345203.0197430849</v>
       </c>
       <c r="C13" t="n">
-        <v>279916.6005215821</v>
+        <v>234784.6467521381</v>
       </c>
       <c r="D13" t="n">
-        <v>362347.9535133839</v>
+        <v>306595.2433261461</v>
       </c>
       <c r="E13" t="n">
+        <v>353183.2292420864</v>
+      </c>
+      <c r="F13" t="n">
         <v>184179.0482621371</v>
       </c>
     </row>
@@ -8765,15 +9409,18 @@
         <v>44835</v>
       </c>
       <c r="B14" t="n">
-        <v>278721.0853976347</v>
+        <v>329427.0341553688</v>
       </c>
       <c r="C14" t="n">
-        <v>307442.154081614</v>
+        <v>278721.1197505922</v>
       </c>
       <c r="D14" t="n">
-        <v>365243.8180984259</v>
+        <v>313760.0781817181</v>
       </c>
       <c r="E14" t="n">
+        <v>344944.8195520639</v>
+      </c>
+      <c r="F14" t="n">
         <v>208124.9386780533</v>
       </c>
     </row>
@@ -8782,15 +9429,18 @@
         <v>44866</v>
       </c>
       <c r="B15" t="n">
-        <v>302799.1838191341</v>
+        <v>354796.1575133801</v>
       </c>
       <c r="C15" t="n">
-        <v>318395.7517808117</v>
+        <v>302799.2166932539</v>
       </c>
       <c r="D15" t="n">
-        <v>355228.4552069902</v>
+        <v>333638.8854519605</v>
       </c>
       <c r="E15" t="n">
+        <v>354208.3932845592</v>
+      </c>
+      <c r="F15" t="n">
         <v>225350.7003419966</v>
       </c>
     </row>
@@ -8799,15 +9449,18 @@
         <v>44896</v>
       </c>
       <c r="B16" t="n">
-        <v>386671.2633577595</v>
+        <v>347335.8705050945</v>
       </c>
       <c r="C16" t="n">
-        <v>381909.53073323</v>
+        <v>386671.2982425368</v>
       </c>
       <c r="D16" t="n">
-        <v>387037.2111465931</v>
+        <v>357401.2956441351</v>
       </c>
       <c r="E16" t="n">
+        <v>343876.1722800732</v>
+      </c>
+      <c r="F16" t="n">
         <v>292693.0546175304</v>
       </c>
     </row>
@@ -8816,15 +9469,18 @@
         <v>44927</v>
       </c>
       <c r="B17" t="n">
-        <v>304381.7090716425</v>
+        <v>332892.6903399229</v>
       </c>
       <c r="C17" t="n">
-        <v>331404.5245719729</v>
+        <v>304381.7491225498</v>
       </c>
       <c r="D17" t="n">
-        <v>385340.0485192537</v>
+        <v>322682.4358114549</v>
       </c>
       <c r="E17" t="n">
+        <v>339391.375846386</v>
+      </c>
+      <c r="F17" t="n">
         <v>241180.9959155005</v>
       </c>
     </row>
@@ -8833,15 +9489,18 @@
         <v>44958</v>
       </c>
       <c r="B18" t="n">
-        <v>256148.0829751698</v>
+        <v>349527.6096074581</v>
       </c>
       <c r="C18" t="n">
-        <v>297293.6725451395</v>
+        <v>256148.1202861682</v>
       </c>
       <c r="D18" t="n">
-        <v>374105.7726913691</v>
+        <v>307989.1795384227</v>
       </c>
       <c r="E18" t="n">
+        <v>328145.6449360847</v>
+      </c>
+      <c r="F18" t="n">
         <v>198074.6162606399</v>
       </c>
     </row>
@@ -8850,15 +9509,18 @@
         <v>44986</v>
       </c>
       <c r="B19" t="n">
-        <v>268057.1055993116</v>
+        <v>331244.8701509237</v>
       </c>
       <c r="C19" t="n">
-        <v>308295.4286790809</v>
+        <v>268057.1635662459</v>
       </c>
       <c r="D19" t="n">
-        <v>378139.146710515</v>
+        <v>320344.1587213284</v>
       </c>
       <c r="E19" t="n">
+        <v>372196.4277040958</v>
+      </c>
+      <c r="F19" t="n">
         <v>249157.5171221843</v>
       </c>
     </row>
@@ -8867,15 +9529,18 @@
         <v>45017</v>
       </c>
       <c r="B20" t="n">
-        <v>212497.6299248364</v>
+        <v>341925.1544929743</v>
       </c>
       <c r="C20" t="n">
-        <v>265469.5821912462</v>
+        <v>212497.6871153303</v>
       </c>
       <c r="D20" t="n">
-        <v>354240.7176837921</v>
+        <v>296209.94305552</v>
       </c>
       <c r="E20" t="n">
+        <v>343747.8292733431</v>
+      </c>
+      <c r="F20" t="n">
         <v>210426.4297828418</v>
       </c>
     </row>
@@ -8884,16 +9549,19 @@
         <v>45047</v>
       </c>
       <c r="B21" t="n">
-        <v>257740.1577890346</v>
+        <v>329799.0939155817</v>
       </c>
       <c r="C21" t="n">
-        <v>295205.6605827525</v>
+        <v>257740.2163509536</v>
       </c>
       <c r="D21" t="n">
-        <v>359800.5801856518</v>
+        <v>309310.2723246166</v>
       </c>
       <c r="E21" t="n">
-        <v>243274.2587527445</v>
+        <v>348807.3877589703</v>
+      </c>
+      <c r="F21" t="n">
+        <v>243274.2587527444</v>
       </c>
     </row>
     <row r="22">
@@ -8901,15 +9569,18 @@
         <v>45078</v>
       </c>
       <c r="B22" t="n">
-        <v>313759.034910945</v>
+        <v>345095.3485517502</v>
       </c>
       <c r="C22" t="n">
-        <v>337894.0613774031</v>
+        <v>313759.0988127182</v>
       </c>
       <c r="D22" t="n">
-        <v>380813.0196983814</v>
+        <v>331776.6213626058</v>
       </c>
       <c r="E22" t="n">
+        <v>339914.820445776</v>
+      </c>
+      <c r="F22" t="n">
         <v>295048.2070439143</v>
       </c>
     </row>
@@ -8918,15 +9589,18 @@
         <v>45108</v>
       </c>
       <c r="B23" t="n">
-        <v>329378.3702304029</v>
+        <v>330924.2595108747</v>
       </c>
       <c r="C23" t="n">
-        <v>343440.8620424542</v>
+        <v>329378.4334879573</v>
       </c>
       <c r="D23" t="n">
-        <v>369836.7794770002</v>
+        <v>333125.1504166825</v>
       </c>
       <c r="E23" t="n">
+        <v>342315.7464698553</v>
+      </c>
+      <c r="F23" t="n">
         <v>308499.171536146</v>
       </c>
     </row>
@@ -8935,15 +9609,18 @@
         <v>45139</v>
       </c>
       <c r="B24" t="n">
-        <v>273766.4568796919</v>
+        <v>344176.3744399548</v>
       </c>
       <c r="C24" t="n">
-        <v>309092.2780127866</v>
+        <v>273766.5034968133</v>
       </c>
       <c r="D24" t="n">
-        <v>373204.0141201019</v>
+        <v>321762.7383502393</v>
       </c>
       <c r="E24" t="n">
+        <v>357101.3611820936</v>
+      </c>
+      <c r="F24" t="n">
         <v>237095.5833340205</v>
       </c>
     </row>
@@ -8952,15 +9629,18 @@
         <v>45170</v>
       </c>
       <c r="B25" t="n">
-        <v>231832.9991593398</v>
+        <v>346909.2674357891</v>
       </c>
       <c r="C25" t="n">
-        <v>289948.423967039</v>
+        <v>231833.0365899653</v>
       </c>
       <c r="D25" t="n">
-        <v>397993.7670596838</v>
+        <v>304893.9160538405</v>
       </c>
       <c r="E25" t="n">
+        <v>352004.2774264812</v>
+      </c>
+      <c r="F25" t="n">
         <v>153016.9563506184</v>
       </c>
     </row>
@@ -8969,15 +9649,18 @@
         <v>45200</v>
       </c>
       <c r="B26" t="n">
-        <v>276233.3095742022</v>
+        <v>339601.4844413996</v>
       </c>
       <c r="C26" t="n">
-        <v>304386.3852468919</v>
+        <v>276233.3460204019</v>
       </c>
       <c r="D26" t="n">
-        <v>365029.4632228613</v>
+        <v>316796.3989064043</v>
       </c>
       <c r="E26" t="n">
+        <v>349209.2702337503</v>
+      </c>
+      <c r="F26" t="n">
         <v>178408.4395346413</v>
       </c>
     </row>
@@ -8986,15 +9669,18 @@
         <v>45231</v>
       </c>
       <c r="B27" t="n">
-        <v>301167.1510240989</v>
+        <v>336413.4165040255</v>
       </c>
       <c r="C27" t="n">
-        <v>315169.8256237888</v>
+        <v>301167.1865144034</v>
       </c>
       <c r="D27" t="n">
-        <v>353003.2396137714</v>
+        <v>327844.1469431137</v>
       </c>
       <c r="E27" t="n">
+        <v>360685.68280375</v>
+      </c>
+      <c r="F27" t="n">
         <v>197402.8110617171</v>
       </c>
     </row>
@@ -9003,15 +9689,18 @@
         <v>45261</v>
       </c>
       <c r="B28" t="n">
-        <v>385408.5213084235</v>
+        <v>339701.1897420883</v>
       </c>
       <c r="C28" t="n">
-        <v>374579.8598211078</v>
+        <v>385408.5588154499</v>
       </c>
       <c r="D28" t="n">
-        <v>373188.3785909414</v>
+        <v>356570.5803429538</v>
       </c>
       <c r="E28" t="n">
+        <v>354109.3792388439</v>
+      </c>
+      <c r="F28" t="n">
         <v>265461.0283505826</v>
       </c>
     </row>
@@ -9020,15 +9709,18 @@
         <v>45292</v>
       </c>
       <c r="B29" t="n">
-        <v>303027.2017124582</v>
+        <v>349507.9252991676</v>
       </c>
       <c r="C29" t="n">
-        <v>326791.816340517</v>
+        <v>303027.2438841106</v>
       </c>
       <c r="D29" t="n">
-        <v>379013.9463378191</v>
+        <v>330095.6479191423</v>
       </c>
       <c r="E29" t="n">
+        <v>349483.5997074842</v>
+      </c>
+      <c r="F29" t="n">
         <v>213037.1540754306</v>
       </c>
     </row>
@@ -9037,15 +9729,18 @@
         <v>45323</v>
       </c>
       <c r="B30" t="n">
-        <v>254863.1437533888</v>
+        <v>360556.4181237221</v>
       </c>
       <c r="C30" t="n">
-        <v>294623.5597733338</v>
+        <v>254863.1826659798</v>
       </c>
       <c r="D30" t="n">
-        <v>373035.775826335</v>
+        <v>322115.9725078526</v>
       </c>
       <c r="E30" t="n">
+        <v>367178.7066028118</v>
+      </c>
+      <c r="F30" t="n">
         <v>168672.3114747705</v>
       </c>
     </row>
@@ -9054,15 +9749,18 @@
         <v>45352</v>
       </c>
       <c r="B31" t="n">
-        <v>267098.6845002077</v>
+        <v>330938.7758653164</v>
       </c>
       <c r="C31" t="n">
-        <v>309395.0359865497</v>
+        <v>267098.7437698035</v>
       </c>
       <c r="D31" t="n">
-        <v>385176.0565060377</v>
+        <v>313049.9334197125</v>
       </c>
       <c r="E31" t="n">
+        <v>351174.4093724489</v>
+      </c>
+      <c r="F31" t="n">
         <v>230241.6692261397</v>
       </c>
     </row>
@@ -9071,15 +9769,18 @@
         <v>45383</v>
       </c>
       <c r="B32" t="n">
-        <v>211763.4980051675</v>
+        <v>326865.802811265</v>
       </c>
       <c r="C32" t="n">
-        <v>266056.4631130729</v>
+        <v>211763.5564347279</v>
       </c>
       <c r="D32" t="n">
-        <v>361124.5309611559</v>
+        <v>291819.3069321567</v>
       </c>
       <c r="E32" t="n">
+        <v>350345.6934100389</v>
+      </c>
+      <c r="F32" t="n">
         <v>180307.0920146088</v>
       </c>
     </row>
@@ -9088,15 +9789,18 @@
         <v>45413</v>
       </c>
       <c r="B33" t="n">
-        <v>257026.9260475409</v>
+        <v>346737.5070333481</v>
       </c>
       <c r="C33" t="n">
-        <v>298068.9377930138</v>
+        <v>257026.9858270561</v>
       </c>
       <c r="D33" t="n">
-        <v>373139.2994878292</v>
+        <v>314656.7493450278</v>
       </c>
       <c r="E33" t="n">
+        <v>351429.9103773832</v>
+      </c>
+      <c r="F33" t="n">
         <v>210223.2292145643</v>
       </c>
     </row>
@@ -9105,15 +9809,18 @@
         <v>45444</v>
       </c>
       <c r="B34" t="n">
-        <v>313075.6465014099</v>
+        <v>355154.2275896072</v>
       </c>
       <c r="C34" t="n">
-        <v>331981.8111404721</v>
+        <v>313075.7114229609</v>
       </c>
       <c r="D34" t="n">
-        <v>370741.5334864855</v>
+        <v>335760.987270989</v>
       </c>
       <c r="E34" t="n">
+        <v>345919.0282279253</v>
+      </c>
+      <c r="F34" t="n">
         <v>261498.5586691144</v>
       </c>
     </row>
@@ -9122,15 +9829,18 @@
         <v>45474</v>
       </c>
       <c r="B35" t="n">
-        <v>328828.6939740207</v>
+        <v>321476.351118803</v>
       </c>
       <c r="C35" t="n">
-        <v>338090.9180860562</v>
+        <v>328828.7579654094</v>
       </c>
       <c r="D35" t="n">
-        <v>360552.6655967236</v>
+        <v>329665.2496912739</v>
       </c>
       <c r="E35" t="n">
+        <v>345343.311585784</v>
+      </c>
+      <c r="F35" t="n">
         <v>278609.4832585234</v>
       </c>
     </row>
@@ -9139,15 +9849,18 @@
         <v>45505</v>
       </c>
       <c r="B36" t="n">
-        <v>273339.5158814964</v>
+        <v>334449.7915428877</v>
       </c>
       <c r="C36" t="n">
-        <v>308218.7593898384</v>
+        <v>273339.5631104768</v>
       </c>
       <c r="D36" t="n">
-        <v>375485.2542830706</v>
+        <v>316714.1907860073</v>
       </c>
       <c r="E36" t="n">
+        <v>354851.6883295774</v>
+      </c>
+      <c r="F36" t="n">
         <v>208645.8245708317</v>
       </c>
     </row>
@@ -9156,15 +9869,18 @@
         <v>45536</v>
       </c>
       <c r="B37" t="n">
-        <v>231446.4062612295</v>
+        <v>337302.7983195782</v>
       </c>
       <c r="C37" t="n">
-        <v>278416.2311338318</v>
+        <v>231446.4443339751</v>
       </c>
       <c r="D37" t="n">
-        <v>370934.6240423918</v>
+        <v>299415.5010116574</v>
       </c>
       <c r="E37" t="n">
+        <v>347521.2585055828</v>
+      </c>
+      <c r="F37" t="n">
         <v>130429.2623455103</v>
       </c>
     </row>
@@ -9173,15 +9889,18 @@
         <v>45566</v>
       </c>
       <c r="B38" t="n">
-        <v>275868.0910850656</v>
+        <v>341138.4075825214</v>
       </c>
       <c r="C38" t="n">
-        <v>310742.8997569066</v>
+        <v>275868.1281291808</v>
       </c>
       <c r="D38" t="n">
-        <v>386290.9849443436</v>
+        <v>316216.399960347</v>
       </c>
       <c r="E38" t="n">
+        <v>348700.4736564159</v>
+      </c>
+      <c r="F38" t="n">
         <v>151625.9767832904</v>
       </c>
     </row>
@@ -9190,15 +9909,18 @@
         <v>45597</v>
       </c>
       <c r="B39" t="n">
-        <v>300858.9567995011</v>
+        <v>373737.9592117071</v>
       </c>
       <c r="C39" t="n">
-        <v>321530.8314342416</v>
+        <v>300858.9927257499</v>
       </c>
       <c r="D39" t="n">
-        <v>374930.0448718071</v>
+        <v>335938.4802636686</v>
       </c>
       <c r="E39" t="n">
+        <v>348495.5000983477</v>
+      </c>
+      <c r="F39" t="n">
         <v>165299.824813613</v>
       </c>
     </row>

--- a/fcst_results/orig_series_IAH-Int_results.xlsx
+++ b/fcst_results/orig_series_IAH-Int_results.xlsx
@@ -58,7 +58,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -75,6 +74,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -412,19 +479,19 @@
         <v>44470</v>
       </c>
       <c r="B2" t="n">
-        <v>330055.055757165</v>
+        <v>328512.7013269663</v>
       </c>
       <c r="C2" t="n">
-        <v>320866.927567482</v>
+        <v>289006.9200091362</v>
       </c>
       <c r="D2" t="n">
-        <v>301421.5771608846</v>
+        <v>301421.5766542687</v>
       </c>
       <c r="E2" t="n">
         <v>237909.6658678285</v>
       </c>
       <c r="F2" t="n">
-        <v>314686.7148449883</v>
+        <v>304252.4167242306</v>
       </c>
     </row>
     <row r="3">
@@ -432,19 +499,19 @@
         <v>44501</v>
       </c>
       <c r="B3" t="n">
-        <v>318164.2193721533</v>
+        <v>326025.862184763</v>
       </c>
       <c r="C3" t="n">
-        <v>300379.5126655102</v>
+        <v>329478.9441121817</v>
       </c>
       <c r="D3" t="n">
-        <v>330448.6832331219</v>
+        <v>330448.6784802167</v>
       </c>
       <c r="E3" t="n">
         <v>253360.9167199809</v>
       </c>
       <c r="F3" t="n">
-        <v>314017.5468636747</v>
+        <v>326432.8143424118</v>
       </c>
     </row>
     <row r="4">
@@ -452,19 +519,19 @@
         <v>44531</v>
       </c>
       <c r="B4" t="n">
-        <v>311917.0519253016</v>
+        <v>335572.3237859011</v>
       </c>
       <c r="C4" t="n">
-        <v>327611.6998444796</v>
+        <v>307518.9915323257</v>
       </c>
       <c r="D4" t="n">
-        <v>419332.2205968756</v>
+        <v>419332.212600098</v>
       </c>
       <c r="E4" t="n">
         <v>319890.449488445</v>
       </c>
       <c r="F4" t="n">
-        <v>352545.5913846163</v>
+        <v>353266.8106867947</v>
       </c>
     </row>
     <row r="5">
@@ -472,19 +539,19 @@
         <v>44562</v>
       </c>
       <c r="B5" t="n">
-        <v>297748.9254057407</v>
+        <v>327449.8803468943</v>
       </c>
       <c r="C5" t="n">
-        <v>333575.7819212675</v>
+        <v>299890.7953993082</v>
       </c>
       <c r="D5" t="n">
-        <v>340470.8315165763</v>
+        <v>340470.8198964694</v>
       </c>
       <c r="E5" t="n">
         <v>269269.0763516328</v>
       </c>
       <c r="F5" t="n">
-        <v>323098.0691303523</v>
+        <v>321051.3473626237</v>
       </c>
     </row>
     <row r="6">
@@ -492,19 +559,19 @@
         <v>44593</v>
       </c>
       <c r="B6" t="n">
-        <v>336787.8462812901</v>
+        <v>339051.5417346954</v>
       </c>
       <c r="C6" t="n">
-        <v>331061.7863336802</v>
+        <v>292786.1426163912</v>
       </c>
       <c r="D6" t="n">
-        <v>288946.3972521224</v>
+        <v>288946.3864360521</v>
       </c>
       <c r="E6" t="n">
         <v>227426.2772998255</v>
       </c>
       <c r="F6" t="n">
-        <v>315817.3992249403</v>
+        <v>304502.2999931627</v>
       </c>
     </row>
     <row r="7">
@@ -512,19 +579,19 @@
         <v>44621</v>
       </c>
       <c r="B7" t="n">
-        <v>344469.9603022337</v>
+        <v>333728.2201013565</v>
       </c>
       <c r="C7" t="n">
-        <v>334062.2608380318</v>
+        <v>317971.326317668</v>
       </c>
       <c r="D7" t="n">
-        <v>293852.4134323303</v>
+        <v>293852.3750744588</v>
       </c>
       <c r="E7" t="n">
-        <v>281555.1448826159</v>
+        <v>281555.144882616</v>
       </c>
       <c r="F7" t="n">
-        <v>322437.4936040284</v>
+        <v>314127.3986958273</v>
       </c>
     </row>
     <row r="8">
@@ -532,19 +599,19 @@
         <v>44652</v>
       </c>
       <c r="B8" t="n">
-        <v>347075.8269674778</v>
+        <v>328810.9943064451</v>
       </c>
       <c r="C8" t="n">
-        <v>321544.5549428463</v>
+        <v>319258.8709979057</v>
       </c>
       <c r="D8" t="n">
-        <v>219030.1684519101</v>
+        <v>219030.1178269128</v>
       </c>
       <c r="E8" t="n">
         <v>239001.292239888</v>
       </c>
       <c r="F8" t="n">
-        <v>293213.0062900797</v>
+        <v>287378.6314887158</v>
       </c>
     </row>
     <row r="9">
@@ -552,19 +619,19 @@
         <v>44682</v>
       </c>
       <c r="B9" t="n">
-        <v>334150.116053462</v>
+        <v>325840.4412673712</v>
       </c>
       <c r="C9" t="n">
-        <v>331233.6125699282</v>
+        <v>305393.6129074097</v>
       </c>
       <c r="D9" t="n">
-        <v>259453.2764103757</v>
+        <v>259453.2199462371</v>
       </c>
       <c r="E9" t="n">
         <v>270931.6339870065</v>
       </c>
       <c r="F9" t="n">
-        <v>306844.7496257848</v>
+        <v>296023.4316845852</v>
       </c>
     </row>
     <row r="10">
@@ -572,19 +639,19 @@
         <v>44713</v>
       </c>
       <c r="B10" t="n">
-        <v>320164.3162623644</v>
+        <v>338580.5008456707</v>
       </c>
       <c r="C10" t="n">
-        <v>315676.4256397486</v>
+        <v>315654.6017327309</v>
       </c>
       <c r="D10" t="n">
-        <v>314243.1906952466</v>
+        <v>314243.1274654085</v>
       </c>
       <c r="E10" t="n">
         <v>322606.7886248189</v>
       </c>
       <c r="F10" t="n">
-        <v>316768.2753401938</v>
+        <v>322782.6650844031</v>
       </c>
     </row>
     <row r="11">
@@ -592,19 +659,19 @@
         <v>44743</v>
       </c>
       <c r="B11" t="n">
-        <v>340509.5630581379</v>
+        <v>347562.635053277</v>
       </c>
       <c r="C11" t="n">
-        <v>337130.0504100323</v>
+        <v>312856.8624370098</v>
       </c>
       <c r="D11" t="n">
-        <v>330452.5268980288</v>
+        <v>330452.4641152457</v>
       </c>
       <c r="E11" t="n">
         <v>337319.5932923692</v>
       </c>
       <c r="F11" t="n">
-        <v>335971.9118387104</v>
+        <v>330474.2971058153</v>
       </c>
     </row>
     <row r="12">
@@ -612,19 +679,19 @@
         <v>44774</v>
       </c>
       <c r="B12" t="n">
-        <v>340836.3291591406</v>
+        <v>333171.5952632427</v>
       </c>
       <c r="C12" t="n">
-        <v>352611.5942959785</v>
+        <v>333076.1362431049</v>
       </c>
       <c r="D12" t="n">
-        <v>276961.4563110399</v>
+        <v>276961.4126227596</v>
       </c>
       <c r="E12" t="n">
         <v>266376.5056685093</v>
       </c>
       <c r="F12" t="n">
-        <v>321758.8508200543</v>
+        <v>312893.0463500477</v>
       </c>
     </row>
     <row r="13">
@@ -632,19 +699,19 @@
         <v>44805</v>
       </c>
       <c r="B13" t="n">
-        <v>353183.2292420864</v>
+        <v>327965.8857260942</v>
       </c>
       <c r="C13" t="n">
-        <v>345203.0197430849</v>
+        <v>320694.2125748396</v>
       </c>
       <c r="D13" t="n">
-        <v>234784.6467521381</v>
+        <v>234784.6115813034</v>
       </c>
       <c r="E13" t="n">
         <v>184179.0482621371</v>
       </c>
       <c r="F13" t="n">
-        <v>306595.2433261461</v>
+        <v>291072.1729847607</v>
       </c>
     </row>
     <row r="14">
@@ -652,19 +719,19 @@
         <v>44835</v>
       </c>
       <c r="B14" t="n">
-        <v>344944.8195520639</v>
+        <v>344368.0824859142</v>
       </c>
       <c r="C14" t="n">
-        <v>329427.0341553688</v>
+        <v>308949.0334877968</v>
       </c>
       <c r="D14" t="n">
-        <v>278721.1197505922</v>
+        <v>278721.0853976347</v>
       </c>
       <c r="E14" t="n">
         <v>208124.9386780533</v>
       </c>
       <c r="F14" t="n">
-        <v>313760.0781817181</v>
+        <v>307546.2232109497</v>
       </c>
     </row>
     <row r="15">
@@ -672,19 +739,19 @@
         <v>44866</v>
       </c>
       <c r="B15" t="n">
-        <v>354208.3932845592</v>
+        <v>342377.6631653309</v>
       </c>
       <c r="C15" t="n">
-        <v>354796.1575133801</v>
+        <v>303861.6602187157</v>
       </c>
       <c r="D15" t="n">
-        <v>302799.2166932539</v>
+        <v>302799.1838191341</v>
       </c>
       <c r="E15" t="n">
         <v>225350.7003419966</v>
       </c>
       <c r="F15" t="n">
-        <v>333638.8854519605</v>
+        <v>313596.9516913206</v>
       </c>
     </row>
     <row r="16">
@@ -692,19 +759,19 @@
         <v>44896</v>
       </c>
       <c r="B16" t="n">
-        <v>343876.1722800732</v>
+        <v>350322.124907136</v>
       </c>
       <c r="C16" t="n">
-        <v>347335.8705050945</v>
+        <v>311915.9985843897</v>
       </c>
       <c r="D16" t="n">
-        <v>386671.2982425368</v>
+        <v>386671.2633577595</v>
       </c>
       <c r="E16" t="n">
         <v>292693.0546175304</v>
       </c>
       <c r="F16" t="n">
-        <v>357401.2956441351</v>
+        <v>348016.0351906199</v>
       </c>
     </row>
     <row r="17">
@@ -712,19 +779,19 @@
         <v>44927</v>
       </c>
       <c r="B17" t="n">
-        <v>339391.375846386</v>
+        <v>357090.4656870365</v>
       </c>
       <c r="C17" t="n">
-        <v>332892.6903399229</v>
+        <v>313459.8342752457</v>
       </c>
       <c r="D17" t="n">
-        <v>304381.7491225498</v>
+        <v>304381.7090716425</v>
       </c>
       <c r="E17" t="n">
         <v>241180.9959155005</v>
       </c>
       <c r="F17" t="n">
-        <v>322682.4358114549</v>
+        <v>322420.2265463475</v>
       </c>
     </row>
     <row r="18">
@@ -732,19 +799,19 @@
         <v>44958</v>
       </c>
       <c r="B18" t="n">
-        <v>328145.6449360847</v>
+        <v>344829.3799715042</v>
       </c>
       <c r="C18" t="n">
-        <v>349527.6096074581</v>
+        <v>314867.986489892</v>
       </c>
       <c r="D18" t="n">
-        <v>256148.1202861682</v>
+        <v>256148.0829751698</v>
       </c>
       <c r="E18" t="n">
         <v>198074.6162606399</v>
       </c>
       <c r="F18" t="n">
-        <v>307989.1795384227</v>
+        <v>301973.4414778234</v>
       </c>
     </row>
     <row r="19">
@@ -752,19 +819,19 @@
         <v>44986</v>
       </c>
       <c r="B19" t="n">
-        <v>372196.4277040958</v>
+        <v>336532.8390299082</v>
       </c>
       <c r="C19" t="n">
-        <v>331244.8701509237</v>
+        <v>323878.2975668907</v>
       </c>
       <c r="D19" t="n">
-        <v>268057.1635662459</v>
+        <v>268057.1055993116</v>
       </c>
       <c r="E19" t="n">
         <v>249157.5171221843</v>
       </c>
       <c r="F19" t="n">
-        <v>320344.1587213284</v>
+        <v>307597.2284159689</v>
       </c>
     </row>
     <row r="20">
@@ -772,19 +839,19 @@
         <v>45017</v>
       </c>
       <c r="B20" t="n">
-        <v>343747.8292733431</v>
+        <v>359930.6677882671</v>
       </c>
       <c r="C20" t="n">
-        <v>341925.1544929743</v>
+        <v>313564.1150255203</v>
       </c>
       <c r="D20" t="n">
-        <v>212497.6871153303</v>
+        <v>212497.6299248364</v>
       </c>
       <c r="E20" t="n">
         <v>210426.4297828418</v>
       </c>
       <c r="F20" t="n">
-        <v>296209.94305552</v>
+        <v>292588.4900794987</v>
       </c>
     </row>
     <row r="21">
@@ -792,19 +859,19 @@
         <v>45047</v>
       </c>
       <c r="B21" t="n">
-        <v>348807.3877589703</v>
+        <v>359572.400210619</v>
       </c>
       <c r="C21" t="n">
-        <v>329799.0939155817</v>
+        <v>313756.6789109707</v>
       </c>
       <c r="D21" t="n">
-        <v>257740.2163509536</v>
+        <v>257740.1577890346</v>
       </c>
       <c r="E21" t="n">
-        <v>243274.2587527444</v>
+        <v>243274.2587527445</v>
       </c>
       <c r="F21" t="n">
-        <v>309310.2723246166</v>
+        <v>308214.2877973611</v>
       </c>
     </row>
     <row r="22">
@@ -812,19 +879,19 @@
         <v>45078</v>
       </c>
       <c r="B22" t="n">
-        <v>339914.820445776</v>
+        <v>357591.6255427599</v>
       </c>
       <c r="C22" t="n">
-        <v>345095.3485517502</v>
+        <v>317590.4777442217</v>
       </c>
       <c r="D22" t="n">
-        <v>313759.0988127182</v>
+        <v>313759.034910945</v>
       </c>
       <c r="E22" t="n">
         <v>295048.2070439143</v>
       </c>
       <c r="F22" t="n">
-        <v>331776.6213626058</v>
+        <v>328557.8670371364</v>
       </c>
     </row>
     <row r="23">
@@ -832,19 +899,19 @@
         <v>45108</v>
       </c>
       <c r="B23" t="n">
-        <v>342315.7464698553</v>
+        <v>343938.5827291012</v>
       </c>
       <c r="C23" t="n">
-        <v>330924.2595108747</v>
+        <v>321564.2063342333</v>
       </c>
       <c r="D23" t="n">
-        <v>329378.4334879573</v>
+        <v>329378.3702304029</v>
       </c>
       <c r="E23" t="n">
         <v>308499.171536146</v>
       </c>
       <c r="F23" t="n">
-        <v>333125.1504166825</v>
+        <v>330922.3092098532</v>
       </c>
     </row>
     <row r="24">
@@ -852,19 +919,19 @@
         <v>45139</v>
       </c>
       <c r="B24" t="n">
-        <v>357101.3611820936</v>
+        <v>347762.407740593</v>
       </c>
       <c r="C24" t="n">
-        <v>344176.3744399548</v>
+        <v>306798.7367669344</v>
       </c>
       <c r="D24" t="n">
-        <v>273766.5034968133</v>
+        <v>273766.4568796919</v>
       </c>
       <c r="E24" t="n">
         <v>237095.5833340205</v>
       </c>
       <c r="F24" t="n">
-        <v>321762.7383502393</v>
+        <v>307189.2074255299</v>
       </c>
     </row>
     <row r="25">
@@ -872,19 +939,19 @@
         <v>45170</v>
       </c>
       <c r="B25" t="n">
-        <v>352004.2774264812</v>
+        <v>330220.2327789068</v>
       </c>
       <c r="C25" t="n">
-        <v>346909.2674357891</v>
+        <v>316468.6367561817</v>
       </c>
       <c r="D25" t="n">
-        <v>231833.0365899653</v>
+        <v>231832.9991593398</v>
       </c>
       <c r="E25" t="n">
         <v>153016.9563506184</v>
       </c>
       <c r="F25" t="n">
-        <v>304893.9160538405</v>
+        <v>288551.0160260787</v>
       </c>
     </row>
     <row r="26">
@@ -892,19 +959,19 @@
         <v>45200</v>
       </c>
       <c r="B26" t="n">
-        <v>349209.2702337503</v>
+        <v>361158.2378703356</v>
       </c>
       <c r="C26" t="n">
-        <v>339601.4844413996</v>
+        <v>304119.3008223772</v>
       </c>
       <c r="D26" t="n">
-        <v>276233.3460204019</v>
+        <v>276233.3095742022</v>
       </c>
       <c r="E26" t="n">
         <v>178408.4395346413</v>
       </c>
       <c r="F26" t="n">
-        <v>316796.3989064043</v>
+        <v>309703.3068510257</v>
       </c>
     </row>
     <row r="27">
@@ -912,19 +979,19 @@
         <v>45231</v>
       </c>
       <c r="B27" t="n">
-        <v>360685.68280375</v>
+        <v>345419.2508821487</v>
       </c>
       <c r="C27" t="n">
-        <v>336413.4165040255</v>
+        <v>311060.0603427887</v>
       </c>
       <c r="D27" t="n">
-        <v>301167.1865144034</v>
+        <v>301167.1510240989</v>
       </c>
       <c r="E27" t="n">
         <v>197402.8110617171</v>
       </c>
       <c r="F27" t="n">
-        <v>327844.1469431137</v>
+        <v>315547.5424856062</v>
       </c>
     </row>
     <row r="28">
@@ -932,19 +999,19 @@
         <v>45261</v>
       </c>
       <c r="B28" t="n">
-        <v>354109.3792388439</v>
+        <v>349160.4544658661</v>
       </c>
       <c r="C28" t="n">
-        <v>339701.1897420883</v>
+        <v>317634.652228713</v>
       </c>
       <c r="D28" t="n">
-        <v>385408.5588154499</v>
+        <v>385408.5213084235</v>
       </c>
       <c r="E28" t="n">
         <v>265461.0283505826</v>
       </c>
       <c r="F28" t="n">
-        <v>356570.5803429538</v>
+        <v>348275.9901471192</v>
       </c>
     </row>
     <row r="29">
@@ -952,19 +1019,19 @@
         <v>45292</v>
       </c>
       <c r="B29" t="n">
-        <v>349483.5997074842</v>
+        <v>357091.4202772379</v>
       </c>
       <c r="C29" t="n">
-        <v>349507.9252991676</v>
+        <v>325563.6759427786</v>
       </c>
       <c r="D29" t="n">
-        <v>303027.2438841106</v>
+        <v>303027.2017124582</v>
       </c>
       <c r="E29" t="n">
         <v>213037.1540754306</v>
       </c>
       <c r="F29" t="n">
-        <v>330095.6479191423</v>
+        <v>325062.5818446553</v>
       </c>
     </row>
     <row r="30">
@@ -972,19 +1039,19 @@
         <v>45323</v>
       </c>
       <c r="B30" t="n">
-        <v>367178.7066028118</v>
+        <v>343287.519294858</v>
       </c>
       <c r="C30" t="n">
-        <v>360556.4181237221</v>
+        <v>325487.7695633173</v>
       </c>
       <c r="D30" t="n">
-        <v>254863.1826659798</v>
+        <v>254863.1437533888</v>
       </c>
       <c r="E30" t="n">
         <v>168672.3114747705</v>
       </c>
       <c r="F30" t="n">
-        <v>322115.9725078526</v>
+        <v>303624.5628642914</v>
       </c>
     </row>
     <row r="31">
@@ -992,19 +1059,19 @@
         <v>45352</v>
       </c>
       <c r="B31" t="n">
-        <v>351174.4093724489</v>
+        <v>357994.9234443903</v>
       </c>
       <c r="C31" t="n">
-        <v>330938.7758653164</v>
+        <v>330496.8993527889</v>
       </c>
       <c r="D31" t="n">
-        <v>267098.7437698035</v>
+        <v>267098.6845002077</v>
       </c>
       <c r="E31" t="n">
         <v>230241.6692261397</v>
       </c>
       <c r="F31" t="n">
-        <v>313049.9334197125</v>
+        <v>315777.098372372</v>
       </c>
     </row>
     <row r="32">
@@ -1012,19 +1079,19 @@
         <v>45383</v>
       </c>
       <c r="B32" t="n">
-        <v>350345.6934100389</v>
+        <v>354323.701197505</v>
       </c>
       <c r="C32" t="n">
-        <v>326865.802811265</v>
+        <v>327181.8380017281</v>
       </c>
       <c r="D32" t="n">
-        <v>211763.5564347279</v>
+        <v>211763.4980051675</v>
       </c>
       <c r="E32" t="n">
         <v>180307.0920146088</v>
       </c>
       <c r="F32" t="n">
-        <v>291819.3069321567</v>
+        <v>294058.1182856153</v>
       </c>
     </row>
     <row r="33">
@@ -1032,19 +1099,19 @@
         <v>45413</v>
       </c>
       <c r="B33" t="n">
-        <v>351429.9103773832</v>
+        <v>360011.1825342178</v>
       </c>
       <c r="C33" t="n">
-        <v>346737.5070333481</v>
+        <v>312435.3285708427</v>
       </c>
       <c r="D33" t="n">
-        <v>257026.9858270561</v>
+        <v>257026.9260475409</v>
       </c>
       <c r="E33" t="n">
         <v>210223.2292145643</v>
       </c>
       <c r="F33" t="n">
-        <v>314656.7493450278</v>
+        <v>306719.6039355659</v>
       </c>
     </row>
     <row r="34">
@@ -1052,19 +1119,19 @@
         <v>45444</v>
       </c>
       <c r="B34" t="n">
-        <v>345919.0282279253</v>
+        <v>356098.31729877</v>
       </c>
       <c r="C34" t="n">
-        <v>355154.2275896072</v>
+        <v>308751.8941527605</v>
       </c>
       <c r="D34" t="n">
-        <v>313075.7114229609</v>
+        <v>313075.6465014099</v>
       </c>
       <c r="E34" t="n">
         <v>261498.5586691144</v>
       </c>
       <c r="F34" t="n">
-        <v>335760.987270989</v>
+        <v>324005.1410658011</v>
       </c>
     </row>
     <row r="35">
@@ -1072,19 +1139,19 @@
         <v>45474</v>
       </c>
       <c r="B35" t="n">
-        <v>345343.311585784</v>
+        <v>348844.7813613415</v>
       </c>
       <c r="C35" t="n">
-        <v>321476.351118803</v>
+        <v>330961.0276920795</v>
       </c>
       <c r="D35" t="n">
-        <v>328828.7579654094</v>
+        <v>328828.6939740207</v>
       </c>
       <c r="E35" t="n">
         <v>278609.4832585234</v>
       </c>
       <c r="F35" t="n">
-        <v>329665.2496912739</v>
+        <v>334478.6576201501</v>
       </c>
     </row>
     <row r="36">
@@ -1092,19 +1159,19 @@
         <v>45505</v>
       </c>
       <c r="B36" t="n">
-        <v>354851.6883295774</v>
+        <v>343458.0946887732</v>
       </c>
       <c r="C36" t="n">
-        <v>334449.7915428877</v>
+        <v>319452.159055233</v>
       </c>
       <c r="D36" t="n">
-        <v>273339.5631104768</v>
+        <v>273339.5158814964</v>
       </c>
       <c r="E36" t="n">
         <v>208645.8245708317</v>
       </c>
       <c r="F36" t="n">
-        <v>316714.1907860073</v>
+        <v>308915.6236238529</v>
       </c>
     </row>
     <row r="37">
@@ -1112,19 +1179,19 @@
         <v>45536</v>
       </c>
       <c r="B37" t="n">
-        <v>347521.2585055828</v>
+        <v>351083.8220540285</v>
       </c>
       <c r="C37" t="n">
-        <v>337302.7983195782</v>
+        <v>310884.6461640596</v>
       </c>
       <c r="D37" t="n">
-        <v>231446.4443339751</v>
+        <v>231446.4062612295</v>
       </c>
       <c r="E37" t="n">
         <v>130429.2623455103</v>
       </c>
       <c r="F37" t="n">
-        <v>299415.5010116574</v>
+        <v>292669.4796414347</v>
       </c>
     </row>
     <row r="38">
@@ -1132,19 +1199,19 @@
         <v>45566</v>
       </c>
       <c r="B38" t="n">
-        <v>348700.4736564159</v>
+        <v>344926.3531692028</v>
       </c>
       <c r="C38" t="n">
-        <v>341138.4075825214</v>
+        <v>325705.317378521</v>
       </c>
       <c r="D38" t="n">
-        <v>275868.1281291808</v>
+        <v>275868.0910850656</v>
       </c>
       <c r="E38" t="n">
         <v>151625.9767832904</v>
       </c>
       <c r="F38" t="n">
-        <v>316216.399960347</v>
+        <v>310547.3721987462</v>
       </c>
     </row>
     <row r="39">
@@ -1152,19 +1219,19 @@
         <v>45597</v>
       </c>
       <c r="B39" t="n">
-        <v>348495.5000983477</v>
+        <v>335928.4188479185</v>
       </c>
       <c r="C39" t="n">
-        <v>373737.9592117071</v>
+        <v>336873.3643965721</v>
       </c>
       <c r="D39" t="n">
-        <v>300858.9927257499</v>
+        <v>300858.9567995011</v>
       </c>
       <c r="E39" t="n">
         <v>165299.824813613</v>
       </c>
       <c r="F39" t="n">
-        <v>335938.4802636686</v>
+        <v>319790.3477587844</v>
       </c>
     </row>
   </sheetData>
@@ -1356,25 +1423,21 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>lstm</t>
+          <t>arima</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>rnn</t>
+          <t>arima</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
         <is>
-          <t>{'lags': 36, 'epochs': 15, 'validation_split': 0.2, 'shuffle': True, 'hidden_layers_struct': {'lstm': {'units': 72, 'dropout': 0}}, 'verbose': 0, 'random_seed': 1}</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>minmax</t>
-        </is>
-      </c>
+          <t>{'order': (4, 0, 2), 'seasonal_order': (0, 1, 2, 12), 'trend': None}</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="n">
         <v>249</v>
       </c>
@@ -1391,19 +1454,19 @@
         <v>74</v>
       </c>
       <c r="K2" t="n">
-        <v>157170.0045104478</v>
+        <v>151537.9812989001</v>
       </c>
       <c r="L2" t="n">
-        <v>1.485142199016892</v>
+        <v>1.511243293116215</v>
       </c>
       <c r="M2" t="n">
-        <v>112338.5982745338</v>
+        <v>88358.46170687856</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.1761875749283168</v>
+        <v>-0.09340297464265102</v>
       </c>
       <c r="O2" t="n">
-        <v>338218.0638218522</v>
+        <v>358495.2450820481</v>
       </c>
       <c r="P2" t="n">
         <v>252301</v>
@@ -1412,19 +1475,19 @@
         <v>0.95</v>
       </c>
       <c r="R2" t="n">
-        <v>224191.034457843</v>
+        <v>87003.83731021427</v>
       </c>
       <c r="S2" t="n">
-        <v>101204.7032799311</v>
+        <v>39195.67532417826</v>
       </c>
       <c r="T2" t="n">
-        <v>0.6033600769119026</v>
+        <v>0.148140427669229</v>
       </c>
       <c r="U2" t="n">
-        <v>67352.33407906823</v>
+        <v>22000.90262724375</v>
       </c>
       <c r="V2" t="n">
-        <v>-0.004074202033055752</v>
+        <v>0.8550923345239461</v>
       </c>
       <c r="W2" t="inlineStr"/>
       <c r="X2" t="inlineStr"/>
@@ -1435,16 +1498,16 @@
       <c r="AA2" t="inlineStr"/>
       <c r="AB2" t="inlineStr"/>
       <c r="AC2" t="n">
-        <v>157170.0045104478</v>
+        <v>151537.9812989001</v>
       </c>
       <c r="AD2" t="n">
-        <v>1.485142199016892</v>
+        <v>1.511243293116215</v>
       </c>
       <c r="AE2" t="n">
-        <v>112338.5982745338</v>
+        <v>88358.46170687856</v>
       </c>
       <c r="AF2" t="n">
-        <v>-0.1761875749283168</v>
+        <v>-0.09340297464265102</v>
       </c>
       <c r="AG2" t="b">
         <v>1</v>
@@ -1453,21 +1516,25 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>arima</t>
+          <t>lstm</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>arima</t>
+          <t>rnn</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
         <is>
-          <t>{'order': (4, 0, 2), 'seasonal_order': (0, 1, 2, 12), 'trend': None}</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr"/>
+          <t>{'lags': 36, 'epochs': 15, 'validation_split': 0.2, 'shuffle': True, 'hidden_layers_struct': {'lstm': {'units': 72, 'dropout': 0}}, 'verbose': 0, 'random_seed': 1}</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>minmax</t>
+        </is>
+      </c>
       <c r="F3" t="n">
         <v>249</v>
       </c>
@@ -1484,19 +1551,19 @@
         <v>74</v>
       </c>
       <c r="K3" t="n">
-        <v>151540.4985982018</v>
+        <v>160723.1026085568</v>
       </c>
       <c r="L3" t="n">
-        <v>1.511243670158461</v>
+        <v>1.51365530329847</v>
       </c>
       <c r="M3" t="n">
-        <v>88355.82638978961</v>
+        <v>120352.4136708886</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.09343930144840784</v>
+        <v>-0.229968165304137</v>
       </c>
       <c r="O3" t="n">
-        <v>358509.2136830766</v>
+        <v>426900.1875940561</v>
       </c>
       <c r="P3" t="n">
         <v>252301</v>
@@ -1505,19 +1572,19 @@
         <v>0.95</v>
       </c>
       <c r="R3" t="n">
-        <v>82680.47090100731</v>
+        <v>210781.1399937359</v>
       </c>
       <c r="S3" t="n">
-        <v>39195.67555356155</v>
+        <v>99141.61523419782</v>
       </c>
       <c r="T3" t="n">
-        <v>0.1481404192987691</v>
+        <v>0.6058061905880002</v>
       </c>
       <c r="U3" t="n">
-        <v>22000.90324779396</v>
+        <v>63391.26529395046</v>
       </c>
       <c r="V3" t="n">
-        <v>0.8550923328278712</v>
+        <v>0.03644524836216223</v>
       </c>
       <c r="W3" t="inlineStr"/>
       <c r="X3" t="inlineStr"/>
@@ -1528,16 +1595,16 @@
       <c r="AA3" t="inlineStr"/>
       <c r="AB3" t="inlineStr"/>
       <c r="AC3" t="n">
-        <v>151540.4985982018</v>
+        <v>160723.1026085568</v>
       </c>
       <c r="AD3" t="n">
-        <v>1.511243670158461</v>
+        <v>1.51365530329847</v>
       </c>
       <c r="AE3" t="n">
-        <v>88355.82638978961</v>
+        <v>120352.4136708886</v>
       </c>
       <c r="AF3" t="n">
-        <v>-0.09343930144840784</v>
+        <v>-0.229968165304137</v>
       </c>
       <c r="AG3" t="b">
         <v>0</v>
@@ -1575,19 +1642,19 @@
         <v>74</v>
       </c>
       <c r="K4" t="n">
-        <v>156205.4952880543</v>
+        <v>154306.064507527</v>
       </c>
       <c r="L4" t="n">
-        <v>1.519977314009543</v>
+        <v>1.514660508999777</v>
       </c>
       <c r="M4" t="n">
-        <v>107443.4301301883</v>
+        <v>108382.7064270278</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.1617959881666093</v>
+        <v>-0.1337133114566431</v>
       </c>
       <c r="O4" t="n">
-        <v>376560.9842407824</v>
+        <v>414383.7297962908</v>
       </c>
       <c r="P4" t="n">
         <v>252301</v>
@@ -1596,19 +1663,19 @@
         <v>0.95</v>
       </c>
       <c r="R4" t="n">
-        <v>177746.426115563</v>
+        <v>152382.9567043732</v>
       </c>
       <c r="S4" t="n">
-        <v>70156.58242003263</v>
+        <v>69813.25955877545</v>
       </c>
       <c r="T4" t="n">
-        <v>0.4314670514144189</v>
+        <v>0.4354806554801487</v>
       </c>
       <c r="U4" t="n">
-        <v>45917.04888184273</v>
+        <v>44911.99555490345</v>
       </c>
       <c r="V4" t="n">
-        <v>0.5174956127528014</v>
+        <v>0.5222064880983281</v>
       </c>
       <c r="W4" t="inlineStr"/>
       <c r="X4" t="inlineStr"/>
@@ -1616,25 +1683,25 @@
       <c r="Z4" t="inlineStr"/>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>['lstm', 'arima', 'lstm_reg', 'prophet']</t>
+          <t>['arima', 'lstm', 'lstm_reg', 'prophet']</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>(0.344103627093033, 0.3256386375871177, 0.2989755874023008, 0.03128214791754846)</t>
+          <t>(0.32509438643330757, 0.3233811946111187, 0.3219703838252729, 0.029554035130300686)</t>
         </is>
       </c>
       <c r="AC4" t="n">
-        <v>156205.4952880543</v>
+        <v>154306.064507527</v>
       </c>
       <c r="AD4" t="n">
-        <v>1.519977314009543</v>
+        <v>1.514660508999777</v>
       </c>
       <c r="AE4" t="n">
-        <v>107443.4301301883</v>
+        <v>108382.7064270278</v>
       </c>
       <c r="AF4" t="n">
-        <v>-0.1617959881666093</v>
+        <v>-0.1337133114566431</v>
       </c>
       <c r="AG4" t="b">
         <v>0</v>
@@ -1678,19 +1745,19 @@
         <v>74</v>
       </c>
       <c r="K5" t="n">
-        <v>176261.3311707298</v>
+        <v>167858.9824097803</v>
       </c>
       <c r="L5" t="n">
-        <v>1.54893363660671</v>
+        <v>1.515641589910759</v>
       </c>
       <c r="M5" t="n">
-        <v>129847.5984068553</v>
+        <v>129165.4426235495</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.4792832761220365</v>
+        <v>-0.3416104365455208</v>
       </c>
       <c r="O5" t="n">
-        <v>429370.6394199133</v>
+        <v>452080.2261189222</v>
       </c>
       <c r="P5" t="n">
         <v>252301</v>
@@ -1699,19 +1766,19 @@
         <v>0.95</v>
       </c>
       <c r="R5" t="n">
-        <v>207900.3522297689</v>
+        <v>178148.6344884059</v>
       </c>
       <c r="S5" t="n">
-        <v>101071.962960017</v>
+        <v>102003.1887327395</v>
       </c>
       <c r="T5" t="n">
-        <v>0.6101954133890002</v>
+        <v>0.6172406838001594</v>
       </c>
       <c r="U5" t="n">
-        <v>67272.18222281562</v>
+        <v>67734.84322105939</v>
       </c>
       <c r="V5" t="n">
-        <v>-0.001442037310251498</v>
+        <v>-0.0199806055670908</v>
       </c>
       <c r="W5" t="inlineStr"/>
       <c r="X5" t="inlineStr"/>
@@ -1722,16 +1789,16 @@
       <c r="AA5" t="inlineStr"/>
       <c r="AB5" t="inlineStr"/>
       <c r="AC5" t="n">
-        <v>176261.3311707298</v>
+        <v>167858.9824097803</v>
       </c>
       <c r="AD5" t="n">
-        <v>1.54893363660671</v>
+        <v>1.515641589910759</v>
       </c>
       <c r="AE5" t="n">
-        <v>129847.5984068553</v>
+        <v>129165.4426235495</v>
       </c>
       <c r="AF5" t="n">
-        <v>-0.4792832761220365</v>
+        <v>-0.3416104365455208</v>
       </c>
       <c r="AG5" t="b">
         <v>0</v>
@@ -1792,7 +1859,7 @@
         <v>0.95</v>
       </c>
       <c r="R6" t="n">
-        <v>155657.4219100965</v>
+        <v>135956.8091790743</v>
       </c>
       <c r="S6" t="n">
         <v>65110.63286527008</v>
@@ -5108,11 +5175,11 @@
         <v>44470</v>
       </c>
       <c r="B251" t="n">
-        <v>320866.927567482</v>
+        <v>301421.5766542687</v>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>lstm</t>
+          <t>arima</t>
         </is>
       </c>
     </row>
@@ -5121,11 +5188,11 @@
         <v>44501</v>
       </c>
       <c r="B252" t="n">
-        <v>300379.5126655102</v>
+        <v>330448.6784802167</v>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>lstm</t>
+          <t>arima</t>
         </is>
       </c>
     </row>
@@ -5134,11 +5201,11 @@
         <v>44531</v>
       </c>
       <c r="B253" t="n">
-        <v>327611.6998444796</v>
+        <v>419332.212600098</v>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>lstm</t>
+          <t>arima</t>
         </is>
       </c>
     </row>
@@ -5147,11 +5214,11 @@
         <v>44562</v>
       </c>
       <c r="B254" t="n">
-        <v>333575.7819212675</v>
+        <v>340470.8198964694</v>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>lstm</t>
+          <t>arima</t>
         </is>
       </c>
     </row>
@@ -5160,11 +5227,11 @@
         <v>44593</v>
       </c>
       <c r="B255" t="n">
-        <v>331061.7863336802</v>
+        <v>288946.3864360521</v>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>lstm</t>
+          <t>arima</t>
         </is>
       </c>
     </row>
@@ -5173,11 +5240,11 @@
         <v>44621</v>
       </c>
       <c r="B256" t="n">
-        <v>334062.2608380318</v>
+        <v>293852.3750744588</v>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>lstm</t>
+          <t>arima</t>
         </is>
       </c>
     </row>
@@ -5186,11 +5253,11 @@
         <v>44652</v>
       </c>
       <c r="B257" t="n">
-        <v>321544.5549428463</v>
+        <v>219030.1178269128</v>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>lstm</t>
+          <t>arima</t>
         </is>
       </c>
     </row>
@@ -5199,11 +5266,11 @@
         <v>44682</v>
       </c>
       <c r="B258" t="n">
-        <v>331233.6125699282</v>
+        <v>259453.2199462371</v>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>lstm</t>
+          <t>arima</t>
         </is>
       </c>
     </row>
@@ -5212,11 +5279,11 @@
         <v>44713</v>
       </c>
       <c r="B259" t="n">
-        <v>315676.4256397486</v>
+        <v>314243.1274654085</v>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>lstm</t>
+          <t>arima</t>
         </is>
       </c>
     </row>
@@ -5225,11 +5292,11 @@
         <v>44743</v>
       </c>
       <c r="B260" t="n">
-        <v>337130.0504100323</v>
+        <v>330452.4641152457</v>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>lstm</t>
+          <t>arima</t>
         </is>
       </c>
     </row>
@@ -5238,11 +5305,11 @@
         <v>44774</v>
       </c>
       <c r="B261" t="n">
-        <v>352611.5942959785</v>
+        <v>276961.4126227596</v>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>lstm</t>
+          <t>arima</t>
         </is>
       </c>
     </row>
@@ -5251,11 +5318,11 @@
         <v>44805</v>
       </c>
       <c r="B262" t="n">
-        <v>345203.0197430849</v>
+        <v>234784.6115813034</v>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>lstm</t>
+          <t>arima</t>
         </is>
       </c>
     </row>
@@ -5264,11 +5331,11 @@
         <v>44835</v>
       </c>
       <c r="B263" t="n">
-        <v>329427.0341553688</v>
+        <v>278721.0853976347</v>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>lstm</t>
+          <t>arima</t>
         </is>
       </c>
     </row>
@@ -5277,11 +5344,11 @@
         <v>44866</v>
       </c>
       <c r="B264" t="n">
-        <v>354796.1575133801</v>
+        <v>302799.1838191341</v>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>lstm</t>
+          <t>arima</t>
         </is>
       </c>
     </row>
@@ -5290,11 +5357,11 @@
         <v>44896</v>
       </c>
       <c r="B265" t="n">
-        <v>347335.8705050945</v>
+        <v>386671.2633577595</v>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>lstm</t>
+          <t>arima</t>
         </is>
       </c>
     </row>
@@ -5303,11 +5370,11 @@
         <v>44927</v>
       </c>
       <c r="B266" t="n">
-        <v>332892.6903399229</v>
+        <v>304381.7090716425</v>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>lstm</t>
+          <t>arima</t>
         </is>
       </c>
     </row>
@@ -5316,11 +5383,11 @@
         <v>44958</v>
       </c>
       <c r="B267" t="n">
-        <v>349527.6096074581</v>
+        <v>256148.0829751698</v>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>lstm</t>
+          <t>arima</t>
         </is>
       </c>
     </row>
@@ -5329,11 +5396,11 @@
         <v>44986</v>
       </c>
       <c r="B268" t="n">
-        <v>331244.8701509237</v>
+        <v>268057.1055993116</v>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>lstm</t>
+          <t>arima</t>
         </is>
       </c>
     </row>
@@ -5342,11 +5409,11 @@
         <v>45017</v>
       </c>
       <c r="B269" t="n">
-        <v>341925.1544929743</v>
+        <v>212497.6299248364</v>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>lstm</t>
+          <t>arima</t>
         </is>
       </c>
     </row>
@@ -5355,11 +5422,11 @@
         <v>45047</v>
       </c>
       <c r="B270" t="n">
-        <v>329799.0939155817</v>
+        <v>257740.1577890346</v>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>lstm</t>
+          <t>arima</t>
         </is>
       </c>
     </row>
@@ -5368,11 +5435,11 @@
         <v>45078</v>
       </c>
       <c r="B271" t="n">
-        <v>345095.3485517502</v>
+        <v>313759.034910945</v>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>lstm</t>
+          <t>arima</t>
         </is>
       </c>
     </row>
@@ -5381,11 +5448,11 @@
         <v>45108</v>
       </c>
       <c r="B272" t="n">
-        <v>330924.2595108747</v>
+        <v>329378.3702304029</v>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>lstm</t>
+          <t>arima</t>
         </is>
       </c>
     </row>
@@ -5394,11 +5461,11 @@
         <v>45139</v>
       </c>
       <c r="B273" t="n">
-        <v>344176.3744399548</v>
+        <v>273766.4568796919</v>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>lstm</t>
+          <t>arima</t>
         </is>
       </c>
     </row>
@@ -5407,11 +5474,11 @@
         <v>45170</v>
       </c>
       <c r="B274" t="n">
-        <v>346909.2674357891</v>
+        <v>231832.9991593398</v>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>lstm</t>
+          <t>arima</t>
         </is>
       </c>
     </row>
@@ -5420,11 +5487,11 @@
         <v>45200</v>
       </c>
       <c r="B275" t="n">
-        <v>339601.4844413996</v>
+        <v>276233.3095742022</v>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>lstm</t>
+          <t>arima</t>
         </is>
       </c>
     </row>
@@ -5433,11 +5500,11 @@
         <v>45231</v>
       </c>
       <c r="B276" t="n">
-        <v>336413.4165040255</v>
+        <v>301167.1510240989</v>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>lstm</t>
+          <t>arima</t>
         </is>
       </c>
     </row>
@@ -5446,11 +5513,11 @@
         <v>45261</v>
       </c>
       <c r="B277" t="n">
-        <v>339701.1897420883</v>
+        <v>385408.5213084235</v>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>lstm</t>
+          <t>arima</t>
         </is>
       </c>
     </row>
@@ -5459,11 +5526,11 @@
         <v>45292</v>
       </c>
       <c r="B278" t="n">
-        <v>349507.9252991676</v>
+        <v>303027.2017124582</v>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>lstm</t>
+          <t>arima</t>
         </is>
       </c>
     </row>
@@ -5472,11 +5539,11 @@
         <v>45323</v>
       </c>
       <c r="B279" t="n">
-        <v>360556.4181237221</v>
+        <v>254863.1437533888</v>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>lstm</t>
+          <t>arima</t>
         </is>
       </c>
     </row>
@@ -5485,11 +5552,11 @@
         <v>45352</v>
       </c>
       <c r="B280" t="n">
-        <v>330938.7758653164</v>
+        <v>267098.6845002077</v>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>lstm</t>
+          <t>arima</t>
         </is>
       </c>
     </row>
@@ -5498,11 +5565,11 @@
         <v>45383</v>
       </c>
       <c r="B281" t="n">
-        <v>326865.802811265</v>
+        <v>211763.4980051675</v>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>lstm</t>
+          <t>arima</t>
         </is>
       </c>
     </row>
@@ -5511,11 +5578,11 @@
         <v>45413</v>
       </c>
       <c r="B282" t="n">
-        <v>346737.5070333481</v>
+        <v>257026.9260475409</v>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>lstm</t>
+          <t>arima</t>
         </is>
       </c>
     </row>
@@ -5524,11 +5591,11 @@
         <v>45444</v>
       </c>
       <c r="B283" t="n">
-        <v>355154.2275896072</v>
+        <v>313075.6465014099</v>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>lstm</t>
+          <t>arima</t>
         </is>
       </c>
     </row>
@@ -5537,11 +5604,11 @@
         <v>45474</v>
       </c>
       <c r="B284" t="n">
-        <v>321476.351118803</v>
+        <v>328828.6939740207</v>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>lstm</t>
+          <t>arima</t>
         </is>
       </c>
     </row>
@@ -5550,11 +5617,11 @@
         <v>45505</v>
       </c>
       <c r="B285" t="n">
-        <v>334449.7915428877</v>
+        <v>273339.5158814964</v>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>lstm</t>
+          <t>arima</t>
         </is>
       </c>
     </row>
@@ -5563,11 +5630,11 @@
         <v>45536</v>
       </c>
       <c r="B286" t="n">
-        <v>337302.7983195782</v>
+        <v>231446.4062612295</v>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>lstm</t>
+          <t>arima</t>
         </is>
       </c>
     </row>
@@ -5576,11 +5643,11 @@
         <v>45566</v>
       </c>
       <c r="B287" t="n">
-        <v>341138.4075825214</v>
+        <v>275868.0910850656</v>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>lstm</t>
+          <t>arima</t>
         </is>
       </c>
     </row>
@@ -5589,11 +5656,11 @@
         <v>45597</v>
       </c>
       <c r="B288" t="n">
-        <v>373737.9592117071</v>
+        <v>300858.9567995011</v>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>lstm</t>
+          <t>arima</t>
         </is>
       </c>
     </row>
@@ -5629,12 +5696,12 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>arima</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>lstm</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>arima</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -5661,16 +5728,16 @@
         <v>467457</v>
       </c>
       <c r="C2" t="n">
-        <v>373760.689026475</v>
+        <v>451285.4040904046</v>
       </c>
       <c r="D2" t="n">
-        <v>451281.4787121088</v>
+        <v>376591.420114398</v>
       </c>
       <c r="E2" t="n">
-        <v>394370.3999504459</v>
+        <v>409139.953912753</v>
       </c>
       <c r="F2" t="n">
-        <v>351358.5728708506</v>
+        <v>396468.9216557741</v>
       </c>
       <c r="G2" t="n">
         <v>439729.0626875589</v>
@@ -5684,16 +5751,16 @@
         <v>360593</v>
       </c>
       <c r="C3" t="n">
-        <v>340508.8475230932</v>
+        <v>358743.2067200664</v>
       </c>
       <c r="D3" t="n">
-        <v>358750.0082543613</v>
+        <v>332054.7374699116</v>
       </c>
       <c r="E3" t="n">
-        <v>362623.3750057576</v>
+        <v>370587.8282563091</v>
       </c>
       <c r="F3" t="n">
-        <v>392249.6162602901</v>
+        <v>421940.8105627298</v>
       </c>
       <c r="G3" t="n">
         <v>363054.4230422495</v>
@@ -5707,16 +5774,16 @@
         <v>397613</v>
       </c>
       <c r="C4" t="n">
-        <v>338025.4232258201</v>
+        <v>375988.6944769993</v>
       </c>
       <c r="D4" t="n">
-        <v>376020.7899066192</v>
+        <v>323457.4708146453</v>
       </c>
       <c r="E4" t="n">
-        <v>348171.0629129006</v>
+        <v>361577.414439035</v>
       </c>
       <c r="F4" t="n">
-        <v>326157.9815021753</v>
+        <v>383599.0693799257</v>
       </c>
       <c r="G4" t="n">
         <v>380252.5621771832</v>
@@ -5730,16 +5797,16 @@
         <v>420034</v>
       </c>
       <c r="C5" t="n">
-        <v>359212.8904921412</v>
+        <v>390126.4097070204</v>
       </c>
       <c r="D5" t="n">
-        <v>390159.1538418726</v>
+        <v>338937.0022982955</v>
       </c>
       <c r="E5" t="n">
-        <v>387101.7395084519</v>
+        <v>366956.8710332366</v>
       </c>
       <c r="F5" t="n">
-        <v>414156.5055993795</v>
+        <v>368352.7280441523</v>
       </c>
       <c r="G5" t="n">
         <v>403479.3642537682</v>
@@ -5753,16 +5820,16 @@
         <v>519636</v>
       </c>
       <c r="C6" t="n">
-        <v>371734.2028067112</v>
+        <v>474111.4002716879</v>
       </c>
       <c r="D6" t="n">
-        <v>474130.9676041915</v>
+        <v>348804.736948669</v>
       </c>
       <c r="E6" t="n">
-        <v>413136.7340971605</v>
+        <v>408976.5764852522</v>
       </c>
       <c r="F6" t="n">
-        <v>388534.6051124334</v>
+        <v>398157.3740444183</v>
       </c>
       <c r="G6" t="n">
         <v>468763.2868875506</v>
@@ -5776,16 +5843,16 @@
         <v>449336</v>
       </c>
       <c r="C7" t="n">
-        <v>371866.4422217607</v>
+        <v>408845.4049488608</v>
       </c>
       <c r="D7" t="n">
-        <v>408842.4915521462</v>
+        <v>326809.3132123947</v>
       </c>
       <c r="E7" t="n">
-        <v>384700.1390305019</v>
+        <v>360362.8553289785</v>
       </c>
       <c r="F7" t="n">
-        <v>368725.8951482773</v>
+        <v>338972.8730556965</v>
       </c>
       <c r="G7" t="n">
         <v>427227.5188353079</v>
@@ -5799,16 +5866,16 @@
         <v>388763</v>
       </c>
       <c r="C8" t="n">
-        <v>356161.4702213407</v>
+        <v>353844.0509543302</v>
       </c>
       <c r="D8" t="n">
-        <v>353827.2258612859</v>
+        <v>368899.4336894751</v>
       </c>
       <c r="E8" t="n">
-        <v>356039.6549080261</v>
+        <v>356012.5315868941</v>
       </c>
       <c r="F8" t="n">
-        <v>353830.5601150393</v>
+        <v>341327.1650443077</v>
       </c>
       <c r="G8" t="n">
         <v>398843.6435050212</v>
@@ -5822,16 +5889,16 @@
         <v>464430</v>
       </c>
       <c r="C9" t="n">
-        <v>397136.913259387</v>
+        <v>433403.0253548989</v>
       </c>
       <c r="D9" t="n">
-        <v>433384.6561601199</v>
+        <v>332377.0665103793</v>
       </c>
       <c r="E9" t="n">
-        <v>400841.7334821311</v>
+        <v>381539.1126938118</v>
       </c>
       <c r="F9" t="n">
-        <v>363054.2774496078</v>
+        <v>370981.9929031134</v>
       </c>
       <c r="G9" t="n">
         <v>463981.1298362083</v>
@@ -5845,16 +5912,16 @@
         <v>392441</v>
       </c>
       <c r="C10" t="n">
-        <v>381028.4889349937</v>
+        <v>388867.2114069504</v>
       </c>
       <c r="D10" t="n">
-        <v>388856.2680611631</v>
+        <v>406277.633374691</v>
       </c>
       <c r="E10" t="n">
-        <v>374813.8924399211</v>
+        <v>333463.109999189</v>
       </c>
       <c r="F10" t="n">
-        <v>346406.643222928</v>
+        <v>195363.6822379977</v>
       </c>
       <c r="G10" t="n">
         <v>431775.09488576</v>
@@ -5868,16 +5935,16 @@
         <v>473082</v>
       </c>
       <c r="C11" t="n">
-        <v>362103.6963335276</v>
+        <v>448636.7004745384</v>
       </c>
       <c r="D11" t="n">
-        <v>448638.73776481</v>
+        <v>413334.053329587</v>
       </c>
       <c r="E11" t="n">
-        <v>392315.5201977967</v>
+        <v>407593.2065068673</v>
       </c>
       <c r="F11" t="n">
-        <v>359354.7172043324</v>
+        <v>356184.9125531912</v>
       </c>
       <c r="G11" t="n">
         <v>453355.3752934641</v>
@@ -5891,16 +5958,16 @@
         <v>541016</v>
       </c>
       <c r="C12" t="n">
-        <v>349977.5184861422</v>
+        <v>517822.0750035333</v>
       </c>
       <c r="D12" t="n">
-        <v>517832.0421885421</v>
+        <v>369613.2460448742</v>
       </c>
       <c r="E12" t="n">
-        <v>327992.2692980419</v>
+        <v>423050.3425489903</v>
       </c>
       <c r="F12" t="n">
-        <v>77370.52830180526</v>
+        <v>373483.9026699066</v>
       </c>
       <c r="G12" t="n">
         <v>505263.1284690171</v>
@@ -5914,16 +5981,16 @@
         <v>559606</v>
       </c>
       <c r="C13" t="n">
-        <v>391897.6306751966</v>
+        <v>552874.5354405972</v>
       </c>
       <c r="D13" t="n">
-        <v>552886.6424637184</v>
+        <v>398193.9581063986</v>
       </c>
       <c r="E13" t="n">
-        <v>459244.6185376564</v>
+        <v>484862.1773927899</v>
       </c>
       <c r="F13" t="n">
-        <v>427921.6639313698</v>
+        <v>499586.7221543789</v>
       </c>
       <c r="G13" t="n">
         <v>524639.1196781083</v>
@@ -5937,16 +6004,16 @@
         <v>451152</v>
       </c>
       <c r="C14" t="n">
-        <v>265928.7190130949</v>
+        <v>450726.7466562079</v>
       </c>
       <c r="D14" t="n">
-        <v>450730.5193669277</v>
+        <v>368856.8530330658</v>
       </c>
       <c r="E14" t="n">
-        <v>375050.9961893999</v>
+        <v>407423.0098434171</v>
       </c>
       <c r="F14" t="n">
-        <v>408015.3884086609</v>
+        <v>396457.1460852623</v>
       </c>
       <c r="G14" t="n">
         <v>472539.3794413942</v>
@@ -5960,16 +6027,16 @@
         <v>378001</v>
       </c>
       <c r="C15" t="n">
-        <v>387602.7875337601</v>
+        <v>357715.6281940724</v>
       </c>
       <c r="D15" t="n">
-        <v>357723.0234982009</v>
+        <v>357747.2188404799</v>
       </c>
       <c r="E15" t="n">
-        <v>369694.2126422228</v>
+        <v>378321.877176082</v>
       </c>
       <c r="F15" t="n">
-        <v>361445.3524765968</v>
+        <v>419991.8448338509</v>
       </c>
       <c r="G15" t="n">
         <v>376154.2537129904</v>
@@ -5983,16 +6050,16 @@
         <v>398024</v>
       </c>
       <c r="C16" t="n">
-        <v>393374.3404129744</v>
+        <v>372932.3225724506</v>
       </c>
       <c r="D16" t="n">
-        <v>372959.0403296486</v>
+        <v>371112.6606301069</v>
       </c>
       <c r="E16" t="n">
-        <v>384376.1766571025</v>
+        <v>362178.1827253071</v>
       </c>
       <c r="F16" t="n">
-        <v>384186.7114541531</v>
+        <v>338318.4342390895</v>
       </c>
       <c r="G16" t="n">
         <v>406056.4463552554</v>
@@ -6006,16 +6073,16 @@
         <v>403968</v>
       </c>
       <c r="C17" t="n">
-        <v>365909.6719501019</v>
+        <v>384607.5746850896</v>
       </c>
       <c r="D17" t="n">
-        <v>384636.8321431476</v>
+        <v>374497.7140054703</v>
       </c>
       <c r="E17" t="n">
-        <v>366028.8494604453</v>
+        <v>385024.5018880166</v>
       </c>
       <c r="F17" t="n">
-        <v>339882.0220566392</v>
+        <v>392483.8219604492</v>
       </c>
       <c r="G17" t="n">
         <v>423531.1146833431</v>
@@ -6029,16 +6096,16 @@
         <v>503379</v>
       </c>
       <c r="C18" t="n">
-        <v>393275.4933241606</v>
+        <v>470280.1644497839</v>
       </c>
       <c r="D18" t="n">
-        <v>470305.0042697655</v>
+        <v>384047.2180942297</v>
       </c>
       <c r="E18" t="n">
-        <v>402361.5942900921</v>
+        <v>432133.1696365407</v>
       </c>
       <c r="F18" t="n">
-        <v>330423.1680989861</v>
+        <v>437282.154396534</v>
       </c>
       <c r="G18" t="n">
         <v>482579.6814113411</v>
@@ -6052,16 +6119,16 @@
         <v>426440</v>
       </c>
       <c r="C19" t="n">
-        <v>355372.1080300808</v>
+        <v>405290.18621852</v>
       </c>
       <c r="D19" t="n">
-        <v>405295.9819160004</v>
+        <v>478210.9424791336</v>
       </c>
       <c r="E19" t="n">
-        <v>388970.0629443061</v>
+        <v>414488.3513168029</v>
       </c>
       <c r="F19" t="n">
-        <v>403205.9504178762</v>
+        <v>356281.0273227692</v>
       </c>
       <c r="G19" t="n">
         <v>452541.3152518788</v>
@@ -6075,16 +6142,16 @@
         <v>357556</v>
       </c>
       <c r="C20" t="n">
-        <v>405741.2525109053</v>
+        <v>353424.2108102121</v>
       </c>
       <c r="D20" t="n">
-        <v>353416.755226565</v>
+        <v>350466.6761687994</v>
       </c>
       <c r="E20" t="n">
-        <v>379022.6973490227</v>
+        <v>365962.4921065141</v>
       </c>
       <c r="F20" t="n">
-        <v>372245.920257926</v>
+        <v>389552.9622534513</v>
       </c>
       <c r="G20" t="n">
         <v>416437.7520822426</v>
@@ -6098,16 +6165,16 @@
         <v>442013</v>
       </c>
       <c r="C21" t="n">
-        <v>398931.6359404325</v>
+        <v>436222.1437917445</v>
       </c>
       <c r="D21" t="n">
-        <v>436209.4501091006</v>
+        <v>372956.5892372131</v>
       </c>
       <c r="E21" t="n">
-        <v>426770.0048535178</v>
+        <v>324173.2655820611</v>
       </c>
       <c r="F21" t="n">
-        <v>442608.2183412313</v>
+        <v>147428.3624507524</v>
       </c>
       <c r="G21" t="n">
         <v>483358.0769550246</v>
@@ -6121,16 +6188,16 @@
         <v>414088</v>
       </c>
       <c r="C22" t="n">
-        <v>415698.2348630428</v>
+        <v>392421.4962368557</v>
       </c>
       <c r="D22" t="n">
-        <v>392409.7932336996</v>
+        <v>352442.6023927927</v>
       </c>
       <c r="E22" t="n">
-        <v>389712.2218760173</v>
+        <v>367835.7629993756</v>
       </c>
       <c r="F22" t="n">
-        <v>350568.7149933577</v>
+        <v>350939.8026332855</v>
       </c>
       <c r="G22" t="n">
         <v>449894.7318481408</v>
@@ -6144,16 +6211,16 @@
         <v>458758</v>
       </c>
       <c r="C23" t="n">
-        <v>387502.828173399</v>
+        <v>452797.5255259827</v>
       </c>
       <c r="D23" t="n">
-        <v>452796.2373627304</v>
+        <v>430693.3720878363</v>
       </c>
       <c r="E23" t="n">
-        <v>407250.6949056244</v>
+        <v>434830.5611988687</v>
       </c>
       <c r="F23" t="n">
-        <v>373182.1869227886</v>
+        <v>417068.6743084192</v>
       </c>
       <c r="G23" t="n">
         <v>475966.4483047994</v>
@@ -6167,19 +6234,19 @@
         <v>537494</v>
       </c>
       <c r="C24" t="n">
-        <v>419893.5055211782</v>
+        <v>522581.954108257</v>
       </c>
       <c r="D24" t="n">
-        <v>522591.7242005236</v>
+        <v>344512.1425301433</v>
       </c>
       <c r="E24" t="n">
-        <v>445996.8815344822</v>
+        <v>430180.9690333342</v>
       </c>
       <c r="F24" t="n">
-        <v>384141.108320713</v>
+        <v>414042.1592483521</v>
       </c>
       <c r="G24" t="n">
-        <v>526982.1224159393</v>
+        <v>526982.1224159392</v>
       </c>
     </row>
     <row r="25">
@@ -6190,16 +6257,16 @@
         <v>558294</v>
       </c>
       <c r="C25" t="n">
-        <v>388666.3609311581</v>
+        <v>558001.9886874615</v>
       </c>
       <c r="D25" t="n">
-        <v>558020.3948604177</v>
+        <v>370275.1685146093</v>
       </c>
       <c r="E25" t="n">
-        <v>452010.7849032689</v>
+        <v>445013.0334245499</v>
       </c>
       <c r="F25" t="n">
-        <v>399540.3386346102</v>
+        <v>396654.6951839924</v>
       </c>
       <c r="G25" t="n">
         <v>546748.6395281788</v>
@@ -6213,16 +6280,16 @@
         <v>376395</v>
       </c>
       <c r="C26" t="n">
-        <v>397586.1984250546</v>
+        <v>451536.1373969507</v>
       </c>
       <c r="D26" t="n">
-        <v>451546.6773895613</v>
+        <v>345442.8961969018</v>
       </c>
       <c r="E26" t="n">
-        <v>425662.6597923013</v>
+        <v>406736.3612375867</v>
       </c>
       <c r="F26" t="n">
-        <v>423151.3730630875</v>
+        <v>415507.4077532291</v>
       </c>
       <c r="G26" t="n">
         <v>489059.5018820384</v>
@@ -6236,16 +6303,16 @@
         <v>344907</v>
       </c>
       <c r="C27" t="n">
-        <v>375540.8796379566</v>
+        <v>357860.1418151034</v>
       </c>
       <c r="D27" t="n">
-        <v>357876.7071951425</v>
+        <v>356257.7542496324</v>
       </c>
       <c r="E27" t="n">
-        <v>348118.8247366403</v>
+        <v>372135.405616076</v>
       </c>
       <c r="F27" t="n">
-        <v>300587.0157981515</v>
+        <v>400014.02123487</v>
       </c>
       <c r="G27" t="n">
         <v>399179.2058357761</v>
@@ -6259,16 +6326,16 @@
         <v>390963</v>
       </c>
       <c r="C28" t="n">
-        <v>382067.9792354107</v>
+        <v>373653.5109094762</v>
       </c>
       <c r="D28" t="n">
-        <v>373689.4649508736</v>
+        <v>408364.883472681</v>
       </c>
       <c r="E28" t="n">
-        <v>378023.731435668</v>
+        <v>370691.4873831822</v>
       </c>
       <c r="F28" t="n">
-        <v>373185.1368603706</v>
+        <v>324886.4012355208</v>
       </c>
       <c r="G28" t="n">
         <v>424899.8588521626</v>
@@ -6282,16 +6349,16 @@
         <v>398818</v>
       </c>
       <c r="C29" t="n">
-        <v>409725.8202502728</v>
+        <v>386392.971534946</v>
       </c>
       <c r="D29" t="n">
-        <v>386427.3034008006</v>
+        <v>305951.7916286588</v>
       </c>
       <c r="E29" t="n">
-        <v>400732.9801564231</v>
+        <v>363398.3965884599</v>
       </c>
       <c r="F29" t="n">
-        <v>401411.9531313181</v>
+        <v>390458.4238324165</v>
       </c>
       <c r="G29" t="n">
         <v>444240.7294928526</v>
@@ -6305,16 +6372,16 @@
         <v>483044</v>
       </c>
       <c r="C30" t="n">
-        <v>374741.422373414</v>
+        <v>472667.0816990059</v>
       </c>
       <c r="D30" t="n">
-        <v>472691.0884126544</v>
+        <v>355769.1043431163</v>
       </c>
       <c r="E30" t="n">
-        <v>413285.9101440695</v>
+        <v>412306.142853332</v>
       </c>
       <c r="F30" t="n">
-        <v>383300.5453685522</v>
+        <v>399593.1231734753</v>
       </c>
       <c r="G30" t="n">
         <v>505465.2829977713</v>
@@ -6328,16 +6395,16 @@
         <v>419855</v>
       </c>
       <c r="C31" t="n">
-        <v>362805.6122193336</v>
+        <v>407427.5660413297</v>
       </c>
       <c r="D31" t="n">
-        <v>407428.0797831447</v>
+        <v>350065.9803438783</v>
       </c>
       <c r="E31" t="n">
-        <v>385594.6588039951</v>
+        <v>371363.2702541696</v>
       </c>
       <c r="F31" t="n">
-        <v>379046.2034193277</v>
+        <v>347140.6215450764</v>
       </c>
       <c r="G31" t="n">
         <v>471580.3279644437</v>
@@ -6351,19 +6418,19 @@
         <v>369121</v>
       </c>
       <c r="C32" t="n">
-        <v>354374.3762723207</v>
+        <v>354603.6608196225</v>
       </c>
       <c r="D32" t="n">
-        <v>354590.1176875778</v>
+        <v>383820.4114178419</v>
       </c>
       <c r="E32" t="n">
-        <v>351336.8013668092</v>
+        <v>377691.6522632695</v>
       </c>
       <c r="F32" t="n">
-        <v>335228.2899925709</v>
+        <v>389311.1157313585</v>
       </c>
       <c r="G32" t="n">
-        <v>438012.6146948366</v>
+        <v>438012.6146948365</v>
       </c>
     </row>
     <row r="33">
@@ -6374,16 +6441,16 @@
         <v>466849</v>
       </c>
       <c r="C33" t="n">
-        <v>410537.5366816521</v>
+        <v>436229.2164824298</v>
       </c>
       <c r="D33" t="n">
-        <v>436213.1684197127</v>
+        <v>418427.2898236513</v>
       </c>
       <c r="E33" t="n">
-        <v>418719.0526866397</v>
+        <v>412458.1648915511</v>
       </c>
       <c r="F33" t="n">
-        <v>400295.3292170763</v>
+        <v>374178.7580493689</v>
       </c>
       <c r="G33" t="n">
         <v>502689.4012925135</v>
@@ -6397,16 +6464,16 @@
         <v>415682</v>
       </c>
       <c r="C34" t="n">
-        <v>325898.4474444985</v>
+        <v>391572.2352561004</v>
       </c>
       <c r="D34" t="n">
-        <v>391561.427301854</v>
+        <v>376422.475738287</v>
       </c>
       <c r="E34" t="n">
-        <v>359793.9569873804</v>
+        <v>412435.0765346669</v>
       </c>
       <c r="F34" t="n">
-        <v>352875.4331935048</v>
+        <v>464563.3222339153</v>
       </c>
       <c r="G34" t="n">
         <v>468076.8583801065</v>
@@ -6420,16 +6487,16 @@
         <v>455766</v>
       </c>
       <c r="C35" t="n">
-        <v>371274.7862980366</v>
+        <v>451711.2979979586</v>
       </c>
       <c r="D35" t="n">
-        <v>451714.0944956696</v>
+        <v>400768.0446246862</v>
       </c>
       <c r="E35" t="n">
-        <v>401757.5053013342</v>
+        <v>421514.2442615891</v>
       </c>
       <c r="F35" t="n">
-        <v>372292.7082023621</v>
+        <v>404781.8941215277</v>
       </c>
       <c r="G35" t="n">
         <v>498639.3932488187</v>
@@ -6443,16 +6510,16 @@
         <v>542537</v>
       </c>
       <c r="C36" t="n">
-        <v>356288.4142566323</v>
+        <v>521849.056582364</v>
       </c>
       <c r="D36" t="n">
-        <v>521863.3957696371</v>
+        <v>391016.1554739475</v>
       </c>
       <c r="E36" t="n">
-        <v>439140.6012416431</v>
+        <v>413939.1497839362</v>
       </c>
       <c r="F36" t="n">
-        <v>432937.4041143656</v>
+        <v>315637.7061507702</v>
       </c>
       <c r="G36" t="n">
         <v>548679.2576206472</v>
@@ -6466,16 +6533,16 @@
         <v>552404</v>
       </c>
       <c r="C37" t="n">
-        <v>432103.8533089161</v>
+        <v>557922.8660883973</v>
       </c>
       <c r="D37" t="n">
-        <v>557943.6733851117</v>
+        <v>419851.9887766838</v>
       </c>
       <c r="E37" t="n">
-        <v>477495.5027827855</v>
+        <v>445771.5478645337</v>
       </c>
       <c r="F37" t="n">
-        <v>432566.8726102114</v>
+        <v>347275.8955270648</v>
       </c>
       <c r="G37" t="n">
         <v>568760.4043147223</v>
@@ -6489,19 +6556,19 @@
         <v>445793</v>
       </c>
       <c r="C38" t="n">
-        <v>446129.2348233461</v>
+        <v>452041.4967882864</v>
       </c>
       <c r="D38" t="n">
-        <v>452051.1115802818</v>
+        <v>384156.2932453156</v>
       </c>
       <c r="E38" t="n">
-        <v>438268.5310135167</v>
+        <v>408326.2261051616</v>
       </c>
       <c r="F38" t="n">
-        <v>407167.7891299725</v>
+        <v>379536.545912981</v>
       </c>
       <c r="G38" t="n">
-        <v>505569.6999794937</v>
+        <v>505569.6999794936</v>
       </c>
     </row>
     <row r="39">
@@ -6512,16 +6579,16 @@
         <v>369424</v>
       </c>
       <c r="C39" t="n">
-        <v>399077.5127718449</v>
+        <v>358616.0718913526</v>
       </c>
       <c r="D39" t="n">
-        <v>358629.1672833778</v>
+        <v>382435.6575212479</v>
       </c>
       <c r="E39" t="n">
-        <v>386097.6752898635</v>
+        <v>379474.7165804879</v>
       </c>
       <c r="F39" t="n">
-        <v>397292.9697934389</v>
+        <v>393634.3943367004</v>
       </c>
       <c r="G39" t="n">
         <v>422261.3882097219</v>
@@ -6535,16 +6602,16 @@
         <v>408507</v>
       </c>
       <c r="C40" t="n">
-        <v>417387.9446021318</v>
+        <v>374268.601300222</v>
       </c>
       <c r="D40" t="n">
-        <v>374300.6102180384</v>
+        <v>363058.218759656</v>
       </c>
       <c r="E40" t="n">
-        <v>400601.731092494</v>
+        <v>397280.2873761501</v>
       </c>
       <c r="F40" t="n">
-        <v>405414.1479567289</v>
+        <v>450622.0623002052</v>
       </c>
       <c r="G40" t="n">
         <v>443746.7561558419</v>
@@ -6558,16 +6625,16 @@
         <v>431053</v>
       </c>
       <c r="C41" t="n">
-        <v>436441.9299618006</v>
+        <v>386612.4113708346</v>
       </c>
       <c r="D41" t="n">
-        <v>386644.4256610567</v>
+        <v>403143.8566497564</v>
       </c>
       <c r="E41" t="n">
-        <v>414999.4209291202</v>
+        <v>392710.2902224986</v>
       </c>
       <c r="F41" t="n">
-        <v>415971.8536636829</v>
+        <v>381751.9732168913</v>
       </c>
       <c r="G41" t="n">
         <v>465005.6817478752</v>
@@ -6581,16 +6648,16 @@
         <v>513430</v>
       </c>
       <c r="C42" t="n">
-        <v>429287.4366722107</v>
+        <v>472466.2606356317</v>
       </c>
       <c r="D42" t="n">
-        <v>472490.5982187153</v>
+        <v>446420.3839907646</v>
       </c>
       <c r="E42" t="n">
-        <v>435021.3436083698</v>
+        <v>440916.5958515743</v>
       </c>
       <c r="F42" t="n">
-        <v>391049.1125634909</v>
+        <v>395511.0382351875</v>
       </c>
       <c r="G42" t="n">
         <v>528309.2075092979</v>
@@ -6604,16 +6671,16 @@
         <v>440389</v>
       </c>
       <c r="C43" t="n">
-        <v>398856.8961284161</v>
+        <v>406980.7671545794</v>
       </c>
       <c r="D43" t="n">
-        <v>406983.7918984177</v>
+        <v>389573.2491192818</v>
       </c>
       <c r="E43" t="n">
-        <v>402294.0221718501</v>
+        <v>396069.8709468389</v>
       </c>
       <c r="F43" t="n">
-        <v>391903.3854714632</v>
+        <v>382902.0378170013</v>
       </c>
       <c r="G43" t="n">
         <v>490590.5174197833</v>
@@ -6627,16 +6694,16 @@
         <v>379682</v>
       </c>
       <c r="C44" t="n">
-        <v>387735.1478478909</v>
+        <v>354166.0119822463</v>
       </c>
       <c r="D44" t="n">
-        <v>354155.6223734029</v>
+        <v>395326.7638555765</v>
       </c>
       <c r="E44" t="n">
-        <v>368491.2003506499</v>
+        <v>387815.7944803055</v>
       </c>
       <c r="F44" t="n">
-        <v>352424.1048333645</v>
+        <v>407659.3406144381</v>
       </c>
       <c r="G44" t="n">
         <v>459596.6856832807</v>
@@ -6650,16 +6717,16 @@
         <v>479188</v>
       </c>
       <c r="C45" t="n">
-        <v>359273.5092914701</v>
+        <v>436003.1543473253</v>
       </c>
       <c r="D45" t="n">
-        <v>435989.2164496377</v>
+        <v>404914.109356761</v>
       </c>
       <c r="E45" t="n">
-        <v>394569.073595012</v>
+        <v>412717.7724745175</v>
       </c>
       <c r="F45" t="n">
-        <v>376747.3557493687</v>
+        <v>387015.2905384302</v>
       </c>
       <c r="G45" t="n">
         <v>521976.9287469126</v>
@@ -6673,16 +6740,16 @@
         <v>435196</v>
       </c>
       <c r="C46" t="n">
-        <v>401767.5415090322</v>
+        <v>391623.4989193973</v>
       </c>
       <c r="D46" t="n">
-        <v>391612.8048969175</v>
+        <v>364914.7934106588</v>
       </c>
       <c r="E46" t="n">
-        <v>391369.2787421889</v>
+        <v>378035.9446772309</v>
       </c>
       <c r="F46" t="n">
-        <v>369201.0043576956</v>
+        <v>367555.3018841743</v>
       </c>
       <c r="G46" t="n">
         <v>486324.1202335281</v>
@@ -6696,19 +6763,19 @@
         <v>486277</v>
       </c>
       <c r="C47" t="n">
-        <v>404544.0130892992</v>
+        <v>451964.2010382975</v>
       </c>
       <c r="D47" t="n">
-        <v>451965.2898310425</v>
+        <v>351883.5650411844</v>
       </c>
       <c r="E47" t="n">
-        <v>419153.5668708899</v>
+        <v>330473.4800912173</v>
       </c>
       <c r="F47" t="n">
-        <v>389535.238448143</v>
+        <v>168777.3236873038</v>
       </c>
       <c r="G47" t="n">
-        <v>521371.3823265029</v>
+        <v>521371.3823265028</v>
       </c>
     </row>
     <row r="48">
@@ -6719,16 +6786,16 @@
         <v>555663</v>
       </c>
       <c r="C48" t="n">
-        <v>412957.0174548626</v>
+        <v>522148.3358096154</v>
       </c>
       <c r="D48" t="n">
-        <v>522160.2181263911</v>
+        <v>419278.0082986355</v>
       </c>
       <c r="E48" t="n">
-        <v>416550.5851420186</v>
+        <v>448841.967525491</v>
       </c>
       <c r="F48" t="n">
-        <v>289566.1457110047</v>
+        <v>393364.3057892323</v>
       </c>
       <c r="G48" t="n">
         <v>570351.7261879757</v>
@@ -6742,19 +6809,19 @@
         <v>550212</v>
       </c>
       <c r="C49" t="n">
-        <v>493133.7336937189</v>
+        <v>558120.8495424639</v>
       </c>
       <c r="D49" t="n">
-        <v>558139.7667513604</v>
+        <v>379209.6347973347</v>
       </c>
       <c r="E49" t="n">
-        <v>474706.5399196576</v>
+        <v>449978.9909798065</v>
       </c>
       <c r="F49" t="n">
-        <v>350490.2031300068</v>
+        <v>398952.7690998316</v>
       </c>
       <c r="G49" t="n">
-        <v>590673.8237659036</v>
+        <v>590673.8237659035</v>
       </c>
     </row>
     <row r="50">
@@ -6765,16 +6832,16 @@
         <v>479833</v>
       </c>
       <c r="C50" t="n">
-        <v>476306.0323754549</v>
+        <v>452065.3265494981</v>
       </c>
       <c r="D50" t="n">
-        <v>452074.4857549077</v>
+        <v>346702.9426912069</v>
       </c>
       <c r="E50" t="n">
-        <v>435405.0743065153</v>
+        <v>370385.949017813</v>
       </c>
       <c r="F50" t="n">
-        <v>361106.0854748487</v>
+        <v>297777.1518916488</v>
       </c>
       <c r="G50" t="n">
         <v>522074.6783233112</v>
@@ -6788,16 +6855,16 @@
         <v>374481</v>
       </c>
       <c r="C51" t="n">
-        <v>350937.9045177102</v>
+        <v>358487.500825932</v>
       </c>
       <c r="D51" t="n">
-        <v>358501.6188752083</v>
+        <v>443728.8319251537</v>
       </c>
       <c r="E51" t="n">
-        <v>316230.5143918865</v>
+        <v>403494.7689879644</v>
       </c>
       <c r="F51" t="n">
-        <v>216728.263635844</v>
+        <v>404681.8380419016</v>
       </c>
       <c r="G51" t="n">
         <v>445400.0386780257</v>
@@ -6811,16 +6878,16 @@
         <v>434298</v>
       </c>
       <c r="C52" t="n">
-        <v>392074.2884126902</v>
+        <v>374076.0917165835</v>
       </c>
       <c r="D52" t="n">
-        <v>374109.9072724041</v>
+        <v>393851.649985671</v>
       </c>
       <c r="E52" t="n">
-        <v>395613.8434337366</v>
+        <v>384322.0034254009</v>
       </c>
       <c r="F52" t="n">
-        <v>416100.707904458</v>
+        <v>377910.8643273115</v>
       </c>
       <c r="G52" t="n">
         <v>462598.1778129459</v>
@@ -6834,16 +6901,16 @@
         <v>457767</v>
       </c>
       <c r="C53" t="n">
-        <v>446068.0840680599</v>
+        <v>386457.4794458256</v>
       </c>
       <c r="D53" t="n">
-        <v>386491.0940162221</v>
+        <v>404220.9707442522</v>
       </c>
       <c r="E53" t="n">
-        <v>407023.0008493712</v>
+        <v>412829.7574069605</v>
       </c>
       <c r="F53" t="n">
-        <v>376202.1976122856</v>
+        <v>441404.1118518114</v>
       </c>
       <c r="G53" t="n">
         <v>485824.9798895555</v>
@@ -6857,16 +6924,16 @@
         <v>542765</v>
       </c>
       <c r="C54" t="n">
-        <v>371146.9234297276</v>
+        <v>472413.8487118969</v>
       </c>
       <c r="D54" t="n">
-        <v>472438.8228993702</v>
+        <v>389916.5299705267</v>
       </c>
       <c r="E54" t="n">
-        <v>430567.3141093561</v>
+        <v>430500.2277859854</v>
       </c>
       <c r="F54" t="n">
-        <v>440738.6833087206</v>
+        <v>417870.6462738514</v>
       </c>
       <c r="G54" t="n">
         <v>551108.9025233381</v>
@@ -6880,16 +6947,16 @@
         <v>458189</v>
       </c>
       <c r="C55" t="n">
-        <v>392736.6219393015</v>
+        <v>407035.9494534837</v>
       </c>
       <c r="D55" t="n">
-        <v>407038.4645004032</v>
+        <v>435172.997385025</v>
       </c>
       <c r="E55" t="n">
-        <v>373120.5625995756</v>
+        <v>421772.0384525462</v>
       </c>
       <c r="F55" t="n">
-        <v>299323.6808488369</v>
+        <v>415132.064465642</v>
       </c>
       <c r="G55" t="n">
         <v>509573.134471083</v>
@@ -6903,16 +6970,16 @@
         <v>395074</v>
       </c>
       <c r="C56" t="n">
-        <v>405189.880161047</v>
+        <v>354282.9041416887</v>
       </c>
       <c r="D56" t="n">
-        <v>354271.2618695559</v>
+        <v>411395.605820775</v>
       </c>
       <c r="E56" t="n">
-        <v>393028.1510460452</v>
+        <v>397398.8791904817</v>
       </c>
       <c r="F56" t="n">
-        <v>412019.5901588202</v>
+        <v>419183.9246336222</v>
       </c>
       <c r="G56" t="n">
         <v>481189.2591407957</v>
@@ -6926,16 +6993,16 @@
         <v>222108</v>
       </c>
       <c r="C57" t="n">
-        <v>359493.062022984</v>
+        <v>436115.8268110618</v>
       </c>
       <c r="D57" t="n">
-        <v>436100.604145974</v>
+        <v>394010.7773563862</v>
       </c>
       <c r="E57" t="n">
-        <v>423052.5337069515</v>
+        <v>441255.3762279021</v>
       </c>
       <c r="F57" t="n">
-        <v>469095.7804296017</v>
+        <v>484251.78597188</v>
       </c>
       <c r="G57" t="n">
         <v>546326.7454719767</v>
@@ -6949,16 +7016,16 @@
         <v>12647</v>
       </c>
       <c r="C58" t="n">
-        <v>406276.7387214899</v>
+        <v>391680.3879996235</v>
       </c>
       <c r="D58" t="n">
-        <v>391669.0051956544</v>
+        <v>406711.9028744698</v>
       </c>
       <c r="E58" t="n">
-        <v>409902.3729046694</v>
+        <v>411169.3643322396</v>
       </c>
       <c r="F58" t="n">
-        <v>423030.2321836948</v>
+        <v>425874.4072494507</v>
       </c>
       <c r="G58" t="n">
         <v>514120.7105215341</v>
@@ -6972,16 +7039,16 @@
         <v>15108</v>
       </c>
       <c r="C59" t="n">
-        <v>446174.9830356836</v>
+        <v>451949.3683868933</v>
       </c>
       <c r="D59" t="n">
-        <v>451950.6149567931</v>
+        <v>438596.5933874846</v>
       </c>
       <c r="E59" t="n">
-        <v>437721.91930274</v>
+        <v>438131.7163315104</v>
       </c>
       <c r="F59" t="n">
-        <v>402243.6420909166</v>
+        <v>414757.0838752985</v>
       </c>
       <c r="G59" t="n">
         <v>535700.9909292457</v>
@@ -6995,16 +7062,16 @@
         <v>30337</v>
       </c>
       <c r="C60" t="n">
-        <v>332130.9643406272</v>
+        <v>522082.1716682678</v>
       </c>
       <c r="D60" t="n">
-        <v>522094.8628259554</v>
+        <v>413414.6930167675</v>
       </c>
       <c r="E60" t="n">
-        <v>429913.3032439309</v>
+        <v>434290.6124783175</v>
       </c>
       <c r="F60" t="n">
-        <v>425552.8398731947</v>
+        <v>352541.3769421577</v>
       </c>
       <c r="G60" t="n">
         <v>587608.7441048066</v>
@@ -7018,16 +7085,16 @@
         <v>57641</v>
       </c>
       <c r="C61" t="n">
-        <v>471593.0960313082</v>
+        <v>558043.7612040136</v>
       </c>
       <c r="D61" t="n">
-        <v>558063.655329029</v>
+        <v>429386.5980986357</v>
       </c>
       <c r="E61" t="n">
-        <v>510041.1130554014</v>
+        <v>474998.3495394894</v>
       </c>
       <c r="F61" t="n">
-        <v>491843.9822951555</v>
+        <v>424843.5975030661</v>
       </c>
       <c r="G61" t="n">
         <v>606984.7353138692</v>
@@ -7041,16 +7108,16 @@
         <v>67932</v>
       </c>
       <c r="C62" t="n">
-        <v>421767.4412802458</v>
+        <v>452015.1940095781</v>
       </c>
       <c r="D62" t="n">
-        <v>452025.0032138075</v>
+        <v>423774.220949769</v>
       </c>
       <c r="E62" t="n">
-        <v>437177.5712395767</v>
+        <v>443805.0279422682</v>
       </c>
       <c r="F62" t="n">
-        <v>426426.3357350826</v>
+        <v>445437.6195392609</v>
       </c>
       <c r="G62" t="n">
         <v>554884.9950771797</v>
@@ -7064,16 +7131,16 @@
         <v>83870</v>
       </c>
       <c r="C63" t="n">
-        <v>446917.6660916805</v>
+        <v>358482.5491476187</v>
       </c>
       <c r="D63" t="n">
-        <v>358496.7246013153</v>
+        <v>351914.285497725</v>
       </c>
       <c r="E63" t="n">
-        <v>389105.7290133775</v>
+        <v>391265.0750452222</v>
       </c>
       <c r="F63" t="n">
-        <v>348645.5007687807</v>
+        <v>457717.3392198086</v>
       </c>
       <c r="G63" t="n">
         <v>458499.8693487801</v>
@@ -7087,16 +7154,16 @@
         <v>114801</v>
       </c>
       <c r="C64" t="n">
-        <v>457721.8850252628</v>
+        <v>374110.120253586</v>
       </c>
       <c r="D64" t="n">
-        <v>374143.4592147531</v>
+        <v>423415.5859152079</v>
       </c>
       <c r="E64" t="n">
-        <v>436372.0428311482</v>
+        <v>393604.6676075262</v>
       </c>
       <c r="F64" t="n">
-        <v>474133.8627628088</v>
+        <v>374645.2592442036</v>
       </c>
       <c r="G64" t="n">
         <v>488402.0619910226</v>
@@ -7110,16 +7177,16 @@
         <v>137031</v>
       </c>
       <c r="C65" t="n">
-        <v>399953.3298960924</v>
+        <v>386507.3397150005</v>
       </c>
       <c r="D65" t="n">
-        <v>386540.2507054842</v>
+        <v>403507.0858494043</v>
       </c>
       <c r="E65" t="n">
-        <v>417354.9920519429</v>
+        <v>397984.0792237307</v>
       </c>
       <c r="F65" t="n">
-        <v>461684.013895154</v>
+        <v>394121.3758358955</v>
       </c>
       <c r="G65" t="n">
         <v>505876.730319127</v>
@@ -7133,16 +7200,16 @@
         <v>213203</v>
       </c>
       <c r="C66" t="n">
-        <v>389068.5679945946</v>
+        <v>472453.3909673161</v>
       </c>
       <c r="D66" t="n">
-        <v>472477.8054158176</v>
+        <v>449744.6493080854</v>
       </c>
       <c r="E66" t="n">
-        <v>452002.2730953876</v>
+        <v>445241.3329946991</v>
       </c>
       <c r="F66" t="n">
-        <v>490318.5018680096</v>
+        <v>402256.2639549971</v>
       </c>
       <c r="G66" t="n">
         <v>564925.2970471132</v>
@@ -7156,16 +7223,16 @@
         <v>121733</v>
       </c>
       <c r="C67" t="n">
-        <v>383474.4707868099</v>
+        <v>407048.7395718622</v>
       </c>
       <c r="D67" t="n">
-        <v>407051.0854495196</v>
+        <v>433330.0601503849</v>
       </c>
       <c r="E67" t="n">
-        <v>411324.8117936415</v>
+        <v>418266.3782003865</v>
       </c>
       <c r="F67" t="n">
-        <v>435105.3664389849</v>
+        <v>403758.4350392818</v>
       </c>
       <c r="G67" t="n">
         <v>534886.9308876521</v>
@@ -7179,16 +7246,16 @@
         <v>89788</v>
       </c>
       <c r="C68" t="n">
-        <v>437067.6552466154</v>
+        <v>354268.0325273531</v>
       </c>
       <c r="D68" t="n">
-        <v>354256.6342624812</v>
+        <v>409850.2979443073</v>
       </c>
       <c r="E68" t="n">
-        <v>400844.0103547921</v>
+        <v>389968.5394589286</v>
       </c>
       <c r="F68" t="n">
-        <v>399647.2859618664</v>
+        <v>396058.3241961002</v>
       </c>
       <c r="G68" t="n">
         <v>498783.367718015</v>
@@ -7202,16 +7269,16 @@
         <v>177155</v>
       </c>
       <c r="C69" t="n">
-        <v>394148.2154319286</v>
+        <v>436085.409766098</v>
       </c>
       <c r="D69" t="n">
-        <v>436070.6655959893</v>
+        <v>424169.1740683317</v>
       </c>
       <c r="E69" t="n">
-        <v>424033.9477041761</v>
+        <v>401677.5456241356</v>
       </c>
       <c r="F69" t="n">
-        <v>430497.4672166109</v>
+        <v>329289.4974142909</v>
       </c>
       <c r="G69" t="n">
         <v>565703.6925908024</v>
@@ -7225,16 +7292,16 @@
         <v>226409</v>
       </c>
       <c r="C70" t="n">
-        <v>406938.9271692038</v>
+        <v>391651.4859789911</v>
       </c>
       <c r="D70" t="n">
-        <v>391640.5522558682</v>
+        <v>383706.6695622206</v>
       </c>
       <c r="E70" t="n">
-        <v>405696.81125546</v>
+        <v>403084.2221411393</v>
       </c>
       <c r="F70" t="n">
-        <v>406336.6321263313</v>
+        <v>422234.9580273628</v>
       </c>
       <c r="G70" t="n">
         <v>532240.3474839255</v>
@@ -7248,16 +7315,16 @@
         <v>299382</v>
       </c>
       <c r="C71" t="n">
-        <v>427833.2625231743</v>
+        <v>451935.1274305064</v>
       </c>
       <c r="D71" t="n">
-        <v>451936.5838871634</v>
+        <v>453765.2449736595</v>
       </c>
       <c r="E71" t="n">
-        <v>433599.8642640144</v>
+        <v>458743.2658378136</v>
       </c>
       <c r="F71" t="n">
-        <v>407216.100402832</v>
+        <v>461477.7600625753</v>
       </c>
       <c r="G71" t="n">
         <v>558312.0639405902</v>
@@ -7271,16 +7338,16 @@
         <v>371306</v>
       </c>
       <c r="C72" t="n">
-        <v>417016.3250062466</v>
+        <v>522086.4508743783</v>
       </c>
       <c r="D72" t="n">
-        <v>522099.0491830423</v>
+        <v>391200.6474719048</v>
       </c>
       <c r="E72" t="n">
-        <v>455272.2042431549</v>
+        <v>446895.5002136971</v>
       </c>
       <c r="F72" t="n">
-        <v>410396.9552299976</v>
+        <v>412004.042536974</v>
       </c>
       <c r="G72" t="n">
         <v>609327.7380517054</v>
@@ -7294,16 +7361,16 @@
         <v>385452</v>
       </c>
       <c r="C73" t="n">
-        <v>468655.8770326376</v>
+        <v>558061.0869353145</v>
       </c>
       <c r="D73" t="n">
-        <v>558080.6761281084</v>
+        <v>399938.0240724087</v>
       </c>
       <c r="E73" t="n">
-        <v>496181.4017564057</v>
+        <v>480701.3540554736</v>
       </c>
       <c r="F73" t="n">
-        <v>446535.3348371983</v>
+        <v>470087.0803562403</v>
       </c>
       <c r="G73" t="n">
         <v>629094.2551639751</v>
@@ -7317,16 +7384,16 @@
         <v>305847</v>
       </c>
       <c r="C74" t="n">
-        <v>452111.2246433496</v>
+        <v>452035.0597524696</v>
       </c>
       <c r="D74" t="n">
-        <v>452044.5297478006</v>
+        <v>482118.0139074326</v>
       </c>
       <c r="E74" t="n">
-        <v>464210.4507884619</v>
+        <v>468871.2049848957</v>
       </c>
       <c r="F74" t="n">
-        <v>480170.958384037</v>
+        <v>463154.1467229128</v>
       </c>
       <c r="G74" t="n">
         <v>571405.1175177998</v>
@@ -7340,16 +7407,16 @@
         <v>252301</v>
       </c>
       <c r="C75" t="n">
-        <v>338218.0638218522</v>
+        <v>358495.2450820481</v>
       </c>
       <c r="D75" t="n">
-        <v>358509.2136830766</v>
+        <v>426900.1875940561</v>
       </c>
       <c r="E75" t="n">
-        <v>376560.9842407824</v>
+        <v>414383.7297962908</v>
       </c>
       <c r="F75" t="n">
-        <v>429370.6394199133</v>
+        <v>452080.2261189222</v>
       </c>
       <c r="G75" t="n">
         <v>481524.8214715531</v>
@@ -7387,12 +7454,12 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>arima</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>lstm</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>arima</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -7419,16 +7486,16 @@
         <v>467457</v>
       </c>
       <c r="C2" t="n">
-        <v>373760.689026475</v>
+        <v>451285.4040904046</v>
       </c>
       <c r="D2" t="n">
-        <v>451281.4787121088</v>
+        <v>376591.420114398</v>
       </c>
       <c r="E2" t="n">
-        <v>394370.3999504459</v>
+        <v>409139.953912753</v>
       </c>
       <c r="F2" t="n">
-        <v>351358.5728708506</v>
+        <v>396468.9216557741</v>
       </c>
       <c r="G2" t="n">
         <v>439729.0626875589</v>
@@ -7442,16 +7509,16 @@
         <v>360593</v>
       </c>
       <c r="C3" t="n">
-        <v>340508.8475230932</v>
+        <v>358743.2067200664</v>
       </c>
       <c r="D3" t="n">
-        <v>358750.0082543613</v>
+        <v>332054.7374699116</v>
       </c>
       <c r="E3" t="n">
-        <v>362623.3750057576</v>
+        <v>370587.8282563091</v>
       </c>
       <c r="F3" t="n">
-        <v>392249.6162602901</v>
+        <v>421940.8105627298</v>
       </c>
       <c r="G3" t="n">
         <v>363054.4230422495</v>
@@ -7465,16 +7532,16 @@
         <v>397613</v>
       </c>
       <c r="C4" t="n">
-        <v>338025.4232258201</v>
+        <v>375988.6944769993</v>
       </c>
       <c r="D4" t="n">
-        <v>376020.7899066192</v>
+        <v>323457.4708146453</v>
       </c>
       <c r="E4" t="n">
-        <v>348171.0629129006</v>
+        <v>361577.414439035</v>
       </c>
       <c r="F4" t="n">
-        <v>326157.9815021753</v>
+        <v>383599.0693799257</v>
       </c>
       <c r="G4" t="n">
         <v>380252.5621771832</v>
@@ -7488,16 +7555,16 @@
         <v>420034</v>
       </c>
       <c r="C5" t="n">
-        <v>359212.8904921412</v>
+        <v>390126.4097070204</v>
       </c>
       <c r="D5" t="n">
-        <v>390159.1538418726</v>
+        <v>338937.0022982955</v>
       </c>
       <c r="E5" t="n">
-        <v>387101.7395084519</v>
+        <v>366956.8710332366</v>
       </c>
       <c r="F5" t="n">
-        <v>414156.5055993795</v>
+        <v>368352.7280441523</v>
       </c>
       <c r="G5" t="n">
         <v>403479.3642537682</v>
@@ -7511,16 +7578,16 @@
         <v>519636</v>
       </c>
       <c r="C6" t="n">
-        <v>371734.2028067112</v>
+        <v>474111.4002716879</v>
       </c>
       <c r="D6" t="n">
-        <v>474130.9676041915</v>
+        <v>348804.736948669</v>
       </c>
       <c r="E6" t="n">
-        <v>413136.7340971605</v>
+        <v>408976.5764852522</v>
       </c>
       <c r="F6" t="n">
-        <v>388534.6051124334</v>
+        <v>398157.3740444183</v>
       </c>
       <c r="G6" t="n">
         <v>468763.2868875506</v>
@@ -7534,16 +7601,16 @@
         <v>449336</v>
       </c>
       <c r="C7" t="n">
-        <v>371866.4422217607</v>
+        <v>408845.4049488608</v>
       </c>
       <c r="D7" t="n">
-        <v>408842.4915521462</v>
+        <v>326809.3132123947</v>
       </c>
       <c r="E7" t="n">
-        <v>384700.1390305019</v>
+        <v>360362.8553289785</v>
       </c>
       <c r="F7" t="n">
-        <v>368725.8951482773</v>
+        <v>338972.8730556965</v>
       </c>
       <c r="G7" t="n">
         <v>427227.5188353079</v>
@@ -7557,16 +7624,16 @@
         <v>388763</v>
       </c>
       <c r="C8" t="n">
-        <v>356161.4702213407</v>
+        <v>353844.0509543302</v>
       </c>
       <c r="D8" t="n">
-        <v>353827.2258612859</v>
+        <v>368899.4336894751</v>
       </c>
       <c r="E8" t="n">
-        <v>356039.6549080261</v>
+        <v>356012.5315868941</v>
       </c>
       <c r="F8" t="n">
-        <v>353830.5601150393</v>
+        <v>341327.1650443077</v>
       </c>
       <c r="G8" t="n">
         <v>398843.6435050212</v>
@@ -7580,16 +7647,16 @@
         <v>464430</v>
       </c>
       <c r="C9" t="n">
-        <v>397136.913259387</v>
+        <v>433403.0253548989</v>
       </c>
       <c r="D9" t="n">
-        <v>433384.6561601199</v>
+        <v>332377.0665103793</v>
       </c>
       <c r="E9" t="n">
-        <v>400841.7334821311</v>
+        <v>381539.1126938118</v>
       </c>
       <c r="F9" t="n">
-        <v>363054.2774496078</v>
+        <v>370981.9929031134</v>
       </c>
       <c r="G9" t="n">
         <v>463981.1298362083</v>
@@ -7603,16 +7670,16 @@
         <v>392441</v>
       </c>
       <c r="C10" t="n">
-        <v>381028.4889349937</v>
+        <v>388867.2114069504</v>
       </c>
       <c r="D10" t="n">
-        <v>388856.2680611631</v>
+        <v>406277.633374691</v>
       </c>
       <c r="E10" t="n">
-        <v>374813.8924399211</v>
+        <v>333463.109999189</v>
       </c>
       <c r="F10" t="n">
-        <v>346406.643222928</v>
+        <v>195363.6822379977</v>
       </c>
       <c r="G10" t="n">
         <v>431775.09488576</v>
@@ -7626,16 +7693,16 @@
         <v>473082</v>
       </c>
       <c r="C11" t="n">
-        <v>362103.6963335276</v>
+        <v>448636.7004745384</v>
       </c>
       <c r="D11" t="n">
-        <v>448638.73776481</v>
+        <v>413334.053329587</v>
       </c>
       <c r="E11" t="n">
-        <v>392315.5201977967</v>
+        <v>407593.2065068673</v>
       </c>
       <c r="F11" t="n">
-        <v>359354.7172043324</v>
+        <v>356184.9125531912</v>
       </c>
       <c r="G11" t="n">
         <v>453355.3752934641</v>
@@ -7649,16 +7716,16 @@
         <v>541016</v>
       </c>
       <c r="C12" t="n">
-        <v>349977.5184861422</v>
+        <v>517822.0750035333</v>
       </c>
       <c r="D12" t="n">
-        <v>517832.0421885421</v>
+        <v>369613.2460448742</v>
       </c>
       <c r="E12" t="n">
-        <v>327992.2692980419</v>
+        <v>423050.3425489903</v>
       </c>
       <c r="F12" t="n">
-        <v>77370.52830180526</v>
+        <v>373483.9026699066</v>
       </c>
       <c r="G12" t="n">
         <v>505263.1284690171</v>
@@ -7672,16 +7739,16 @@
         <v>559606</v>
       </c>
       <c r="C13" t="n">
-        <v>391897.6306751966</v>
+        <v>552874.5354405972</v>
       </c>
       <c r="D13" t="n">
-        <v>552886.6424637184</v>
+        <v>398193.9581063986</v>
       </c>
       <c r="E13" t="n">
-        <v>459244.6185376564</v>
+        <v>484862.1773927899</v>
       </c>
       <c r="F13" t="n">
-        <v>427921.6639313698</v>
+        <v>499586.7221543789</v>
       </c>
       <c r="G13" t="n">
         <v>524639.1196781083</v>
@@ -7695,16 +7762,16 @@
         <v>451152</v>
       </c>
       <c r="C14" t="n">
-        <v>265928.7190130949</v>
+        <v>450726.7466562079</v>
       </c>
       <c r="D14" t="n">
-        <v>450730.5193669277</v>
+        <v>368856.8530330658</v>
       </c>
       <c r="E14" t="n">
-        <v>375050.9961893999</v>
+        <v>407423.0098434171</v>
       </c>
       <c r="F14" t="n">
-        <v>408015.3884086609</v>
+        <v>396457.1460852623</v>
       </c>
       <c r="G14" t="n">
         <v>472539.3794413942</v>
@@ -7718,16 +7785,16 @@
         <v>378001</v>
       </c>
       <c r="C15" t="n">
-        <v>387602.7875337601</v>
+        <v>357715.6281940724</v>
       </c>
       <c r="D15" t="n">
-        <v>357723.0234982009</v>
+        <v>357747.2188404799</v>
       </c>
       <c r="E15" t="n">
-        <v>369694.2126422228</v>
+        <v>378321.877176082</v>
       </c>
       <c r="F15" t="n">
-        <v>361445.3524765968</v>
+        <v>419991.8448338509</v>
       </c>
       <c r="G15" t="n">
         <v>376154.2537129904</v>
@@ -7741,16 +7808,16 @@
         <v>398024</v>
       </c>
       <c r="C16" t="n">
-        <v>393374.3404129744</v>
+        <v>372932.3225724506</v>
       </c>
       <c r="D16" t="n">
-        <v>372959.0403296486</v>
+        <v>371112.6606301069</v>
       </c>
       <c r="E16" t="n">
-        <v>384376.1766571025</v>
+        <v>362178.1827253071</v>
       </c>
       <c r="F16" t="n">
-        <v>384186.7114541531</v>
+        <v>338318.4342390895</v>
       </c>
       <c r="G16" t="n">
         <v>406056.4463552554</v>
@@ -7764,16 +7831,16 @@
         <v>403968</v>
       </c>
       <c r="C17" t="n">
-        <v>365909.6719501019</v>
+        <v>384607.5746850896</v>
       </c>
       <c r="D17" t="n">
-        <v>384636.8321431476</v>
+        <v>374497.7140054703</v>
       </c>
       <c r="E17" t="n">
-        <v>366028.8494604453</v>
+        <v>385024.5018880166</v>
       </c>
       <c r="F17" t="n">
-        <v>339882.0220566392</v>
+        <v>392483.8219604492</v>
       </c>
       <c r="G17" t="n">
         <v>423531.1146833431</v>
@@ -7787,16 +7854,16 @@
         <v>503379</v>
       </c>
       <c r="C18" t="n">
-        <v>393275.4933241606</v>
+        <v>470280.1644497839</v>
       </c>
       <c r="D18" t="n">
-        <v>470305.0042697655</v>
+        <v>384047.2180942297</v>
       </c>
       <c r="E18" t="n">
-        <v>402361.5942900921</v>
+        <v>432133.1696365407</v>
       </c>
       <c r="F18" t="n">
-        <v>330423.1680989861</v>
+        <v>437282.154396534</v>
       </c>
       <c r="G18" t="n">
         <v>482579.6814113411</v>
@@ -7810,16 +7877,16 @@
         <v>426440</v>
       </c>
       <c r="C19" t="n">
-        <v>355372.1080300808</v>
+        <v>405290.18621852</v>
       </c>
       <c r="D19" t="n">
-        <v>405295.9819160004</v>
+        <v>478210.9424791336</v>
       </c>
       <c r="E19" t="n">
-        <v>388970.0629443061</v>
+        <v>414488.3513168029</v>
       </c>
       <c r="F19" t="n">
-        <v>403205.9504178762</v>
+        <v>356281.0273227692</v>
       </c>
       <c r="G19" t="n">
         <v>452541.3152518788</v>
@@ -7833,16 +7900,16 @@
         <v>357556</v>
       </c>
       <c r="C20" t="n">
-        <v>405741.2525109053</v>
+        <v>353424.2108102121</v>
       </c>
       <c r="D20" t="n">
-        <v>353416.755226565</v>
+        <v>350466.6761687994</v>
       </c>
       <c r="E20" t="n">
-        <v>379022.6973490227</v>
+        <v>365962.4921065141</v>
       </c>
       <c r="F20" t="n">
-        <v>372245.920257926</v>
+        <v>389552.9622534513</v>
       </c>
       <c r="G20" t="n">
         <v>416437.7520822426</v>
@@ -7856,16 +7923,16 @@
         <v>442013</v>
       </c>
       <c r="C21" t="n">
-        <v>398931.6359404325</v>
+        <v>436222.1437917445</v>
       </c>
       <c r="D21" t="n">
-        <v>436209.4501091006</v>
+        <v>372956.5892372131</v>
       </c>
       <c r="E21" t="n">
-        <v>426770.0048535178</v>
+        <v>324173.2655820611</v>
       </c>
       <c r="F21" t="n">
-        <v>442608.2183412313</v>
+        <v>147428.3624507524</v>
       </c>
       <c r="G21" t="n">
         <v>483358.0769550246</v>
@@ -7879,16 +7946,16 @@
         <v>414088</v>
       </c>
       <c r="C22" t="n">
-        <v>415698.2348630428</v>
+        <v>392421.4962368557</v>
       </c>
       <c r="D22" t="n">
-        <v>392409.7932336996</v>
+        <v>352442.6023927927</v>
       </c>
       <c r="E22" t="n">
-        <v>389712.2218760173</v>
+        <v>367835.7629993756</v>
       </c>
       <c r="F22" t="n">
-        <v>350568.7149933577</v>
+        <v>350939.8026332855</v>
       </c>
       <c r="G22" t="n">
         <v>449894.7318481408</v>
@@ -7902,16 +7969,16 @@
         <v>458758</v>
       </c>
       <c r="C23" t="n">
-        <v>387502.828173399</v>
+        <v>452797.5255259827</v>
       </c>
       <c r="D23" t="n">
-        <v>452796.2373627304</v>
+        <v>430693.3720878363</v>
       </c>
       <c r="E23" t="n">
-        <v>407250.6949056244</v>
+        <v>434830.5611988687</v>
       </c>
       <c r="F23" t="n">
-        <v>373182.1869227886</v>
+        <v>417068.6743084192</v>
       </c>
       <c r="G23" t="n">
         <v>475966.4483047994</v>
@@ -7925,19 +7992,19 @@
         <v>537494</v>
       </c>
       <c r="C24" t="n">
-        <v>419893.5055211782</v>
+        <v>522581.954108257</v>
       </c>
       <c r="D24" t="n">
-        <v>522591.7242005236</v>
+        <v>344512.1425301433</v>
       </c>
       <c r="E24" t="n">
-        <v>445996.8815344822</v>
+        <v>430180.9690333342</v>
       </c>
       <c r="F24" t="n">
-        <v>384141.108320713</v>
+        <v>414042.1592483521</v>
       </c>
       <c r="G24" t="n">
-        <v>526982.1224159393</v>
+        <v>526982.1224159392</v>
       </c>
     </row>
     <row r="25">
@@ -7948,16 +8015,16 @@
         <v>558294</v>
       </c>
       <c r="C25" t="n">
-        <v>388666.3609311581</v>
+        <v>558001.9886874615</v>
       </c>
       <c r="D25" t="n">
-        <v>558020.3948604177</v>
+        <v>370275.1685146093</v>
       </c>
       <c r="E25" t="n">
-        <v>452010.7849032689</v>
+        <v>445013.0334245499</v>
       </c>
       <c r="F25" t="n">
-        <v>399540.3386346102</v>
+        <v>396654.6951839924</v>
       </c>
       <c r="G25" t="n">
         <v>546748.6395281788</v>
@@ -7971,16 +8038,16 @@
         <v>376395</v>
       </c>
       <c r="C26" t="n">
-        <v>397586.1984250546</v>
+        <v>451536.1373969507</v>
       </c>
       <c r="D26" t="n">
-        <v>451546.6773895613</v>
+        <v>345442.8961969018</v>
       </c>
       <c r="E26" t="n">
-        <v>425662.6597923013</v>
+        <v>406736.3612375867</v>
       </c>
       <c r="F26" t="n">
-        <v>423151.3730630875</v>
+        <v>415507.4077532291</v>
       </c>
       <c r="G26" t="n">
         <v>489059.5018820384</v>
@@ -7994,16 +8061,16 @@
         <v>344907</v>
       </c>
       <c r="C27" t="n">
-        <v>375540.8796379566</v>
+        <v>357860.1418151034</v>
       </c>
       <c r="D27" t="n">
-        <v>357876.7071951425</v>
+        <v>356257.7542496324</v>
       </c>
       <c r="E27" t="n">
-        <v>348118.8247366403</v>
+        <v>372135.405616076</v>
       </c>
       <c r="F27" t="n">
-        <v>300587.0157981515</v>
+        <v>400014.02123487</v>
       </c>
       <c r="G27" t="n">
         <v>399179.2058357761</v>
@@ -8017,16 +8084,16 @@
         <v>390963</v>
       </c>
       <c r="C28" t="n">
-        <v>382067.9792354107</v>
+        <v>373653.5109094762</v>
       </c>
       <c r="D28" t="n">
-        <v>373689.4649508736</v>
+        <v>408364.883472681</v>
       </c>
       <c r="E28" t="n">
-        <v>378023.731435668</v>
+        <v>370691.4873831822</v>
       </c>
       <c r="F28" t="n">
-        <v>373185.1368603706</v>
+        <v>324886.4012355208</v>
       </c>
       <c r="G28" t="n">
         <v>424899.8588521626</v>
@@ -8040,16 +8107,16 @@
         <v>398818</v>
       </c>
       <c r="C29" t="n">
-        <v>409725.8202502728</v>
+        <v>386392.971534946</v>
       </c>
       <c r="D29" t="n">
-        <v>386427.3034008006</v>
+        <v>305951.7916286588</v>
       </c>
       <c r="E29" t="n">
-        <v>400732.9801564231</v>
+        <v>363398.3965884599</v>
       </c>
       <c r="F29" t="n">
-        <v>401411.9531313181</v>
+        <v>390458.4238324165</v>
       </c>
       <c r="G29" t="n">
         <v>444240.7294928526</v>
@@ -8063,16 +8130,16 @@
         <v>483044</v>
       </c>
       <c r="C30" t="n">
-        <v>374741.422373414</v>
+        <v>472667.0816990059</v>
       </c>
       <c r="D30" t="n">
-        <v>472691.0884126544</v>
+        <v>355769.1043431163</v>
       </c>
       <c r="E30" t="n">
-        <v>413285.9101440695</v>
+        <v>412306.142853332</v>
       </c>
       <c r="F30" t="n">
-        <v>383300.5453685522</v>
+        <v>399593.1231734753</v>
       </c>
       <c r="G30" t="n">
         <v>505465.2829977713</v>
@@ -8086,16 +8153,16 @@
         <v>419855</v>
       </c>
       <c r="C31" t="n">
-        <v>362805.6122193336</v>
+        <v>407427.5660413297</v>
       </c>
       <c r="D31" t="n">
-        <v>407428.0797831447</v>
+        <v>350065.9803438783</v>
       </c>
       <c r="E31" t="n">
-        <v>385594.6588039951</v>
+        <v>371363.2702541696</v>
       </c>
       <c r="F31" t="n">
-        <v>379046.2034193277</v>
+        <v>347140.6215450764</v>
       </c>
       <c r="G31" t="n">
         <v>471580.3279644437</v>
@@ -8109,19 +8176,19 @@
         <v>369121</v>
       </c>
       <c r="C32" t="n">
-        <v>354374.3762723207</v>
+        <v>354603.6608196225</v>
       </c>
       <c r="D32" t="n">
-        <v>354590.1176875778</v>
+        <v>383820.4114178419</v>
       </c>
       <c r="E32" t="n">
-        <v>351336.8013668092</v>
+        <v>377691.6522632695</v>
       </c>
       <c r="F32" t="n">
-        <v>335228.2899925709</v>
+        <v>389311.1157313585</v>
       </c>
       <c r="G32" t="n">
-        <v>438012.6146948366</v>
+        <v>438012.6146948365</v>
       </c>
     </row>
     <row r="33">
@@ -8132,16 +8199,16 @@
         <v>466849</v>
       </c>
       <c r="C33" t="n">
-        <v>410537.5366816521</v>
+        <v>436229.2164824298</v>
       </c>
       <c r="D33" t="n">
-        <v>436213.1684197127</v>
+        <v>418427.2898236513</v>
       </c>
       <c r="E33" t="n">
-        <v>418719.0526866397</v>
+        <v>412458.1648915511</v>
       </c>
       <c r="F33" t="n">
-        <v>400295.3292170763</v>
+        <v>374178.7580493689</v>
       </c>
       <c r="G33" t="n">
         <v>502689.4012925135</v>
@@ -8155,16 +8222,16 @@
         <v>415682</v>
       </c>
       <c r="C34" t="n">
-        <v>325898.4474444985</v>
+        <v>391572.2352561004</v>
       </c>
       <c r="D34" t="n">
-        <v>391561.427301854</v>
+        <v>376422.475738287</v>
       </c>
       <c r="E34" t="n">
-        <v>359793.9569873804</v>
+        <v>412435.0765346669</v>
       </c>
       <c r="F34" t="n">
-        <v>352875.4331935048</v>
+        <v>464563.3222339153</v>
       </c>
       <c r="G34" t="n">
         <v>468076.8583801065</v>
@@ -8178,16 +8245,16 @@
         <v>455766</v>
       </c>
       <c r="C35" t="n">
-        <v>371274.7862980366</v>
+        <v>451711.2979979586</v>
       </c>
       <c r="D35" t="n">
-        <v>451714.0944956696</v>
+        <v>400768.0446246862</v>
       </c>
       <c r="E35" t="n">
-        <v>401757.5053013342</v>
+        <v>421514.2442615891</v>
       </c>
       <c r="F35" t="n">
-        <v>372292.7082023621</v>
+        <v>404781.8941215277</v>
       </c>
       <c r="G35" t="n">
         <v>498639.3932488187</v>
@@ -8201,16 +8268,16 @@
         <v>542537</v>
       </c>
       <c r="C36" t="n">
-        <v>356288.4142566323</v>
+        <v>521849.056582364</v>
       </c>
       <c r="D36" t="n">
-        <v>521863.3957696371</v>
+        <v>391016.1554739475</v>
       </c>
       <c r="E36" t="n">
-        <v>439140.6012416431</v>
+        <v>413939.1497839362</v>
       </c>
       <c r="F36" t="n">
-        <v>432937.4041143656</v>
+        <v>315637.7061507702</v>
       </c>
       <c r="G36" t="n">
         <v>548679.2576206472</v>
@@ -8224,16 +8291,16 @@
         <v>552404</v>
       </c>
       <c r="C37" t="n">
-        <v>432103.8533089161</v>
+        <v>557922.8660883973</v>
       </c>
       <c r="D37" t="n">
-        <v>557943.6733851117</v>
+        <v>419851.9887766838</v>
       </c>
       <c r="E37" t="n">
-        <v>477495.5027827855</v>
+        <v>445771.5478645337</v>
       </c>
       <c r="F37" t="n">
-        <v>432566.8726102114</v>
+        <v>347275.8955270648</v>
       </c>
       <c r="G37" t="n">
         <v>568760.4043147223</v>
@@ -8247,19 +8314,19 @@
         <v>445793</v>
       </c>
       <c r="C38" t="n">
-        <v>446129.2348233461</v>
+        <v>452041.4967882864</v>
       </c>
       <c r="D38" t="n">
-        <v>452051.1115802818</v>
+        <v>384156.2932453156</v>
       </c>
       <c r="E38" t="n">
-        <v>438268.5310135167</v>
+        <v>408326.2261051616</v>
       </c>
       <c r="F38" t="n">
-        <v>407167.7891299725</v>
+        <v>379536.545912981</v>
       </c>
       <c r="G38" t="n">
-        <v>505569.6999794937</v>
+        <v>505569.6999794936</v>
       </c>
     </row>
     <row r="39">
@@ -8270,16 +8337,16 @@
         <v>369424</v>
       </c>
       <c r="C39" t="n">
-        <v>399077.5127718449</v>
+        <v>358616.0718913526</v>
       </c>
       <c r="D39" t="n">
-        <v>358629.1672833778</v>
+        <v>382435.6575212479</v>
       </c>
       <c r="E39" t="n">
-        <v>386097.6752898635</v>
+        <v>379474.7165804879</v>
       </c>
       <c r="F39" t="n">
-        <v>397292.9697934389</v>
+        <v>393634.3943367004</v>
       </c>
       <c r="G39" t="n">
         <v>422261.3882097219</v>
@@ -8293,16 +8360,16 @@
         <v>408507</v>
       </c>
       <c r="C40" t="n">
-        <v>417387.9446021318</v>
+        <v>374268.601300222</v>
       </c>
       <c r="D40" t="n">
-        <v>374300.6102180384</v>
+        <v>363058.218759656</v>
       </c>
       <c r="E40" t="n">
-        <v>400601.731092494</v>
+        <v>397280.2873761501</v>
       </c>
       <c r="F40" t="n">
-        <v>405414.1479567289</v>
+        <v>450622.0623002052</v>
       </c>
       <c r="G40" t="n">
         <v>443746.7561558419</v>
@@ -8316,16 +8383,16 @@
         <v>431053</v>
       </c>
       <c r="C41" t="n">
-        <v>436441.9299618006</v>
+        <v>386612.4113708346</v>
       </c>
       <c r="D41" t="n">
-        <v>386644.4256610567</v>
+        <v>403143.8566497564</v>
       </c>
       <c r="E41" t="n">
-        <v>414999.4209291202</v>
+        <v>392710.2902224986</v>
       </c>
       <c r="F41" t="n">
-        <v>415971.8536636829</v>
+        <v>381751.9732168913</v>
       </c>
       <c r="G41" t="n">
         <v>465005.6817478752</v>
@@ -8339,16 +8406,16 @@
         <v>513430</v>
       </c>
       <c r="C42" t="n">
-        <v>429287.4366722107</v>
+        <v>472466.2606356317</v>
       </c>
       <c r="D42" t="n">
-        <v>472490.5982187153</v>
+        <v>446420.3839907646</v>
       </c>
       <c r="E42" t="n">
-        <v>435021.3436083698</v>
+        <v>440916.5958515743</v>
       </c>
       <c r="F42" t="n">
-        <v>391049.1125634909</v>
+        <v>395511.0382351875</v>
       </c>
       <c r="G42" t="n">
         <v>528309.2075092979</v>
@@ -8362,16 +8429,16 @@
         <v>440389</v>
       </c>
       <c r="C43" t="n">
-        <v>398856.8961284161</v>
+        <v>406980.7671545794</v>
       </c>
       <c r="D43" t="n">
-        <v>406983.7918984177</v>
+        <v>389573.2491192818</v>
       </c>
       <c r="E43" t="n">
-        <v>402294.0221718501</v>
+        <v>396069.8709468389</v>
       </c>
       <c r="F43" t="n">
-        <v>391903.3854714632</v>
+        <v>382902.0378170013</v>
       </c>
       <c r="G43" t="n">
         <v>490590.5174197833</v>
@@ -8385,16 +8452,16 @@
         <v>379682</v>
       </c>
       <c r="C44" t="n">
-        <v>387735.1478478909</v>
+        <v>354166.0119822463</v>
       </c>
       <c r="D44" t="n">
-        <v>354155.6223734029</v>
+        <v>395326.7638555765</v>
       </c>
       <c r="E44" t="n">
-        <v>368491.2003506499</v>
+        <v>387815.7944803055</v>
       </c>
       <c r="F44" t="n">
-        <v>352424.1048333645</v>
+        <v>407659.3406144381</v>
       </c>
       <c r="G44" t="n">
         <v>459596.6856832807</v>
@@ -8408,16 +8475,16 @@
         <v>479188</v>
       </c>
       <c r="C45" t="n">
-        <v>359273.5092914701</v>
+        <v>436003.1543473253</v>
       </c>
       <c r="D45" t="n">
-        <v>435989.2164496377</v>
+        <v>404914.109356761</v>
       </c>
       <c r="E45" t="n">
-        <v>394569.073595012</v>
+        <v>412717.7724745175</v>
       </c>
       <c r="F45" t="n">
-        <v>376747.3557493687</v>
+        <v>387015.2905384302</v>
       </c>
       <c r="G45" t="n">
         <v>521976.9287469126</v>
@@ -8431,16 +8498,16 @@
         <v>435196</v>
       </c>
       <c r="C46" t="n">
-        <v>401767.5415090322</v>
+        <v>391623.4989193973</v>
       </c>
       <c r="D46" t="n">
-        <v>391612.8048969175</v>
+        <v>364914.7934106588</v>
       </c>
       <c r="E46" t="n">
-        <v>391369.2787421889</v>
+        <v>378035.9446772309</v>
       </c>
       <c r="F46" t="n">
-        <v>369201.0043576956</v>
+        <v>367555.3018841743</v>
       </c>
       <c r="G46" t="n">
         <v>486324.1202335281</v>
@@ -8454,19 +8521,19 @@
         <v>486277</v>
       </c>
       <c r="C47" t="n">
-        <v>404544.0130892992</v>
+        <v>451964.2010382975</v>
       </c>
       <c r="D47" t="n">
-        <v>451965.2898310425</v>
+        <v>351883.5650411844</v>
       </c>
       <c r="E47" t="n">
-        <v>419153.5668708899</v>
+        <v>330473.4800912173</v>
       </c>
       <c r="F47" t="n">
-        <v>389535.238448143</v>
+        <v>168777.3236873038</v>
       </c>
       <c r="G47" t="n">
-        <v>521371.3823265029</v>
+        <v>521371.3823265028</v>
       </c>
     </row>
     <row r="48">
@@ -8477,16 +8544,16 @@
         <v>555663</v>
       </c>
       <c r="C48" t="n">
-        <v>412957.0174548626</v>
+        <v>522148.3358096154</v>
       </c>
       <c r="D48" t="n">
-        <v>522160.2181263911</v>
+        <v>419278.0082986355</v>
       </c>
       <c r="E48" t="n">
-        <v>416550.5851420186</v>
+        <v>448841.967525491</v>
       </c>
       <c r="F48" t="n">
-        <v>289566.1457110047</v>
+        <v>393364.3057892323</v>
       </c>
       <c r="G48" t="n">
         <v>570351.7261879757</v>
@@ -8500,19 +8567,19 @@
         <v>550212</v>
       </c>
       <c r="C49" t="n">
-        <v>493133.7336937189</v>
+        <v>558120.8495424639</v>
       </c>
       <c r="D49" t="n">
-        <v>558139.7667513604</v>
+        <v>379209.6347973347</v>
       </c>
       <c r="E49" t="n">
-        <v>474706.5399196576</v>
+        <v>449978.9909798065</v>
       </c>
       <c r="F49" t="n">
-        <v>350490.2031300068</v>
+        <v>398952.7690998316</v>
       </c>
       <c r="G49" t="n">
-        <v>590673.8237659036</v>
+        <v>590673.8237659035</v>
       </c>
     </row>
     <row r="50">
@@ -8523,16 +8590,16 @@
         <v>479833</v>
       </c>
       <c r="C50" t="n">
-        <v>476306.0323754549</v>
+        <v>452065.3265494981</v>
       </c>
       <c r="D50" t="n">
-        <v>452074.4857549077</v>
+        <v>346702.9426912069</v>
       </c>
       <c r="E50" t="n">
-        <v>435405.0743065153</v>
+        <v>370385.949017813</v>
       </c>
       <c r="F50" t="n">
-        <v>361106.0854748487</v>
+        <v>297777.1518916488</v>
       </c>
       <c r="G50" t="n">
         <v>522074.6783233112</v>
@@ -8546,16 +8613,16 @@
         <v>374481</v>
       </c>
       <c r="C51" t="n">
-        <v>350937.9045177102</v>
+        <v>358487.500825932</v>
       </c>
       <c r="D51" t="n">
-        <v>358501.6188752083</v>
+        <v>443728.8319251537</v>
       </c>
       <c r="E51" t="n">
-        <v>316230.5143918865</v>
+        <v>403494.7689879644</v>
       </c>
       <c r="F51" t="n">
-        <v>216728.263635844</v>
+        <v>404681.8380419016</v>
       </c>
       <c r="G51" t="n">
         <v>445400.0386780257</v>
@@ -8569,16 +8636,16 @@
         <v>434298</v>
       </c>
       <c r="C52" t="n">
-        <v>392074.2884126902</v>
+        <v>374076.0917165835</v>
       </c>
       <c r="D52" t="n">
-        <v>374109.9072724041</v>
+        <v>393851.649985671</v>
       </c>
       <c r="E52" t="n">
-        <v>395613.8434337366</v>
+        <v>384322.0034254009</v>
       </c>
       <c r="F52" t="n">
-        <v>416100.707904458</v>
+        <v>377910.8643273115</v>
       </c>
       <c r="G52" t="n">
         <v>462598.1778129459</v>
@@ -8592,16 +8659,16 @@
         <v>457767</v>
       </c>
       <c r="C53" t="n">
-        <v>446068.0840680599</v>
+        <v>386457.4794458256</v>
       </c>
       <c r="D53" t="n">
-        <v>386491.0940162221</v>
+        <v>404220.9707442522</v>
       </c>
       <c r="E53" t="n">
-        <v>407023.0008493712</v>
+        <v>412829.7574069605</v>
       </c>
       <c r="F53" t="n">
-        <v>376202.1976122856</v>
+        <v>441404.1118518114</v>
       </c>
       <c r="G53" t="n">
         <v>485824.9798895555</v>
@@ -8615,16 +8682,16 @@
         <v>542765</v>
       </c>
       <c r="C54" t="n">
-        <v>371146.9234297276</v>
+        <v>472413.8487118969</v>
       </c>
       <c r="D54" t="n">
-        <v>472438.8228993702</v>
+        <v>389916.5299705267</v>
       </c>
       <c r="E54" t="n">
-        <v>430567.3141093561</v>
+        <v>430500.2277859854</v>
       </c>
       <c r="F54" t="n">
-        <v>440738.6833087206</v>
+        <v>417870.6462738514</v>
       </c>
       <c r="G54" t="n">
         <v>551108.9025233381</v>
@@ -8638,16 +8705,16 @@
         <v>458189</v>
       </c>
       <c r="C55" t="n">
-        <v>392736.6219393015</v>
+        <v>407035.9494534837</v>
       </c>
       <c r="D55" t="n">
-        <v>407038.4645004032</v>
+        <v>435172.997385025</v>
       </c>
       <c r="E55" t="n">
-        <v>373120.5625995756</v>
+        <v>421772.0384525462</v>
       </c>
       <c r="F55" t="n">
-        <v>299323.6808488369</v>
+        <v>415132.064465642</v>
       </c>
       <c r="G55" t="n">
         <v>509573.134471083</v>
@@ -8661,16 +8728,16 @@
         <v>395074</v>
       </c>
       <c r="C56" t="n">
-        <v>405189.880161047</v>
+        <v>354282.9041416887</v>
       </c>
       <c r="D56" t="n">
-        <v>354271.2618695559</v>
+        <v>411395.605820775</v>
       </c>
       <c r="E56" t="n">
-        <v>393028.1510460452</v>
+        <v>397398.8791904817</v>
       </c>
       <c r="F56" t="n">
-        <v>412019.5901588202</v>
+        <v>419183.9246336222</v>
       </c>
       <c r="G56" t="n">
         <v>481189.2591407957</v>
@@ -8684,16 +8751,16 @@
         <v>222108</v>
       </c>
       <c r="C57" t="n">
-        <v>359493.062022984</v>
+        <v>436115.8268110618</v>
       </c>
       <c r="D57" t="n">
-        <v>436100.604145974</v>
+        <v>394010.7773563862</v>
       </c>
       <c r="E57" t="n">
-        <v>423052.5337069515</v>
+        <v>441255.3762279021</v>
       </c>
       <c r="F57" t="n">
-        <v>469095.7804296017</v>
+        <v>484251.78597188</v>
       </c>
       <c r="G57" t="n">
         <v>546326.7454719767</v>
@@ -8707,16 +8774,16 @@
         <v>12647</v>
       </c>
       <c r="C58" t="n">
-        <v>406276.7387214899</v>
+        <v>391680.3879996235</v>
       </c>
       <c r="D58" t="n">
-        <v>391669.0051956544</v>
+        <v>406711.9028744698</v>
       </c>
       <c r="E58" t="n">
-        <v>409902.3729046694</v>
+        <v>411169.3643322396</v>
       </c>
       <c r="F58" t="n">
-        <v>423030.2321836948</v>
+        <v>425874.4072494507</v>
       </c>
       <c r="G58" t="n">
         <v>514120.7105215341</v>
@@ -8730,16 +8797,16 @@
         <v>15108</v>
       </c>
       <c r="C59" t="n">
-        <v>446174.9830356836</v>
+        <v>451949.3683868933</v>
       </c>
       <c r="D59" t="n">
-        <v>451950.6149567931</v>
+        <v>438596.5933874846</v>
       </c>
       <c r="E59" t="n">
-        <v>437721.91930274</v>
+        <v>438131.7163315104</v>
       </c>
       <c r="F59" t="n">
-        <v>402243.6420909166</v>
+        <v>414757.0838752985</v>
       </c>
       <c r="G59" t="n">
         <v>535700.9909292457</v>
@@ -8753,16 +8820,16 @@
         <v>30337</v>
       </c>
       <c r="C60" t="n">
-        <v>332130.9643406272</v>
+        <v>522082.1716682678</v>
       </c>
       <c r="D60" t="n">
-        <v>522094.8628259554</v>
+        <v>413414.6930167675</v>
       </c>
       <c r="E60" t="n">
-        <v>429913.3032439309</v>
+        <v>434290.6124783175</v>
       </c>
       <c r="F60" t="n">
-        <v>425552.8398731947</v>
+        <v>352541.3769421577</v>
       </c>
       <c r="G60" t="n">
         <v>587608.7441048066</v>
@@ -8776,16 +8843,16 @@
         <v>57641</v>
       </c>
       <c r="C61" t="n">
-        <v>471593.0960313082</v>
+        <v>558043.7612040136</v>
       </c>
       <c r="D61" t="n">
-        <v>558063.655329029</v>
+        <v>429386.5980986357</v>
       </c>
       <c r="E61" t="n">
-        <v>510041.1130554014</v>
+        <v>474998.3495394894</v>
       </c>
       <c r="F61" t="n">
-        <v>491843.9822951555</v>
+        <v>424843.5975030661</v>
       </c>
       <c r="G61" t="n">
         <v>606984.7353138692</v>
@@ -8799,16 +8866,16 @@
         <v>67932</v>
       </c>
       <c r="C62" t="n">
-        <v>421767.4412802458</v>
+        <v>452015.1940095781</v>
       </c>
       <c r="D62" t="n">
-        <v>452025.0032138075</v>
+        <v>423774.220949769</v>
       </c>
       <c r="E62" t="n">
-        <v>437177.5712395767</v>
+        <v>443805.0279422682</v>
       </c>
       <c r="F62" t="n">
-        <v>426426.3357350826</v>
+        <v>445437.6195392609</v>
       </c>
       <c r="G62" t="n">
         <v>554884.9950771797</v>
@@ -8822,16 +8889,16 @@
         <v>83870</v>
       </c>
       <c r="C63" t="n">
-        <v>446917.6660916805</v>
+        <v>358482.5491476187</v>
       </c>
       <c r="D63" t="n">
-        <v>358496.7246013153</v>
+        <v>351914.285497725</v>
       </c>
       <c r="E63" t="n">
-        <v>389105.7290133775</v>
+        <v>391265.0750452222</v>
       </c>
       <c r="F63" t="n">
-        <v>348645.5007687807</v>
+        <v>457717.3392198086</v>
       </c>
       <c r="G63" t="n">
         <v>458499.8693487801</v>
@@ -8845,16 +8912,16 @@
         <v>114801</v>
       </c>
       <c r="C64" t="n">
-        <v>457721.8850252628</v>
+        <v>374110.120253586</v>
       </c>
       <c r="D64" t="n">
-        <v>374143.4592147531</v>
+        <v>423415.5859152079</v>
       </c>
       <c r="E64" t="n">
-        <v>436372.0428311482</v>
+        <v>393604.6676075262</v>
       </c>
       <c r="F64" t="n">
-        <v>474133.8627628088</v>
+        <v>374645.2592442036</v>
       </c>
       <c r="G64" t="n">
         <v>488402.0619910226</v>
@@ -8868,16 +8935,16 @@
         <v>137031</v>
       </c>
       <c r="C65" t="n">
-        <v>399953.3298960924</v>
+        <v>386507.3397150005</v>
       </c>
       <c r="D65" t="n">
-        <v>386540.2507054842</v>
+        <v>403507.0858494043</v>
       </c>
       <c r="E65" t="n">
-        <v>417354.9920519429</v>
+        <v>397984.0792237307</v>
       </c>
       <c r="F65" t="n">
-        <v>461684.013895154</v>
+        <v>394121.3758358955</v>
       </c>
       <c r="G65" t="n">
         <v>505876.730319127</v>
@@ -8891,16 +8958,16 @@
         <v>213203</v>
       </c>
       <c r="C66" t="n">
-        <v>389068.5679945946</v>
+        <v>472453.3909673161</v>
       </c>
       <c r="D66" t="n">
-        <v>472477.8054158176</v>
+        <v>449744.6493080854</v>
       </c>
       <c r="E66" t="n">
-        <v>452002.2730953876</v>
+        <v>445241.3329946991</v>
       </c>
       <c r="F66" t="n">
-        <v>490318.5018680096</v>
+        <v>402256.2639549971</v>
       </c>
       <c r="G66" t="n">
         <v>564925.2970471132</v>
@@ -8914,16 +8981,16 @@
         <v>121733</v>
       </c>
       <c r="C67" t="n">
-        <v>383474.4707868099</v>
+        <v>407048.7395718622</v>
       </c>
       <c r="D67" t="n">
-        <v>407051.0854495196</v>
+        <v>433330.0601503849</v>
       </c>
       <c r="E67" t="n">
-        <v>411324.8117936415</v>
+        <v>418266.3782003865</v>
       </c>
       <c r="F67" t="n">
-        <v>435105.3664389849</v>
+        <v>403758.4350392818</v>
       </c>
       <c r="G67" t="n">
         <v>534886.9308876521</v>
@@ -8937,16 +9004,16 @@
         <v>89788</v>
       </c>
       <c r="C68" t="n">
-        <v>437067.6552466154</v>
+        <v>354268.0325273531</v>
       </c>
       <c r="D68" t="n">
-        <v>354256.6342624812</v>
+        <v>409850.2979443073</v>
       </c>
       <c r="E68" t="n">
-        <v>400844.0103547921</v>
+        <v>389968.5394589286</v>
       </c>
       <c r="F68" t="n">
-        <v>399647.2859618664</v>
+        <v>396058.3241961002</v>
       </c>
       <c r="G68" t="n">
         <v>498783.367718015</v>
@@ -8960,16 +9027,16 @@
         <v>177155</v>
       </c>
       <c r="C69" t="n">
-        <v>394148.2154319286</v>
+        <v>436085.409766098</v>
       </c>
       <c r="D69" t="n">
-        <v>436070.6655959893</v>
+        <v>424169.1740683317</v>
       </c>
       <c r="E69" t="n">
-        <v>424033.9477041761</v>
+        <v>401677.5456241356</v>
       </c>
       <c r="F69" t="n">
-        <v>430497.4672166109</v>
+        <v>329289.4974142909</v>
       </c>
       <c r="G69" t="n">
         <v>565703.6925908024</v>
@@ -8983,16 +9050,16 @@
         <v>226409</v>
       </c>
       <c r="C70" t="n">
-        <v>406938.9271692038</v>
+        <v>391651.4859789911</v>
       </c>
       <c r="D70" t="n">
-        <v>391640.5522558682</v>
+        <v>383706.6695622206</v>
       </c>
       <c r="E70" t="n">
-        <v>405696.81125546</v>
+        <v>403084.2221411393</v>
       </c>
       <c r="F70" t="n">
-        <v>406336.6321263313</v>
+        <v>422234.9580273628</v>
       </c>
       <c r="G70" t="n">
         <v>532240.3474839255</v>
@@ -9006,16 +9073,16 @@
         <v>299382</v>
       </c>
       <c r="C71" t="n">
-        <v>427833.2625231743</v>
+        <v>451935.1274305064</v>
       </c>
       <c r="D71" t="n">
-        <v>451936.5838871634</v>
+        <v>453765.2449736595</v>
       </c>
       <c r="E71" t="n">
-        <v>433599.8642640144</v>
+        <v>458743.2658378136</v>
       </c>
       <c r="F71" t="n">
-        <v>407216.100402832</v>
+        <v>461477.7600625753</v>
       </c>
       <c r="G71" t="n">
         <v>558312.0639405902</v>
@@ -9029,16 +9096,16 @@
         <v>371306</v>
       </c>
       <c r="C72" t="n">
-        <v>417016.3250062466</v>
+        <v>522086.4508743783</v>
       </c>
       <c r="D72" t="n">
-        <v>522099.0491830423</v>
+        <v>391200.6474719048</v>
       </c>
       <c r="E72" t="n">
-        <v>455272.2042431549</v>
+        <v>446895.5002136971</v>
       </c>
       <c r="F72" t="n">
-        <v>410396.9552299976</v>
+        <v>412004.042536974</v>
       </c>
       <c r="G72" t="n">
         <v>609327.7380517054</v>
@@ -9052,16 +9119,16 @@
         <v>385452</v>
       </c>
       <c r="C73" t="n">
-        <v>468655.8770326376</v>
+        <v>558061.0869353145</v>
       </c>
       <c r="D73" t="n">
-        <v>558080.6761281084</v>
+        <v>399938.0240724087</v>
       </c>
       <c r="E73" t="n">
-        <v>496181.4017564057</v>
+        <v>480701.3540554736</v>
       </c>
       <c r="F73" t="n">
-        <v>446535.3348371983</v>
+        <v>470087.0803562403</v>
       </c>
       <c r="G73" t="n">
         <v>629094.2551639751</v>
@@ -9075,16 +9142,16 @@
         <v>305847</v>
       </c>
       <c r="C74" t="n">
-        <v>452111.2246433496</v>
+        <v>452035.0597524696</v>
       </c>
       <c r="D74" t="n">
-        <v>452044.5297478006</v>
+        <v>482118.0139074326</v>
       </c>
       <c r="E74" t="n">
-        <v>464210.4507884619</v>
+        <v>468871.2049848957</v>
       </c>
       <c r="F74" t="n">
-        <v>480170.958384037</v>
+        <v>463154.1467229128</v>
       </c>
       <c r="G74" t="n">
         <v>571405.1175177998</v>
@@ -9098,16 +9165,16 @@
         <v>252301</v>
       </c>
       <c r="C75" t="n">
-        <v>338218.0638218522</v>
+        <v>358495.2450820481</v>
       </c>
       <c r="D75" t="n">
-        <v>358509.2136830766</v>
+        <v>426900.1875940561</v>
       </c>
       <c r="E75" t="n">
-        <v>376560.9842407824</v>
+        <v>414383.7297962908</v>
       </c>
       <c r="F75" t="n">
-        <v>429370.6394199133</v>
+        <v>452080.2261189222</v>
       </c>
       <c r="G75" t="n">
         <v>481524.8214715531</v>
@@ -9140,12 +9207,12 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>arima</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>lstm</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>arima</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -9169,16 +9236,16 @@
         <v>44470</v>
       </c>
       <c r="B2" t="n">
-        <v>320866.927567482</v>
+        <v>301421.5766542687</v>
       </c>
       <c r="C2" t="n">
-        <v>301421.5771608846</v>
+        <v>289006.9200091362</v>
       </c>
       <c r="D2" t="n">
-        <v>314686.7148449883</v>
+        <v>304252.4167242306</v>
       </c>
       <c r="E2" t="n">
-        <v>330055.055757165</v>
+        <v>328512.7013269663</v>
       </c>
       <c r="F2" t="n">
         <v>237909.6658678285</v>
@@ -9189,16 +9256,16 @@
         <v>44501</v>
       </c>
       <c r="B3" t="n">
-        <v>300379.5126655102</v>
+        <v>330448.6784802167</v>
       </c>
       <c r="C3" t="n">
-        <v>330448.6832331219</v>
+        <v>329478.9441121817</v>
       </c>
       <c r="D3" t="n">
-        <v>314017.5468636747</v>
+        <v>326432.8143424118</v>
       </c>
       <c r="E3" t="n">
-        <v>318164.2193721533</v>
+        <v>326025.862184763</v>
       </c>
       <c r="F3" t="n">
         <v>253360.9167199809</v>
@@ -9209,16 +9276,16 @@
         <v>44531</v>
       </c>
       <c r="B4" t="n">
-        <v>327611.6998444796</v>
+        <v>419332.212600098</v>
       </c>
       <c r="C4" t="n">
-        <v>419332.2205968756</v>
+        <v>307518.9915323257</v>
       </c>
       <c r="D4" t="n">
-        <v>352545.5913846163</v>
+        <v>353266.8106867947</v>
       </c>
       <c r="E4" t="n">
-        <v>311917.0519253016</v>
+        <v>335572.3237859011</v>
       </c>
       <c r="F4" t="n">
         <v>319890.449488445</v>
@@ -9229,16 +9296,16 @@
         <v>44562</v>
       </c>
       <c r="B5" t="n">
-        <v>333575.7819212675</v>
+        <v>340470.8198964694</v>
       </c>
       <c r="C5" t="n">
-        <v>340470.8315165763</v>
+        <v>299890.7953993082</v>
       </c>
       <c r="D5" t="n">
-        <v>323098.0691303523</v>
+        <v>321051.3473626237</v>
       </c>
       <c r="E5" t="n">
-        <v>297748.9254057407</v>
+        <v>327449.8803468943</v>
       </c>
       <c r="F5" t="n">
         <v>269269.0763516328</v>
@@ -9249,16 +9316,16 @@
         <v>44593</v>
       </c>
       <c r="B6" t="n">
-        <v>331061.7863336802</v>
+        <v>288946.3864360521</v>
       </c>
       <c r="C6" t="n">
-        <v>288946.3972521224</v>
+        <v>292786.1426163912</v>
       </c>
       <c r="D6" t="n">
-        <v>315817.3992249403</v>
+        <v>304502.2999931627</v>
       </c>
       <c r="E6" t="n">
-        <v>336787.8462812901</v>
+        <v>339051.5417346954</v>
       </c>
       <c r="F6" t="n">
         <v>227426.2772998255</v>
@@ -9269,19 +9336,19 @@
         <v>44621</v>
       </c>
       <c r="B7" t="n">
-        <v>334062.2608380318</v>
+        <v>293852.3750744588</v>
       </c>
       <c r="C7" t="n">
-        <v>293852.4134323303</v>
+        <v>317971.326317668</v>
       </c>
       <c r="D7" t="n">
-        <v>322437.4936040284</v>
+        <v>314127.3986958273</v>
       </c>
       <c r="E7" t="n">
-        <v>344469.9603022337</v>
+        <v>333728.2201013565</v>
       </c>
       <c r="F7" t="n">
-        <v>281555.1448826159</v>
+        <v>281555.144882616</v>
       </c>
     </row>
     <row r="8">
@@ -9289,16 +9356,16 @@
         <v>44652</v>
       </c>
       <c r="B8" t="n">
-        <v>321544.5549428463</v>
+        <v>219030.1178269128</v>
       </c>
       <c r="C8" t="n">
-        <v>219030.1684519101</v>
+        <v>319258.8709979057</v>
       </c>
       <c r="D8" t="n">
-        <v>293213.0062900797</v>
+        <v>287378.6314887158</v>
       </c>
       <c r="E8" t="n">
-        <v>347075.8269674778</v>
+        <v>328810.9943064451</v>
       </c>
       <c r="F8" t="n">
         <v>239001.292239888</v>
@@ -9309,16 +9376,16 @@
         <v>44682</v>
       </c>
       <c r="B9" t="n">
-        <v>331233.6125699282</v>
+        <v>259453.2199462371</v>
       </c>
       <c r="C9" t="n">
-        <v>259453.2764103757</v>
+        <v>305393.6129074097</v>
       </c>
       <c r="D9" t="n">
-        <v>306844.7496257848</v>
+        <v>296023.4316845852</v>
       </c>
       <c r="E9" t="n">
-        <v>334150.116053462</v>
+        <v>325840.4412673712</v>
       </c>
       <c r="F9" t="n">
         <v>270931.6339870065</v>
@@ -9329,16 +9396,16 @@
         <v>44713</v>
       </c>
       <c r="B10" t="n">
-        <v>315676.4256397486</v>
+        <v>314243.1274654085</v>
       </c>
       <c r="C10" t="n">
-        <v>314243.1906952466</v>
+        <v>315654.6017327309</v>
       </c>
       <c r="D10" t="n">
-        <v>316768.2753401938</v>
+        <v>322782.6650844031</v>
       </c>
       <c r="E10" t="n">
-        <v>320164.3162623644</v>
+        <v>338580.5008456707</v>
       </c>
       <c r="F10" t="n">
         <v>322606.7886248189</v>
@@ -9349,16 +9416,16 @@
         <v>44743</v>
       </c>
       <c r="B11" t="n">
-        <v>337130.0504100323</v>
+        <v>330452.4641152457</v>
       </c>
       <c r="C11" t="n">
-        <v>330452.5268980288</v>
+        <v>312856.8624370098</v>
       </c>
       <c r="D11" t="n">
-        <v>335971.9118387104</v>
+        <v>330474.2971058153</v>
       </c>
       <c r="E11" t="n">
-        <v>340509.5630581379</v>
+        <v>347562.635053277</v>
       </c>
       <c r="F11" t="n">
         <v>337319.5932923692</v>
@@ -9369,16 +9436,16 @@
         <v>44774</v>
       </c>
       <c r="B12" t="n">
-        <v>352611.5942959785</v>
+        <v>276961.4126227596</v>
       </c>
       <c r="C12" t="n">
-        <v>276961.4563110399</v>
+        <v>333076.1362431049</v>
       </c>
       <c r="D12" t="n">
-        <v>321758.8508200543</v>
+        <v>312893.0463500477</v>
       </c>
       <c r="E12" t="n">
-        <v>340836.3291591406</v>
+        <v>333171.5952632427</v>
       </c>
       <c r="F12" t="n">
         <v>266376.5056685093</v>
@@ -9389,16 +9456,16 @@
         <v>44805</v>
       </c>
       <c r="B13" t="n">
-        <v>345203.0197430849</v>
+        <v>234784.6115813034</v>
       </c>
       <c r="C13" t="n">
-        <v>234784.6467521381</v>
+        <v>320694.2125748396</v>
       </c>
       <c r="D13" t="n">
-        <v>306595.2433261461</v>
+        <v>291072.1729847607</v>
       </c>
       <c r="E13" t="n">
-        <v>353183.2292420864</v>
+        <v>327965.8857260942</v>
       </c>
       <c r="F13" t="n">
         <v>184179.0482621371</v>
@@ -9409,16 +9476,16 @@
         <v>44835</v>
       </c>
       <c r="B14" t="n">
-        <v>329427.0341553688</v>
+        <v>278721.0853976347</v>
       </c>
       <c r="C14" t="n">
-        <v>278721.1197505922</v>
+        <v>308949.0334877968</v>
       </c>
       <c r="D14" t="n">
-        <v>313760.0781817181</v>
+        <v>307546.2232109497</v>
       </c>
       <c r="E14" t="n">
-        <v>344944.8195520639</v>
+        <v>344368.0824859142</v>
       </c>
       <c r="F14" t="n">
         <v>208124.9386780533</v>
@@ -9429,16 +9496,16 @@
         <v>44866</v>
       </c>
       <c r="B15" t="n">
-        <v>354796.1575133801</v>
+        <v>302799.1838191341</v>
       </c>
       <c r="C15" t="n">
-        <v>302799.2166932539</v>
+        <v>303861.6602187157</v>
       </c>
       <c r="D15" t="n">
-        <v>333638.8854519605</v>
+        <v>313596.9516913206</v>
       </c>
       <c r="E15" t="n">
-        <v>354208.3932845592</v>
+        <v>342377.6631653309</v>
       </c>
       <c r="F15" t="n">
         <v>225350.7003419966</v>
@@ -9449,16 +9516,16 @@
         <v>44896</v>
       </c>
       <c r="B16" t="n">
-        <v>347335.8705050945</v>
+        <v>386671.2633577595</v>
       </c>
       <c r="C16" t="n">
-        <v>386671.2982425368</v>
+        <v>311915.9985843897</v>
       </c>
       <c r="D16" t="n">
-        <v>357401.2956441351</v>
+        <v>348016.0351906199</v>
       </c>
       <c r="E16" t="n">
-        <v>343876.1722800732</v>
+        <v>350322.124907136</v>
       </c>
       <c r="F16" t="n">
         <v>292693.0546175304</v>
@@ -9469,16 +9536,16 @@
         <v>44927</v>
       </c>
       <c r="B17" t="n">
-        <v>332892.6903399229</v>
+        <v>304381.7090716425</v>
       </c>
       <c r="C17" t="n">
-        <v>304381.7491225498</v>
+        <v>313459.8342752457</v>
       </c>
       <c r="D17" t="n">
-        <v>322682.4358114549</v>
+        <v>322420.2265463475</v>
       </c>
       <c r="E17" t="n">
-        <v>339391.375846386</v>
+        <v>357090.4656870365</v>
       </c>
       <c r="F17" t="n">
         <v>241180.9959155005</v>
@@ -9489,16 +9556,16 @@
         <v>44958</v>
       </c>
       <c r="B18" t="n">
-        <v>349527.6096074581</v>
+        <v>256148.0829751698</v>
       </c>
       <c r="C18" t="n">
-        <v>256148.1202861682</v>
+        <v>314867.986489892</v>
       </c>
       <c r="D18" t="n">
-        <v>307989.1795384227</v>
+        <v>301973.4414778234</v>
       </c>
       <c r="E18" t="n">
-        <v>328145.6449360847</v>
+        <v>344829.3799715042</v>
       </c>
       <c r="F18" t="n">
         <v>198074.6162606399</v>
@@ -9509,16 +9576,16 @@
         <v>44986</v>
       </c>
       <c r="B19" t="n">
-        <v>331244.8701509237</v>
+        <v>268057.1055993116</v>
       </c>
       <c r="C19" t="n">
-        <v>268057.1635662459</v>
+        <v>323878.2975668907</v>
       </c>
       <c r="D19" t="n">
-        <v>320344.1587213284</v>
+        <v>307597.2284159689</v>
       </c>
       <c r="E19" t="n">
-        <v>372196.4277040958</v>
+        <v>336532.8390299082</v>
       </c>
       <c r="F19" t="n">
         <v>249157.5171221843</v>
@@ -9529,16 +9596,16 @@
         <v>45017</v>
       </c>
       <c r="B20" t="n">
-        <v>341925.1544929743</v>
+        <v>212497.6299248364</v>
       </c>
       <c r="C20" t="n">
-        <v>212497.6871153303</v>
+        <v>313564.1150255203</v>
       </c>
       <c r="D20" t="n">
-        <v>296209.94305552</v>
+        <v>292588.4900794987</v>
       </c>
       <c r="E20" t="n">
-        <v>343747.8292733431</v>
+        <v>359930.6677882671</v>
       </c>
       <c r="F20" t="n">
         <v>210426.4297828418</v>
@@ -9549,19 +9616,19 @@
         <v>45047</v>
       </c>
       <c r="B21" t="n">
-        <v>329799.0939155817</v>
+        <v>257740.1577890346</v>
       </c>
       <c r="C21" t="n">
-        <v>257740.2163509536</v>
+        <v>313756.6789109707</v>
       </c>
       <c r="D21" t="n">
-        <v>309310.2723246166</v>
+        <v>308214.2877973611</v>
       </c>
       <c r="E21" t="n">
-        <v>348807.3877589703</v>
+        <v>359572.400210619</v>
       </c>
       <c r="F21" t="n">
-        <v>243274.2587527444</v>
+        <v>243274.2587527445</v>
       </c>
     </row>
     <row r="22">
@@ -9569,16 +9636,16 @@
         <v>45078</v>
       </c>
       <c r="B22" t="n">
-        <v>345095.3485517502</v>
+        <v>313759.034910945</v>
       </c>
       <c r="C22" t="n">
-        <v>313759.0988127182</v>
+        <v>317590.4777442217</v>
       </c>
       <c r="D22" t="n">
-        <v>331776.6213626058</v>
+        <v>328557.8670371364</v>
       </c>
       <c r="E22" t="n">
-        <v>339914.820445776</v>
+        <v>357591.6255427599</v>
       </c>
       <c r="F22" t="n">
         <v>295048.2070439143</v>
@@ -9589,16 +9656,16 @@
         <v>45108</v>
       </c>
       <c r="B23" t="n">
-        <v>330924.2595108747</v>
+        <v>329378.3702304029</v>
       </c>
       <c r="C23" t="n">
-        <v>329378.4334879573</v>
+        <v>321564.2063342333</v>
       </c>
       <c r="D23" t="n">
-        <v>333125.1504166825</v>
+        <v>330922.3092098532</v>
       </c>
       <c r="E23" t="n">
-        <v>342315.7464698553</v>
+        <v>343938.5827291012</v>
       </c>
       <c r="F23" t="n">
         <v>308499.171536146</v>
@@ -9609,16 +9676,16 @@
         <v>45139</v>
       </c>
       <c r="B24" t="n">
-        <v>344176.3744399548</v>
+        <v>273766.4568796919</v>
       </c>
       <c r="C24" t="n">
-        <v>273766.5034968133</v>
+        <v>306798.7367669344</v>
       </c>
       <c r="D24" t="n">
-        <v>321762.7383502393</v>
+        <v>307189.2074255299</v>
       </c>
       <c r="E24" t="n">
-        <v>357101.3611820936</v>
+        <v>347762.407740593</v>
       </c>
       <c r="F24" t="n">
         <v>237095.5833340205</v>
@@ -9629,16 +9696,16 @@
         <v>45170</v>
       </c>
       <c r="B25" t="n">
-        <v>346909.2674357891</v>
+        <v>231832.9991593398</v>
       </c>
       <c r="C25" t="n">
-        <v>231833.0365899653</v>
+        <v>316468.6367561817</v>
       </c>
       <c r="D25" t="n">
-        <v>304893.9160538405</v>
+        <v>288551.0160260787</v>
       </c>
       <c r="E25" t="n">
-        <v>352004.2774264812</v>
+        <v>330220.2327789068</v>
       </c>
       <c r="F25" t="n">
         <v>153016.9563506184</v>
@@ -9649,16 +9716,16 @@
         <v>45200</v>
       </c>
       <c r="B26" t="n">
-        <v>339601.4844413996</v>
+        <v>276233.3095742022</v>
       </c>
       <c r="C26" t="n">
-        <v>276233.3460204019</v>
+        <v>304119.3008223772</v>
       </c>
       <c r="D26" t="n">
-        <v>316796.3989064043</v>
+        <v>309703.3068510257</v>
       </c>
       <c r="E26" t="n">
-        <v>349209.2702337503</v>
+        <v>361158.2378703356</v>
       </c>
       <c r="F26" t="n">
         <v>178408.4395346413</v>
@@ -9669,16 +9736,16 @@
         <v>45231</v>
       </c>
       <c r="B27" t="n">
-        <v>336413.4165040255</v>
+        <v>301167.1510240989</v>
       </c>
       <c r="C27" t="n">
-        <v>301167.1865144034</v>
+        <v>311060.0603427887</v>
       </c>
       <c r="D27" t="n">
-        <v>327844.1469431137</v>
+        <v>315547.5424856062</v>
       </c>
       <c r="E27" t="n">
-        <v>360685.68280375</v>
+        <v>345419.2508821487</v>
       </c>
       <c r="F27" t="n">
         <v>197402.8110617171</v>
@@ -9689,16 +9756,16 @@
         <v>45261</v>
       </c>
       <c r="B28" t="n">
-        <v>339701.1897420883</v>
+        <v>385408.5213084235</v>
       </c>
       <c r="C28" t="n">
-        <v>385408.5588154499</v>
+        <v>317634.652228713</v>
       </c>
       <c r="D28" t="n">
-        <v>356570.5803429538</v>
+        <v>348275.9901471192</v>
       </c>
       <c r="E28" t="n">
-        <v>354109.3792388439</v>
+        <v>349160.4544658661</v>
       </c>
       <c r="F28" t="n">
         <v>265461.0283505826</v>
@@ -9709,16 +9776,16 @@
         <v>45292</v>
       </c>
       <c r="B29" t="n">
-        <v>349507.9252991676</v>
+        <v>303027.2017124582</v>
       </c>
       <c r="C29" t="n">
-        <v>303027.2438841106</v>
+        <v>325563.6759427786</v>
       </c>
       <c r="D29" t="n">
-        <v>330095.6479191423</v>
+        <v>325062.5818446553</v>
       </c>
       <c r="E29" t="n">
-        <v>349483.5997074842</v>
+        <v>357091.4202772379</v>
       </c>
       <c r="F29" t="n">
         <v>213037.1540754306</v>
@@ -9729,16 +9796,16 @@
         <v>45323</v>
       </c>
       <c r="B30" t="n">
-        <v>360556.4181237221</v>
+        <v>254863.1437533888</v>
       </c>
       <c r="C30" t="n">
-        <v>254863.1826659798</v>
+        <v>325487.7695633173</v>
       </c>
       <c r="D30" t="n">
-        <v>322115.9725078526</v>
+        <v>303624.5628642914</v>
       </c>
       <c r="E30" t="n">
-        <v>367178.7066028118</v>
+        <v>343287.519294858</v>
       </c>
       <c r="F30" t="n">
         <v>168672.3114747705</v>
@@ -9749,16 +9816,16 @@
         <v>45352</v>
       </c>
       <c r="B31" t="n">
-        <v>330938.7758653164</v>
+        <v>267098.6845002077</v>
       </c>
       <c r="C31" t="n">
-        <v>267098.7437698035</v>
+        <v>330496.8993527889</v>
       </c>
       <c r="D31" t="n">
-        <v>313049.9334197125</v>
+        <v>315777.098372372</v>
       </c>
       <c r="E31" t="n">
-        <v>351174.4093724489</v>
+        <v>357994.9234443903</v>
       </c>
       <c r="F31" t="n">
         <v>230241.6692261397</v>
@@ -9769,16 +9836,16 @@
         <v>45383</v>
       </c>
       <c r="B32" t="n">
-        <v>326865.802811265</v>
+        <v>211763.4980051675</v>
       </c>
       <c r="C32" t="n">
-        <v>211763.5564347279</v>
+        <v>327181.8380017281</v>
       </c>
       <c r="D32" t="n">
-        <v>291819.3069321567</v>
+        <v>294058.1182856153</v>
       </c>
       <c r="E32" t="n">
-        <v>350345.6934100389</v>
+        <v>354323.701197505</v>
       </c>
       <c r="F32" t="n">
         <v>180307.0920146088</v>
@@ -9789,16 +9856,16 @@
         <v>45413</v>
       </c>
       <c r="B33" t="n">
-        <v>346737.5070333481</v>
+        <v>257026.9260475409</v>
       </c>
       <c r="C33" t="n">
-        <v>257026.9858270561</v>
+        <v>312435.3285708427</v>
       </c>
       <c r="D33" t="n">
-        <v>314656.7493450278</v>
+        <v>306719.6039355659</v>
       </c>
       <c r="E33" t="n">
-        <v>351429.9103773832</v>
+        <v>360011.1825342178</v>
       </c>
       <c r="F33" t="n">
         <v>210223.2292145643</v>
@@ -9809,16 +9876,16 @@
         <v>45444</v>
       </c>
       <c r="B34" t="n">
-        <v>355154.2275896072</v>
+        <v>313075.6465014099</v>
       </c>
       <c r="C34" t="n">
-        <v>313075.7114229609</v>
+        <v>308751.8941527605</v>
       </c>
       <c r="D34" t="n">
-        <v>335760.987270989</v>
+        <v>324005.1410658011</v>
       </c>
       <c r="E34" t="n">
-        <v>345919.0282279253</v>
+        <v>356098.31729877</v>
       </c>
       <c r="F34" t="n">
         <v>261498.5586691144</v>
@@ -9829,16 +9896,16 @@
         <v>45474</v>
       </c>
       <c r="B35" t="n">
-        <v>321476.351118803</v>
+        <v>328828.6939740207</v>
       </c>
       <c r="C35" t="n">
-        <v>328828.7579654094</v>
+        <v>330961.0276920795</v>
       </c>
       <c r="D35" t="n">
-        <v>329665.2496912739</v>
+        <v>334478.6576201501</v>
       </c>
       <c r="E35" t="n">
-        <v>345343.311585784</v>
+        <v>348844.7813613415</v>
       </c>
       <c r="F35" t="n">
         <v>278609.4832585234</v>
@@ -9849,16 +9916,16 @@
         <v>45505</v>
       </c>
       <c r="B36" t="n">
-        <v>334449.7915428877</v>
+        <v>273339.5158814964</v>
       </c>
       <c r="C36" t="n">
-        <v>273339.5631104768</v>
+        <v>319452.159055233</v>
       </c>
       <c r="D36" t="n">
-        <v>316714.1907860073</v>
+        <v>308915.6236238529</v>
       </c>
       <c r="E36" t="n">
-        <v>354851.6883295774</v>
+        <v>343458.0946887732</v>
       </c>
       <c r="F36" t="n">
         <v>208645.8245708317</v>
@@ -9869,16 +9936,16 @@
         <v>45536</v>
       </c>
       <c r="B37" t="n">
-        <v>337302.7983195782</v>
+        <v>231446.4062612295</v>
       </c>
       <c r="C37" t="n">
-        <v>231446.4443339751</v>
+        <v>310884.6461640596</v>
       </c>
       <c r="D37" t="n">
-        <v>299415.5010116574</v>
+        <v>292669.4796414347</v>
       </c>
       <c r="E37" t="n">
-        <v>347521.2585055828</v>
+        <v>351083.8220540285</v>
       </c>
       <c r="F37" t="n">
         <v>130429.2623455103</v>
@@ -9889,16 +9956,16 @@
         <v>45566</v>
       </c>
       <c r="B38" t="n">
-        <v>341138.4075825214</v>
+        <v>275868.0910850656</v>
       </c>
       <c r="C38" t="n">
-        <v>275868.1281291808</v>
+        <v>325705.317378521</v>
       </c>
       <c r="D38" t="n">
-        <v>316216.399960347</v>
+        <v>310547.3721987462</v>
       </c>
       <c r="E38" t="n">
-        <v>348700.4736564159</v>
+        <v>344926.3531692028</v>
       </c>
       <c r="F38" t="n">
         <v>151625.9767832904</v>
@@ -9909,16 +9976,16 @@
         <v>45597</v>
       </c>
       <c r="B39" t="n">
-        <v>373737.9592117071</v>
+        <v>300858.9567995011</v>
       </c>
       <c r="C39" t="n">
-        <v>300858.9927257499</v>
+        <v>336873.3643965721</v>
       </c>
       <c r="D39" t="n">
-        <v>335938.4802636686</v>
+        <v>319790.3477587844</v>
       </c>
       <c r="E39" t="n">
-        <v>348495.5000983477</v>
+        <v>335928.4188479185</v>
       </c>
       <c r="F39" t="n">
         <v>165299.824813613</v>

--- a/fcst_results/orig_series_IAH-Int_results.xlsx
+++ b/fcst_results/orig_series_IAH-Int_results.xlsx
@@ -479,10 +479,10 @@
         <v>44470</v>
       </c>
       <c r="B2" t="n">
-        <v>328512.7013269663</v>
+        <v>329060.2740166187</v>
       </c>
       <c r="C2" t="n">
-        <v>289006.9200091362</v>
+        <v>314556.2963306904</v>
       </c>
       <c r="D2" t="n">
         <v>301421.5766542687</v>
@@ -491,7 +491,7 @@
         <v>237909.6658678285</v>
       </c>
       <c r="F2" t="n">
-        <v>304252.4167242306</v>
+        <v>312961.9652843496</v>
       </c>
     </row>
     <row r="3">
@@ -499,10 +499,10 @@
         <v>44501</v>
       </c>
       <c r="B3" t="n">
-        <v>326025.862184763</v>
+        <v>332397.0276070833</v>
       </c>
       <c r="C3" t="n">
-        <v>329478.9441121817</v>
+        <v>321684.1226136684</v>
       </c>
       <c r="D3" t="n">
         <v>330448.6784802167</v>
@@ -511,7 +511,7 @@
         <v>253360.9167199809</v>
       </c>
       <c r="F3" t="n">
-        <v>326432.8143424118</v>
+        <v>325999.9752572625</v>
       </c>
     </row>
     <row r="4">
@@ -519,10 +519,10 @@
         <v>44531</v>
       </c>
       <c r="B4" t="n">
-        <v>335572.3237859011</v>
+        <v>337144.7642658949</v>
       </c>
       <c r="C4" t="n">
-        <v>307518.9915323257</v>
+        <v>307721.0684028864</v>
       </c>
       <c r="D4" t="n">
         <v>419332.212600098</v>
@@ -531,7 +531,7 @@
         <v>319890.449488445</v>
       </c>
       <c r="F4" t="n">
-        <v>353266.8106867947</v>
+        <v>353537.2358363186</v>
       </c>
     </row>
     <row r="5">
@@ -539,10 +539,10 @@
         <v>44562</v>
       </c>
       <c r="B5" t="n">
-        <v>327449.8803468943</v>
+        <v>331548.0677490234</v>
       </c>
       <c r="C5" t="n">
-        <v>299890.7953993082</v>
+        <v>314450.1393169165</v>
       </c>
       <c r="D5" t="n">
         <v>340470.8198964694</v>
@@ -551,7 +551,7 @@
         <v>269269.0763516328</v>
       </c>
       <c r="F5" t="n">
-        <v>321051.3473626237</v>
+        <v>327135.5392379318</v>
       </c>
     </row>
     <row r="6">
@@ -559,10 +559,10 @@
         <v>44593</v>
       </c>
       <c r="B6" t="n">
-        <v>339051.5417346954</v>
+        <v>332593.7719392776</v>
       </c>
       <c r="C6" t="n">
-        <v>292786.1426163912</v>
+        <v>284507.1134674549</v>
       </c>
       <c r="D6" t="n">
         <v>288946.3864360521</v>
@@ -571,7 +571,7 @@
         <v>227426.2772998255</v>
       </c>
       <c r="F6" t="n">
-        <v>304502.2999931627</v>
+        <v>300552.6468816173</v>
       </c>
     </row>
     <row r="7">
@@ -579,10 +579,10 @@
         <v>44621</v>
       </c>
       <c r="B7" t="n">
-        <v>333728.2201013565</v>
+        <v>357037.9632259607</v>
       </c>
       <c r="C7" t="n">
-        <v>317971.326317668</v>
+        <v>314269.8863533735</v>
       </c>
       <c r="D7" t="n">
         <v>293852.3750744588</v>
@@ -591,7 +591,7 @@
         <v>281555.144882616</v>
       </c>
       <c r="F7" t="n">
-        <v>314127.3986958273</v>
+        <v>321372.8507977827</v>
       </c>
     </row>
     <row r="8">
@@ -599,10 +599,10 @@
         <v>44652</v>
       </c>
       <c r="B8" t="n">
-        <v>328810.9943064451</v>
+        <v>354906.6924753189</v>
       </c>
       <c r="C8" t="n">
-        <v>319258.8709979057</v>
+        <v>344902.1592451334</v>
       </c>
       <c r="D8" t="n">
         <v>219030.1178269128</v>
@@ -611,7 +611,7 @@
         <v>239001.292239888</v>
       </c>
       <c r="F8" t="n">
-        <v>287378.6314887158</v>
+        <v>305109.210918024</v>
       </c>
     </row>
     <row r="9">
@@ -619,10 +619,10 @@
         <v>44682</v>
       </c>
       <c r="B9" t="n">
-        <v>325840.4412673712</v>
+        <v>346421.5705935955</v>
       </c>
       <c r="C9" t="n">
-        <v>305393.6129074097</v>
+        <v>298400.6800949574</v>
       </c>
       <c r="D9" t="n">
         <v>259453.2199462371</v>
@@ -631,7 +631,7 @@
         <v>270931.6339870065</v>
       </c>
       <c r="F9" t="n">
-        <v>296023.4316845852</v>
+        <v>301581.7734162269</v>
       </c>
     </row>
     <row r="10">
@@ -639,10 +639,10 @@
         <v>44713</v>
       </c>
       <c r="B10" t="n">
-        <v>338580.5008456707</v>
+        <v>338314.9272682667</v>
       </c>
       <c r="C10" t="n">
-        <v>315654.6017327309</v>
+        <v>304328.356076479</v>
       </c>
       <c r="D10" t="n">
         <v>314243.1274654085</v>
@@ -651,7 +651,7 @@
         <v>322606.7886248189</v>
       </c>
       <c r="F10" t="n">
-        <v>322782.6650844031</v>
+        <v>319636.8995144652</v>
       </c>
     </row>
     <row r="11">
@@ -659,10 +659,10 @@
         <v>44743</v>
       </c>
       <c r="B11" t="n">
-        <v>347562.635053277</v>
+        <v>346494.1852827072</v>
       </c>
       <c r="C11" t="n">
-        <v>312856.8624370098</v>
+        <v>330251.3721696138</v>
       </c>
       <c r="D11" t="n">
         <v>330452.4641152457</v>
@@ -671,7 +671,7 @@
         <v>337319.5932923692</v>
       </c>
       <c r="F11" t="n">
-        <v>330474.2971058153</v>
+        <v>336076.8145165491</v>
       </c>
     </row>
     <row r="12">
@@ -679,10 +679,10 @@
         <v>44774</v>
       </c>
       <c r="B12" t="n">
-        <v>333171.5952632427</v>
+        <v>350992.0497270823</v>
       </c>
       <c r="C12" t="n">
-        <v>333076.1362431049</v>
+        <v>320834.0435808897</v>
       </c>
       <c r="D12" t="n">
         <v>276961.4126227596</v>
@@ -691,7 +691,7 @@
         <v>266376.5056685093</v>
       </c>
       <c r="F12" t="n">
-        <v>312893.0463500477</v>
+        <v>315520.6682949855</v>
       </c>
     </row>
     <row r="13">
@@ -699,10 +699,10 @@
         <v>44805</v>
       </c>
       <c r="B13" t="n">
-        <v>327965.8857260942</v>
+        <v>322691.5115282536</v>
       </c>
       <c r="C13" t="n">
-        <v>320694.2125748396</v>
+        <v>336320.3933347464</v>
       </c>
       <c r="D13" t="n">
         <v>234784.6115813034</v>
@@ -711,7 +711,7 @@
         <v>184179.0482621371</v>
       </c>
       <c r="F13" t="n">
-        <v>291072.1729847607</v>
+        <v>294747.3163008558</v>
       </c>
     </row>
     <row r="14">
@@ -719,10 +719,10 @@
         <v>44835</v>
       </c>
       <c r="B14" t="n">
-        <v>344368.0824859142</v>
+        <v>349378.8910374641</v>
       </c>
       <c r="C14" t="n">
-        <v>308949.0334877968</v>
+        <v>330253.6105190516</v>
       </c>
       <c r="D14" t="n">
         <v>278721.0853976347</v>
@@ -731,7 +731,7 @@
         <v>208124.9386780533</v>
       </c>
       <c r="F14" t="n">
-        <v>307546.2232109497</v>
+        <v>316647.037843143</v>
       </c>
     </row>
     <row r="15">
@@ -739,10 +739,10 @@
         <v>44866</v>
       </c>
       <c r="B15" t="n">
-        <v>342377.6631653309</v>
+        <v>346946.8914564848</v>
       </c>
       <c r="C15" t="n">
-        <v>303861.6602187157</v>
+        <v>342131.3459764719</v>
       </c>
       <c r="D15" t="n">
         <v>302799.1838191341</v>
@@ -751,7 +751,7 @@
         <v>225350.7003419966</v>
       </c>
       <c r="F15" t="n">
-        <v>313596.9516913206</v>
+        <v>327677.3469605164</v>
       </c>
     </row>
     <row r="16">
@@ -759,10 +759,10 @@
         <v>44896</v>
       </c>
       <c r="B16" t="n">
-        <v>350322.124907136</v>
+        <v>345911.3585894108</v>
       </c>
       <c r="C16" t="n">
-        <v>311915.9985843897</v>
+        <v>322598.8175280094</v>
       </c>
       <c r="D16" t="n">
         <v>386671.2633577595</v>
@@ -771,7 +771,7 @@
         <v>292693.0546175304</v>
       </c>
       <c r="F16" t="n">
-        <v>348016.0351906199</v>
+        <v>349947.1434910939</v>
       </c>
     </row>
     <row r="17">
@@ -779,10 +779,10 @@
         <v>44927</v>
       </c>
       <c r="B17" t="n">
-        <v>357090.4656870365</v>
+        <v>346090.2619599104</v>
       </c>
       <c r="C17" t="n">
-        <v>313459.8342752457</v>
+        <v>321480.5644824505</v>
       </c>
       <c r="D17" t="n">
         <v>304381.7090716425</v>
@@ -791,7 +791,7 @@
         <v>241180.9959155005</v>
       </c>
       <c r="F17" t="n">
-        <v>322420.2265463475</v>
+        <v>321963.9456281844</v>
       </c>
     </row>
     <row r="18">
@@ -799,10 +799,10 @@
         <v>44958</v>
       </c>
       <c r="B18" t="n">
-        <v>344829.3799715042</v>
+        <v>345861.5882313251</v>
       </c>
       <c r="C18" t="n">
-        <v>314867.986489892</v>
+        <v>334378.4276961088</v>
       </c>
       <c r="D18" t="n">
         <v>256148.0829751698</v>
@@ -811,7 +811,7 @@
         <v>198074.6162606399</v>
       </c>
       <c r="F18" t="n">
-        <v>301973.4414778234</v>
+        <v>309256.9832573687</v>
       </c>
     </row>
     <row r="19">
@@ -819,10 +819,10 @@
         <v>44986</v>
       </c>
       <c r="B19" t="n">
-        <v>336532.8390299082</v>
+        <v>361887.1826982498</v>
       </c>
       <c r="C19" t="n">
-        <v>323878.2975668907</v>
+        <v>334369.8363842964</v>
       </c>
       <c r="D19" t="n">
         <v>268057.1055993116</v>
@@ -831,7 +831,7 @@
         <v>249157.5171221843</v>
       </c>
       <c r="F19" t="n">
-        <v>307597.2284159689</v>
+        <v>320084.2752425017</v>
       </c>
     </row>
     <row r="20">
@@ -839,10 +839,10 @@
         <v>45017</v>
       </c>
       <c r="B20" t="n">
-        <v>359930.6677882671</v>
+        <v>346553.4686259031</v>
       </c>
       <c r="C20" t="n">
-        <v>313564.1150255203</v>
+        <v>324576.9588435888</v>
       </c>
       <c r="D20" t="n">
         <v>212497.6299248364</v>
@@ -851,7 +851,7 @@
         <v>210426.4297828418</v>
       </c>
       <c r="F20" t="n">
-        <v>292588.4900794987</v>
+        <v>292987.7119450206</v>
       </c>
     </row>
     <row r="21">
@@ -859,10 +859,10 @@
         <v>45047</v>
       </c>
       <c r="B21" t="n">
-        <v>359572.400210619</v>
+        <v>346624.766638875</v>
       </c>
       <c r="C21" t="n">
-        <v>313756.6789109707</v>
+        <v>315718.7238607407</v>
       </c>
       <c r="D21" t="n">
         <v>257740.1577890346</v>
@@ -871,7 +871,7 @@
         <v>243274.2587527445</v>
       </c>
       <c r="F21" t="n">
-        <v>308214.2877973611</v>
+        <v>305628.7905972335</v>
       </c>
     </row>
     <row r="22">
@@ -879,10 +879,10 @@
         <v>45078</v>
       </c>
       <c r="B22" t="n">
-        <v>357591.6255427599</v>
+        <v>340117.4569036961</v>
       </c>
       <c r="C22" t="n">
-        <v>317590.4777442217</v>
+        <v>327608.539821744</v>
       </c>
       <c r="D22" t="n">
         <v>313759.034910945</v>
@@ -891,7 +891,7 @@
         <v>295048.2070439143</v>
       </c>
       <c r="F22" t="n">
-        <v>328557.8670371364</v>
+        <v>326474.3136146843</v>
       </c>
     </row>
     <row r="23">
@@ -899,10 +899,10 @@
         <v>45108</v>
       </c>
       <c r="B23" t="n">
-        <v>343938.5827291012</v>
+        <v>350105.0050116777</v>
       </c>
       <c r="C23" t="n">
-        <v>321564.2063342333</v>
+        <v>332619.3812901974</v>
       </c>
       <c r="D23" t="n">
         <v>329378.3702304029</v>
@@ -911,7 +911,7 @@
         <v>308499.171536146</v>
       </c>
       <c r="F23" t="n">
-        <v>330922.3092098532</v>
+        <v>336809.7276230904</v>
       </c>
     </row>
     <row r="24">
@@ -919,10 +919,10 @@
         <v>45139</v>
       </c>
       <c r="B24" t="n">
-        <v>347762.407740593</v>
+        <v>357612.3631919622</v>
       </c>
       <c r="C24" t="n">
-        <v>306798.7367669344</v>
+        <v>329311.6274917126</v>
       </c>
       <c r="D24" t="n">
         <v>273766.4568796919</v>
@@ -931,7 +931,7 @@
         <v>237095.5833340205</v>
       </c>
       <c r="F24" t="n">
-        <v>307189.2074255299</v>
+        <v>318491.1649818686</v>
       </c>
     </row>
     <row r="25">
@@ -939,10 +939,10 @@
         <v>45170</v>
       </c>
       <c r="B25" t="n">
-        <v>330220.2327789068</v>
+        <v>336255.7774531841</v>
       </c>
       <c r="C25" t="n">
-        <v>316468.6367561817</v>
+        <v>342799.0982807875</v>
       </c>
       <c r="D25" t="n">
         <v>231832.9991593398</v>
@@ -951,7 +951,7 @@
         <v>153016.9563506184</v>
       </c>
       <c r="F25" t="n">
-        <v>288551.0160260787</v>
+        <v>299485.2214094835</v>
       </c>
     </row>
     <row r="26">
@@ -959,10 +959,10 @@
         <v>45200</v>
       </c>
       <c r="B26" t="n">
-        <v>361158.2378703356</v>
+        <v>355386.8184297085</v>
       </c>
       <c r="C26" t="n">
-        <v>304119.3008223772</v>
+        <v>334032.2735389471</v>
       </c>
       <c r="D26" t="n">
         <v>276233.3095742022</v>
@@ -971,7 +971,7 @@
         <v>178408.4395346413</v>
       </c>
       <c r="F26" t="n">
-        <v>309703.3068510257</v>
+        <v>318159.8813842814</v>
       </c>
     </row>
     <row r="27">
@@ -979,10 +979,10 @@
         <v>45231</v>
       </c>
       <c r="B27" t="n">
-        <v>345419.2508821487</v>
+        <v>366201.5354056358</v>
       </c>
       <c r="C27" t="n">
-        <v>311060.0603427887</v>
+        <v>319426.9447071552</v>
       </c>
       <c r="D27" t="n">
         <v>301167.1510240989</v>
@@ -991,7 +991,7 @@
         <v>197402.8110617171</v>
       </c>
       <c r="F27" t="n">
-        <v>315547.5424856062</v>
+        <v>325810.9689181451</v>
       </c>
     </row>
     <row r="28">
@@ -999,10 +999,10 @@
         <v>45261</v>
       </c>
       <c r="B28" t="n">
-        <v>349160.4544658661</v>
+        <v>354714.490675807</v>
       </c>
       <c r="C28" t="n">
-        <v>317634.652228713</v>
+        <v>339370.9344493151</v>
       </c>
       <c r="D28" t="n">
         <v>385408.5213084235</v>
@@ -1011,7 +1011,7 @@
         <v>265461.0283505826</v>
       </c>
       <c r="F28" t="n">
-        <v>348275.9901471192</v>
+        <v>356915.103548176</v>
       </c>
     </row>
     <row r="29">
@@ -1019,10 +1019,10 @@
         <v>45292</v>
       </c>
       <c r="B29" t="n">
-        <v>357091.4202772379</v>
+        <v>318285.0902417898</v>
       </c>
       <c r="C29" t="n">
-        <v>325563.6759427786</v>
+        <v>336148.7645999193</v>
       </c>
       <c r="D29" t="n">
         <v>303027.2017124582</v>
@@ -1031,7 +1031,7 @@
         <v>213037.1540754306</v>
       </c>
       <c r="F29" t="n">
-        <v>325062.5818446553</v>
+        <v>315729.4847963938</v>
       </c>
     </row>
     <row r="30">
@@ -1039,10 +1039,10 @@
         <v>45323</v>
       </c>
       <c r="B30" t="n">
-        <v>343287.519294858</v>
+        <v>355426.9770519733</v>
       </c>
       <c r="C30" t="n">
-        <v>325487.7695633173</v>
+        <v>336432.8703939915</v>
       </c>
       <c r="D30" t="n">
         <v>254863.1437533888</v>
@@ -1051,7 +1051,7 @@
         <v>168672.3114747705</v>
       </c>
       <c r="F30" t="n">
-        <v>303624.5628642914</v>
+        <v>311839.4119814387</v>
       </c>
     </row>
     <row r="31">
@@ -1059,10 +1059,10 @@
         <v>45352</v>
       </c>
       <c r="B31" t="n">
-        <v>357994.9234443903</v>
+        <v>346262.4502820969</v>
       </c>
       <c r="C31" t="n">
-        <v>330496.8993527889</v>
+        <v>329450.8330765963</v>
       </c>
       <c r="D31" t="n">
         <v>267098.6845002077</v>
@@ -1071,7 +1071,7 @@
         <v>230241.6692261397</v>
       </c>
       <c r="F31" t="n">
-        <v>315777.098372372</v>
+        <v>312334.196696989</v>
       </c>
     </row>
     <row r="32">
@@ -1079,10 +1079,10 @@
         <v>45383</v>
       </c>
       <c r="B32" t="n">
-        <v>354323.701197505</v>
+        <v>351644.2981698513</v>
       </c>
       <c r="C32" t="n">
-        <v>327181.8380017281</v>
+        <v>338246.1967737675</v>
       </c>
       <c r="D32" t="n">
         <v>211763.4980051675</v>
@@ -1091,7 +1091,7 @@
         <v>180307.0920146088</v>
       </c>
       <c r="F32" t="n">
-        <v>294058.1182856153</v>
+        <v>297803.2964235063</v>
       </c>
     </row>
     <row r="33">
@@ -1099,10 +1099,10 @@
         <v>45413</v>
       </c>
       <c r="B33" t="n">
-        <v>360011.1825342178</v>
+        <v>346960.3215531111</v>
       </c>
       <c r="C33" t="n">
-        <v>312435.3285708427</v>
+        <v>323894.7231017351</v>
       </c>
       <c r="D33" t="n">
         <v>257026.9260475409</v>
@@ -1111,7 +1111,7 @@
         <v>210223.2292145643</v>
       </c>
       <c r="F33" t="n">
-        <v>306719.6039355659</v>
+        <v>307031.273222385</v>
       </c>
     </row>
     <row r="34">
@@ -1119,10 +1119,10 @@
         <v>45444</v>
       </c>
       <c r="B34" t="n">
-        <v>356098.31729877</v>
+        <v>334047.6457328796</v>
       </c>
       <c r="C34" t="n">
-        <v>308751.8941527605</v>
+        <v>325775.167047739</v>
       </c>
       <c r="D34" t="n">
         <v>313075.6465014099</v>
@@ -1131,7 +1131,7 @@
         <v>261498.5586691144</v>
       </c>
       <c r="F34" t="n">
-        <v>324005.1410658011</v>
+        <v>322576.2594259336</v>
       </c>
     </row>
     <row r="35">
@@ -1139,10 +1139,10 @@
         <v>45474</v>
       </c>
       <c r="B35" t="n">
-        <v>348844.7813613415</v>
+        <v>361842.0207066536</v>
       </c>
       <c r="C35" t="n">
-        <v>330961.0276920795</v>
+        <v>334219.8998888731</v>
       </c>
       <c r="D35" t="n">
         <v>328828.6939740207</v>
@@ -1151,7 +1151,7 @@
         <v>278609.4832585234</v>
       </c>
       <c r="F35" t="n">
-        <v>334478.6576201501</v>
+        <v>340210.2535484338</v>
       </c>
     </row>
     <row r="36">
@@ -1159,10 +1159,10 @@
         <v>45505</v>
       </c>
       <c r="B36" t="n">
-        <v>343458.0946887732</v>
+        <v>353701.99964118</v>
       </c>
       <c r="C36" t="n">
-        <v>319452.159055233</v>
+        <v>307872.1569899321</v>
       </c>
       <c r="D36" t="n">
         <v>273339.5158814964</v>
@@ -1171,7 +1171,7 @@
         <v>208645.8245708317</v>
       </c>
       <c r="F36" t="n">
-        <v>308915.6236238529</v>
+        <v>309479.8984974974</v>
       </c>
     </row>
     <row r="37">
@@ -1179,10 +1179,10 @@
         <v>45536</v>
       </c>
       <c r="B37" t="n">
-        <v>351083.8220540285</v>
+        <v>361003.0675872564</v>
       </c>
       <c r="C37" t="n">
-        <v>310884.6461640596</v>
+        <v>322375.706756115</v>
       </c>
       <c r="D37" t="n">
         <v>231446.4062612295</v>
@@ -1191,7 +1191,7 @@
         <v>130429.2623455103</v>
       </c>
       <c r="F37" t="n">
-        <v>292669.4796414347</v>
+        <v>300762.8093248437</v>
       </c>
     </row>
     <row r="38">
@@ -1199,10 +1199,10 @@
         <v>45566</v>
       </c>
       <c r="B38" t="n">
-        <v>344926.3531692028</v>
+        <v>345612.802274704</v>
       </c>
       <c r="C38" t="n">
-        <v>325705.317378521</v>
+        <v>320888.2906378508</v>
       </c>
       <c r="D38" t="n">
         <v>275868.0910850656</v>
@@ -1211,7 +1211,7 @@
         <v>151625.9767832904</v>
       </c>
       <c r="F38" t="n">
-        <v>310547.3721987462</v>
+        <v>309795.6577790258</v>
       </c>
     </row>
     <row r="39">
@@ -1219,10 +1219,10 @@
         <v>45597</v>
       </c>
       <c r="B39" t="n">
-        <v>335928.4188479185</v>
+        <v>351116.1464532614</v>
       </c>
       <c r="C39" t="n">
-        <v>336873.3643965721</v>
+        <v>338370.5897520781</v>
       </c>
       <c r="D39" t="n">
         <v>300858.9567995011</v>
@@ -1231,7 +1231,7 @@
         <v>165299.824813613</v>
       </c>
       <c r="F39" t="n">
-        <v>319790.3477587844</v>
+        <v>325453.755612376</v>
       </c>
     </row>
   </sheetData>
@@ -1423,21 +1423,25 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>arima</t>
+          <t>lstm_reg</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>arima</t>
+          <t>rnn</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
         <is>
-          <t>{'order': (4, 0, 2), 'seasonal_order': (0, 1, 2, 12), 'trend': None}</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr"/>
+          <t>{'lags': 36, 'epochs': 15, 'validation_split': 0.2, 'shuffle': True, 'hidden_layers_struct': {'lstm': {'units': 72, 'dropout': 0.2}}, 'verbose': 0, 'random_seed': 1}</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>minmax</t>
+        </is>
+      </c>
       <c r="F2" t="n">
         <v>249</v>
       </c>
@@ -1454,19 +1458,19 @@
         <v>74</v>
       </c>
       <c r="K2" t="n">
-        <v>151537.9812989001</v>
+        <v>163189.9742743807</v>
       </c>
       <c r="L2" t="n">
-        <v>1.511243293116215</v>
+        <v>1.476254165674223</v>
       </c>
       <c r="M2" t="n">
-        <v>88358.46170687856</v>
+        <v>117212.2009592242</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.09340297464265102</v>
+        <v>-0.2680144535850759</v>
       </c>
       <c r="O2" t="n">
-        <v>358495.2450820481</v>
+        <v>400459.5343492031</v>
       </c>
       <c r="P2" t="n">
         <v>252301</v>
@@ -1475,19 +1479,19 @@
         <v>0.95</v>
       </c>
       <c r="R2" t="n">
-        <v>87003.83731021427</v>
+        <v>229611.0568740208</v>
       </c>
       <c r="S2" t="n">
-        <v>39195.67532417826</v>
+        <v>103841.5425494038</v>
       </c>
       <c r="T2" t="n">
-        <v>0.148140427669229</v>
+        <v>0.6191593988345842</v>
       </c>
       <c r="U2" t="n">
-        <v>22000.90262724375</v>
+        <v>69276.96850915338</v>
       </c>
       <c r="V2" t="n">
-        <v>0.8550923345239461</v>
+        <v>-0.05707713435059603</v>
       </c>
       <c r="W2" t="inlineStr"/>
       <c r="X2" t="inlineStr"/>
@@ -1498,16 +1502,16 @@
       <c r="AA2" t="inlineStr"/>
       <c r="AB2" t="inlineStr"/>
       <c r="AC2" t="n">
-        <v>151537.9812989001</v>
+        <v>163189.9742743807</v>
       </c>
       <c r="AD2" t="n">
-        <v>1.511243293116215</v>
+        <v>1.476254165674223</v>
       </c>
       <c r="AE2" t="n">
-        <v>88358.46170687856</v>
+        <v>117212.2009592242</v>
       </c>
       <c r="AF2" t="n">
-        <v>-0.09340297464265102</v>
+        <v>-0.2680144535850759</v>
       </c>
       <c r="AG2" t="b">
         <v>1</v>
@@ -1516,34 +1520,28 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>lstm</t>
+          <t>weighted_ensemble</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>rnn</t>
+          <t>combo</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
         <is>
-          <t>{'lags': 36, 'epochs': 15, 'validation_split': 0.2, 'shuffle': True, 'hidden_layers_struct': {'lstm': {'units': 72, 'dropout': 0}}, 'verbose': 0, 'random_seed': 1}</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>minmax</t>
-        </is>
-      </c>
+          <t>{'how': 'weighted', 'determine_best_by': 'TestSetMAPE'}</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="n">
         <v>249</v>
       </c>
       <c r="G3" t="b">
         <v>0</v>
       </c>
-      <c r="H3" t="b">
-        <v>1</v>
-      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
         <v>0</v>
       </c>
@@ -1551,19 +1549,19 @@
         <v>74</v>
       </c>
       <c r="K3" t="n">
-        <v>160723.1026085568</v>
+        <v>156213.3599454659</v>
       </c>
       <c r="L3" t="n">
-        <v>1.51365530329847</v>
+        <v>1.505042772299964</v>
       </c>
       <c r="M3" t="n">
-        <v>120352.4136708886</v>
+        <v>106446.1989826595</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.229968165304137</v>
+        <v>-0.1619129796646481</v>
       </c>
       <c r="O3" t="n">
-        <v>426900.1875940561</v>
+        <v>415177.3448328015</v>
       </c>
       <c r="P3" t="n">
         <v>252301</v>
@@ -1572,39 +1570,45 @@
         <v>0.95</v>
       </c>
       <c r="R3" t="n">
-        <v>210781.1399937359</v>
+        <v>118998.1266798896</v>
       </c>
       <c r="S3" t="n">
-        <v>99141.61523419782</v>
+        <v>71345.64739241429</v>
       </c>
       <c r="T3" t="n">
-        <v>0.6058061905880002</v>
+        <v>0.4379476800866641</v>
       </c>
       <c r="U3" t="n">
-        <v>63391.26529395046</v>
+        <v>46886.86767871204</v>
       </c>
       <c r="V3" t="n">
-        <v>0.03644524836216223</v>
+        <v>0.501001335652917</v>
       </c>
       <c r="W3" t="inlineStr"/>
       <c r="X3" t="inlineStr"/>
       <c r="Y3" t="inlineStr"/>
-      <c r="Z3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA3" t="inlineStr"/>
-      <c r="AB3" t="inlineStr"/>
+      <c r="Z3" t="inlineStr"/>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>['lstm_reg', 'arima', 'lstm', 'prophet']</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>(0.3412220726180845, 0.3171605909728679, 0.3105971479892217, 0.031020188419825862)</t>
+        </is>
+      </c>
       <c r="AC3" t="n">
-        <v>160723.1026085568</v>
+        <v>156213.3599454659</v>
       </c>
       <c r="AD3" t="n">
-        <v>1.51365530329847</v>
+        <v>1.505042772299964</v>
       </c>
       <c r="AE3" t="n">
-        <v>120352.4136708886</v>
+        <v>106446.1989826595</v>
       </c>
       <c r="AF3" t="n">
-        <v>-0.229968165304137</v>
+        <v>-0.1619129796646481</v>
       </c>
       <c r="AG3" t="b">
         <v>0</v>
@@ -1613,18 +1617,18 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>weighted_ensemble</t>
+          <t>arima</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>combo</t>
+          <t>arima</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
-          <t>{'how': 'weighted', 'determine_best_by': 'TestSetMAPE'}</t>
+          <t>{'order': (4, 0, 2), 'seasonal_order': (0, 1, 2, 12), 'trend': None}</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
@@ -1634,7 +1638,9 @@
       <c r="G4" t="b">
         <v>0</v>
       </c>
-      <c r="H4" t="inlineStr"/>
+      <c r="H4" t="b">
+        <v>1</v>
+      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
@@ -1642,19 +1648,19 @@
         <v>74</v>
       </c>
       <c r="K4" t="n">
-        <v>154306.064507527</v>
+        <v>151537.9812989001</v>
       </c>
       <c r="L4" t="n">
-        <v>1.514660508999777</v>
+        <v>1.511243293116215</v>
       </c>
       <c r="M4" t="n">
-        <v>108382.7064270278</v>
+        <v>88358.46170687856</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.1337133114566431</v>
+        <v>-0.09340297464265102</v>
       </c>
       <c r="O4" t="n">
-        <v>414383.7297962908</v>
+        <v>358495.2450820481</v>
       </c>
       <c r="P4" t="n">
         <v>252301</v>
@@ -1663,45 +1669,39 @@
         <v>0.95</v>
       </c>
       <c r="R4" t="n">
-        <v>152382.9567043732</v>
+        <v>80572.61067592388</v>
       </c>
       <c r="S4" t="n">
-        <v>69813.25955877545</v>
+        <v>39195.67532417826</v>
       </c>
       <c r="T4" t="n">
-        <v>0.4354806554801487</v>
+        <v>0.148140427669229</v>
       </c>
       <c r="U4" t="n">
-        <v>44911.99555490345</v>
+        <v>22000.90262724375</v>
       </c>
       <c r="V4" t="n">
-        <v>0.5222064880983281</v>
+        <v>0.8550923345239461</v>
       </c>
       <c r="W4" t="inlineStr"/>
       <c r="X4" t="inlineStr"/>
       <c r="Y4" t="inlineStr"/>
-      <c r="Z4" t="inlineStr"/>
-      <c r="AA4" t="inlineStr">
-        <is>
-          <t>['arima', 'lstm', 'lstm_reg', 'prophet']</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>(0.32509438643330757, 0.3233811946111187, 0.3219703838252729, 0.029554035130300686)</t>
-        </is>
-      </c>
+      <c r="Z4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA4" t="inlineStr"/>
+      <c r="AB4" t="inlineStr"/>
       <c r="AC4" t="n">
-        <v>154306.064507527</v>
+        <v>151537.9812989001</v>
       </c>
       <c r="AD4" t="n">
-        <v>1.514660508999777</v>
+        <v>1.511243293116215</v>
       </c>
       <c r="AE4" t="n">
-        <v>108382.7064270278</v>
+        <v>88358.46170687856</v>
       </c>
       <c r="AF4" t="n">
-        <v>-0.1337133114566431</v>
+        <v>-0.09340297464265102</v>
       </c>
       <c r="AG4" t="b">
         <v>0</v>
@@ -1710,7 +1710,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>lstm_reg</t>
+          <t>lstm</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1721,7 +1721,7 @@
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr">
         <is>
-          <t>{'lags': 36, 'epochs': 15, 'validation_split': 0.2, 'shuffle': True, 'hidden_layers_struct': {'lstm': {'units': 72, 'dropout': 0.2}}, 'verbose': 0, 'random_seed': 1}</t>
+          <t>{'lags': 36, 'epochs': 15, 'validation_split': 0.2, 'shuffle': True, 'hidden_layers_struct': {'lstm': {'units': 72, 'dropout': 0}}, 'verbose': 0, 'random_seed': 1}</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1745,19 +1745,19 @@
         <v>74</v>
       </c>
       <c r="K5" t="n">
-        <v>167858.9824097803</v>
+        <v>174905.049506268</v>
       </c>
       <c r="L5" t="n">
-        <v>1.515641589910759</v>
+        <v>1.520787557530152</v>
       </c>
       <c r="M5" t="n">
-        <v>129165.4426235495</v>
+        <v>125020.2029772296</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.3416104365455208</v>
+        <v>-0.4566055201272183</v>
       </c>
       <c r="O5" t="n">
-        <v>452080.2261189222</v>
+        <v>482599.917645216</v>
       </c>
       <c r="P5" t="n">
         <v>252301</v>
@@ -1766,19 +1766,19 @@
         <v>0.95</v>
       </c>
       <c r="R5" t="n">
-        <v>178148.6344884059</v>
+        <v>194666.6707657985</v>
       </c>
       <c r="S5" t="n">
-        <v>102003.1887327395</v>
+        <v>99625.66706608755</v>
       </c>
       <c r="T5" t="n">
-        <v>0.6172406838001594</v>
+        <v>0.5978179807486398</v>
       </c>
       <c r="U5" t="n">
-        <v>67734.84322105939</v>
+        <v>66079.90674632619</v>
       </c>
       <c r="V5" t="n">
-        <v>-0.0199806055670908</v>
+        <v>0.02701330498836263</v>
       </c>
       <c r="W5" t="inlineStr"/>
       <c r="X5" t="inlineStr"/>
@@ -1789,16 +1789,16 @@
       <c r="AA5" t="inlineStr"/>
       <c r="AB5" t="inlineStr"/>
       <c r="AC5" t="n">
-        <v>167858.9824097803</v>
+        <v>174905.049506268</v>
       </c>
       <c r="AD5" t="n">
-        <v>1.515641589910759</v>
+        <v>1.520787557530152</v>
       </c>
       <c r="AE5" t="n">
-        <v>129165.4426235495</v>
+        <v>125020.2029772296</v>
       </c>
       <c r="AF5" t="n">
-        <v>-0.3416104365455208</v>
+        <v>-0.4566055201272183</v>
       </c>
       <c r="AG5" t="b">
         <v>0</v>
@@ -1859,7 +1859,7 @@
         <v>0.95</v>
       </c>
       <c r="R6" t="n">
-        <v>135956.8091790743</v>
+        <v>128096.3002629284</v>
       </c>
       <c r="S6" t="n">
         <v>65110.63286527008</v>
@@ -5175,11 +5175,11 @@
         <v>44470</v>
       </c>
       <c r="B251" t="n">
-        <v>301421.5766542687</v>
+        <v>329060.2740166187</v>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>arima</t>
+          <t>lstm_reg</t>
         </is>
       </c>
     </row>
@@ -5188,11 +5188,11 @@
         <v>44501</v>
       </c>
       <c r="B252" t="n">
-        <v>330448.6784802167</v>
+        <v>332397.0276070833</v>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>arima</t>
+          <t>lstm_reg</t>
         </is>
       </c>
     </row>
@@ -5201,11 +5201,11 @@
         <v>44531</v>
       </c>
       <c r="B253" t="n">
-        <v>419332.212600098</v>
+        <v>337144.7642658949</v>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>arima</t>
+          <t>lstm_reg</t>
         </is>
       </c>
     </row>
@@ -5214,11 +5214,11 @@
         <v>44562</v>
       </c>
       <c r="B254" t="n">
-        <v>340470.8198964694</v>
+        <v>331548.0677490234</v>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>arima</t>
+          <t>lstm_reg</t>
         </is>
       </c>
     </row>
@@ -5227,11 +5227,11 @@
         <v>44593</v>
       </c>
       <c r="B255" t="n">
-        <v>288946.3864360521</v>
+        <v>332593.7719392776</v>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>arima</t>
+          <t>lstm_reg</t>
         </is>
       </c>
     </row>
@@ -5240,11 +5240,11 @@
         <v>44621</v>
       </c>
       <c r="B256" t="n">
-        <v>293852.3750744588</v>
+        <v>357037.9632259607</v>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>arima</t>
+          <t>lstm_reg</t>
         </is>
       </c>
     </row>
@@ -5253,11 +5253,11 @@
         <v>44652</v>
       </c>
       <c r="B257" t="n">
-        <v>219030.1178269128</v>
+        <v>354906.6924753189</v>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>arima</t>
+          <t>lstm_reg</t>
         </is>
       </c>
     </row>
@@ -5266,11 +5266,11 @@
         <v>44682</v>
       </c>
       <c r="B258" t="n">
-        <v>259453.2199462371</v>
+        <v>346421.5705935955</v>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>arima</t>
+          <t>lstm_reg</t>
         </is>
       </c>
     </row>
@@ -5279,11 +5279,11 @@
         <v>44713</v>
       </c>
       <c r="B259" t="n">
-        <v>314243.1274654085</v>
+        <v>338314.9272682667</v>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>arima</t>
+          <t>lstm_reg</t>
         </is>
       </c>
     </row>
@@ -5292,11 +5292,11 @@
         <v>44743</v>
       </c>
       <c r="B260" t="n">
-        <v>330452.4641152457</v>
+        <v>346494.1852827072</v>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>arima</t>
+          <t>lstm_reg</t>
         </is>
       </c>
     </row>
@@ -5305,11 +5305,11 @@
         <v>44774</v>
       </c>
       <c r="B261" t="n">
-        <v>276961.4126227596</v>
+        <v>350992.0497270823</v>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>arima</t>
+          <t>lstm_reg</t>
         </is>
       </c>
     </row>
@@ -5318,11 +5318,11 @@
         <v>44805</v>
       </c>
       <c r="B262" t="n">
-        <v>234784.6115813034</v>
+        <v>322691.5115282536</v>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>arima</t>
+          <t>lstm_reg</t>
         </is>
       </c>
     </row>
@@ -5331,11 +5331,11 @@
         <v>44835</v>
       </c>
       <c r="B263" t="n">
-        <v>278721.0853976347</v>
+        <v>349378.8910374641</v>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>arima</t>
+          <t>lstm_reg</t>
         </is>
       </c>
     </row>
@@ -5344,11 +5344,11 @@
         <v>44866</v>
       </c>
       <c r="B264" t="n">
-        <v>302799.1838191341</v>
+        <v>346946.8914564848</v>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>arima</t>
+          <t>lstm_reg</t>
         </is>
       </c>
     </row>
@@ -5357,11 +5357,11 @@
         <v>44896</v>
       </c>
       <c r="B265" t="n">
-        <v>386671.2633577595</v>
+        <v>345911.3585894108</v>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>arima</t>
+          <t>lstm_reg</t>
         </is>
       </c>
     </row>
@@ -5370,11 +5370,11 @@
         <v>44927</v>
       </c>
       <c r="B266" t="n">
-        <v>304381.7090716425</v>
+        <v>346090.2619599104</v>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>arima</t>
+          <t>lstm_reg</t>
         </is>
       </c>
     </row>
@@ -5383,11 +5383,11 @@
         <v>44958</v>
       </c>
       <c r="B267" t="n">
-        <v>256148.0829751698</v>
+        <v>345861.5882313251</v>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>arima</t>
+          <t>lstm_reg</t>
         </is>
       </c>
     </row>
@@ -5396,11 +5396,11 @@
         <v>44986</v>
       </c>
       <c r="B268" t="n">
-        <v>268057.1055993116</v>
+        <v>361887.1826982498</v>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>arima</t>
+          <t>lstm_reg</t>
         </is>
       </c>
     </row>
@@ -5409,11 +5409,11 @@
         <v>45017</v>
       </c>
       <c r="B269" t="n">
-        <v>212497.6299248364</v>
+        <v>346553.4686259031</v>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>arima</t>
+          <t>lstm_reg</t>
         </is>
       </c>
     </row>
@@ -5422,11 +5422,11 @@
         <v>45047</v>
       </c>
       <c r="B270" t="n">
-        <v>257740.1577890346</v>
+        <v>346624.766638875</v>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>arima</t>
+          <t>lstm_reg</t>
         </is>
       </c>
     </row>
@@ -5435,11 +5435,11 @@
         <v>45078</v>
       </c>
       <c r="B271" t="n">
-        <v>313759.034910945</v>
+        <v>340117.4569036961</v>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>arima</t>
+          <t>lstm_reg</t>
         </is>
       </c>
     </row>
@@ -5448,11 +5448,11 @@
         <v>45108</v>
       </c>
       <c r="B272" t="n">
-        <v>329378.3702304029</v>
+        <v>350105.0050116777</v>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>arima</t>
+          <t>lstm_reg</t>
         </is>
       </c>
     </row>
@@ -5461,11 +5461,11 @@
         <v>45139</v>
       </c>
       <c r="B273" t="n">
-        <v>273766.4568796919</v>
+        <v>357612.3631919622</v>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>arima</t>
+          <t>lstm_reg</t>
         </is>
       </c>
     </row>
@@ -5474,11 +5474,11 @@
         <v>45170</v>
       </c>
       <c r="B274" t="n">
-        <v>231832.9991593398</v>
+        <v>336255.7774531841</v>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>arima</t>
+          <t>lstm_reg</t>
         </is>
       </c>
     </row>
@@ -5487,11 +5487,11 @@
         <v>45200</v>
       </c>
       <c r="B275" t="n">
-        <v>276233.3095742022</v>
+        <v>355386.8184297085</v>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>arima</t>
+          <t>lstm_reg</t>
         </is>
       </c>
     </row>
@@ -5500,11 +5500,11 @@
         <v>45231</v>
       </c>
       <c r="B276" t="n">
-        <v>301167.1510240989</v>
+        <v>366201.5354056358</v>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>arima</t>
+          <t>lstm_reg</t>
         </is>
       </c>
     </row>
@@ -5513,11 +5513,11 @@
         <v>45261</v>
       </c>
       <c r="B277" t="n">
-        <v>385408.5213084235</v>
+        <v>354714.490675807</v>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>arima</t>
+          <t>lstm_reg</t>
         </is>
       </c>
     </row>
@@ -5526,11 +5526,11 @@
         <v>45292</v>
       </c>
       <c r="B278" t="n">
-        <v>303027.2017124582</v>
+        <v>318285.0902417898</v>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>arima</t>
+          <t>lstm_reg</t>
         </is>
       </c>
     </row>
@@ -5539,11 +5539,11 @@
         <v>45323</v>
       </c>
       <c r="B279" t="n">
-        <v>254863.1437533888</v>
+        <v>355426.9770519733</v>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>arima</t>
+          <t>lstm_reg</t>
         </is>
       </c>
     </row>
@@ -5552,11 +5552,11 @@
         <v>45352</v>
       </c>
       <c r="B280" t="n">
-        <v>267098.6845002077</v>
+        <v>346262.4502820969</v>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>arima</t>
+          <t>lstm_reg</t>
         </is>
       </c>
     </row>
@@ -5565,11 +5565,11 @@
         <v>45383</v>
       </c>
       <c r="B281" t="n">
-        <v>211763.4980051675</v>
+        <v>351644.2981698513</v>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>arima</t>
+          <t>lstm_reg</t>
         </is>
       </c>
     </row>
@@ -5578,11 +5578,11 @@
         <v>45413</v>
       </c>
       <c r="B282" t="n">
-        <v>257026.9260475409</v>
+        <v>346960.3215531111</v>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>arima</t>
+          <t>lstm_reg</t>
         </is>
       </c>
     </row>
@@ -5591,11 +5591,11 @@
         <v>45444</v>
       </c>
       <c r="B283" t="n">
-        <v>313075.6465014099</v>
+        <v>334047.6457328796</v>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>arima</t>
+          <t>lstm_reg</t>
         </is>
       </c>
     </row>
@@ -5604,11 +5604,11 @@
         <v>45474</v>
       </c>
       <c r="B284" t="n">
-        <v>328828.6939740207</v>
+        <v>361842.0207066536</v>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>arima</t>
+          <t>lstm_reg</t>
         </is>
       </c>
     </row>
@@ -5617,11 +5617,11 @@
         <v>45505</v>
       </c>
       <c r="B285" t="n">
-        <v>273339.5158814964</v>
+        <v>353701.99964118</v>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>arima</t>
+          <t>lstm_reg</t>
         </is>
       </c>
     </row>
@@ -5630,11 +5630,11 @@
         <v>45536</v>
       </c>
       <c r="B286" t="n">
-        <v>231446.4062612295</v>
+        <v>361003.0675872564</v>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>arima</t>
+          <t>lstm_reg</t>
         </is>
       </c>
     </row>
@@ -5643,11 +5643,11 @@
         <v>45566</v>
       </c>
       <c r="B287" t="n">
-        <v>275868.0910850656</v>
+        <v>345612.802274704</v>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>arima</t>
+          <t>lstm_reg</t>
         </is>
       </c>
     </row>
@@ -5656,11 +5656,11 @@
         <v>45597</v>
       </c>
       <c r="B288" t="n">
-        <v>300858.9567995011</v>
+        <v>351116.1464532614</v>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>arima</t>
+          <t>lstm_reg</t>
         </is>
       </c>
     </row>
@@ -5696,22 +5696,22 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>lstm_reg</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>weighted_ensemble</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>arima</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>lstm</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>weighted_ensemble</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>lstm_reg</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -5728,16 +5728,16 @@
         <v>467457</v>
       </c>
       <c r="C2" t="n">
+        <v>399418.0371240377</v>
+      </c>
+      <c r="D2" t="n">
+        <v>422090.1649738995</v>
+      </c>
+      <c r="E2" t="n">
         <v>451285.4040904046</v>
       </c>
-      <c r="D2" t="n">
-        <v>376591.420114398</v>
-      </c>
-      <c r="E2" t="n">
-        <v>409139.953912753</v>
-      </c>
       <c r="F2" t="n">
-        <v>396468.9216557741</v>
+        <v>415423.9390275478</v>
       </c>
       <c r="G2" t="n">
         <v>439729.0626875589</v>
@@ -5751,16 +5751,16 @@
         <v>360593</v>
       </c>
       <c r="C3" t="n">
+        <v>363486.2015072107</v>
+      </c>
+      <c r="D3" t="n">
+        <v>368500.4973921903</v>
+      </c>
+      <c r="E3" t="n">
         <v>358743.2067200664</v>
       </c>
-      <c r="D3" t="n">
-        <v>332054.7374699116</v>
-      </c>
-      <c r="E3" t="n">
-        <v>370587.8282563091</v>
-      </c>
       <c r="F3" t="n">
-        <v>421940.8105627298</v>
+        <v>384516.5966871977</v>
       </c>
       <c r="G3" t="n">
         <v>363054.4230422495</v>
@@ -5774,16 +5774,16 @@
         <v>397613</v>
       </c>
       <c r="C4" t="n">
+        <v>372365.2234712839</v>
+      </c>
+      <c r="D4" t="n">
+        <v>372523.6048643865</v>
+      </c>
+      <c r="E4" t="n">
         <v>375988.6944769993</v>
       </c>
-      <c r="D4" t="n">
-        <v>323457.4708146453</v>
-      </c>
-      <c r="E4" t="n">
-        <v>361577.414439035</v>
-      </c>
       <c r="F4" t="n">
-        <v>383599.0693799257</v>
+        <v>368387.3777208328</v>
       </c>
       <c r="G4" t="n">
         <v>380252.5621771832</v>
@@ -5797,16 +5797,16 @@
         <v>420034</v>
       </c>
       <c r="C5" t="n">
+        <v>371264.413156867</v>
+      </c>
+      <c r="D5" t="n">
+        <v>340110.4934510293</v>
+      </c>
+      <c r="E5" t="n">
         <v>390126.4097070204</v>
       </c>
-      <c r="D5" t="n">
-        <v>338937.0022982955</v>
-      </c>
-      <c r="E5" t="n">
-        <v>366956.8710332366</v>
-      </c>
       <c r="F5" t="n">
-        <v>368352.7280441523</v>
+        <v>248483.1327154338</v>
       </c>
       <c r="G5" t="n">
         <v>403479.3642537682</v>
@@ -5820,16 +5820,16 @@
         <v>519636</v>
       </c>
       <c r="C6" t="n">
+        <v>421719.3718055487</v>
+      </c>
+      <c r="D6" t="n">
+        <v>426646.4679399829</v>
+      </c>
+      <c r="E6" t="n">
         <v>474111.4002716879</v>
       </c>
-      <c r="D6" t="n">
-        <v>348804.736948669</v>
-      </c>
-      <c r="E6" t="n">
-        <v>408976.5764852522</v>
-      </c>
       <c r="F6" t="n">
-        <v>398157.3740444183</v>
+        <v>379385.1077238321</v>
       </c>
       <c r="G6" t="n">
         <v>468763.2868875506</v>
@@ -5843,16 +5843,16 @@
         <v>449336</v>
       </c>
       <c r="C7" t="n">
+        <v>357985.8615369201</v>
+      </c>
+      <c r="D7" t="n">
+        <v>383056.9213897667</v>
+      </c>
+      <c r="E7" t="n">
         <v>408845.4049488608</v>
       </c>
-      <c r="D7" t="n">
-        <v>326809.3132123947</v>
-      </c>
-      <c r="E7" t="n">
-        <v>360362.8553289785</v>
-      </c>
       <c r="F7" t="n">
-        <v>338972.8730556965</v>
+        <v>379855.1149920225</v>
       </c>
       <c r="G7" t="n">
         <v>427227.5188353079</v>
@@ -5866,16 +5866,16 @@
         <v>388763</v>
       </c>
       <c r="C8" t="n">
+        <v>358006.9342467785</v>
+      </c>
+      <c r="D8" t="n">
+        <v>371808.6059064895</v>
+      </c>
+      <c r="E8" t="n">
         <v>353844.0509543302</v>
       </c>
-      <c r="D8" t="n">
-        <v>368899.4336894751</v>
-      </c>
-      <c r="E8" t="n">
-        <v>356012.5315868941</v>
-      </c>
       <c r="F8" t="n">
-        <v>341327.1650443077</v>
+        <v>402615.2375069857</v>
       </c>
       <c r="G8" t="n">
         <v>398843.6435050212</v>
@@ -5889,16 +5889,16 @@
         <v>464430</v>
       </c>
       <c r="C9" t="n">
+        <v>334542.4295047522</v>
+      </c>
+      <c r="D9" t="n">
+        <v>382491.3564601192</v>
+      </c>
+      <c r="E9" t="n">
         <v>433403.0253548989</v>
       </c>
-      <c r="D9" t="n">
-        <v>332377.0665103793</v>
-      </c>
-      <c r="E9" t="n">
-        <v>381539.1126938118</v>
-      </c>
       <c r="F9" t="n">
-        <v>370981.9929031134</v>
+        <v>375041.9291297197</v>
       </c>
       <c r="G9" t="n">
         <v>463981.1298362083</v>
@@ -5912,16 +5912,16 @@
         <v>392441</v>
       </c>
       <c r="C10" t="n">
+        <v>378316.7709026337</v>
+      </c>
+      <c r="D10" t="n">
+        <v>379923.4029940002</v>
+      </c>
+      <c r="E10" t="n">
         <v>388867.2114069504</v>
       </c>
-      <c r="D10" t="n">
-        <v>406277.633374691</v>
-      </c>
-      <c r="E10" t="n">
-        <v>333463.109999189</v>
-      </c>
       <c r="F10" t="n">
-        <v>195363.6822379977</v>
+        <v>367377.0724586248</v>
       </c>
       <c r="G10" t="n">
         <v>431775.09488576</v>
@@ -5935,16 +5935,16 @@
         <v>473082</v>
       </c>
       <c r="C11" t="n">
+        <v>363729.5229980946</v>
+      </c>
+      <c r="D11" t="n">
+        <v>400742.6489420111</v>
+      </c>
+      <c r="E11" t="n">
         <v>448636.7004745384</v>
       </c>
-      <c r="D11" t="n">
-        <v>413334.053329587</v>
-      </c>
-      <c r="E11" t="n">
-        <v>407593.2065068673</v>
-      </c>
       <c r="F11" t="n">
-        <v>356184.9125531912</v>
+        <v>387244.5635560751</v>
       </c>
       <c r="G11" t="n">
         <v>453355.3752934641</v>
@@ -5958,16 +5958,16 @@
         <v>541016</v>
       </c>
       <c r="C12" t="n">
+        <v>343355.2229521275</v>
+      </c>
+      <c r="D12" t="n">
+        <v>417860.0558628897</v>
+      </c>
+      <c r="E12" t="n">
         <v>517822.0750035333</v>
       </c>
-      <c r="D12" t="n">
-        <v>369613.2460448742</v>
-      </c>
-      <c r="E12" t="n">
-        <v>423050.3425489903</v>
-      </c>
       <c r="F12" t="n">
-        <v>373483.9026699066</v>
+        <v>388907.5062385798</v>
       </c>
       <c r="G12" t="n">
         <v>505263.1284690171</v>
@@ -5981,16 +5981,16 @@
         <v>559606</v>
       </c>
       <c r="C13" t="n">
+        <v>367423.3526269197</v>
+      </c>
+      <c r="D13" t="n">
+        <v>435129.818593422</v>
+      </c>
+      <c r="E13" t="n">
         <v>552874.5354405972</v>
       </c>
-      <c r="D13" t="n">
-        <v>398193.9581063986</v>
-      </c>
-      <c r="E13" t="n">
-        <v>484862.1773927899</v>
-      </c>
       <c r="F13" t="n">
-        <v>499586.7221543789</v>
+        <v>380339.7510490417</v>
       </c>
       <c r="G13" t="n">
         <v>524639.1196781083</v>
@@ -6004,16 +6004,16 @@
         <v>451152</v>
       </c>
       <c r="C14" t="n">
+        <v>405979.5204201937</v>
+      </c>
+      <c r="D14" t="n">
+        <v>410581.2251142781</v>
+      </c>
+      <c r="E14" t="n">
         <v>450726.7466562079</v>
       </c>
-      <c r="D14" t="n">
-        <v>368856.8530330658</v>
-      </c>
-      <c r="E14" t="n">
-        <v>407423.0098434171</v>
-      </c>
       <c r="F14" t="n">
-        <v>396457.1460852623</v>
+        <v>368454.8635879755</v>
       </c>
       <c r="G14" t="n">
         <v>472539.3794413942</v>
@@ -6027,16 +6027,16 @@
         <v>378001</v>
       </c>
       <c r="C15" t="n">
+        <v>356951.3280988336</v>
+      </c>
+      <c r="D15" t="n">
+        <v>377804.952252925</v>
+      </c>
+      <c r="E15" t="n">
         <v>357715.6281940724</v>
       </c>
-      <c r="D15" t="n">
-        <v>357747.2188404799</v>
-      </c>
-      <c r="E15" t="n">
-        <v>378321.877176082</v>
-      </c>
       <c r="F15" t="n">
-        <v>419991.8448338509</v>
+        <v>421393.4520623684</v>
       </c>
       <c r="G15" t="n">
         <v>376154.2537129904</v>
@@ -6050,16 +6050,16 @@
         <v>398024</v>
       </c>
       <c r="C16" t="n">
+        <v>388656.3746670485</v>
+      </c>
+      <c r="D16" t="n">
+        <v>374581.7762536919</v>
+      </c>
+      <c r="E16" t="n">
         <v>372932.3225724506</v>
       </c>
-      <c r="D16" t="n">
-        <v>371112.6606301069</v>
-      </c>
-      <c r="E16" t="n">
-        <v>362178.1827253071</v>
-      </c>
       <c r="F16" t="n">
-        <v>338318.4342390895</v>
+        <v>357660.2682212591</v>
       </c>
       <c r="G16" t="n">
         <v>406056.4463552554</v>
@@ -6073,16 +6073,16 @@
         <v>403968</v>
       </c>
       <c r="C17" t="n">
+        <v>367173.3333269358</v>
+      </c>
+      <c r="D17" t="n">
+        <v>378754.5161057537</v>
+      </c>
+      <c r="E17" t="n">
         <v>384607.5746850896</v>
       </c>
-      <c r="D17" t="n">
-        <v>374497.7140054703</v>
-      </c>
-      <c r="E17" t="n">
-        <v>385024.5018880166</v>
-      </c>
       <c r="F17" t="n">
-        <v>392483.8219604492</v>
+        <v>381028.8999918699</v>
       </c>
       <c r="G17" t="n">
         <v>423531.1146833431</v>
@@ -6096,16 +6096,16 @@
         <v>503379</v>
       </c>
       <c r="C18" t="n">
+        <v>380146.5059576035</v>
+      </c>
+      <c r="D18" t="n">
+        <v>417457.8671538369</v>
+      </c>
+      <c r="E18" t="n">
         <v>470280.1644497839</v>
       </c>
-      <c r="D18" t="n">
-        <v>384047.2180942297</v>
-      </c>
-      <c r="E18" t="n">
-        <v>432133.1696365407</v>
-      </c>
       <c r="F18" t="n">
-        <v>437282.154396534</v>
+        <v>398005.7182369232</v>
       </c>
       <c r="G18" t="n">
         <v>482579.6814113411</v>
@@ -6119,16 +6119,16 @@
         <v>426440</v>
       </c>
       <c r="C19" t="n">
+        <v>381788.2429412603</v>
+      </c>
+      <c r="D19" t="n">
+        <v>394512.5065534462</v>
+      </c>
+      <c r="E19" t="n">
         <v>405290.18621852</v>
       </c>
-      <c r="D19" t="n">
-        <v>478210.9424791336</v>
-      </c>
-      <c r="E19" t="n">
-        <v>414488.3513168029</v>
-      </c>
       <c r="F19" t="n">
-        <v>356281.0273227692</v>
+        <v>391690.4580096006</v>
       </c>
       <c r="G19" t="n">
         <v>452541.3152518788</v>
@@ -6142,16 +6142,16 @@
         <v>357556</v>
       </c>
       <c r="C20" t="n">
+        <v>360723.4398827553</v>
+      </c>
+      <c r="D20" t="n">
+        <v>367606.2699699711</v>
+      </c>
+      <c r="E20" t="n">
         <v>353424.2108102121</v>
       </c>
-      <c r="D20" t="n">
-        <v>350466.6761687994</v>
-      </c>
-      <c r="E20" t="n">
-        <v>365962.4921065141</v>
-      </c>
       <c r="F20" t="n">
-        <v>389552.9622534513</v>
+        <v>384772.5642219782</v>
       </c>
       <c r="G20" t="n">
         <v>416437.7520822426</v>
@@ -6165,16 +6165,16 @@
         <v>442013</v>
       </c>
       <c r="C21" t="n">
+        <v>351752.6434261203</v>
+      </c>
+      <c r="D21" t="n">
+        <v>409696.243011878</v>
+      </c>
+      <c r="E21" t="n">
         <v>436222.1437917445</v>
       </c>
-      <c r="D21" t="n">
-        <v>372956.5892372131</v>
-      </c>
-      <c r="E21" t="n">
-        <v>324173.2655820611</v>
-      </c>
       <c r="F21" t="n">
-        <v>147428.3624507524</v>
+        <v>438909.8429069519</v>
       </c>
       <c r="G21" t="n">
         <v>483358.0769550246</v>
@@ -6188,16 +6188,16 @@
         <v>414088</v>
       </c>
       <c r="C22" t="n">
+        <v>388654.4402817488</v>
+      </c>
+      <c r="D22" t="n">
+        <v>408793.4481022746</v>
+      </c>
+      <c r="E22" t="n">
         <v>392421.4962368557</v>
       </c>
-      <c r="D22" t="n">
-        <v>352442.6023927927</v>
-      </c>
-      <c r="E22" t="n">
-        <v>367835.7629993756</v>
-      </c>
       <c r="F22" t="n">
-        <v>350939.8026332855</v>
+        <v>443531.1861071587</v>
       </c>
       <c r="G22" t="n">
         <v>449894.7318481408</v>
@@ -6211,16 +6211,16 @@
         <v>458758</v>
       </c>
       <c r="C23" t="n">
+        <v>393870.8487597704</v>
+      </c>
+      <c r="D23" t="n">
+        <v>415784.7686625836</v>
+      </c>
+      <c r="E23" t="n">
         <v>452797.5255259827</v>
       </c>
-      <c r="D23" t="n">
-        <v>430693.3720878363</v>
-      </c>
-      <c r="E23" t="n">
-        <v>434830.5611988687</v>
-      </c>
       <c r="F23" t="n">
-        <v>417068.6743084192</v>
+        <v>396053.9960089922</v>
       </c>
       <c r="G23" t="n">
         <v>475966.4483047994</v>
@@ -6234,16 +6234,16 @@
         <v>537494</v>
       </c>
       <c r="C24" t="n">
+        <v>338281.3665807843</v>
+      </c>
+      <c r="D24" t="n">
+        <v>427131.7446816267</v>
+      </c>
+      <c r="E24" t="n">
         <v>522581.954108257</v>
       </c>
-      <c r="D24" t="n">
-        <v>344512.1425301433</v>
-      </c>
-      <c r="E24" t="n">
-        <v>430180.9690333342</v>
-      </c>
       <c r="F24" t="n">
-        <v>414042.1592483521</v>
+        <v>417303.2185260057</v>
       </c>
       <c r="G24" t="n">
         <v>526982.1224159392</v>
@@ -6257,16 +6257,16 @@
         <v>558294</v>
       </c>
       <c r="C25" t="n">
+        <v>396676.3119397163</v>
+      </c>
+      <c r="D25" t="n">
+        <v>373479.7887187059</v>
+      </c>
+      <c r="E25" t="n">
         <v>558001.9886874615</v>
       </c>
-      <c r="D25" t="n">
-        <v>370275.1685146093</v>
-      </c>
-      <c r="E25" t="n">
-        <v>445013.0334245499</v>
-      </c>
       <c r="F25" t="n">
-        <v>396654.6951839924</v>
+        <v>142269.7837813795</v>
       </c>
       <c r="G25" t="n">
         <v>546748.6395281788</v>
@@ -6280,16 +6280,16 @@
         <v>376395</v>
       </c>
       <c r="C26" t="n">
+        <v>499619.2681870461</v>
+      </c>
+      <c r="D26" t="n">
+        <v>455411.9732787233</v>
+      </c>
+      <c r="E26" t="n">
         <v>451536.1373969507</v>
       </c>
-      <c r="D26" t="n">
-        <v>345442.8961969018</v>
-      </c>
-      <c r="E26" t="n">
-        <v>406736.3612375867</v>
-      </c>
       <c r="F26" t="n">
-        <v>415507.4077532291</v>
+        <v>407443.1005177498</v>
       </c>
       <c r="G26" t="n">
         <v>489059.5018820384</v>
@@ -6303,16 +6303,16 @@
         <v>344907</v>
       </c>
       <c r="C27" t="n">
+        <v>417361.9029400349</v>
+      </c>
+      <c r="D27" t="n">
+        <v>403192.5333046486</v>
+      </c>
+      <c r="E27" t="n">
         <v>357860.1418151034</v>
       </c>
-      <c r="D27" t="n">
-        <v>356257.7542496324</v>
-      </c>
-      <c r="E27" t="n">
-        <v>372135.405616076</v>
-      </c>
       <c r="F27" t="n">
-        <v>400014.02123487</v>
+        <v>434317.2253284454</v>
       </c>
       <c r="G27" t="n">
         <v>399179.2058357761</v>
@@ -6326,16 +6326,16 @@
         <v>390963</v>
       </c>
       <c r="C28" t="n">
+        <v>352298.4785980582</v>
+      </c>
+      <c r="D28" t="n">
+        <v>367414.9764756871</v>
+      </c>
+      <c r="E28" t="n">
         <v>373653.5109094762</v>
       </c>
-      <c r="D28" t="n">
-        <v>408364.883472681</v>
-      </c>
-      <c r="E28" t="n">
-        <v>370691.4873831822</v>
-      </c>
       <c r="F28" t="n">
-        <v>324886.4012355208</v>
+        <v>371910.4253075123</v>
       </c>
       <c r="G28" t="n">
         <v>424899.8588521626</v>
@@ -6349,16 +6349,16 @@
         <v>398818</v>
       </c>
       <c r="C29" t="n">
+        <v>404900.9071770906</v>
+      </c>
+      <c r="D29" t="n">
+        <v>406122.2652312171</v>
+      </c>
+      <c r="E29" t="n">
         <v>386392.971534946</v>
       </c>
-      <c r="D29" t="n">
-        <v>305951.7916286588</v>
-      </c>
-      <c r="E29" t="n">
-        <v>363398.3965884599</v>
-      </c>
       <c r="F29" t="n">
-        <v>390458.4238324165</v>
+        <v>423803.2609090805</v>
       </c>
       <c r="G29" t="n">
         <v>444240.7294928526</v>
@@ -6372,16 +6372,16 @@
         <v>483044</v>
       </c>
       <c r="C30" t="n">
+        <v>412461.1619631052</v>
+      </c>
+      <c r="D30" t="n">
+        <v>437251.7454340222</v>
+      </c>
+      <c r="E30" t="n">
         <v>472667.0816990059</v>
       </c>
-      <c r="D30" t="n">
-        <v>355769.1043431163</v>
-      </c>
-      <c r="E30" t="n">
-        <v>412306.142853332</v>
-      </c>
       <c r="F30" t="n">
-        <v>399593.1231734753</v>
+        <v>421510.2889344692</v>
       </c>
       <c r="G30" t="n">
         <v>505465.2829977713</v>
@@ -6395,16 +6395,16 @@
         <v>419855</v>
       </c>
       <c r="C31" t="n">
+        <v>435209.9199644327</v>
+      </c>
+      <c r="D31" t="n">
+        <v>425893.8954440007</v>
+      </c>
+      <c r="E31" t="n">
         <v>407427.5660413297</v>
       </c>
-      <c r="D31" t="n">
-        <v>350065.9803438783</v>
-      </c>
-      <c r="E31" t="n">
-        <v>371363.2702541696</v>
-      </c>
       <c r="F31" t="n">
-        <v>347140.6215450764</v>
+        <v>429953.0344740152</v>
       </c>
       <c r="G31" t="n">
         <v>471580.3279644437</v>
@@ -6418,16 +6418,16 @@
         <v>369121</v>
       </c>
       <c r="C32" t="n">
+        <v>395723.9415172338</v>
+      </c>
+      <c r="D32" t="n">
+        <v>387167.0109091083</v>
+      </c>
+      <c r="E32" t="n">
         <v>354603.6608196225</v>
       </c>
-      <c r="D32" t="n">
-        <v>383820.4114178419</v>
-      </c>
-      <c r="E32" t="n">
-        <v>377691.6522632695</v>
-      </c>
       <c r="F32" t="n">
-        <v>389311.1157313585</v>
+        <v>405939.7446224689</v>
       </c>
       <c r="G32" t="n">
         <v>438012.6146948365</v>
@@ -6441,16 +6441,16 @@
         <v>466849</v>
       </c>
       <c r="C33" t="n">
+        <v>401041.7359647751</v>
+      </c>
+      <c r="D33" t="n">
+        <v>434997.0251512838</v>
+      </c>
+      <c r="E33" t="n">
         <v>436229.2164824298</v>
       </c>
-      <c r="D33" t="n">
-        <v>418427.2898236513</v>
-      </c>
-      <c r="E33" t="n">
-        <v>412458.1648915511</v>
-      </c>
       <c r="F33" t="n">
-        <v>374178.7580493689</v>
+        <v>464281.4581159353</v>
       </c>
       <c r="G33" t="n">
         <v>502689.4012925135</v>
@@ -6464,16 +6464,16 @@
         <v>415682</v>
       </c>
       <c r="C34" t="n">
+        <v>411478.9052877426</v>
+      </c>
+      <c r="D34" t="n">
+        <v>369197.4418682369</v>
+      </c>
+      <c r="E34" t="n">
         <v>391572.2352561004</v>
       </c>
-      <c r="D34" t="n">
-        <v>376422.475738287</v>
-      </c>
-      <c r="E34" t="n">
-        <v>412435.0765346669</v>
-      </c>
       <c r="F34" t="n">
-        <v>464563.3222339153</v>
+        <v>290024.050981164</v>
       </c>
       <c r="G34" t="n">
         <v>468076.8583801065</v>
@@ -6487,16 +6487,16 @@
         <v>455766</v>
       </c>
       <c r="C35" t="n">
+        <v>451140.5742797852</v>
+      </c>
+      <c r="D35" t="n">
+        <v>490925.2379066781</v>
+      </c>
+      <c r="E35" t="n">
         <v>451711.2979979586</v>
       </c>
-      <c r="D35" t="n">
-        <v>400768.0446246862</v>
-      </c>
-      <c r="E35" t="n">
-        <v>421514.2442615891</v>
-      </c>
       <c r="F35" t="n">
-        <v>404781.8941215277</v>
+        <v>573904.8381755352</v>
       </c>
       <c r="G35" t="n">
         <v>498639.3932488187</v>
@@ -6510,16 +6510,16 @@
         <v>542537</v>
       </c>
       <c r="C36" t="n">
+        <v>344241.1714193821</v>
+      </c>
+      <c r="D36" t="n">
+        <v>395955.7194208096</v>
+      </c>
+      <c r="E36" t="n">
         <v>521849.056582364</v>
       </c>
-      <c r="D36" t="n">
-        <v>391016.1554739475</v>
-      </c>
-      <c r="E36" t="n">
-        <v>413939.1497839362</v>
-      </c>
       <c r="F36" t="n">
-        <v>315637.7061507702</v>
+        <v>308962.7348870635</v>
       </c>
       <c r="G36" t="n">
         <v>548679.2576206472</v>
@@ -6533,16 +6533,16 @@
         <v>552404</v>
       </c>
       <c r="C37" t="n">
+        <v>319280.7218957543</v>
+      </c>
+      <c r="D37" t="n">
+        <v>402579.8165105305</v>
+      </c>
+      <c r="E37" t="n">
         <v>557922.8660883973</v>
       </c>
-      <c r="D37" t="n">
-        <v>419851.9887766838</v>
-      </c>
-      <c r="E37" t="n">
-        <v>445771.5478645337</v>
-      </c>
       <c r="F37" t="n">
-        <v>347275.8955270648</v>
+        <v>318869.592480123</v>
       </c>
       <c r="G37" t="n">
         <v>568760.4043147223</v>
@@ -6556,16 +6556,16 @@
         <v>445793</v>
       </c>
       <c r="C38" t="n">
+        <v>384332.056329608</v>
+      </c>
+      <c r="D38" t="n">
+        <v>434922.0413838216</v>
+      </c>
+      <c r="E38" t="n">
         <v>452041.4967882864</v>
       </c>
-      <c r="D38" t="n">
-        <v>384156.2932453156</v>
-      </c>
-      <c r="E38" t="n">
-        <v>408326.2261051616</v>
-      </c>
       <c r="F38" t="n">
-        <v>379536.545912981</v>
+        <v>465963.2126954794</v>
       </c>
       <c r="G38" t="n">
         <v>505569.6999794936</v>
@@ -6579,16 +6579,16 @@
         <v>369424</v>
       </c>
       <c r="C39" t="n">
+        <v>441301.6136107445</v>
+      </c>
+      <c r="D39" t="n">
+        <v>390399.0704607065</v>
+      </c>
+      <c r="E39" t="n">
         <v>358616.0718913526</v>
       </c>
-      <c r="D39" t="n">
-        <v>382435.6575212479</v>
-      </c>
-      <c r="E39" t="n">
-        <v>379474.7165804879</v>
-      </c>
       <c r="F39" t="n">
-        <v>393634.3943367004</v>
+        <v>363749.9791226387</v>
       </c>
       <c r="G39" t="n">
         <v>422261.3882097219</v>
@@ -6602,16 +6602,16 @@
         <v>408507</v>
       </c>
       <c r="C40" t="n">
+        <v>365721.5046200752</v>
+      </c>
+      <c r="D40" t="n">
+        <v>404356.2775406509</v>
+      </c>
+      <c r="E40" t="n">
         <v>374268.601300222</v>
       </c>
-      <c r="D40" t="n">
-        <v>363058.218759656</v>
-      </c>
-      <c r="E40" t="n">
-        <v>397280.2873761501</v>
-      </c>
       <c r="F40" t="n">
-        <v>450622.0623002052</v>
+        <v>473589.8894367218</v>
       </c>
       <c r="G40" t="n">
         <v>443746.7561558419</v>
@@ -6625,16 +6625,16 @@
         <v>431053</v>
       </c>
       <c r="C41" t="n">
+        <v>425211.6143063307</v>
+      </c>
+      <c r="D41" t="n">
+        <v>426092.1002628992</v>
+      </c>
+      <c r="E41" t="n">
         <v>386612.4113708346</v>
       </c>
-      <c r="D41" t="n">
-        <v>403143.8566497564</v>
-      </c>
-      <c r="E41" t="n">
-        <v>392710.2902224986</v>
-      </c>
       <c r="F41" t="n">
-        <v>381751.9732168913</v>
+        <v>463486.9577137232</v>
       </c>
       <c r="G41" t="n">
         <v>465005.6817478752</v>
@@ -6648,16 +6648,16 @@
         <v>513430</v>
       </c>
       <c r="C42" t="n">
+        <v>464339.997451067</v>
+      </c>
+      <c r="D42" t="n">
+        <v>468989.5489835118</v>
+      </c>
+      <c r="E42" t="n">
         <v>472466.2606356317</v>
       </c>
-      <c r="D42" t="n">
-        <v>446420.3839907646</v>
-      </c>
-      <c r="E42" t="n">
-        <v>440916.5958515743</v>
-      </c>
       <c r="F42" t="n">
-        <v>395511.0382351875</v>
+        <v>464622.949660778</v>
       </c>
       <c r="G42" t="n">
         <v>528309.2075092979</v>
@@ -6671,16 +6671,16 @@
         <v>440389</v>
       </c>
       <c r="C43" t="n">
+        <v>349179.4394711256</v>
+      </c>
+      <c r="D43" t="n">
+        <v>385661.2225930262</v>
+      </c>
+      <c r="E43" t="n">
         <v>406980.7671545794</v>
       </c>
-      <c r="D43" t="n">
-        <v>389573.2491192818</v>
-      </c>
-      <c r="E43" t="n">
-        <v>396069.8709468389</v>
-      </c>
       <c r="F43" t="n">
-        <v>382902.0378170013</v>
+        <v>393490.4760704041</v>
       </c>
       <c r="G43" t="n">
         <v>490590.5174197833</v>
@@ -6694,16 +6694,16 @@
         <v>379682</v>
       </c>
       <c r="C44" t="n">
+        <v>384859.5873806477</v>
+      </c>
+      <c r="D44" t="n">
+        <v>396138.7979480809</v>
+      </c>
+      <c r="E44" t="n">
         <v>354166.0119822463</v>
       </c>
-      <c r="D44" t="n">
-        <v>395326.7638555765</v>
-      </c>
-      <c r="E44" t="n">
-        <v>387815.7944803055</v>
-      </c>
       <c r="F44" t="n">
-        <v>407659.3406144381</v>
+        <v>445052.1690884829</v>
       </c>
       <c r="G44" t="n">
         <v>459596.6856832807</v>
@@ -6717,16 +6717,16 @@
         <v>479188</v>
       </c>
       <c r="C45" t="n">
+        <v>418976.9937661886</v>
+      </c>
+      <c r="D45" t="n">
+        <v>430078.9444770497</v>
+      </c>
+      <c r="E45" t="n">
         <v>436003.1543473253</v>
       </c>
-      <c r="D45" t="n">
-        <v>404914.109356761</v>
-      </c>
-      <c r="E45" t="n">
-        <v>412717.7724745175</v>
-      </c>
       <c r="F45" t="n">
-        <v>387015.2905384302</v>
+        <v>427048.0471704006</v>
       </c>
       <c r="G45" t="n">
         <v>521976.9287469126</v>
@@ -6740,16 +6740,16 @@
         <v>435196</v>
       </c>
       <c r="C46" t="n">
+        <v>450041.9643286467</v>
+      </c>
+      <c r="D46" t="n">
+        <v>418495.3477503565</v>
+      </c>
+      <c r="E46" t="n">
         <v>391623.4989193973</v>
       </c>
-      <c r="D46" t="n">
-        <v>364914.7934106588</v>
-      </c>
-      <c r="E46" t="n">
-        <v>378035.9446772309</v>
-      </c>
       <c r="F46" t="n">
-        <v>367555.3018841743</v>
+        <v>404503.6811558008</v>
       </c>
       <c r="G46" t="n">
         <v>486324.1202335281</v>
@@ -6763,16 +6763,16 @@
         <v>486277</v>
       </c>
       <c r="C47" t="n">
+        <v>377501.6451171637</v>
+      </c>
+      <c r="D47" t="n">
+        <v>426327.2413948675</v>
+      </c>
+      <c r="E47" t="n">
         <v>451964.2010382975</v>
       </c>
-      <c r="D47" t="n">
-        <v>351883.5650411844</v>
-      </c>
-      <c r="E47" t="n">
-        <v>330473.4800912173</v>
-      </c>
       <c r="F47" t="n">
-        <v>168777.3236873038</v>
+        <v>444296.0178748369</v>
       </c>
       <c r="G47" t="n">
         <v>521371.3823265028</v>
@@ -6786,16 +6786,16 @@
         <v>555663</v>
       </c>
       <c r="C48" t="n">
+        <v>421161.0114887953</v>
+      </c>
+      <c r="D48" t="n">
+        <v>467492.721398096</v>
+      </c>
+      <c r="E48" t="n">
         <v>522148.3358096154</v>
       </c>
-      <c r="D48" t="n">
-        <v>419278.0082986355</v>
-      </c>
-      <c r="E48" t="n">
-        <v>448841.967525491</v>
-      </c>
       <c r="F48" t="n">
-        <v>393364.3057892323</v>
+        <v>452309.3540576696</v>
       </c>
       <c r="G48" t="n">
         <v>570351.7261879757</v>
@@ -6809,16 +6809,16 @@
         <v>550212</v>
       </c>
       <c r="C49" t="n">
+        <v>417899.0817377567</v>
+      </c>
+      <c r="D49" t="n">
+        <v>476313.0576495324</v>
+      </c>
+      <c r="E49" t="n">
         <v>558120.8495424639</v>
       </c>
-      <c r="D49" t="n">
-        <v>379209.6347973347</v>
-      </c>
-      <c r="E49" t="n">
-        <v>449978.9909798065</v>
-      </c>
       <c r="F49" t="n">
-        <v>398952.7690998316</v>
+        <v>445528.6081877947</v>
       </c>
       <c r="G49" t="n">
         <v>590673.8237659035</v>
@@ -6832,16 +6832,16 @@
         <v>479833</v>
       </c>
       <c r="C50" t="n">
+        <v>434727.0973936319</v>
+      </c>
+      <c r="D50" t="n">
+        <v>449614.5112306263</v>
+      </c>
+      <c r="E50" t="n">
         <v>452065.3265494981</v>
       </c>
-      <c r="D50" t="n">
-        <v>346702.9426912069</v>
-      </c>
-      <c r="E50" t="n">
-        <v>370385.949017813</v>
-      </c>
       <c r="F50" t="n">
-        <v>297777.1518916488</v>
+        <v>456230.425599575</v>
       </c>
       <c r="G50" t="n">
         <v>522074.6783233112</v>
@@ -6855,16 +6855,16 @@
         <v>374481</v>
       </c>
       <c r="C51" t="n">
+        <v>428538.2008860111</v>
+      </c>
+      <c r="D51" t="n">
+        <v>408021.1578653075</v>
+      </c>
+      <c r="E51" t="n">
         <v>358487.500825932</v>
       </c>
-      <c r="D51" t="n">
-        <v>443728.8319251537</v>
-      </c>
-      <c r="E51" t="n">
-        <v>403494.7689879644</v>
-      </c>
       <c r="F51" t="n">
-        <v>404681.8380419016</v>
+        <v>432328.3870825768</v>
       </c>
       <c r="G51" t="n">
         <v>445400.0386780257</v>
@@ -6878,16 +6878,16 @@
         <v>434298</v>
       </c>
       <c r="C52" t="n">
+        <v>416550.2106884718</v>
+      </c>
+      <c r="D52" t="n">
+        <v>424125.9083668927</v>
+      </c>
+      <c r="E52" t="n">
         <v>374076.0917165835</v>
       </c>
-      <c r="D52" t="n">
-        <v>393851.649985671</v>
-      </c>
-      <c r="E52" t="n">
-        <v>384322.0034254009</v>
-      </c>
       <c r="F52" t="n">
-        <v>377910.8643273115</v>
+        <v>479713.6938790083</v>
       </c>
       <c r="G52" t="n">
         <v>462598.1778129459</v>
@@ -6901,16 +6901,16 @@
         <v>457767</v>
       </c>
       <c r="C53" t="n">
+        <v>382315.2420363426</v>
+      </c>
+      <c r="D53" t="n">
+        <v>382716.0621760033</v>
+      </c>
+      <c r="E53" t="n">
         <v>386457.4794458256</v>
       </c>
-      <c r="D53" t="n">
-        <v>404220.9707442522</v>
-      </c>
-      <c r="E53" t="n">
-        <v>412829.7574069605</v>
-      </c>
       <c r="F53" t="n">
-        <v>441404.1118518114</v>
+        <v>369038.1532952785</v>
       </c>
       <c r="G53" t="n">
         <v>485824.9798895555</v>
@@ -6924,16 +6924,16 @@
         <v>542765</v>
       </c>
       <c r="C54" t="n">
+        <v>446748.6249963045</v>
+      </c>
+      <c r="D54" t="n">
+        <v>449917.5695094463</v>
+      </c>
+      <c r="E54" t="n">
         <v>472413.8487118969</v>
       </c>
-      <c r="D54" t="n">
-        <v>389916.5299705267</v>
-      </c>
-      <c r="E54" t="n">
-        <v>430500.2277859854</v>
-      </c>
       <c r="F54" t="n">
-        <v>417870.6462738514</v>
+        <v>420321.0530320406</v>
       </c>
       <c r="G54" t="n">
         <v>551108.9025233381</v>
@@ -6947,16 +6947,16 @@
         <v>458189</v>
       </c>
       <c r="C55" t="n">
+        <v>391399.9375174046</v>
+      </c>
+      <c r="D55" t="n">
+        <v>402716.7237016011</v>
+      </c>
+      <c r="E55" t="n">
         <v>407035.9494534837</v>
       </c>
-      <c r="D55" t="n">
-        <v>435172.997385025</v>
-      </c>
-      <c r="E55" t="n">
-        <v>421772.0384525462</v>
-      </c>
       <c r="F55" t="n">
-        <v>415132.064465642</v>
+        <v>400066.805773735</v>
       </c>
       <c r="G55" t="n">
         <v>509573.134471083</v>
@@ -6970,16 +6970,16 @@
         <v>395074</v>
       </c>
       <c r="C56" t="n">
+        <v>348108.2615215182</v>
+      </c>
+      <c r="D56" t="n">
+        <v>359953.8865873875</v>
+      </c>
+      <c r="E56" t="n">
         <v>354282.9041416887</v>
       </c>
-      <c r="D56" t="n">
-        <v>411395.605820775</v>
-      </c>
-      <c r="E56" t="n">
-        <v>397398.8791904817</v>
-      </c>
       <c r="F56" t="n">
-        <v>419183.9246336222</v>
+        <v>366650.2030024529</v>
       </c>
       <c r="G56" t="n">
         <v>481189.2591407957</v>
@@ -6993,16 +6993,16 @@
         <v>222108</v>
       </c>
       <c r="C57" t="n">
+        <v>439840.4031351805</v>
+      </c>
+      <c r="D57" t="n">
+        <v>445790.5808653239</v>
+      </c>
+      <c r="E57" t="n">
         <v>436115.8268110618</v>
       </c>
-      <c r="D57" t="n">
-        <v>394010.7773563862</v>
-      </c>
-      <c r="E57" t="n">
-        <v>441255.3762279021</v>
-      </c>
       <c r="F57" t="n">
-        <v>484251.78597188</v>
+        <v>452165.8226684332</v>
       </c>
       <c r="G57" t="n">
         <v>546326.7454719767</v>
@@ -7016,16 +7016,16 @@
         <v>12647</v>
       </c>
       <c r="C58" t="n">
+        <v>373632.5601801872</v>
+      </c>
+      <c r="D58" t="n">
+        <v>413498.513509094</v>
+      </c>
+      <c r="E58" t="n">
         <v>391680.3879996235</v>
       </c>
-      <c r="D58" t="n">
-        <v>406711.9028744698</v>
-      </c>
-      <c r="E58" t="n">
-        <v>411169.3643322396</v>
-      </c>
       <c r="F58" t="n">
-        <v>425874.4072494507</v>
+        <v>469525.0205276012</v>
       </c>
       <c r="G58" t="n">
         <v>514120.7105215341</v>
@@ -7039,16 +7039,16 @@
         <v>15108</v>
       </c>
       <c r="C59" t="n">
+        <v>432421.576094389</v>
+      </c>
+      <c r="D59" t="n">
+        <v>455326.6575302687</v>
+      </c>
+      <c r="E59" t="n">
         <v>451949.3683868933</v>
       </c>
-      <c r="D59" t="n">
-        <v>438596.5933874846</v>
-      </c>
-      <c r="E59" t="n">
-        <v>438131.7163315104</v>
-      </c>
       <c r="F59" t="n">
-        <v>414757.0838752985</v>
+        <v>475911.6353926659</v>
       </c>
       <c r="G59" t="n">
         <v>535700.9909292457</v>
@@ -7062,16 +7062,16 @@
         <v>30337</v>
       </c>
       <c r="C60" t="n">
+        <v>416236.7919102907</v>
+      </c>
+      <c r="D60" t="n">
+        <v>346368.5488066521</v>
+      </c>
+      <c r="E60" t="n">
         <v>522082.1716682678</v>
       </c>
-      <c r="D60" t="n">
-        <v>413414.6930167675</v>
-      </c>
-      <c r="E60" t="n">
-        <v>434290.6124783175</v>
-      </c>
       <c r="F60" t="n">
-        <v>352541.3769421577</v>
+        <v>66091.21829366684</v>
       </c>
       <c r="G60" t="n">
         <v>587608.7441048066</v>
@@ -7085,16 +7085,16 @@
         <v>57641</v>
       </c>
       <c r="C61" t="n">
+        <v>475538.4924683571</v>
+      </c>
+      <c r="D61" t="n">
+        <v>496053.8010297024</v>
+      </c>
+      <c r="E61" t="n">
         <v>558043.7612040136</v>
       </c>
-      <c r="D61" t="n">
-        <v>429386.5980986357</v>
-      </c>
-      <c r="E61" t="n">
-        <v>474998.3495394894</v>
-      </c>
       <c r="F61" t="n">
-        <v>424843.5975030661</v>
+        <v>444213.0327454805</v>
       </c>
       <c r="G61" t="n">
         <v>606984.7353138692</v>
@@ -7108,16 +7108,16 @@
         <v>67932</v>
       </c>
       <c r="C62" t="n">
+        <v>263324.3593648672</v>
+      </c>
+      <c r="D62" t="n">
+        <v>405151.5398701103</v>
+      </c>
+      <c r="E62" t="n">
         <v>452015.1940095781</v>
       </c>
-      <c r="D62" t="n">
-        <v>423774.220949769</v>
-      </c>
-      <c r="E62" t="n">
-        <v>443805.0279422682</v>
-      </c>
       <c r="F62" t="n">
-        <v>445437.6195392609</v>
+        <v>498154.6483573914</v>
       </c>
       <c r="G62" t="n">
         <v>554884.9950771797</v>
@@ -7131,16 +7131,16 @@
         <v>83870</v>
       </c>
       <c r="C63" t="n">
+        <v>480202.2228864431</v>
+      </c>
+      <c r="D63" t="n">
+        <v>421779.7177379142</v>
+      </c>
+      <c r="E63" t="n">
         <v>358482.5491476187</v>
       </c>
-      <c r="D63" t="n">
-        <v>351914.285497725</v>
-      </c>
-      <c r="E63" t="n">
-        <v>391265.0750452222</v>
-      </c>
       <c r="F63" t="n">
-        <v>457717.3392198086</v>
+        <v>418564.1475836039</v>
       </c>
       <c r="G63" t="n">
         <v>458499.8693487801</v>
@@ -7154,16 +7154,16 @@
         <v>114801</v>
       </c>
       <c r="C64" t="n">
+        <v>439426.6139397621</v>
+      </c>
+      <c r="D64" t="n">
+        <v>426282.8399627387</v>
+      </c>
+      <c r="E64" t="n">
         <v>374110.120253586</v>
       </c>
-      <c r="D64" t="n">
-        <v>423415.5859152079</v>
-      </c>
-      <c r="E64" t="n">
-        <v>393604.6676075262</v>
-      </c>
       <c r="F64" t="n">
-        <v>374645.2592442036</v>
+        <v>458914.2884836197</v>
       </c>
       <c r="G64" t="n">
         <v>488402.0619910226</v>
@@ -7177,16 +7177,16 @@
         <v>137031</v>
       </c>
       <c r="C65" t="n">
+        <v>415705.1019308567</v>
+      </c>
+      <c r="D65" t="n">
+        <v>435737.6651234478</v>
+      </c>
+      <c r="E65" t="n">
         <v>386507.3397150005</v>
       </c>
-      <c r="D65" t="n">
-        <v>403507.0858494043</v>
-      </c>
-      <c r="E65" t="n">
-        <v>397984.0792237307</v>
-      </c>
       <c r="F65" t="n">
-        <v>394121.3758358955</v>
+        <v>501011.1067698002</v>
       </c>
       <c r="G65" t="n">
         <v>505876.730319127</v>
@@ -7200,16 +7200,16 @@
         <v>213203</v>
       </c>
       <c r="C66" t="n">
+        <v>537444.4317755699</v>
+      </c>
+      <c r="D66" t="n">
+        <v>484216.6200219933</v>
+      </c>
+      <c r="E66" t="n">
         <v>472453.3909673161</v>
       </c>
-      <c r="D66" t="n">
-        <v>449744.6493080854</v>
-      </c>
-      <c r="E66" t="n">
-        <v>445241.3329946991</v>
-      </c>
       <c r="F66" t="n">
-        <v>402256.2639549971</v>
+        <v>429691.7473796606</v>
       </c>
       <c r="G66" t="n">
         <v>564925.2970471132</v>
@@ -7223,16 +7223,16 @@
         <v>121733</v>
       </c>
       <c r="C67" t="n">
+        <v>403817.1919927597</v>
+      </c>
+      <c r="D67" t="n">
+        <v>416098.8661895001</v>
+      </c>
+      <c r="E67" t="n">
         <v>407048.7395718622</v>
       </c>
-      <c r="D67" t="n">
-        <v>433330.0601503849</v>
-      </c>
-      <c r="E67" t="n">
-        <v>418266.3782003865</v>
-      </c>
       <c r="F67" t="n">
-        <v>403758.4350392818</v>
+        <v>426969.1967896223</v>
       </c>
       <c r="G67" t="n">
         <v>534886.9308876521</v>
@@ -7246,16 +7246,16 @@
         <v>89788</v>
       </c>
       <c r="C68" t="n">
+        <v>459893.1116250753</v>
+      </c>
+      <c r="D68" t="n">
+        <v>421854.9266156175</v>
+      </c>
+      <c r="E68" t="n">
         <v>354268.0325273531</v>
       </c>
-      <c r="D68" t="n">
-        <v>409850.2979443073</v>
-      </c>
-      <c r="E68" t="n">
-        <v>389968.5394589286</v>
-      </c>
       <c r="F68" t="n">
-        <v>396058.3241961002</v>
+        <v>441398.2361564636</v>
       </c>
       <c r="G68" t="n">
         <v>498783.367718015</v>
@@ -7269,16 +7269,16 @@
         <v>177155</v>
       </c>
       <c r="C69" t="n">
+        <v>421533.4290186167</v>
+      </c>
+      <c r="D69" t="n">
+        <v>426141.6272333389</v>
+      </c>
+      <c r="E69" t="n">
         <v>436085.409766098</v>
       </c>
-      <c r="D69" t="n">
-        <v>424169.1740683317</v>
-      </c>
-      <c r="E69" t="n">
-        <v>401677.5456241356</v>
-      </c>
       <c r="F69" t="n">
-        <v>329289.4974142909</v>
+        <v>407111.8370351791</v>
       </c>
       <c r="G69" t="n">
         <v>565703.6925908024</v>
@@ -7292,16 +7292,16 @@
         <v>226409</v>
       </c>
       <c r="C70" t="n">
+        <v>415016.2189660072</v>
+      </c>
+      <c r="D70" t="n">
+        <v>424507.5606265413</v>
+      </c>
+      <c r="E70" t="n">
         <v>391651.4859789911</v>
       </c>
-      <c r="D70" t="n">
-        <v>383706.6695622206</v>
-      </c>
-      <c r="E70" t="n">
-        <v>403084.2221411393</v>
-      </c>
       <c r="F70" t="n">
-        <v>422234.9580273628</v>
+        <v>457725.5603573322</v>
       </c>
       <c r="G70" t="n">
         <v>532240.3474839255</v>
@@ -7315,16 +7315,16 @@
         <v>299382</v>
       </c>
       <c r="C71" t="n">
+        <v>361804.9063441753</v>
+      </c>
+      <c r="D71" t="n">
+        <v>432127.6304189381</v>
+      </c>
+      <c r="E71" t="n">
         <v>451935.1274305064</v>
       </c>
-      <c r="D71" t="n">
-        <v>453765.2449736595</v>
-      </c>
-      <c r="E71" t="n">
-        <v>458743.2658378136</v>
-      </c>
       <c r="F71" t="n">
-        <v>461477.7600625753</v>
+        <v>476555.7373378277</v>
       </c>
       <c r="G71" t="n">
         <v>558312.0639405902</v>
@@ -7338,16 +7338,16 @@
         <v>371306</v>
       </c>
       <c r="C72" t="n">
+        <v>387785.8529225588</v>
+      </c>
+      <c r="D72" t="n">
+        <v>465817.8754481332</v>
+      </c>
+      <c r="E72" t="n">
         <v>522086.4508743783</v>
       </c>
-      <c r="D72" t="n">
-        <v>391200.6474719048</v>
-      </c>
-      <c r="E72" t="n">
-        <v>446895.5002136971</v>
-      </c>
       <c r="F72" t="n">
-        <v>412004.042536974</v>
+        <v>479753.5180363655</v>
       </c>
       <c r="G72" t="n">
         <v>609327.7380517054</v>
@@ -7361,16 +7361,16 @@
         <v>385452</v>
       </c>
       <c r="C73" t="n">
+        <v>436604.4666866064</v>
+      </c>
+      <c r="D73" t="n">
+        <v>502330.0792831311</v>
+      </c>
+      <c r="E73" t="n">
         <v>558061.0869353145</v>
       </c>
-      <c r="D73" t="n">
-        <v>399938.0240724087</v>
-      </c>
-      <c r="E73" t="n">
-        <v>480701.3540554736</v>
-      </c>
       <c r="F73" t="n">
-        <v>470087.0803562403</v>
+        <v>504967.2632250786</v>
       </c>
       <c r="G73" t="n">
         <v>629094.2551639751</v>
@@ -7384,16 +7384,16 @@
         <v>305847</v>
       </c>
       <c r="C74" t="n">
+        <v>424793.1825861931</v>
+      </c>
+      <c r="D74" t="n">
+        <v>460020.8877562616</v>
+      </c>
+      <c r="E74" t="n">
         <v>452035.0597524696</v>
       </c>
-      <c r="D74" t="n">
-        <v>482118.0139074326</v>
-      </c>
-      <c r="E74" t="n">
-        <v>468871.2049848957</v>
-      </c>
       <c r="F74" t="n">
-        <v>463154.1467229128</v>
+        <v>495752.383613348</v>
       </c>
       <c r="G74" t="n">
         <v>571405.1175177998</v>
@@ -7407,16 +7407,16 @@
         <v>252301</v>
       </c>
       <c r="C75" t="n">
+        <v>400459.5343492031</v>
+      </c>
+      <c r="D75" t="n">
+        <v>415177.3448328015</v>
+      </c>
+      <c r="E75" t="n">
         <v>358495.2450820481</v>
       </c>
-      <c r="D75" t="n">
-        <v>426900.1875940561</v>
-      </c>
-      <c r="E75" t="n">
-        <v>414383.7297962908</v>
-      </c>
       <c r="F75" t="n">
-        <v>452080.2261189222</v>
+        <v>482599.917645216</v>
       </c>
       <c r="G75" t="n">
         <v>481524.8214715531</v>
@@ -7454,22 +7454,22 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>lstm_reg</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>weighted_ensemble</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>arima</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>lstm</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>weighted_ensemble</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>lstm_reg</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -7486,16 +7486,16 @@
         <v>467457</v>
       </c>
       <c r="C2" t="n">
+        <v>399418.0371240377</v>
+      </c>
+      <c r="D2" t="n">
+        <v>422090.1649738995</v>
+      </c>
+      <c r="E2" t="n">
         <v>451285.4040904046</v>
       </c>
-      <c r="D2" t="n">
-        <v>376591.420114398</v>
-      </c>
-      <c r="E2" t="n">
-        <v>409139.953912753</v>
-      </c>
       <c r="F2" t="n">
-        <v>396468.9216557741</v>
+        <v>415423.9390275478</v>
       </c>
       <c r="G2" t="n">
         <v>439729.0626875589</v>
@@ -7509,16 +7509,16 @@
         <v>360593</v>
       </c>
       <c r="C3" t="n">
+        <v>363486.2015072107</v>
+      </c>
+      <c r="D3" t="n">
+        <v>368500.4973921903</v>
+      </c>
+      <c r="E3" t="n">
         <v>358743.2067200664</v>
       </c>
-      <c r="D3" t="n">
-        <v>332054.7374699116</v>
-      </c>
-      <c r="E3" t="n">
-        <v>370587.8282563091</v>
-      </c>
       <c r="F3" t="n">
-        <v>421940.8105627298</v>
+        <v>384516.5966871977</v>
       </c>
       <c r="G3" t="n">
         <v>363054.4230422495</v>
@@ -7532,16 +7532,16 @@
         <v>397613</v>
       </c>
       <c r="C4" t="n">
+        <v>372365.2234712839</v>
+      </c>
+      <c r="D4" t="n">
+        <v>372523.6048643865</v>
+      </c>
+      <c r="E4" t="n">
         <v>375988.6944769993</v>
       </c>
-      <c r="D4" t="n">
-        <v>323457.4708146453</v>
-      </c>
-      <c r="E4" t="n">
-        <v>361577.414439035</v>
-      </c>
       <c r="F4" t="n">
-        <v>383599.0693799257</v>
+        <v>368387.3777208328</v>
       </c>
       <c r="G4" t="n">
         <v>380252.5621771832</v>
@@ -7555,16 +7555,16 @@
         <v>420034</v>
       </c>
       <c r="C5" t="n">
+        <v>371264.413156867</v>
+      </c>
+      <c r="D5" t="n">
+        <v>340110.4934510293</v>
+      </c>
+      <c r="E5" t="n">
         <v>390126.4097070204</v>
       </c>
-      <c r="D5" t="n">
-        <v>338937.0022982955</v>
-      </c>
-      <c r="E5" t="n">
-        <v>366956.8710332366</v>
-      </c>
       <c r="F5" t="n">
-        <v>368352.7280441523</v>
+        <v>248483.1327154338</v>
       </c>
       <c r="G5" t="n">
         <v>403479.3642537682</v>
@@ -7578,16 +7578,16 @@
         <v>519636</v>
       </c>
       <c r="C6" t="n">
+        <v>421719.3718055487</v>
+      </c>
+      <c r="D6" t="n">
+        <v>426646.4679399829</v>
+      </c>
+      <c r="E6" t="n">
         <v>474111.4002716879</v>
       </c>
-      <c r="D6" t="n">
-        <v>348804.736948669</v>
-      </c>
-      <c r="E6" t="n">
-        <v>408976.5764852522</v>
-      </c>
       <c r="F6" t="n">
-        <v>398157.3740444183</v>
+        <v>379385.1077238321</v>
       </c>
       <c r="G6" t="n">
         <v>468763.2868875506</v>
@@ -7601,16 +7601,16 @@
         <v>449336</v>
       </c>
       <c r="C7" t="n">
+        <v>357985.8615369201</v>
+      </c>
+      <c r="D7" t="n">
+        <v>383056.9213897667</v>
+      </c>
+      <c r="E7" t="n">
         <v>408845.4049488608</v>
       </c>
-      <c r="D7" t="n">
-        <v>326809.3132123947</v>
-      </c>
-      <c r="E7" t="n">
-        <v>360362.8553289785</v>
-      </c>
       <c r="F7" t="n">
-        <v>338972.8730556965</v>
+        <v>379855.1149920225</v>
       </c>
       <c r="G7" t="n">
         <v>427227.5188353079</v>
@@ -7624,16 +7624,16 @@
         <v>388763</v>
       </c>
       <c r="C8" t="n">
+        <v>358006.9342467785</v>
+      </c>
+      <c r="D8" t="n">
+        <v>371808.6059064895</v>
+      </c>
+      <c r="E8" t="n">
         <v>353844.0509543302</v>
       </c>
-      <c r="D8" t="n">
-        <v>368899.4336894751</v>
-      </c>
-      <c r="E8" t="n">
-        <v>356012.5315868941</v>
-      </c>
       <c r="F8" t="n">
-        <v>341327.1650443077</v>
+        <v>402615.2375069857</v>
       </c>
       <c r="G8" t="n">
         <v>398843.6435050212</v>
@@ -7647,16 +7647,16 @@
         <v>464430</v>
       </c>
       <c r="C9" t="n">
+        <v>334542.4295047522</v>
+      </c>
+      <c r="D9" t="n">
+        <v>382491.3564601192</v>
+      </c>
+      <c r="E9" t="n">
         <v>433403.0253548989</v>
       </c>
-      <c r="D9" t="n">
-        <v>332377.0665103793</v>
-      </c>
-      <c r="E9" t="n">
-        <v>381539.1126938118</v>
-      </c>
       <c r="F9" t="n">
-        <v>370981.9929031134</v>
+        <v>375041.9291297197</v>
       </c>
       <c r="G9" t="n">
         <v>463981.1298362083</v>
@@ -7670,16 +7670,16 @@
         <v>392441</v>
       </c>
       <c r="C10" t="n">
+        <v>378316.7709026337</v>
+      </c>
+      <c r="D10" t="n">
+        <v>379923.4029940002</v>
+      </c>
+      <c r="E10" t="n">
         <v>388867.2114069504</v>
       </c>
-      <c r="D10" t="n">
-        <v>406277.633374691</v>
-      </c>
-      <c r="E10" t="n">
-        <v>333463.109999189</v>
-      </c>
       <c r="F10" t="n">
-        <v>195363.6822379977</v>
+        <v>367377.0724586248</v>
       </c>
       <c r="G10" t="n">
         <v>431775.09488576</v>
@@ -7693,16 +7693,16 @@
         <v>473082</v>
       </c>
       <c r="C11" t="n">
+        <v>363729.5229980946</v>
+      </c>
+      <c r="D11" t="n">
+        <v>400742.6489420111</v>
+      </c>
+      <c r="E11" t="n">
         <v>448636.7004745384</v>
       </c>
-      <c r="D11" t="n">
-        <v>413334.053329587</v>
-      </c>
-      <c r="E11" t="n">
-        <v>407593.2065068673</v>
-      </c>
       <c r="F11" t="n">
-        <v>356184.9125531912</v>
+        <v>387244.5635560751</v>
       </c>
       <c r="G11" t="n">
         <v>453355.3752934641</v>
@@ -7716,16 +7716,16 @@
         <v>541016</v>
       </c>
       <c r="C12" t="n">
+        <v>343355.2229521275</v>
+      </c>
+      <c r="D12" t="n">
+        <v>417860.0558628897</v>
+      </c>
+      <c r="E12" t="n">
         <v>517822.0750035333</v>
       </c>
-      <c r="D12" t="n">
-        <v>369613.2460448742</v>
-      </c>
-      <c r="E12" t="n">
-        <v>423050.3425489903</v>
-      </c>
       <c r="F12" t="n">
-        <v>373483.9026699066</v>
+        <v>388907.5062385798</v>
       </c>
       <c r="G12" t="n">
         <v>505263.1284690171</v>
@@ -7739,16 +7739,16 @@
         <v>559606</v>
       </c>
       <c r="C13" t="n">
+        <v>367423.3526269197</v>
+      </c>
+      <c r="D13" t="n">
+        <v>435129.818593422</v>
+      </c>
+      <c r="E13" t="n">
         <v>552874.5354405972</v>
       </c>
-      <c r="D13" t="n">
-        <v>398193.9581063986</v>
-      </c>
-      <c r="E13" t="n">
-        <v>484862.1773927899</v>
-      </c>
       <c r="F13" t="n">
-        <v>499586.7221543789</v>
+        <v>380339.7510490417</v>
       </c>
       <c r="G13" t="n">
         <v>524639.1196781083</v>
@@ -7762,16 +7762,16 @@
         <v>451152</v>
       </c>
       <c r="C14" t="n">
+        <v>405979.5204201937</v>
+      </c>
+      <c r="D14" t="n">
+        <v>410581.2251142781</v>
+      </c>
+      <c r="E14" t="n">
         <v>450726.7466562079</v>
       </c>
-      <c r="D14" t="n">
-        <v>368856.8530330658</v>
-      </c>
-      <c r="E14" t="n">
-        <v>407423.0098434171</v>
-      </c>
       <c r="F14" t="n">
-        <v>396457.1460852623</v>
+        <v>368454.8635879755</v>
       </c>
       <c r="G14" t="n">
         <v>472539.3794413942</v>
@@ -7785,16 +7785,16 @@
         <v>378001</v>
       </c>
       <c r="C15" t="n">
+        <v>356951.3280988336</v>
+      </c>
+      <c r="D15" t="n">
+        <v>377804.952252925</v>
+      </c>
+      <c r="E15" t="n">
         <v>357715.6281940724</v>
       </c>
-      <c r="D15" t="n">
-        <v>357747.2188404799</v>
-      </c>
-      <c r="E15" t="n">
-        <v>378321.877176082</v>
-      </c>
       <c r="F15" t="n">
-        <v>419991.8448338509</v>
+        <v>421393.4520623684</v>
       </c>
       <c r="G15" t="n">
         <v>376154.2537129904</v>
@@ -7808,16 +7808,16 @@
         <v>398024</v>
       </c>
       <c r="C16" t="n">
+        <v>388656.3746670485</v>
+      </c>
+      <c r="D16" t="n">
+        <v>374581.7762536919</v>
+      </c>
+      <c r="E16" t="n">
         <v>372932.3225724506</v>
       </c>
-      <c r="D16" t="n">
-        <v>371112.6606301069</v>
-      </c>
-      <c r="E16" t="n">
-        <v>362178.1827253071</v>
-      </c>
       <c r="F16" t="n">
-        <v>338318.4342390895</v>
+        <v>357660.2682212591</v>
       </c>
       <c r="G16" t="n">
         <v>406056.4463552554</v>
@@ -7831,16 +7831,16 @@
         <v>403968</v>
       </c>
       <c r="C17" t="n">
+        <v>367173.3333269358</v>
+      </c>
+      <c r="D17" t="n">
+        <v>378754.5161057537</v>
+      </c>
+      <c r="E17" t="n">
         <v>384607.5746850896</v>
       </c>
-      <c r="D17" t="n">
-        <v>374497.7140054703</v>
-      </c>
-      <c r="E17" t="n">
-        <v>385024.5018880166</v>
-      </c>
       <c r="F17" t="n">
-        <v>392483.8219604492</v>
+        <v>381028.8999918699</v>
       </c>
       <c r="G17" t="n">
         <v>423531.1146833431</v>
@@ -7854,16 +7854,16 @@
         <v>503379</v>
       </c>
       <c r="C18" t="n">
+        <v>380146.5059576035</v>
+      </c>
+      <c r="D18" t="n">
+        <v>417457.8671538369</v>
+      </c>
+      <c r="E18" t="n">
         <v>470280.1644497839</v>
       </c>
-      <c r="D18" t="n">
-        <v>384047.2180942297</v>
-      </c>
-      <c r="E18" t="n">
-        <v>432133.1696365407</v>
-      </c>
       <c r="F18" t="n">
-        <v>437282.154396534</v>
+        <v>398005.7182369232</v>
       </c>
       <c r="G18" t="n">
         <v>482579.6814113411</v>
@@ -7877,16 +7877,16 @@
         <v>426440</v>
       </c>
       <c r="C19" t="n">
+        <v>381788.2429412603</v>
+      </c>
+      <c r="D19" t="n">
+        <v>394512.5065534462</v>
+      </c>
+      <c r="E19" t="n">
         <v>405290.18621852</v>
       </c>
-      <c r="D19" t="n">
-        <v>478210.9424791336</v>
-      </c>
-      <c r="E19" t="n">
-        <v>414488.3513168029</v>
-      </c>
       <c r="F19" t="n">
-        <v>356281.0273227692</v>
+        <v>391690.4580096006</v>
       </c>
       <c r="G19" t="n">
         <v>452541.3152518788</v>
@@ -7900,16 +7900,16 @@
         <v>357556</v>
       </c>
       <c r="C20" t="n">
+        <v>360723.4398827553</v>
+      </c>
+      <c r="D20" t="n">
+        <v>367606.2699699711</v>
+      </c>
+      <c r="E20" t="n">
         <v>353424.2108102121</v>
       </c>
-      <c r="D20" t="n">
-        <v>350466.6761687994</v>
-      </c>
-      <c r="E20" t="n">
-        <v>365962.4921065141</v>
-      </c>
       <c r="F20" t="n">
-        <v>389552.9622534513</v>
+        <v>384772.5642219782</v>
       </c>
       <c r="G20" t="n">
         <v>416437.7520822426</v>
@@ -7923,16 +7923,16 @@
         <v>442013</v>
       </c>
       <c r="C21" t="n">
+        <v>351752.6434261203</v>
+      </c>
+      <c r="D21" t="n">
+        <v>409696.243011878</v>
+      </c>
+      <c r="E21" t="n">
         <v>436222.1437917445</v>
       </c>
-      <c r="D21" t="n">
-        <v>372956.5892372131</v>
-      </c>
-      <c r="E21" t="n">
-        <v>324173.2655820611</v>
-      </c>
       <c r="F21" t="n">
-        <v>147428.3624507524</v>
+        <v>438909.8429069519</v>
       </c>
       <c r="G21" t="n">
         <v>483358.0769550246</v>
@@ -7946,16 +7946,16 @@
         <v>414088</v>
       </c>
       <c r="C22" t="n">
+        <v>388654.4402817488</v>
+      </c>
+      <c r="D22" t="n">
+        <v>408793.4481022746</v>
+      </c>
+      <c r="E22" t="n">
         <v>392421.4962368557</v>
       </c>
-      <c r="D22" t="n">
-        <v>352442.6023927927</v>
-      </c>
-      <c r="E22" t="n">
-        <v>367835.7629993756</v>
-      </c>
       <c r="F22" t="n">
-        <v>350939.8026332855</v>
+        <v>443531.1861071587</v>
       </c>
       <c r="G22" t="n">
         <v>449894.7318481408</v>
@@ -7969,16 +7969,16 @@
         <v>458758</v>
       </c>
       <c r="C23" t="n">
+        <v>393870.8487597704</v>
+      </c>
+      <c r="D23" t="n">
+        <v>415784.7686625836</v>
+      </c>
+      <c r="E23" t="n">
         <v>452797.5255259827</v>
       </c>
-      <c r="D23" t="n">
-        <v>430693.3720878363</v>
-      </c>
-      <c r="E23" t="n">
-        <v>434830.5611988687</v>
-      </c>
       <c r="F23" t="n">
-        <v>417068.6743084192</v>
+        <v>396053.9960089922</v>
       </c>
       <c r="G23" t="n">
         <v>475966.4483047994</v>
@@ -7992,16 +7992,16 @@
         <v>537494</v>
       </c>
       <c r="C24" t="n">
+        <v>338281.3665807843</v>
+      </c>
+      <c r="D24" t="n">
+        <v>427131.7446816267</v>
+      </c>
+      <c r="E24" t="n">
         <v>522581.954108257</v>
       </c>
-      <c r="D24" t="n">
-        <v>344512.1425301433</v>
-      </c>
-      <c r="E24" t="n">
-        <v>430180.9690333342</v>
-      </c>
       <c r="F24" t="n">
-        <v>414042.1592483521</v>
+        <v>417303.2185260057</v>
       </c>
       <c r="G24" t="n">
         <v>526982.1224159392</v>
@@ -8015,16 +8015,16 @@
         <v>558294</v>
       </c>
       <c r="C25" t="n">
+        <v>396676.3119397163</v>
+      </c>
+      <c r="D25" t="n">
+        <v>373479.7887187059</v>
+      </c>
+      <c r="E25" t="n">
         <v>558001.9886874615</v>
       </c>
-      <c r="D25" t="n">
-        <v>370275.1685146093</v>
-      </c>
-      <c r="E25" t="n">
-        <v>445013.0334245499</v>
-      </c>
       <c r="F25" t="n">
-        <v>396654.6951839924</v>
+        <v>142269.7837813795</v>
       </c>
       <c r="G25" t="n">
         <v>546748.6395281788</v>
@@ -8038,16 +8038,16 @@
         <v>376395</v>
       </c>
       <c r="C26" t="n">
+        <v>499619.2681870461</v>
+      </c>
+      <c r="D26" t="n">
+        <v>455411.9732787233</v>
+      </c>
+      <c r="E26" t="n">
         <v>451536.1373969507</v>
       </c>
-      <c r="D26" t="n">
-        <v>345442.8961969018</v>
-      </c>
-      <c r="E26" t="n">
-        <v>406736.3612375867</v>
-      </c>
       <c r="F26" t="n">
-        <v>415507.4077532291</v>
+        <v>407443.1005177498</v>
       </c>
       <c r="G26" t="n">
         <v>489059.5018820384</v>
@@ -8061,16 +8061,16 @@
         <v>344907</v>
       </c>
       <c r="C27" t="n">
+        <v>417361.9029400349</v>
+      </c>
+      <c r="D27" t="n">
+        <v>403192.5333046486</v>
+      </c>
+      <c r="E27" t="n">
         <v>357860.1418151034</v>
       </c>
-      <c r="D27" t="n">
-        <v>356257.7542496324</v>
-      </c>
-      <c r="E27" t="n">
-        <v>372135.405616076</v>
-      </c>
       <c r="F27" t="n">
-        <v>400014.02123487</v>
+        <v>434317.2253284454</v>
       </c>
       <c r="G27" t="n">
         <v>399179.2058357761</v>
@@ -8084,16 +8084,16 @@
         <v>390963</v>
       </c>
       <c r="C28" t="n">
+        <v>352298.4785980582</v>
+      </c>
+      <c r="D28" t="n">
+        <v>367414.9764756871</v>
+      </c>
+      <c r="E28" t="n">
         <v>373653.5109094762</v>
       </c>
-      <c r="D28" t="n">
-        <v>408364.883472681</v>
-      </c>
-      <c r="E28" t="n">
-        <v>370691.4873831822</v>
-      </c>
       <c r="F28" t="n">
-        <v>324886.4012355208</v>
+        <v>371910.4253075123</v>
       </c>
       <c r="G28" t="n">
         <v>424899.8588521626</v>
@@ -8107,16 +8107,16 @@
         <v>398818</v>
       </c>
       <c r="C29" t="n">
+        <v>404900.9071770906</v>
+      </c>
+      <c r="D29" t="n">
+        <v>406122.2652312171</v>
+      </c>
+      <c r="E29" t="n">
         <v>386392.971534946</v>
       </c>
-      <c r="D29" t="n">
-        <v>305951.7916286588</v>
-      </c>
-      <c r="E29" t="n">
-        <v>363398.3965884599</v>
-      </c>
       <c r="F29" t="n">
-        <v>390458.4238324165</v>
+        <v>423803.2609090805</v>
       </c>
       <c r="G29" t="n">
         <v>444240.7294928526</v>
@@ -8130,16 +8130,16 @@
         <v>483044</v>
       </c>
       <c r="C30" t="n">
+        <v>412461.1619631052</v>
+      </c>
+      <c r="D30" t="n">
+        <v>437251.7454340222</v>
+      </c>
+      <c r="E30" t="n">
         <v>472667.0816990059</v>
       </c>
-      <c r="D30" t="n">
-        <v>355769.1043431163</v>
-      </c>
-      <c r="E30" t="n">
-        <v>412306.142853332</v>
-      </c>
       <c r="F30" t="n">
-        <v>399593.1231734753</v>
+        <v>421510.2889344692</v>
       </c>
       <c r="G30" t="n">
         <v>505465.2829977713</v>
@@ -8153,16 +8153,16 @@
         <v>419855</v>
       </c>
       <c r="C31" t="n">
+        <v>435209.9199644327</v>
+      </c>
+      <c r="D31" t="n">
+        <v>425893.8954440007</v>
+      </c>
+      <c r="E31" t="n">
         <v>407427.5660413297</v>
       </c>
-      <c r="D31" t="n">
-        <v>350065.9803438783</v>
-      </c>
-      <c r="E31" t="n">
-        <v>371363.2702541696</v>
-      </c>
       <c r="F31" t="n">
-        <v>347140.6215450764</v>
+        <v>429953.0344740152</v>
       </c>
       <c r="G31" t="n">
         <v>471580.3279644437</v>
@@ -8176,16 +8176,16 @@
         <v>369121</v>
       </c>
       <c r="C32" t="n">
+        <v>395723.9415172338</v>
+      </c>
+      <c r="D32" t="n">
+        <v>387167.0109091083</v>
+      </c>
+      <c r="E32" t="n">
         <v>354603.6608196225</v>
       </c>
-      <c r="D32" t="n">
-        <v>383820.4114178419</v>
-      </c>
-      <c r="E32" t="n">
-        <v>377691.6522632695</v>
-      </c>
       <c r="F32" t="n">
-        <v>389311.1157313585</v>
+        <v>405939.7446224689</v>
       </c>
       <c r="G32" t="n">
         <v>438012.6146948365</v>
@@ -8199,16 +8199,16 @@
         <v>466849</v>
       </c>
       <c r="C33" t="n">
+        <v>401041.7359647751</v>
+      </c>
+      <c r="D33" t="n">
+        <v>434997.0251512838</v>
+      </c>
+      <c r="E33" t="n">
         <v>436229.2164824298</v>
       </c>
-      <c r="D33" t="n">
-        <v>418427.2898236513</v>
-      </c>
-      <c r="E33" t="n">
-        <v>412458.1648915511</v>
-      </c>
       <c r="F33" t="n">
-        <v>374178.7580493689</v>
+        <v>464281.4581159353</v>
       </c>
       <c r="G33" t="n">
         <v>502689.4012925135</v>
@@ -8222,16 +8222,16 @@
         <v>415682</v>
       </c>
       <c r="C34" t="n">
+        <v>411478.9052877426</v>
+      </c>
+      <c r="D34" t="n">
+        <v>369197.4418682369</v>
+      </c>
+      <c r="E34" t="n">
         <v>391572.2352561004</v>
       </c>
-      <c r="D34" t="n">
-        <v>376422.475738287</v>
-      </c>
-      <c r="E34" t="n">
-        <v>412435.0765346669</v>
-      </c>
       <c r="F34" t="n">
-        <v>464563.3222339153</v>
+        <v>290024.050981164</v>
       </c>
       <c r="G34" t="n">
         <v>468076.8583801065</v>
@@ -8245,16 +8245,16 @@
         <v>455766</v>
       </c>
       <c r="C35" t="n">
+        <v>451140.5742797852</v>
+      </c>
+      <c r="D35" t="n">
+        <v>490925.2379066781</v>
+      </c>
+      <c r="E35" t="n">
         <v>451711.2979979586</v>
       </c>
-      <c r="D35" t="n">
-        <v>400768.0446246862</v>
-      </c>
-      <c r="E35" t="n">
-        <v>421514.2442615891</v>
-      </c>
       <c r="F35" t="n">
-        <v>404781.8941215277</v>
+        <v>573904.8381755352</v>
       </c>
       <c r="G35" t="n">
         <v>498639.3932488187</v>
@@ -8268,16 +8268,16 @@
         <v>542537</v>
       </c>
       <c r="C36" t="n">
+        <v>344241.1714193821</v>
+      </c>
+      <c r="D36" t="n">
+        <v>395955.7194208096</v>
+      </c>
+      <c r="E36" t="n">
         <v>521849.056582364</v>
       </c>
-      <c r="D36" t="n">
-        <v>391016.1554739475</v>
-      </c>
-      <c r="E36" t="n">
-        <v>413939.1497839362</v>
-      </c>
       <c r="F36" t="n">
-        <v>315637.7061507702</v>
+        <v>308962.7348870635</v>
       </c>
       <c r="G36" t="n">
         <v>548679.2576206472</v>
@@ -8291,16 +8291,16 @@
         <v>552404</v>
       </c>
       <c r="C37" t="n">
+        <v>319280.7218957543</v>
+      </c>
+      <c r="D37" t="n">
+        <v>402579.8165105305</v>
+      </c>
+      <c r="E37" t="n">
         <v>557922.8660883973</v>
       </c>
-      <c r="D37" t="n">
-        <v>419851.9887766838</v>
-      </c>
-      <c r="E37" t="n">
-        <v>445771.5478645337</v>
-      </c>
       <c r="F37" t="n">
-        <v>347275.8955270648</v>
+        <v>318869.592480123</v>
       </c>
       <c r="G37" t="n">
         <v>568760.4043147223</v>
@@ -8314,16 +8314,16 @@
         <v>445793</v>
       </c>
       <c r="C38" t="n">
+        <v>384332.056329608</v>
+      </c>
+      <c r="D38" t="n">
+        <v>434922.0413838216</v>
+      </c>
+      <c r="E38" t="n">
         <v>452041.4967882864</v>
       </c>
-      <c r="D38" t="n">
-        <v>384156.2932453156</v>
-      </c>
-      <c r="E38" t="n">
-        <v>408326.2261051616</v>
-      </c>
       <c r="F38" t="n">
-        <v>379536.545912981</v>
+        <v>465963.2126954794</v>
       </c>
       <c r="G38" t="n">
         <v>505569.6999794936</v>
@@ -8337,16 +8337,16 @@
         <v>369424</v>
       </c>
       <c r="C39" t="n">
+        <v>441301.6136107445</v>
+      </c>
+      <c r="D39" t="n">
+        <v>390399.0704607065</v>
+      </c>
+      <c r="E39" t="n">
         <v>358616.0718913526</v>
       </c>
-      <c r="D39" t="n">
-        <v>382435.6575212479</v>
-      </c>
-      <c r="E39" t="n">
-        <v>379474.7165804879</v>
-      </c>
       <c r="F39" t="n">
-        <v>393634.3943367004</v>
+        <v>363749.9791226387</v>
       </c>
       <c r="G39" t="n">
         <v>422261.3882097219</v>
@@ -8360,16 +8360,16 @@
         <v>408507</v>
       </c>
       <c r="C40" t="n">
+        <v>365721.5046200752</v>
+      </c>
+      <c r="D40" t="n">
+        <v>404356.2775406509</v>
+      </c>
+      <c r="E40" t="n">
         <v>374268.601300222</v>
       </c>
-      <c r="D40" t="n">
-        <v>363058.218759656</v>
-      </c>
-      <c r="E40" t="n">
-        <v>397280.2873761501</v>
-      </c>
       <c r="F40" t="n">
-        <v>450622.0623002052</v>
+        <v>473589.8894367218</v>
       </c>
       <c r="G40" t="n">
         <v>443746.7561558419</v>
@@ -8383,16 +8383,16 @@
         <v>431053</v>
       </c>
       <c r="C41" t="n">
+        <v>425211.6143063307</v>
+      </c>
+      <c r="D41" t="n">
+        <v>426092.1002628992</v>
+      </c>
+      <c r="E41" t="n">
         <v>386612.4113708346</v>
       </c>
-      <c r="D41" t="n">
-        <v>403143.8566497564</v>
-      </c>
-      <c r="E41" t="n">
-        <v>392710.2902224986</v>
-      </c>
       <c r="F41" t="n">
-        <v>381751.9732168913</v>
+        <v>463486.9577137232</v>
       </c>
       <c r="G41" t="n">
         <v>465005.6817478752</v>
@@ -8406,16 +8406,16 @@
         <v>513430</v>
       </c>
       <c r="C42" t="n">
+        <v>464339.997451067</v>
+      </c>
+      <c r="D42" t="n">
+        <v>468989.5489835118</v>
+      </c>
+      <c r="E42" t="n">
         <v>472466.2606356317</v>
       </c>
-      <c r="D42" t="n">
-        <v>446420.3839907646</v>
-      </c>
-      <c r="E42" t="n">
-        <v>440916.5958515743</v>
-      </c>
       <c r="F42" t="n">
-        <v>395511.0382351875</v>
+        <v>464622.949660778</v>
       </c>
       <c r="G42" t="n">
         <v>528309.2075092979</v>
@@ -8429,16 +8429,16 @@
         <v>440389</v>
       </c>
       <c r="C43" t="n">
+        <v>349179.4394711256</v>
+      </c>
+      <c r="D43" t="n">
+        <v>385661.2225930262</v>
+      </c>
+      <c r="E43" t="n">
         <v>406980.7671545794</v>
       </c>
-      <c r="D43" t="n">
-        <v>389573.2491192818</v>
-      </c>
-      <c r="E43" t="n">
-        <v>396069.8709468389</v>
-      </c>
       <c r="F43" t="n">
-        <v>382902.0378170013</v>
+        <v>393490.4760704041</v>
       </c>
       <c r="G43" t="n">
         <v>490590.5174197833</v>
@@ -8452,16 +8452,16 @@
         <v>379682</v>
       </c>
       <c r="C44" t="n">
+        <v>384859.5873806477</v>
+      </c>
+      <c r="D44" t="n">
+        <v>396138.7979480809</v>
+      </c>
+      <c r="E44" t="n">
         <v>354166.0119822463</v>
       </c>
-      <c r="D44" t="n">
-        <v>395326.7638555765</v>
-      </c>
-      <c r="E44" t="n">
-        <v>387815.7944803055</v>
-      </c>
       <c r="F44" t="n">
-        <v>407659.3406144381</v>
+        <v>445052.1690884829</v>
       </c>
       <c r="G44" t="n">
         <v>459596.6856832807</v>
@@ -8475,16 +8475,16 @@
         <v>479188</v>
       </c>
       <c r="C45" t="n">
+        <v>418976.9937661886</v>
+      </c>
+      <c r="D45" t="n">
+        <v>430078.9444770497</v>
+      </c>
+      <c r="E45" t="n">
         <v>436003.1543473253</v>
       </c>
-      <c r="D45" t="n">
-        <v>404914.109356761</v>
-      </c>
-      <c r="E45" t="n">
-        <v>412717.7724745175</v>
-      </c>
       <c r="F45" t="n">
-        <v>387015.2905384302</v>
+        <v>427048.0471704006</v>
       </c>
       <c r="G45" t="n">
         <v>521976.9287469126</v>
@@ -8498,16 +8498,16 @@
         <v>435196</v>
       </c>
       <c r="C46" t="n">
+        <v>450041.9643286467</v>
+      </c>
+      <c r="D46" t="n">
+        <v>418495.3477503565</v>
+      </c>
+      <c r="E46" t="n">
         <v>391623.4989193973</v>
       </c>
-      <c r="D46" t="n">
-        <v>364914.7934106588</v>
-      </c>
-      <c r="E46" t="n">
-        <v>378035.9446772309</v>
-      </c>
       <c r="F46" t="n">
-        <v>367555.3018841743</v>
+        <v>404503.6811558008</v>
       </c>
       <c r="G46" t="n">
         <v>486324.1202335281</v>
@@ -8521,16 +8521,16 @@
         <v>486277</v>
       </c>
       <c r="C47" t="n">
+        <v>377501.6451171637</v>
+      </c>
+      <c r="D47" t="n">
+        <v>426327.2413948675</v>
+      </c>
+      <c r="E47" t="n">
         <v>451964.2010382975</v>
       </c>
-      <c r="D47" t="n">
-        <v>351883.5650411844</v>
-      </c>
-      <c r="E47" t="n">
-        <v>330473.4800912173</v>
-      </c>
       <c r="F47" t="n">
-        <v>168777.3236873038</v>
+        <v>444296.0178748369</v>
       </c>
       <c r="G47" t="n">
         <v>521371.3823265028</v>
@@ -8544,16 +8544,16 @@
         <v>555663</v>
       </c>
       <c r="C48" t="n">
+        <v>421161.0114887953</v>
+      </c>
+      <c r="D48" t="n">
+        <v>467492.721398096</v>
+      </c>
+      <c r="E48" t="n">
         <v>522148.3358096154</v>
       </c>
-      <c r="D48" t="n">
-        <v>419278.0082986355</v>
-      </c>
-      <c r="E48" t="n">
-        <v>448841.967525491</v>
-      </c>
       <c r="F48" t="n">
-        <v>393364.3057892323</v>
+        <v>452309.3540576696</v>
       </c>
       <c r="G48" t="n">
         <v>570351.7261879757</v>
@@ -8567,16 +8567,16 @@
         <v>550212</v>
       </c>
       <c r="C49" t="n">
+        <v>417899.0817377567</v>
+      </c>
+      <c r="D49" t="n">
+        <v>476313.0576495324</v>
+      </c>
+      <c r="E49" t="n">
         <v>558120.8495424639</v>
       </c>
-      <c r="D49" t="n">
-        <v>379209.6347973347</v>
-      </c>
-      <c r="E49" t="n">
-        <v>449978.9909798065</v>
-      </c>
       <c r="F49" t="n">
-        <v>398952.7690998316</v>
+        <v>445528.6081877947</v>
       </c>
       <c r="G49" t="n">
         <v>590673.8237659035</v>
@@ -8590,16 +8590,16 @@
         <v>479833</v>
       </c>
       <c r="C50" t="n">
+        <v>434727.0973936319</v>
+      </c>
+      <c r="D50" t="n">
+        <v>449614.5112306263</v>
+      </c>
+      <c r="E50" t="n">
         <v>452065.3265494981</v>
       </c>
-      <c r="D50" t="n">
-        <v>346702.9426912069</v>
-      </c>
-      <c r="E50" t="n">
-        <v>370385.949017813</v>
-      </c>
       <c r="F50" t="n">
-        <v>297777.1518916488</v>
+        <v>456230.425599575</v>
       </c>
       <c r="G50" t="n">
         <v>522074.6783233112</v>
@@ -8613,16 +8613,16 @@
         <v>374481</v>
       </c>
       <c r="C51" t="n">
+        <v>428538.2008860111</v>
+      </c>
+      <c r="D51" t="n">
+        <v>408021.1578653075</v>
+      </c>
+      <c r="E51" t="n">
         <v>358487.500825932</v>
       </c>
-      <c r="D51" t="n">
-        <v>443728.8319251537</v>
-      </c>
-      <c r="E51" t="n">
-        <v>403494.7689879644</v>
-      </c>
       <c r="F51" t="n">
-        <v>404681.8380419016</v>
+        <v>432328.3870825768</v>
       </c>
       <c r="G51" t="n">
         <v>445400.0386780257</v>
@@ -8636,16 +8636,16 @@
         <v>434298</v>
       </c>
       <c r="C52" t="n">
+        <v>416550.2106884718</v>
+      </c>
+      <c r="D52" t="n">
+        <v>424125.9083668927</v>
+      </c>
+      <c r="E52" t="n">
         <v>374076.0917165835</v>
       </c>
-      <c r="D52" t="n">
-        <v>393851.649985671</v>
-      </c>
-      <c r="E52" t="n">
-        <v>384322.0034254009</v>
-      </c>
       <c r="F52" t="n">
-        <v>377910.8643273115</v>
+        <v>479713.6938790083</v>
       </c>
       <c r="G52" t="n">
         <v>462598.1778129459</v>
@@ -8659,16 +8659,16 @@
         <v>457767</v>
       </c>
       <c r="C53" t="n">
+        <v>382315.2420363426</v>
+      </c>
+      <c r="D53" t="n">
+        <v>382716.0621760033</v>
+      </c>
+      <c r="E53" t="n">
         <v>386457.4794458256</v>
       </c>
-      <c r="D53" t="n">
-        <v>404220.9707442522</v>
-      </c>
-      <c r="E53" t="n">
-        <v>412829.7574069605</v>
-      </c>
       <c r="F53" t="n">
-        <v>441404.1118518114</v>
+        <v>369038.1532952785</v>
       </c>
       <c r="G53" t="n">
         <v>485824.9798895555</v>
@@ -8682,16 +8682,16 @@
         <v>542765</v>
       </c>
       <c r="C54" t="n">
+        <v>446748.6249963045</v>
+      </c>
+      <c r="D54" t="n">
+        <v>449917.5695094463</v>
+      </c>
+      <c r="E54" t="n">
         <v>472413.8487118969</v>
       </c>
-      <c r="D54" t="n">
-        <v>389916.5299705267</v>
-      </c>
-      <c r="E54" t="n">
-        <v>430500.2277859854</v>
-      </c>
       <c r="F54" t="n">
-        <v>417870.6462738514</v>
+        <v>420321.0530320406</v>
       </c>
       <c r="G54" t="n">
         <v>551108.9025233381</v>
@@ -8705,16 +8705,16 @@
         <v>458189</v>
       </c>
       <c r="C55" t="n">
+        <v>391399.9375174046</v>
+      </c>
+      <c r="D55" t="n">
+        <v>402716.7237016011</v>
+      </c>
+      <c r="E55" t="n">
         <v>407035.9494534837</v>
       </c>
-      <c r="D55" t="n">
-        <v>435172.997385025</v>
-      </c>
-      <c r="E55" t="n">
-        <v>421772.0384525462</v>
-      </c>
       <c r="F55" t="n">
-        <v>415132.064465642</v>
+        <v>400066.805773735</v>
       </c>
       <c r="G55" t="n">
         <v>509573.134471083</v>
@@ -8728,16 +8728,16 @@
         <v>395074</v>
       </c>
       <c r="C56" t="n">
+        <v>348108.2615215182</v>
+      </c>
+      <c r="D56" t="n">
+        <v>359953.8865873875</v>
+      </c>
+      <c r="E56" t="n">
         <v>354282.9041416887</v>
       </c>
-      <c r="D56" t="n">
-        <v>411395.605820775</v>
-      </c>
-      <c r="E56" t="n">
-        <v>397398.8791904817</v>
-      </c>
       <c r="F56" t="n">
-        <v>419183.9246336222</v>
+        <v>366650.2030024529</v>
       </c>
       <c r="G56" t="n">
         <v>481189.2591407957</v>
@@ -8751,16 +8751,16 @@
         <v>222108</v>
       </c>
       <c r="C57" t="n">
+        <v>439840.4031351805</v>
+      </c>
+      <c r="D57" t="n">
+        <v>445790.5808653239</v>
+      </c>
+      <c r="E57" t="n">
         <v>436115.8268110618</v>
       </c>
-      <c r="D57" t="n">
-        <v>394010.7773563862</v>
-      </c>
-      <c r="E57" t="n">
-        <v>441255.3762279021</v>
-      </c>
       <c r="F57" t="n">
-        <v>484251.78597188</v>
+        <v>452165.8226684332</v>
       </c>
       <c r="G57" t="n">
         <v>546326.7454719767</v>
@@ -8774,16 +8774,16 @@
         <v>12647</v>
       </c>
       <c r="C58" t="n">
+        <v>373632.5601801872</v>
+      </c>
+      <c r="D58" t="n">
+        <v>413498.513509094</v>
+      </c>
+      <c r="E58" t="n">
         <v>391680.3879996235</v>
       </c>
-      <c r="D58" t="n">
-        <v>406711.9028744698</v>
-      </c>
-      <c r="E58" t="n">
-        <v>411169.3643322396</v>
-      </c>
       <c r="F58" t="n">
-        <v>425874.4072494507</v>
+        <v>469525.0205276012</v>
       </c>
       <c r="G58" t="n">
         <v>514120.7105215341</v>
@@ -8797,16 +8797,16 @@
         <v>15108</v>
       </c>
       <c r="C59" t="n">
+        <v>432421.576094389</v>
+      </c>
+      <c r="D59" t="n">
+        <v>455326.6575302687</v>
+      </c>
+      <c r="E59" t="n">
         <v>451949.3683868933</v>
       </c>
-      <c r="D59" t="n">
-        <v>438596.5933874846</v>
-      </c>
-      <c r="E59" t="n">
-        <v>438131.7163315104</v>
-      </c>
       <c r="F59" t="n">
-        <v>414757.0838752985</v>
+        <v>475911.6353926659</v>
       </c>
       <c r="G59" t="n">
         <v>535700.9909292457</v>
@@ -8820,16 +8820,16 @@
         <v>30337</v>
       </c>
       <c r="C60" t="n">
+        <v>416236.7919102907</v>
+      </c>
+      <c r="D60" t="n">
+        <v>346368.5488066521</v>
+      </c>
+      <c r="E60" t="n">
         <v>522082.1716682678</v>
       </c>
-      <c r="D60" t="n">
-        <v>413414.6930167675</v>
-      </c>
-      <c r="E60" t="n">
-        <v>434290.6124783175</v>
-      </c>
       <c r="F60" t="n">
-        <v>352541.3769421577</v>
+        <v>66091.21829366684</v>
       </c>
       <c r="G60" t="n">
         <v>587608.7441048066</v>
@@ -8843,16 +8843,16 @@
         <v>57641</v>
       </c>
       <c r="C61" t="n">
+        <v>475538.4924683571</v>
+      </c>
+      <c r="D61" t="n">
+        <v>496053.8010297024</v>
+      </c>
+      <c r="E61" t="n">
         <v>558043.7612040136</v>
       </c>
-      <c r="D61" t="n">
-        <v>429386.5980986357</v>
-      </c>
-      <c r="E61" t="n">
-        <v>474998.3495394894</v>
-      </c>
       <c r="F61" t="n">
-        <v>424843.5975030661</v>
+        <v>444213.0327454805</v>
       </c>
       <c r="G61" t="n">
         <v>606984.7353138692</v>
@@ -8866,16 +8866,16 @@
         <v>67932</v>
       </c>
       <c r="C62" t="n">
+        <v>263324.3593648672</v>
+      </c>
+      <c r="D62" t="n">
+        <v>405151.5398701103</v>
+      </c>
+      <c r="E62" t="n">
         <v>452015.1940095781</v>
       </c>
-      <c r="D62" t="n">
-        <v>423774.220949769</v>
-      </c>
-      <c r="E62" t="n">
-        <v>443805.0279422682</v>
-      </c>
       <c r="F62" t="n">
-        <v>445437.6195392609</v>
+        <v>498154.6483573914</v>
       </c>
       <c r="G62" t="n">
         <v>554884.9950771797</v>
@@ -8889,16 +8889,16 @@
         <v>83870</v>
       </c>
       <c r="C63" t="n">
+        <v>480202.2228864431</v>
+      </c>
+      <c r="D63" t="n">
+        <v>421779.7177379142</v>
+      </c>
+      <c r="E63" t="n">
         <v>358482.5491476187</v>
       </c>
-      <c r="D63" t="n">
-        <v>351914.285497725</v>
-      </c>
-      <c r="E63" t="n">
-        <v>391265.0750452222</v>
-      </c>
       <c r="F63" t="n">
-        <v>457717.3392198086</v>
+        <v>418564.1475836039</v>
       </c>
       <c r="G63" t="n">
         <v>458499.8693487801</v>
@@ -8912,16 +8912,16 @@
         <v>114801</v>
       </c>
       <c r="C64" t="n">
+        <v>439426.6139397621</v>
+      </c>
+      <c r="D64" t="n">
+        <v>426282.8399627387</v>
+      </c>
+      <c r="E64" t="n">
         <v>374110.120253586</v>
       </c>
-      <c r="D64" t="n">
-        <v>423415.5859152079</v>
-      </c>
-      <c r="E64" t="n">
-        <v>393604.6676075262</v>
-      </c>
       <c r="F64" t="n">
-        <v>374645.2592442036</v>
+        <v>458914.2884836197</v>
       </c>
       <c r="G64" t="n">
         <v>488402.0619910226</v>
@@ -8935,16 +8935,16 @@
         <v>137031</v>
       </c>
       <c r="C65" t="n">
+        <v>415705.1019308567</v>
+      </c>
+      <c r="D65" t="n">
+        <v>435737.6651234478</v>
+      </c>
+      <c r="E65" t="n">
         <v>386507.3397150005</v>
       </c>
-      <c r="D65" t="n">
-        <v>403507.0858494043</v>
-      </c>
-      <c r="E65" t="n">
-        <v>397984.0792237307</v>
-      </c>
       <c r="F65" t="n">
-        <v>394121.3758358955</v>
+        <v>501011.1067698002</v>
       </c>
       <c r="G65" t="n">
         <v>505876.730319127</v>
@@ -8958,16 +8958,16 @@
         <v>213203</v>
       </c>
       <c r="C66" t="n">
+        <v>537444.4317755699</v>
+      </c>
+      <c r="D66" t="n">
+        <v>484216.6200219933</v>
+      </c>
+      <c r="E66" t="n">
         <v>472453.3909673161</v>
       </c>
-      <c r="D66" t="n">
-        <v>449744.6493080854</v>
-      </c>
-      <c r="E66" t="n">
-        <v>445241.3329946991</v>
-      </c>
       <c r="F66" t="n">
-        <v>402256.2639549971</v>
+        <v>429691.7473796606</v>
       </c>
       <c r="G66" t="n">
         <v>564925.2970471132</v>
@@ -8981,16 +8981,16 @@
         <v>121733</v>
       </c>
       <c r="C67" t="n">
+        <v>403817.1919927597</v>
+      </c>
+      <c r="D67" t="n">
+        <v>416098.8661895001</v>
+      </c>
+      <c r="E67" t="n">
         <v>407048.7395718622</v>
       </c>
-      <c r="D67" t="n">
-        <v>433330.0601503849</v>
-      </c>
-      <c r="E67" t="n">
-        <v>418266.3782003865</v>
-      </c>
       <c r="F67" t="n">
-        <v>403758.4350392818</v>
+        <v>426969.1967896223</v>
       </c>
       <c r="G67" t="n">
         <v>534886.9308876521</v>
@@ -9004,16 +9004,16 @@
         <v>89788</v>
       </c>
       <c r="C68" t="n">
+        <v>459893.1116250753</v>
+      </c>
+      <c r="D68" t="n">
+        <v>421854.9266156175</v>
+      </c>
+      <c r="E68" t="n">
         <v>354268.0325273531</v>
       </c>
-      <c r="D68" t="n">
-        <v>409850.2979443073</v>
-      </c>
-      <c r="E68" t="n">
-        <v>389968.5394589286</v>
-      </c>
       <c r="F68" t="n">
-        <v>396058.3241961002</v>
+        <v>441398.2361564636</v>
       </c>
       <c r="G68" t="n">
         <v>498783.367718015</v>
@@ -9027,16 +9027,16 @@
         <v>177155</v>
       </c>
       <c r="C69" t="n">
+        <v>421533.4290186167</v>
+      </c>
+      <c r="D69" t="n">
+        <v>426141.6272333389</v>
+      </c>
+      <c r="E69" t="n">
         <v>436085.409766098</v>
       </c>
-      <c r="D69" t="n">
-        <v>424169.1740683317</v>
-      </c>
-      <c r="E69" t="n">
-        <v>401677.5456241356</v>
-      </c>
       <c r="F69" t="n">
-        <v>329289.4974142909</v>
+        <v>407111.8370351791</v>
       </c>
       <c r="G69" t="n">
         <v>565703.6925908024</v>
@@ -9050,16 +9050,16 @@
         <v>226409</v>
       </c>
       <c r="C70" t="n">
+        <v>415016.2189660072</v>
+      </c>
+      <c r="D70" t="n">
+        <v>424507.5606265413</v>
+      </c>
+      <c r="E70" t="n">
         <v>391651.4859789911</v>
       </c>
-      <c r="D70" t="n">
-        <v>383706.6695622206</v>
-      </c>
-      <c r="E70" t="n">
-        <v>403084.2221411393</v>
-      </c>
       <c r="F70" t="n">
-        <v>422234.9580273628</v>
+        <v>457725.5603573322</v>
       </c>
       <c r="G70" t="n">
         <v>532240.3474839255</v>
@@ -9073,16 +9073,16 @@
         <v>299382</v>
       </c>
       <c r="C71" t="n">
+        <v>361804.9063441753</v>
+      </c>
+      <c r="D71" t="n">
+        <v>432127.6304189381</v>
+      </c>
+      <c r="E71" t="n">
         <v>451935.1274305064</v>
       </c>
-      <c r="D71" t="n">
-        <v>453765.2449736595</v>
-      </c>
-      <c r="E71" t="n">
-        <v>458743.2658378136</v>
-      </c>
       <c r="F71" t="n">
-        <v>461477.7600625753</v>
+        <v>476555.7373378277</v>
       </c>
       <c r="G71" t="n">
         <v>558312.0639405902</v>
@@ -9096,16 +9096,16 @@
         <v>371306</v>
       </c>
       <c r="C72" t="n">
+        <v>387785.8529225588</v>
+      </c>
+      <c r="D72" t="n">
+        <v>465817.8754481332</v>
+      </c>
+      <c r="E72" t="n">
         <v>522086.4508743783</v>
       </c>
-      <c r="D72" t="n">
-        <v>391200.6474719048</v>
-      </c>
-      <c r="E72" t="n">
-        <v>446895.5002136971</v>
-      </c>
       <c r="F72" t="n">
-        <v>412004.042536974</v>
+        <v>479753.5180363655</v>
       </c>
       <c r="G72" t="n">
         <v>609327.7380517054</v>
@@ -9119,16 +9119,16 @@
         <v>385452</v>
       </c>
       <c r="C73" t="n">
+        <v>436604.4666866064</v>
+      </c>
+      <c r="D73" t="n">
+        <v>502330.0792831311</v>
+      </c>
+      <c r="E73" t="n">
         <v>558061.0869353145</v>
       </c>
-      <c r="D73" t="n">
-        <v>399938.0240724087</v>
-      </c>
-      <c r="E73" t="n">
-        <v>480701.3540554736</v>
-      </c>
       <c r="F73" t="n">
-        <v>470087.0803562403</v>
+        <v>504967.2632250786</v>
       </c>
       <c r="G73" t="n">
         <v>629094.2551639751</v>
@@ -9142,16 +9142,16 @@
         <v>305847</v>
       </c>
       <c r="C74" t="n">
+        <v>424793.1825861931</v>
+      </c>
+      <c r="D74" t="n">
+        <v>460020.8877562616</v>
+      </c>
+      <c r="E74" t="n">
         <v>452035.0597524696</v>
       </c>
-      <c r="D74" t="n">
-        <v>482118.0139074326</v>
-      </c>
-      <c r="E74" t="n">
-        <v>468871.2049848957</v>
-      </c>
       <c r="F74" t="n">
-        <v>463154.1467229128</v>
+        <v>495752.383613348</v>
       </c>
       <c r="G74" t="n">
         <v>571405.1175177998</v>
@@ -9165,16 +9165,16 @@
         <v>252301</v>
       </c>
       <c r="C75" t="n">
+        <v>400459.5343492031</v>
+      </c>
+      <c r="D75" t="n">
+        <v>415177.3448328015</v>
+      </c>
+      <c r="E75" t="n">
         <v>358495.2450820481</v>
       </c>
-      <c r="D75" t="n">
-        <v>426900.1875940561</v>
-      </c>
-      <c r="E75" t="n">
-        <v>414383.7297962908</v>
-      </c>
       <c r="F75" t="n">
-        <v>452080.2261189222</v>
+        <v>482599.917645216</v>
       </c>
       <c r="G75" t="n">
         <v>481524.8214715531</v>
@@ -9207,22 +9207,22 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>lstm_reg</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>weighted_ensemble</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>arima</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>lstm</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>weighted_ensemble</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>lstm_reg</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -9236,16 +9236,16 @@
         <v>44470</v>
       </c>
       <c r="B2" t="n">
+        <v>329060.2740166187</v>
+      </c>
+      <c r="C2" t="n">
+        <v>312961.9652843496</v>
+      </c>
+      <c r="D2" t="n">
         <v>301421.5766542687</v>
       </c>
-      <c r="C2" t="n">
-        <v>289006.9200091362</v>
-      </c>
-      <c r="D2" t="n">
-        <v>304252.4167242306</v>
-      </c>
       <c r="E2" t="n">
-        <v>328512.7013269663</v>
+        <v>314556.2963306904</v>
       </c>
       <c r="F2" t="n">
         <v>237909.6658678285</v>
@@ -9256,16 +9256,16 @@
         <v>44501</v>
       </c>
       <c r="B3" t="n">
+        <v>332397.0276070833</v>
+      </c>
+      <c r="C3" t="n">
+        <v>325999.9752572625</v>
+      </c>
+      <c r="D3" t="n">
         <v>330448.6784802167</v>
       </c>
-      <c r="C3" t="n">
-        <v>329478.9441121817</v>
-      </c>
-      <c r="D3" t="n">
-        <v>326432.8143424118</v>
-      </c>
       <c r="E3" t="n">
-        <v>326025.862184763</v>
+        <v>321684.1226136684</v>
       </c>
       <c r="F3" t="n">
         <v>253360.9167199809</v>
@@ -9276,16 +9276,16 @@
         <v>44531</v>
       </c>
       <c r="B4" t="n">
+        <v>337144.7642658949</v>
+      </c>
+      <c r="C4" t="n">
+        <v>353537.2358363186</v>
+      </c>
+      <c r="D4" t="n">
         <v>419332.212600098</v>
       </c>
-      <c r="C4" t="n">
-        <v>307518.9915323257</v>
-      </c>
-      <c r="D4" t="n">
-        <v>353266.8106867947</v>
-      </c>
       <c r="E4" t="n">
-        <v>335572.3237859011</v>
+        <v>307721.0684028864</v>
       </c>
       <c r="F4" t="n">
         <v>319890.449488445</v>
@@ -9296,16 +9296,16 @@
         <v>44562</v>
       </c>
       <c r="B5" t="n">
+        <v>331548.0677490234</v>
+      </c>
+      <c r="C5" t="n">
+        <v>327135.5392379318</v>
+      </c>
+      <c r="D5" t="n">
         <v>340470.8198964694</v>
       </c>
-      <c r="C5" t="n">
-        <v>299890.7953993082</v>
-      </c>
-      <c r="D5" t="n">
-        <v>321051.3473626237</v>
-      </c>
       <c r="E5" t="n">
-        <v>327449.8803468943</v>
+        <v>314450.1393169165</v>
       </c>
       <c r="F5" t="n">
         <v>269269.0763516328</v>
@@ -9316,16 +9316,16 @@
         <v>44593</v>
       </c>
       <c r="B6" t="n">
+        <v>332593.7719392776</v>
+      </c>
+      <c r="C6" t="n">
+        <v>300552.6468816173</v>
+      </c>
+      <c r="D6" t="n">
         <v>288946.3864360521</v>
       </c>
-      <c r="C6" t="n">
-        <v>292786.1426163912</v>
-      </c>
-      <c r="D6" t="n">
-        <v>304502.2999931627</v>
-      </c>
       <c r="E6" t="n">
-        <v>339051.5417346954</v>
+        <v>284507.1134674549</v>
       </c>
       <c r="F6" t="n">
         <v>227426.2772998255</v>
@@ -9336,16 +9336,16 @@
         <v>44621</v>
       </c>
       <c r="B7" t="n">
+        <v>357037.9632259607</v>
+      </c>
+      <c r="C7" t="n">
+        <v>321372.8507977827</v>
+      </c>
+      <c r="D7" t="n">
         <v>293852.3750744588</v>
       </c>
-      <c r="C7" t="n">
-        <v>317971.326317668</v>
-      </c>
-      <c r="D7" t="n">
-        <v>314127.3986958273</v>
-      </c>
       <c r="E7" t="n">
-        <v>333728.2201013565</v>
+        <v>314269.8863533735</v>
       </c>
       <c r="F7" t="n">
         <v>281555.144882616</v>
@@ -9356,16 +9356,16 @@
         <v>44652</v>
       </c>
       <c r="B8" t="n">
+        <v>354906.6924753189</v>
+      </c>
+      <c r="C8" t="n">
+        <v>305109.210918024</v>
+      </c>
+      <c r="D8" t="n">
         <v>219030.1178269128</v>
       </c>
-      <c r="C8" t="n">
-        <v>319258.8709979057</v>
-      </c>
-      <c r="D8" t="n">
-        <v>287378.6314887158</v>
-      </c>
       <c r="E8" t="n">
-        <v>328810.9943064451</v>
+        <v>344902.1592451334</v>
       </c>
       <c r="F8" t="n">
         <v>239001.292239888</v>
@@ -9376,16 +9376,16 @@
         <v>44682</v>
       </c>
       <c r="B9" t="n">
+        <v>346421.5705935955</v>
+      </c>
+      <c r="C9" t="n">
+        <v>301581.7734162269</v>
+      </c>
+      <c r="D9" t="n">
         <v>259453.2199462371</v>
       </c>
-      <c r="C9" t="n">
-        <v>305393.6129074097</v>
-      </c>
-      <c r="D9" t="n">
-        <v>296023.4316845852</v>
-      </c>
       <c r="E9" t="n">
-        <v>325840.4412673712</v>
+        <v>298400.6800949574</v>
       </c>
       <c r="F9" t="n">
         <v>270931.6339870065</v>
@@ -9396,16 +9396,16 @@
         <v>44713</v>
       </c>
       <c r="B10" t="n">
+        <v>338314.9272682667</v>
+      </c>
+      <c r="C10" t="n">
+        <v>319636.8995144652</v>
+      </c>
+      <c r="D10" t="n">
         <v>314243.1274654085</v>
       </c>
-      <c r="C10" t="n">
-        <v>315654.6017327309</v>
-      </c>
-      <c r="D10" t="n">
-        <v>322782.6650844031</v>
-      </c>
       <c r="E10" t="n">
-        <v>338580.5008456707</v>
+        <v>304328.356076479</v>
       </c>
       <c r="F10" t="n">
         <v>322606.7886248189</v>
@@ -9416,16 +9416,16 @@
         <v>44743</v>
       </c>
       <c r="B11" t="n">
+        <v>346494.1852827072</v>
+      </c>
+      <c r="C11" t="n">
+        <v>336076.8145165491</v>
+      </c>
+      <c r="D11" t="n">
         <v>330452.4641152457</v>
       </c>
-      <c r="C11" t="n">
-        <v>312856.8624370098</v>
-      </c>
-      <c r="D11" t="n">
-        <v>330474.2971058153</v>
-      </c>
       <c r="E11" t="n">
-        <v>347562.635053277</v>
+        <v>330251.3721696138</v>
       </c>
       <c r="F11" t="n">
         <v>337319.5932923692</v>
@@ -9436,16 +9436,16 @@
         <v>44774</v>
       </c>
       <c r="B12" t="n">
+        <v>350992.0497270823</v>
+      </c>
+      <c r="C12" t="n">
+        <v>315520.6682949855</v>
+      </c>
+      <c r="D12" t="n">
         <v>276961.4126227596</v>
       </c>
-      <c r="C12" t="n">
-        <v>333076.1362431049</v>
-      </c>
-      <c r="D12" t="n">
-        <v>312893.0463500477</v>
-      </c>
       <c r="E12" t="n">
-        <v>333171.5952632427</v>
+        <v>320834.0435808897</v>
       </c>
       <c r="F12" t="n">
         <v>266376.5056685093</v>
@@ -9456,16 +9456,16 @@
         <v>44805</v>
       </c>
       <c r="B13" t="n">
+        <v>322691.5115282536</v>
+      </c>
+      <c r="C13" t="n">
+        <v>294747.3163008558</v>
+      </c>
+      <c r="D13" t="n">
         <v>234784.6115813034</v>
       </c>
-      <c r="C13" t="n">
-        <v>320694.2125748396</v>
-      </c>
-      <c r="D13" t="n">
-        <v>291072.1729847607</v>
-      </c>
       <c r="E13" t="n">
-        <v>327965.8857260942</v>
+        <v>336320.3933347464</v>
       </c>
       <c r="F13" t="n">
         <v>184179.0482621371</v>
@@ -9476,16 +9476,16 @@
         <v>44835</v>
       </c>
       <c r="B14" t="n">
+        <v>349378.8910374641</v>
+      </c>
+      <c r="C14" t="n">
+        <v>316647.037843143</v>
+      </c>
+      <c r="D14" t="n">
         <v>278721.0853976347</v>
       </c>
-      <c r="C14" t="n">
-        <v>308949.0334877968</v>
-      </c>
-      <c r="D14" t="n">
-        <v>307546.2232109497</v>
-      </c>
       <c r="E14" t="n">
-        <v>344368.0824859142</v>
+        <v>330253.6105190516</v>
       </c>
       <c r="F14" t="n">
         <v>208124.9386780533</v>
@@ -9496,16 +9496,16 @@
         <v>44866</v>
       </c>
       <c r="B15" t="n">
+        <v>346946.8914564848</v>
+      </c>
+      <c r="C15" t="n">
+        <v>327677.3469605164</v>
+      </c>
+      <c r="D15" t="n">
         <v>302799.1838191341</v>
       </c>
-      <c r="C15" t="n">
-        <v>303861.6602187157</v>
-      </c>
-      <c r="D15" t="n">
-        <v>313596.9516913206</v>
-      </c>
       <c r="E15" t="n">
-        <v>342377.6631653309</v>
+        <v>342131.3459764719</v>
       </c>
       <c r="F15" t="n">
         <v>225350.7003419966</v>
@@ -9516,16 +9516,16 @@
         <v>44896</v>
       </c>
       <c r="B16" t="n">
+        <v>345911.3585894108</v>
+      </c>
+      <c r="C16" t="n">
+        <v>349947.1434910939</v>
+      </c>
+      <c r="D16" t="n">
         <v>386671.2633577595</v>
       </c>
-      <c r="C16" t="n">
-        <v>311915.9985843897</v>
-      </c>
-      <c r="D16" t="n">
-        <v>348016.0351906199</v>
-      </c>
       <c r="E16" t="n">
-        <v>350322.124907136</v>
+        <v>322598.8175280094</v>
       </c>
       <c r="F16" t="n">
         <v>292693.0546175304</v>
@@ -9536,16 +9536,16 @@
         <v>44927</v>
       </c>
       <c r="B17" t="n">
+        <v>346090.2619599104</v>
+      </c>
+      <c r="C17" t="n">
+        <v>321963.9456281844</v>
+      </c>
+      <c r="D17" t="n">
         <v>304381.7090716425</v>
       </c>
-      <c r="C17" t="n">
-        <v>313459.8342752457</v>
-      </c>
-      <c r="D17" t="n">
-        <v>322420.2265463475</v>
-      </c>
       <c r="E17" t="n">
-        <v>357090.4656870365</v>
+        <v>321480.5644824505</v>
       </c>
       <c r="F17" t="n">
         <v>241180.9959155005</v>
@@ -9556,16 +9556,16 @@
         <v>44958</v>
       </c>
       <c r="B18" t="n">
+        <v>345861.5882313251</v>
+      </c>
+      <c r="C18" t="n">
+        <v>309256.9832573687</v>
+      </c>
+      <c r="D18" t="n">
         <v>256148.0829751698</v>
       </c>
-      <c r="C18" t="n">
-        <v>314867.986489892</v>
-      </c>
-      <c r="D18" t="n">
-        <v>301973.4414778234</v>
-      </c>
       <c r="E18" t="n">
-        <v>344829.3799715042</v>
+        <v>334378.4276961088</v>
       </c>
       <c r="F18" t="n">
         <v>198074.6162606399</v>
@@ -9576,16 +9576,16 @@
         <v>44986</v>
       </c>
       <c r="B19" t="n">
+        <v>361887.1826982498</v>
+      </c>
+      <c r="C19" t="n">
+        <v>320084.2752425017</v>
+      </c>
+      <c r="D19" t="n">
         <v>268057.1055993116</v>
       </c>
-      <c r="C19" t="n">
-        <v>323878.2975668907</v>
-      </c>
-      <c r="D19" t="n">
-        <v>307597.2284159689</v>
-      </c>
       <c r="E19" t="n">
-        <v>336532.8390299082</v>
+        <v>334369.8363842964</v>
       </c>
       <c r="F19" t="n">
         <v>249157.5171221843</v>
@@ -9596,16 +9596,16 @@
         <v>45017</v>
       </c>
       <c r="B20" t="n">
+        <v>346553.4686259031</v>
+      </c>
+      <c r="C20" t="n">
+        <v>292987.7119450206</v>
+      </c>
+      <c r="D20" t="n">
         <v>212497.6299248364</v>
       </c>
-      <c r="C20" t="n">
-        <v>313564.1150255203</v>
-      </c>
-      <c r="D20" t="n">
-        <v>292588.4900794987</v>
-      </c>
       <c r="E20" t="n">
-        <v>359930.6677882671</v>
+        <v>324576.9588435888</v>
       </c>
       <c r="F20" t="n">
         <v>210426.4297828418</v>
@@ -9616,16 +9616,16 @@
         <v>45047</v>
       </c>
       <c r="B21" t="n">
+        <v>346624.766638875</v>
+      </c>
+      <c r="C21" t="n">
+        <v>305628.7905972335</v>
+      </c>
+      <c r="D21" t="n">
         <v>257740.1577890346</v>
       </c>
-      <c r="C21" t="n">
-        <v>313756.6789109707</v>
-      </c>
-      <c r="D21" t="n">
-        <v>308214.2877973611</v>
-      </c>
       <c r="E21" t="n">
-        <v>359572.400210619</v>
+        <v>315718.7238607407</v>
       </c>
       <c r="F21" t="n">
         <v>243274.2587527445</v>
@@ -9636,16 +9636,16 @@
         <v>45078</v>
       </c>
       <c r="B22" t="n">
+        <v>340117.4569036961</v>
+      </c>
+      <c r="C22" t="n">
+        <v>326474.3136146843</v>
+      </c>
+      <c r="D22" t="n">
         <v>313759.034910945</v>
       </c>
-      <c r="C22" t="n">
-        <v>317590.4777442217</v>
-      </c>
-      <c r="D22" t="n">
-        <v>328557.8670371364</v>
-      </c>
       <c r="E22" t="n">
-        <v>357591.6255427599</v>
+        <v>327608.539821744</v>
       </c>
       <c r="F22" t="n">
         <v>295048.2070439143</v>
@@ -9656,16 +9656,16 @@
         <v>45108</v>
       </c>
       <c r="B23" t="n">
+        <v>350105.0050116777</v>
+      </c>
+      <c r="C23" t="n">
+        <v>336809.7276230904</v>
+      </c>
+      <c r="D23" t="n">
         <v>329378.3702304029</v>
       </c>
-      <c r="C23" t="n">
-        <v>321564.2063342333</v>
-      </c>
-      <c r="D23" t="n">
-        <v>330922.3092098532</v>
-      </c>
       <c r="E23" t="n">
-        <v>343938.5827291012</v>
+        <v>332619.3812901974</v>
       </c>
       <c r="F23" t="n">
         <v>308499.171536146</v>
@@ -9676,16 +9676,16 @@
         <v>45139</v>
       </c>
       <c r="B24" t="n">
+        <v>357612.3631919622</v>
+      </c>
+      <c r="C24" t="n">
+        <v>318491.1649818686</v>
+      </c>
+      <c r="D24" t="n">
         <v>273766.4568796919</v>
       </c>
-      <c r="C24" t="n">
-        <v>306798.7367669344</v>
-      </c>
-      <c r="D24" t="n">
-        <v>307189.2074255299</v>
-      </c>
       <c r="E24" t="n">
-        <v>347762.407740593</v>
+        <v>329311.6274917126</v>
       </c>
       <c r="F24" t="n">
         <v>237095.5833340205</v>
@@ -9696,16 +9696,16 @@
         <v>45170</v>
       </c>
       <c r="B25" t="n">
+        <v>336255.7774531841</v>
+      </c>
+      <c r="C25" t="n">
+        <v>299485.2214094835</v>
+      </c>
+      <c r="D25" t="n">
         <v>231832.9991593398</v>
       </c>
-      <c r="C25" t="n">
-        <v>316468.6367561817</v>
-      </c>
-      <c r="D25" t="n">
-        <v>288551.0160260787</v>
-      </c>
       <c r="E25" t="n">
-        <v>330220.2327789068</v>
+        <v>342799.0982807875</v>
       </c>
       <c r="F25" t="n">
         <v>153016.9563506184</v>
@@ -9716,16 +9716,16 @@
         <v>45200</v>
       </c>
       <c r="B26" t="n">
+        <v>355386.8184297085</v>
+      </c>
+      <c r="C26" t="n">
+        <v>318159.8813842814</v>
+      </c>
+      <c r="D26" t="n">
         <v>276233.3095742022</v>
       </c>
-      <c r="C26" t="n">
-        <v>304119.3008223772</v>
-      </c>
-      <c r="D26" t="n">
-        <v>309703.3068510257</v>
-      </c>
       <c r="E26" t="n">
-        <v>361158.2378703356</v>
+        <v>334032.2735389471</v>
       </c>
       <c r="F26" t="n">
         <v>178408.4395346413</v>
@@ -9736,16 +9736,16 @@
         <v>45231</v>
       </c>
       <c r="B27" t="n">
+        <v>366201.5354056358</v>
+      </c>
+      <c r="C27" t="n">
+        <v>325810.9689181451</v>
+      </c>
+      <c r="D27" t="n">
         <v>301167.1510240989</v>
       </c>
-      <c r="C27" t="n">
-        <v>311060.0603427887</v>
-      </c>
-      <c r="D27" t="n">
-        <v>315547.5424856062</v>
-      </c>
       <c r="E27" t="n">
-        <v>345419.2508821487</v>
+        <v>319426.9447071552</v>
       </c>
       <c r="F27" t="n">
         <v>197402.8110617171</v>
@@ -9756,16 +9756,16 @@
         <v>45261</v>
       </c>
       <c r="B28" t="n">
+        <v>354714.490675807</v>
+      </c>
+      <c r="C28" t="n">
+        <v>356915.103548176</v>
+      </c>
+      <c r="D28" t="n">
         <v>385408.5213084235</v>
       </c>
-      <c r="C28" t="n">
-        <v>317634.652228713</v>
-      </c>
-      <c r="D28" t="n">
-        <v>348275.9901471192</v>
-      </c>
       <c r="E28" t="n">
-        <v>349160.4544658661</v>
+        <v>339370.9344493151</v>
       </c>
       <c r="F28" t="n">
         <v>265461.0283505826</v>
@@ -9776,16 +9776,16 @@
         <v>45292</v>
       </c>
       <c r="B29" t="n">
+        <v>318285.0902417898</v>
+      </c>
+      <c r="C29" t="n">
+        <v>315729.4847963938</v>
+      </c>
+      <c r="D29" t="n">
         <v>303027.2017124582</v>
       </c>
-      <c r="C29" t="n">
-        <v>325563.6759427786</v>
-      </c>
-      <c r="D29" t="n">
-        <v>325062.5818446553</v>
-      </c>
       <c r="E29" t="n">
-        <v>357091.4202772379</v>
+        <v>336148.7645999193</v>
       </c>
       <c r="F29" t="n">
         <v>213037.1540754306</v>
@@ -9796,16 +9796,16 @@
         <v>45323</v>
       </c>
       <c r="B30" t="n">
+        <v>355426.9770519733</v>
+      </c>
+      <c r="C30" t="n">
+        <v>311839.4119814387</v>
+      </c>
+      <c r="D30" t="n">
         <v>254863.1437533888</v>
       </c>
-      <c r="C30" t="n">
-        <v>325487.7695633173</v>
-      </c>
-      <c r="D30" t="n">
-        <v>303624.5628642914</v>
-      </c>
       <c r="E30" t="n">
-        <v>343287.519294858</v>
+        <v>336432.8703939915</v>
       </c>
       <c r="F30" t="n">
         <v>168672.3114747705</v>
@@ -9816,16 +9816,16 @@
         <v>45352</v>
       </c>
       <c r="B31" t="n">
+        <v>346262.4502820969</v>
+      </c>
+      <c r="C31" t="n">
+        <v>312334.196696989</v>
+      </c>
+      <c r="D31" t="n">
         <v>267098.6845002077</v>
       </c>
-      <c r="C31" t="n">
-        <v>330496.8993527889</v>
-      </c>
-      <c r="D31" t="n">
-        <v>315777.098372372</v>
-      </c>
       <c r="E31" t="n">
-        <v>357994.9234443903</v>
+        <v>329450.8330765963</v>
       </c>
       <c r="F31" t="n">
         <v>230241.6692261397</v>
@@ -9836,16 +9836,16 @@
         <v>45383</v>
       </c>
       <c r="B32" t="n">
+        <v>351644.2981698513</v>
+      </c>
+      <c r="C32" t="n">
+        <v>297803.2964235063</v>
+      </c>
+      <c r="D32" t="n">
         <v>211763.4980051675</v>
       </c>
-      <c r="C32" t="n">
-        <v>327181.8380017281</v>
-      </c>
-      <c r="D32" t="n">
-        <v>294058.1182856153</v>
-      </c>
       <c r="E32" t="n">
-        <v>354323.701197505</v>
+        <v>338246.1967737675</v>
       </c>
       <c r="F32" t="n">
         <v>180307.0920146088</v>
@@ -9856,16 +9856,16 @@
         <v>45413</v>
       </c>
       <c r="B33" t="n">
+        <v>346960.3215531111</v>
+      </c>
+      <c r="C33" t="n">
+        <v>307031.273222385</v>
+      </c>
+      <c r="D33" t="n">
         <v>257026.9260475409</v>
       </c>
-      <c r="C33" t="n">
-        <v>312435.3285708427</v>
-      </c>
-      <c r="D33" t="n">
-        <v>306719.6039355659</v>
-      </c>
       <c r="E33" t="n">
-        <v>360011.1825342178</v>
+        <v>323894.7231017351</v>
       </c>
       <c r="F33" t="n">
         <v>210223.2292145643</v>
@@ -9876,16 +9876,16 @@
         <v>45444</v>
       </c>
       <c r="B34" t="n">
+        <v>334047.6457328796</v>
+      </c>
+      <c r="C34" t="n">
+        <v>322576.2594259336</v>
+      </c>
+      <c r="D34" t="n">
         <v>313075.6465014099</v>
       </c>
-      <c r="C34" t="n">
-        <v>308751.8941527605</v>
-      </c>
-      <c r="D34" t="n">
-        <v>324005.1410658011</v>
-      </c>
       <c r="E34" t="n">
-        <v>356098.31729877</v>
+        <v>325775.167047739</v>
       </c>
       <c r="F34" t="n">
         <v>261498.5586691144</v>
@@ -9896,16 +9896,16 @@
         <v>45474</v>
       </c>
       <c r="B35" t="n">
+        <v>361842.0207066536</v>
+      </c>
+      <c r="C35" t="n">
+        <v>340210.2535484338</v>
+      </c>
+      <c r="D35" t="n">
         <v>328828.6939740207</v>
       </c>
-      <c r="C35" t="n">
-        <v>330961.0276920795</v>
-      </c>
-      <c r="D35" t="n">
-        <v>334478.6576201501</v>
-      </c>
       <c r="E35" t="n">
-        <v>348844.7813613415</v>
+        <v>334219.8998888731</v>
       </c>
       <c r="F35" t="n">
         <v>278609.4832585234</v>
@@ -9916,16 +9916,16 @@
         <v>45505</v>
       </c>
       <c r="B36" t="n">
+        <v>353701.99964118</v>
+      </c>
+      <c r="C36" t="n">
+        <v>309479.8984974974</v>
+      </c>
+      <c r="D36" t="n">
         <v>273339.5158814964</v>
       </c>
-      <c r="C36" t="n">
-        <v>319452.159055233</v>
-      </c>
-      <c r="D36" t="n">
-        <v>308915.6236238529</v>
-      </c>
       <c r="E36" t="n">
-        <v>343458.0946887732</v>
+        <v>307872.1569899321</v>
       </c>
       <c r="F36" t="n">
         <v>208645.8245708317</v>
@@ -9936,16 +9936,16 @@
         <v>45536</v>
       </c>
       <c r="B37" t="n">
+        <v>361003.0675872564</v>
+      </c>
+      <c r="C37" t="n">
+        <v>300762.8093248437</v>
+      </c>
+      <c r="D37" t="n">
         <v>231446.4062612295</v>
       </c>
-      <c r="C37" t="n">
-        <v>310884.6461640596</v>
-      </c>
-      <c r="D37" t="n">
-        <v>292669.4796414347</v>
-      </c>
       <c r="E37" t="n">
-        <v>351083.8220540285</v>
+        <v>322375.706756115</v>
       </c>
       <c r="F37" t="n">
         <v>130429.2623455103</v>
@@ -9956,16 +9956,16 @@
         <v>45566</v>
       </c>
       <c r="B38" t="n">
+        <v>345612.802274704</v>
+      </c>
+      <c r="C38" t="n">
+        <v>309795.6577790258</v>
+      </c>
+      <c r="D38" t="n">
         <v>275868.0910850656</v>
       </c>
-      <c r="C38" t="n">
-        <v>325705.317378521</v>
-      </c>
-      <c r="D38" t="n">
-        <v>310547.3721987462</v>
-      </c>
       <c r="E38" t="n">
-        <v>344926.3531692028</v>
+        <v>320888.2906378508</v>
       </c>
       <c r="F38" t="n">
         <v>151625.9767832904</v>
@@ -9976,16 +9976,16 @@
         <v>45597</v>
       </c>
       <c r="B39" t="n">
+        <v>351116.1464532614</v>
+      </c>
+      <c r="C39" t="n">
+        <v>325453.755612376</v>
+      </c>
+      <c r="D39" t="n">
         <v>300858.9567995011</v>
       </c>
-      <c r="C39" t="n">
-        <v>336873.3643965721</v>
-      </c>
-      <c r="D39" t="n">
-        <v>319790.3477587844</v>
-      </c>
       <c r="E39" t="n">
-        <v>335928.4188479185</v>
+        <v>338370.5897520781</v>
       </c>
       <c r="F39" t="n">
         <v>165299.824813613</v>

--- a/fcst_results/orig_series_IAH-Int_results.xlsx
+++ b/fcst_results/orig_series_IAH-Int_results.xlsx
@@ -479,10 +479,10 @@
         <v>44470</v>
       </c>
       <c r="B2" t="n">
-        <v>329060.2740166187</v>
+        <v>335303.8864378929</v>
       </c>
       <c r="C2" t="n">
-        <v>314556.2963306904</v>
+        <v>311062.1341077089</v>
       </c>
       <c r="D2" t="n">
         <v>301421.5766542687</v>
@@ -491,7 +491,7 @@
         <v>237909.6658678285</v>
       </c>
       <c r="F2" t="n">
-        <v>312961.9652843496</v>
+        <v>312017.1348905842</v>
       </c>
     </row>
     <row r="3">
@@ -499,10 +499,10 @@
         <v>44501</v>
       </c>
       <c r="B3" t="n">
-        <v>332397.0276070833</v>
+        <v>320965.5136934519</v>
       </c>
       <c r="C3" t="n">
-        <v>321684.1226136684</v>
+        <v>310928.3268949986</v>
       </c>
       <c r="D3" t="n">
         <v>330448.6784802167</v>
@@ -511,7 +511,7 @@
         <v>253360.9167199809</v>
       </c>
       <c r="F3" t="n">
-        <v>325999.9752572625</v>
+        <v>318835.6770385852</v>
       </c>
     </row>
     <row r="4">
@@ -519,10 +519,10 @@
         <v>44531</v>
       </c>
       <c r="B4" t="n">
-        <v>337144.7642658949</v>
+        <v>354176.8588910103</v>
       </c>
       <c r="C4" t="n">
-        <v>307721.0684028864</v>
+        <v>296582.547847271</v>
       </c>
       <c r="D4" t="n">
         <v>419332.212600098</v>
@@ -531,7 +531,7 @@
         <v>319890.449488445</v>
       </c>
       <c r="F4" t="n">
-        <v>353537.2358363186</v>
+        <v>357274.0373079934</v>
       </c>
     </row>
     <row r="5">
@@ -539,10 +539,10 @@
         <v>44562</v>
       </c>
       <c r="B5" t="n">
-        <v>331548.0677490234</v>
+        <v>335879.6030800343</v>
       </c>
       <c r="C5" t="n">
-        <v>314450.1393169165</v>
+        <v>298259.3678282499</v>
       </c>
       <c r="D5" t="n">
         <v>340470.8198964694</v>
@@ -551,7 +551,7 @@
         <v>269269.0763516328</v>
       </c>
       <c r="F5" t="n">
-        <v>327135.5392379318</v>
+        <v>322906.2079251305</v>
       </c>
     </row>
     <row r="6">
@@ -559,10 +559,10 @@
         <v>44593</v>
       </c>
       <c r="B6" t="n">
-        <v>332593.7719392776</v>
+        <v>333628.6135513783</v>
       </c>
       <c r="C6" t="n">
-        <v>284507.1134674549</v>
+        <v>295797.4467819929</v>
       </c>
       <c r="D6" t="n">
         <v>288946.3864360521</v>
@@ -571,7 +571,7 @@
         <v>227426.2772998255</v>
       </c>
       <c r="F6" t="n">
-        <v>300552.6468816173</v>
+        <v>301701.0939121392</v>
       </c>
     </row>
     <row r="7">
@@ -579,10 +579,10 @@
         <v>44621</v>
       </c>
       <c r="B7" t="n">
-        <v>357037.9632259607</v>
+        <v>343678.30877316</v>
       </c>
       <c r="C7" t="n">
-        <v>314269.8863533735</v>
+        <v>303679.563908577</v>
       </c>
       <c r="D7" t="n">
         <v>293852.3750744588</v>
@@ -591,7 +591,7 @@
         <v>281555.144882616</v>
       </c>
       <c r="F7" t="n">
-        <v>321372.8507977827</v>
+        <v>310627.5078783476</v>
       </c>
     </row>
     <row r="8">
@@ -599,10 +599,10 @@
         <v>44652</v>
       </c>
       <c r="B8" t="n">
-        <v>354906.6924753189</v>
+        <v>348708.9991344213</v>
       </c>
       <c r="C8" t="n">
-        <v>344902.1592451334</v>
+        <v>311170.4636371136</v>
       </c>
       <c r="D8" t="n">
         <v>219030.1178269128</v>
@@ -611,7 +611,7 @@
         <v>239001.292239888</v>
       </c>
       <c r="F8" t="n">
-        <v>305109.210918024</v>
+        <v>286406.6147958652</v>
       </c>
     </row>
     <row r="9">
@@ -619,10 +619,10 @@
         <v>44682</v>
       </c>
       <c r="B9" t="n">
-        <v>346421.5705935955</v>
+        <v>344943.0420392752</v>
       </c>
       <c r="C9" t="n">
-        <v>298400.6800949574</v>
+        <v>297141.4110348225</v>
       </c>
       <c r="D9" t="n">
         <v>259453.2199462371</v>
@@ -631,7 +631,7 @@
         <v>270931.6339870065</v>
       </c>
       <c r="F9" t="n">
-        <v>301581.7734162269</v>
+        <v>296185.953185776</v>
       </c>
     </row>
     <row r="10">
@@ -639,10 +639,10 @@
         <v>44713</v>
       </c>
       <c r="B10" t="n">
-        <v>338314.9272682667</v>
+        <v>341544.2730026245</v>
       </c>
       <c r="C10" t="n">
-        <v>304328.356076479</v>
+        <v>288277.1358001828</v>
       </c>
       <c r="D10" t="n">
         <v>314243.1274654085</v>
@@ -651,7 +651,7 @@
         <v>322606.7886248189</v>
       </c>
       <c r="F10" t="n">
-        <v>319636.8995144652</v>
+        <v>313549.6076443197</v>
       </c>
     </row>
     <row r="11">
@@ -659,10 +659,10 @@
         <v>44743</v>
       </c>
       <c r="B11" t="n">
-        <v>346494.1852827072</v>
+        <v>337654.0216798782</v>
       </c>
       <c r="C11" t="n">
-        <v>330251.3721696138</v>
+        <v>302314.4999206066</v>
       </c>
       <c r="D11" t="n">
         <v>330452.4641152457</v>
@@ -671,7 +671,7 @@
         <v>337319.5932923692</v>
       </c>
       <c r="F11" t="n">
-        <v>336076.8145165491</v>
+        <v>323375.4120435444</v>
       </c>
     </row>
     <row r="12">
@@ -679,10 +679,10 @@
         <v>44774</v>
       </c>
       <c r="B12" t="n">
-        <v>350992.0497270823</v>
+        <v>366443.3100618124</v>
       </c>
       <c r="C12" t="n">
-        <v>320834.0435808897</v>
+        <v>300799.433603406</v>
       </c>
       <c r="D12" t="n">
         <v>276961.4126227596</v>
@@ -691,7 +691,7 @@
         <v>266376.5056685093</v>
       </c>
       <c r="F12" t="n">
-        <v>315520.6682949855</v>
+        <v>309509.4957112208</v>
       </c>
     </row>
     <row r="13">
@@ -699,10 +699,10 @@
         <v>44805</v>
       </c>
       <c r="B13" t="n">
-        <v>322691.5115282536</v>
+        <v>353217.72615695</v>
       </c>
       <c r="C13" t="n">
-        <v>336320.3933347464</v>
+        <v>310047.9313941002</v>
       </c>
       <c r="D13" t="n">
         <v>234784.6115813034</v>
@@ -711,7 +711,7 @@
         <v>184179.0482621371</v>
       </c>
       <c r="F13" t="n">
-        <v>294747.3163008558</v>
+        <v>291141.8276580974</v>
       </c>
     </row>
     <row r="14">
@@ -719,10 +719,10 @@
         <v>44835</v>
       </c>
       <c r="B14" t="n">
-        <v>349378.8910374641</v>
+        <v>358254.835314393</v>
       </c>
       <c r="C14" t="n">
-        <v>330253.6105190516</v>
+        <v>304344.0903563499</v>
       </c>
       <c r="D14" t="n">
         <v>278721.0853976347</v>
@@ -731,7 +731,7 @@
         <v>208124.9386780533</v>
       </c>
       <c r="F14" t="n">
-        <v>316647.037843143</v>
+        <v>307131.7046099969</v>
       </c>
     </row>
     <row r="15">
@@ -739,10 +739,10 @@
         <v>44866</v>
       </c>
       <c r="B15" t="n">
-        <v>346946.8914564848</v>
+        <v>330518.4270076752</v>
       </c>
       <c r="C15" t="n">
-        <v>342131.3459764719</v>
+        <v>303251.5124955177</v>
       </c>
       <c r="D15" t="n">
         <v>302799.1838191341</v>
@@ -751,7 +751,7 @@
         <v>225350.7003419966</v>
       </c>
       <c r="F15" t="n">
-        <v>327677.3469605164</v>
+        <v>308179.3326985317</v>
       </c>
     </row>
     <row r="16">
@@ -759,10 +759,10 @@
         <v>44896</v>
       </c>
       <c r="B16" t="n">
-        <v>345911.3585894108</v>
+        <v>352815.8107652664</v>
       </c>
       <c r="C16" t="n">
-        <v>322598.8175280094</v>
+        <v>329330.5217943192</v>
       </c>
       <c r="D16" t="n">
         <v>386671.2633577595</v>
@@ -771,7 +771,7 @@
         <v>292693.0546175304</v>
       </c>
       <c r="F16" t="n">
-        <v>349947.1434910939</v>
+        <v>355183.2085084548</v>
       </c>
     </row>
     <row r="17">
@@ -779,10 +779,10 @@
         <v>44927</v>
       </c>
       <c r="B17" t="n">
-        <v>346090.2619599104</v>
+        <v>349775.3422231674</v>
       </c>
       <c r="C17" t="n">
-        <v>321480.5644824505</v>
+        <v>325075.6828484535</v>
       </c>
       <c r="D17" t="n">
         <v>304381.7090716425</v>
@@ -791,7 +791,7 @@
         <v>241180.9959155005</v>
       </c>
       <c r="F17" t="n">
-        <v>321963.9456281844</v>
+        <v>321861.9324417282</v>
       </c>
     </row>
     <row r="18">
@@ -799,10 +799,10 @@
         <v>44958</v>
       </c>
       <c r="B18" t="n">
-        <v>345861.5882313251</v>
+        <v>339593.3210493326</v>
       </c>
       <c r="C18" t="n">
-        <v>334378.4276961088</v>
+        <v>323895.2168552876</v>
       </c>
       <c r="D18" t="n">
         <v>256148.0829751698</v>
@@ -811,7 +811,7 @@
         <v>198074.6162606399</v>
       </c>
       <c r="F18" t="n">
-        <v>309256.9832573687</v>
+        <v>299999.2017261811</v>
       </c>
     </row>
     <row r="19">
@@ -819,10 +819,10 @@
         <v>44986</v>
       </c>
       <c r="B19" t="n">
-        <v>361887.1826982498</v>
+        <v>350287.8913275003</v>
       </c>
       <c r="C19" t="n">
-        <v>334369.8363842964</v>
+        <v>311556.3814136982</v>
       </c>
       <c r="D19" t="n">
         <v>268057.1055993116</v>
@@ -831,7 +831,7 @@
         <v>249157.5171221843</v>
       </c>
       <c r="F19" t="n">
-        <v>320084.2752425017</v>
+        <v>304816.0293939998</v>
       </c>
     </row>
     <row r="20">
@@ -839,10 +839,10 @@
         <v>45017</v>
       </c>
       <c r="B20" t="n">
-        <v>346553.4686259031</v>
+        <v>349546.6684945822</v>
       </c>
       <c r="C20" t="n">
-        <v>324576.9588435888</v>
+        <v>314754.2915052176</v>
       </c>
       <c r="D20" t="n">
         <v>212497.6299248364</v>
@@ -851,7 +851,7 @@
         <v>210426.4297828418</v>
       </c>
       <c r="F20" t="n">
-        <v>292987.7119450206</v>
+        <v>284565.7430777927</v>
       </c>
     </row>
     <row r="21">
@@ -859,10 +859,10 @@
         <v>45047</v>
       </c>
       <c r="B21" t="n">
-        <v>346624.766638875</v>
+        <v>357072.2297224998</v>
       </c>
       <c r="C21" t="n">
-        <v>315718.7238607407</v>
+        <v>318772.9516685009</v>
       </c>
       <c r="D21" t="n">
         <v>257740.1577890346</v>
@@ -871,7 +871,7 @@
         <v>243274.2587527445</v>
       </c>
       <c r="F21" t="n">
-        <v>305628.7905972335</v>
+        <v>305224.1092570776</v>
       </c>
     </row>
     <row r="22">
@@ -879,10 +879,10 @@
         <v>45078</v>
       </c>
       <c r="B22" t="n">
-        <v>340117.4569036961</v>
+        <v>341372.611350894</v>
       </c>
       <c r="C22" t="n">
-        <v>327608.539821744</v>
+        <v>324425.4094198942</v>
       </c>
       <c r="D22" t="n">
         <v>313759.034910945</v>
@@ -891,7 +891,7 @@
         <v>295048.2070439143</v>
       </c>
       <c r="F22" t="n">
-        <v>326474.3136146843</v>
+        <v>324397.1824126565</v>
       </c>
     </row>
     <row r="23">
@@ -899,10 +899,10 @@
         <v>45108</v>
       </c>
       <c r="B23" t="n">
-        <v>350105.0050116777</v>
+        <v>343472.3477079868</v>
       </c>
       <c r="C23" t="n">
-        <v>332619.3812901974</v>
+        <v>324492.0003156662</v>
       </c>
       <c r="D23" t="n">
         <v>329378.3702304029</v>
@@ -911,7 +911,7 @@
         <v>308499.171536146</v>
       </c>
       <c r="F23" t="n">
-        <v>336809.7276230904</v>
+        <v>331021.3576025345</v>
       </c>
     </row>
     <row r="24">
@@ -919,10 +919,10 @@
         <v>45139</v>
       </c>
       <c r="B24" t="n">
-        <v>357612.3631919622</v>
+        <v>363911.3418449163</v>
       </c>
       <c r="C24" t="n">
-        <v>329311.6274917126</v>
+        <v>283313.3819621801</v>
       </c>
       <c r="D24" t="n">
         <v>273766.4568796919</v>
@@ -931,7 +931,7 @@
         <v>237095.5833340205</v>
       </c>
       <c r="F24" t="n">
-        <v>318491.1649818686</v>
+        <v>300923.1546806172</v>
       </c>
     </row>
     <row r="25">
@@ -939,10 +939,10 @@
         <v>45170</v>
       </c>
       <c r="B25" t="n">
-        <v>336255.7774531841</v>
+        <v>352545.892156601</v>
       </c>
       <c r="C25" t="n">
-        <v>342799.0982807875</v>
+        <v>323631.3878737688</v>
       </c>
       <c r="D25" t="n">
         <v>231832.9991593398</v>
@@ -951,7 +951,7 @@
         <v>153016.9563506184</v>
       </c>
       <c r="F25" t="n">
-        <v>299485.2214094835</v>
+        <v>293383.510989587</v>
       </c>
     </row>
     <row r="26">
@@ -959,10 +959,10 @@
         <v>45200</v>
       </c>
       <c r="B26" t="n">
-        <v>355386.8184297085</v>
+        <v>332951.6115971804</v>
       </c>
       <c r="C26" t="n">
-        <v>334032.2735389471</v>
+        <v>321585.1744017601</v>
       </c>
       <c r="D26" t="n">
         <v>276233.3095742022</v>
@@ -971,7 +971,7 @@
         <v>178408.4395346413</v>
       </c>
       <c r="F26" t="n">
-        <v>318159.8813842814</v>
+        <v>303914.1022948758</v>
       </c>
     </row>
     <row r="27">
@@ -979,10 +979,10 @@
         <v>45231</v>
       </c>
       <c r="B27" t="n">
-        <v>366201.5354056358</v>
+        <v>339319.6169967651</v>
       </c>
       <c r="C27" t="n">
-        <v>319426.9447071552</v>
+        <v>291560.4158809185</v>
       </c>
       <c r="D27" t="n">
         <v>301167.1510240989</v>
@@ -991,7 +991,7 @@
         <v>197402.8110617171</v>
       </c>
       <c r="F27" t="n">
-        <v>325810.9689181451</v>
+        <v>305278.9901498642</v>
       </c>
     </row>
     <row r="28">
@@ -999,10 +999,10 @@
         <v>45261</v>
       </c>
       <c r="B28" t="n">
-        <v>354714.490675807</v>
+        <v>352694.1169730425</v>
       </c>
       <c r="C28" t="n">
-        <v>339370.9344493151</v>
+        <v>293624.4703146219</v>
       </c>
       <c r="D28" t="n">
         <v>385408.5213084235</v>
@@ -1011,7 +1011,7 @@
         <v>265461.0283505826</v>
       </c>
       <c r="F28" t="n">
-        <v>356915.103548176</v>
+        <v>341997.0797778352</v>
       </c>
     </row>
     <row r="29">
@@ -1019,10 +1019,10 @@
         <v>45292</v>
       </c>
       <c r="B29" t="n">
-        <v>318285.0902417898</v>
+        <v>353322.8627467155</v>
       </c>
       <c r="C29" t="n">
-        <v>336148.7645999193</v>
+        <v>328571.3592489958</v>
       </c>
       <c r="D29" t="n">
         <v>303027.2017124582</v>
@@ -1031,7 +1031,7 @@
         <v>213037.1540754306</v>
       </c>
       <c r="F29" t="n">
-        <v>315729.4847963938</v>
+        <v>322612.4524946794</v>
       </c>
     </row>
     <row r="30">
@@ -1039,10 +1039,10 @@
         <v>45323</v>
       </c>
       <c r="B30" t="n">
-        <v>355426.9770519733</v>
+        <v>342855.4191026688</v>
       </c>
       <c r="C30" t="n">
-        <v>336432.8703939915</v>
+        <v>324943.0277273655</v>
       </c>
       <c r="D30" t="n">
         <v>254863.1437533888</v>
@@ -1051,7 +1051,7 @@
         <v>168672.3114747705</v>
       </c>
       <c r="F30" t="n">
-        <v>311839.4119814387</v>
+        <v>299843.8358396093</v>
       </c>
     </row>
     <row r="31">
@@ -1059,10 +1059,10 @@
         <v>45352</v>
       </c>
       <c r="B31" t="n">
-        <v>346262.4502820969</v>
+        <v>348852.8460026979</v>
       </c>
       <c r="C31" t="n">
-        <v>329450.8330765963</v>
+        <v>324224.221305728</v>
       </c>
       <c r="D31" t="n">
         <v>267098.6845002077</v>
@@ -1071,7 +1071,7 @@
         <v>230241.6692261397</v>
       </c>
       <c r="F31" t="n">
-        <v>312334.196696989</v>
+        <v>307650.9675047272</v>
       </c>
     </row>
     <row r="32">
@@ -1079,10 +1079,10 @@
         <v>45383</v>
       </c>
       <c r="B32" t="n">
-        <v>351644.2981698513</v>
+        <v>371448.2923214436</v>
       </c>
       <c r="C32" t="n">
-        <v>338246.1967737675</v>
+        <v>333689.6744073629</v>
       </c>
       <c r="D32" t="n">
         <v>211763.4980051675</v>
@@ -1091,7 +1091,7 @@
         <v>180307.0920146088</v>
       </c>
       <c r="F32" t="n">
-        <v>297803.2964235063</v>
+        <v>295711.8736781023</v>
       </c>
     </row>
     <row r="33">
@@ -1099,10 +1099,10 @@
         <v>45413</v>
       </c>
       <c r="B33" t="n">
-        <v>346960.3215531111</v>
+        <v>342052.5758264065</v>
       </c>
       <c r="C33" t="n">
-        <v>323894.7231017351</v>
+        <v>321515.6209846735</v>
       </c>
       <c r="D33" t="n">
         <v>257026.9260475409</v>
@@ -1111,7 +1111,7 @@
         <v>210223.2292145643</v>
       </c>
       <c r="F33" t="n">
-        <v>307031.273222385</v>
+        <v>300607.1815196063</v>
       </c>
     </row>
     <row r="34">
@@ -1119,10 +1119,10 @@
         <v>45444</v>
       </c>
       <c r="B34" t="n">
-        <v>334047.6457328796</v>
+        <v>361277.9237314463</v>
       </c>
       <c r="C34" t="n">
-        <v>325775.167047739</v>
+        <v>319302.3871443272</v>
       </c>
       <c r="D34" t="n">
         <v>313075.6465014099</v>
@@ -1131,7 +1131,7 @@
         <v>261498.5586691144</v>
       </c>
       <c r="F34" t="n">
-        <v>322576.2594259336</v>
+        <v>326930.1365659837</v>
       </c>
     </row>
     <row r="35">
@@ -1139,10 +1139,10 @@
         <v>45474</v>
       </c>
       <c r="B35" t="n">
-        <v>361842.0207066536</v>
+        <v>335804.1575372219</v>
       </c>
       <c r="C35" t="n">
-        <v>334219.8998888731</v>
+        <v>302911.6125500202</v>
       </c>
       <c r="D35" t="n">
         <v>328828.6939740207</v>
@@ -1151,7 +1151,7 @@
         <v>278609.4832585234</v>
       </c>
       <c r="F35" t="n">
-        <v>340210.2535484338</v>
+        <v>320569.8967981924</v>
       </c>
     </row>
     <row r="36">
@@ -1159,10 +1159,10 @@
         <v>45505</v>
       </c>
       <c r="B36" t="n">
-        <v>353701.99964118</v>
+        <v>360720.4430538416</v>
       </c>
       <c r="C36" t="n">
-        <v>307872.1569899321</v>
+        <v>325372.3958165646</v>
       </c>
       <c r="D36" t="n">
         <v>273339.5158814964</v>
@@ -1171,7 +1171,7 @@
         <v>208645.8245708317</v>
       </c>
       <c r="F36" t="n">
-        <v>309479.8984974974</v>
+        <v>312874.7428409922</v>
       </c>
     </row>
     <row r="37">
@@ -1179,10 +1179,10 @@
         <v>45536</v>
       </c>
       <c r="B37" t="n">
-        <v>361003.0675872564</v>
+        <v>345957.6068388224</v>
       </c>
       <c r="C37" t="n">
-        <v>322375.706756115</v>
+        <v>333125.4457645416</v>
       </c>
       <c r="D37" t="n">
         <v>231446.4062612295</v>
@@ -1191,7 +1191,7 @@
         <v>130429.2623455103</v>
       </c>
       <c r="F37" t="n">
-        <v>300762.8093248437</v>
+        <v>293813.2084772428</v>
       </c>
     </row>
     <row r="38">
@@ -1199,10 +1199,10 @@
         <v>45566</v>
       </c>
       <c r="B38" t="n">
-        <v>345612.802274704</v>
+        <v>357439.1873626709</v>
       </c>
       <c r="C38" t="n">
-        <v>320888.2906378508</v>
+        <v>329010.5036585331</v>
       </c>
       <c r="D38" t="n">
         <v>275868.0910850656</v>
@@ -1211,7 +1211,7 @@
         <v>151625.9767832904</v>
       </c>
       <c r="F38" t="n">
-        <v>309795.6577790258</v>
+        <v>312213.6491474195</v>
       </c>
     </row>
     <row r="39">
@@ -1219,10 +1219,10 @@
         <v>45597</v>
       </c>
       <c r="B39" t="n">
-        <v>351116.1464532614</v>
+        <v>347277.9038380384</v>
       </c>
       <c r="C39" t="n">
-        <v>338370.5897520781</v>
+        <v>333884.4437253475</v>
       </c>
       <c r="D39" t="n">
         <v>300858.9567995011</v>
@@ -1231,7 +1231,7 @@
         <v>165299.824813613</v>
       </c>
       <c r="F39" t="n">
-        <v>325453.755612376</v>
+        <v>320357.328013955</v>
       </c>
     </row>
   </sheetData>
@@ -1423,25 +1423,21 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>lstm_reg</t>
+          <t>arima</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>rnn</t>
+          <t>arima</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
         <is>
-          <t>{'lags': 36, 'epochs': 15, 'validation_split': 0.2, 'shuffle': True, 'hidden_layers_struct': {'lstm': {'units': 72, 'dropout': 0.2}}, 'verbose': 0, 'random_seed': 1}</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>minmax</t>
-        </is>
-      </c>
+          <t>{'order': (4, 0, 2), 'seasonal_order': (0, 1, 2, 12), 'trend': None}</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="n">
         <v>249</v>
       </c>
@@ -1458,19 +1454,19 @@
         <v>74</v>
       </c>
       <c r="K2" t="n">
-        <v>163189.9742743807</v>
+        <v>151537.9812989001</v>
       </c>
       <c r="L2" t="n">
-        <v>1.476254165674223</v>
+        <v>1.511243293116215</v>
       </c>
       <c r="M2" t="n">
-        <v>117212.2009592242</v>
+        <v>88358.46170687856</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.2680144535850759</v>
+        <v>-0.09340297464265102</v>
       </c>
       <c r="O2" t="n">
-        <v>400459.5343492031</v>
+        <v>358495.2450820481</v>
       </c>
       <c r="P2" t="n">
         <v>252301</v>
@@ -1479,19 +1475,19 @@
         <v>0.95</v>
       </c>
       <c r="R2" t="n">
-        <v>229611.0568740208</v>
+        <v>73991.408224634</v>
       </c>
       <c r="S2" t="n">
-        <v>103841.5425494038</v>
+        <v>39195.67532417826</v>
       </c>
       <c r="T2" t="n">
-        <v>0.6191593988345842</v>
+        <v>0.148140427669229</v>
       </c>
       <c r="U2" t="n">
-        <v>69276.96850915338</v>
+        <v>22000.90262724375</v>
       </c>
       <c r="V2" t="n">
-        <v>-0.05707713435059603</v>
+        <v>0.8550923345239461</v>
       </c>
       <c r="W2" t="inlineStr"/>
       <c r="X2" t="inlineStr"/>
@@ -1502,16 +1498,16 @@
       <c r="AA2" t="inlineStr"/>
       <c r="AB2" t="inlineStr"/>
       <c r="AC2" t="n">
-        <v>163189.9742743807</v>
+        <v>151537.9812989001</v>
       </c>
       <c r="AD2" t="n">
-        <v>1.476254165674223</v>
+        <v>1.511243293116215</v>
       </c>
       <c r="AE2" t="n">
-        <v>117212.2009592242</v>
+        <v>88358.46170687856</v>
       </c>
       <c r="AF2" t="n">
-        <v>-0.2680144535850759</v>
+        <v>-0.09340297464265102</v>
       </c>
       <c r="AG2" t="b">
         <v>1</v>
@@ -1520,28 +1516,34 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>weighted_ensemble</t>
+          <t>lstm</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>combo</t>
+          <t>rnn</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
         <is>
-          <t>{'how': 'weighted', 'determine_best_by': 'TestSetMAPE'}</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr"/>
+          <t>{'lags': 36, 'epochs': 15, 'validation_split': 0.2, 'shuffle': True, 'hidden_layers_struct': {'lstm': {'units': 72, 'dropout': 0}}, 'verbose': 0, 'random_seed': 1}</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>minmax</t>
+        </is>
+      </c>
       <c r="F3" t="n">
         <v>249</v>
       </c>
       <c r="G3" t="b">
         <v>0</v>
       </c>
-      <c r="H3" t="inlineStr"/>
+      <c r="H3" t="b">
+        <v>1</v>
+      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
@@ -1549,19 +1551,19 @@
         <v>74</v>
       </c>
       <c r="K3" t="n">
-        <v>156213.3599454659</v>
+        <v>164328.4018707859</v>
       </c>
       <c r="L3" t="n">
-        <v>1.505042772299964</v>
+        <v>1.544838804901843</v>
       </c>
       <c r="M3" t="n">
-        <v>106446.1989826595</v>
+        <v>120085.1397051117</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.1619129796646481</v>
+        <v>-0.2857677229657511</v>
       </c>
       <c r="O3" t="n">
-        <v>415177.3448328015</v>
+        <v>407494.0232107639</v>
       </c>
       <c r="P3" t="n">
         <v>252301</v>
@@ -1570,45 +1572,39 @@
         <v>0.95</v>
       </c>
       <c r="R3" t="n">
-        <v>118998.1266798896</v>
+        <v>171945.2807631764</v>
       </c>
       <c r="S3" t="n">
-        <v>71345.64739241429</v>
+        <v>104124.6147004992</v>
       </c>
       <c r="T3" t="n">
-        <v>0.4379476800866641</v>
+        <v>0.6265148950112435</v>
       </c>
       <c r="U3" t="n">
-        <v>46886.86767871204</v>
+        <v>68111.65101504326</v>
       </c>
       <c r="V3" t="n">
-        <v>0.501001335652917</v>
+        <v>-0.0628481762737394</v>
       </c>
       <c r="W3" t="inlineStr"/>
       <c r="X3" t="inlineStr"/>
       <c r="Y3" t="inlineStr"/>
-      <c r="Z3" t="inlineStr"/>
-      <c r="AA3" t="inlineStr">
-        <is>
-          <t>['lstm_reg', 'arima', 'lstm', 'prophet']</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>(0.3412220726180845, 0.3171605909728679, 0.3105971479892217, 0.031020188419825862)</t>
-        </is>
-      </c>
+      <c r="Z3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA3" t="inlineStr"/>
+      <c r="AB3" t="inlineStr"/>
       <c r="AC3" t="n">
-        <v>156213.3599454659</v>
+        <v>164328.4018707859</v>
       </c>
       <c r="AD3" t="n">
-        <v>1.505042772299964</v>
+        <v>1.544838804901843</v>
       </c>
       <c r="AE3" t="n">
-        <v>106446.1989826595</v>
+        <v>120085.1397051117</v>
       </c>
       <c r="AF3" t="n">
-        <v>-0.1619129796646481</v>
+        <v>-0.2857677229657511</v>
       </c>
       <c r="AG3" t="b">
         <v>0</v>
@@ -1617,18 +1613,18 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>arima</t>
+          <t>weighted_ensemble</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>arima</t>
+          <t>combo</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
-          <t>{'order': (4, 0, 2), 'seasonal_order': (0, 1, 2, 12), 'trend': None}</t>
+          <t>{'how': 'weighted', 'determine_best_by': 'TestSetMAPE'}</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
@@ -1638,9 +1634,7 @@
       <c r="G4" t="b">
         <v>0</v>
       </c>
-      <c r="H4" t="b">
-        <v>1</v>
-      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="n">
         <v>0</v>
       </c>
@@ -1648,19 +1642,19 @@
         <v>74</v>
       </c>
       <c r="K4" t="n">
-        <v>151537.9812989001</v>
+        <v>156804.1050694078</v>
       </c>
       <c r="L4" t="n">
-        <v>1.511243293116215</v>
+        <v>1.549267875998881</v>
       </c>
       <c r="M4" t="n">
-        <v>88358.46170687856</v>
+        <v>104516.7310470131</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.09340297464265102</v>
+        <v>-0.1707175054885448</v>
       </c>
       <c r="O4" t="n">
-        <v>358495.2450820481</v>
+        <v>403455.205366404</v>
       </c>
       <c r="P4" t="n">
         <v>252301</v>
@@ -1669,39 +1663,45 @@
         <v>0.95</v>
       </c>
       <c r="R4" t="n">
-        <v>80572.61067592388</v>
+        <v>133585.8059894707</v>
       </c>
       <c r="S4" t="n">
-        <v>39195.67532417826</v>
+        <v>68296.1036540365</v>
       </c>
       <c r="T4" t="n">
-        <v>0.148140427669229</v>
+        <v>0.4230580672321928</v>
       </c>
       <c r="U4" t="n">
-        <v>22000.90262724375</v>
+        <v>44384.63366619973</v>
       </c>
       <c r="V4" t="n">
-        <v>0.8550923345239461</v>
+        <v>0.5427473068980191</v>
       </c>
       <c r="W4" t="inlineStr"/>
       <c r="X4" t="inlineStr"/>
       <c r="Y4" t="inlineStr"/>
-      <c r="Z4" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA4" t="inlineStr"/>
-      <c r="AB4" t="inlineStr"/>
+      <c r="Z4" t="inlineStr"/>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>['arima', 'lstm', 'lstm_reg', 'prophet']</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>(0.3571657398572707, 0.33094961839277376, 0.27941502903565824, 0.03246961271429733)</t>
+        </is>
+      </c>
       <c r="AC4" t="n">
-        <v>151537.9812989001</v>
+        <v>156804.1050694078</v>
       </c>
       <c r="AD4" t="n">
-        <v>1.511243293116215</v>
+        <v>1.549267875998881</v>
       </c>
       <c r="AE4" t="n">
-        <v>88358.46170687856</v>
+        <v>104516.7310470131</v>
       </c>
       <c r="AF4" t="n">
-        <v>-0.09340297464265102</v>
+        <v>-0.1707175054885448</v>
       </c>
       <c r="AG4" t="b">
         <v>0</v>
@@ -1710,7 +1710,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>lstm</t>
+          <t>lstm_reg</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1721,7 +1721,7 @@
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr">
         <is>
-          <t>{'lags': 36, 'epochs': 15, 'validation_split': 0.2, 'shuffle': True, 'hidden_layers_struct': {'lstm': {'units': 72, 'dropout': 0}}, 'verbose': 0, 'random_seed': 1}</t>
+          <t>{'lags': 36, 'epochs': 15, 'validation_split': 0.2, 'shuffle': True, 'hidden_layers_struct': {'lstm': {'units': 72, 'dropout': 0.2}}, 'verbose': 0, 'random_seed': 1}</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1745,19 +1745,19 @@
         <v>74</v>
       </c>
       <c r="K5" t="n">
-        <v>174905.049506268</v>
+        <v>173101.3147733549</v>
       </c>
       <c r="L5" t="n">
-        <v>1.520787557530152</v>
+        <v>1.610879500756078</v>
       </c>
       <c r="M5" t="n">
-        <v>125020.2029772296</v>
+        <v>125455.7951733885</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.4566055201272183</v>
+        <v>-0.4267175025122263</v>
       </c>
       <c r="O5" t="n">
-        <v>482599.917645216</v>
+        <v>447069.9747542143</v>
       </c>
       <c r="P5" t="n">
         <v>252301</v>
@@ -1766,19 +1766,19 @@
         <v>0.95</v>
       </c>
       <c r="R5" t="n">
-        <v>194666.6707657985</v>
+        <v>228799.3837520407</v>
       </c>
       <c r="S5" t="n">
-        <v>99625.66706608755</v>
+        <v>101424.6173770534</v>
       </c>
       <c r="T5" t="n">
-        <v>0.5978179807486398</v>
+        <v>0.613144090460222</v>
       </c>
       <c r="U5" t="n">
-        <v>66079.90674632619</v>
+        <v>68496.02992111613</v>
       </c>
       <c r="V5" t="n">
-        <v>0.02701330498836263</v>
+        <v>-0.008442575646160577</v>
       </c>
       <c r="W5" t="inlineStr"/>
       <c r="X5" t="inlineStr"/>
@@ -1789,16 +1789,16 @@
       <c r="AA5" t="inlineStr"/>
       <c r="AB5" t="inlineStr"/>
       <c r="AC5" t="n">
-        <v>174905.049506268</v>
+        <v>173101.3147733549</v>
       </c>
       <c r="AD5" t="n">
-        <v>1.520787557530152</v>
+        <v>1.610879500756078</v>
       </c>
       <c r="AE5" t="n">
-        <v>125020.2029772296</v>
+        <v>125455.7951733885</v>
       </c>
       <c r="AF5" t="n">
-        <v>-0.4566055201272183</v>
+        <v>-0.4267175025122263</v>
       </c>
       <c r="AG5" t="b">
         <v>0</v>
@@ -1859,7 +1859,7 @@
         <v>0.95</v>
       </c>
       <c r="R6" t="n">
-        <v>128096.3002629284</v>
+        <v>157170.2901552096</v>
       </c>
       <c r="S6" t="n">
         <v>65110.63286527008</v>
@@ -5175,11 +5175,11 @@
         <v>44470</v>
       </c>
       <c r="B251" t="n">
-        <v>329060.2740166187</v>
+        <v>301421.5766542687</v>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>lstm_reg</t>
+          <t>arima</t>
         </is>
       </c>
     </row>
@@ -5188,11 +5188,11 @@
         <v>44501</v>
       </c>
       <c r="B252" t="n">
-        <v>332397.0276070833</v>
+        <v>330448.6784802167</v>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>lstm_reg</t>
+          <t>arima</t>
         </is>
       </c>
     </row>
@@ -5201,11 +5201,11 @@
         <v>44531</v>
       </c>
       <c r="B253" t="n">
-        <v>337144.7642658949</v>
+        <v>419332.212600098</v>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>lstm_reg</t>
+          <t>arima</t>
         </is>
       </c>
     </row>
@@ -5214,11 +5214,11 @@
         <v>44562</v>
       </c>
       <c r="B254" t="n">
-        <v>331548.0677490234</v>
+        <v>340470.8198964694</v>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>lstm_reg</t>
+          <t>arima</t>
         </is>
       </c>
     </row>
@@ -5227,11 +5227,11 @@
         <v>44593</v>
       </c>
       <c r="B255" t="n">
-        <v>332593.7719392776</v>
+        <v>288946.3864360521</v>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>lstm_reg</t>
+          <t>arima</t>
         </is>
       </c>
     </row>
@@ -5240,11 +5240,11 @@
         <v>44621</v>
       </c>
       <c r="B256" t="n">
-        <v>357037.9632259607</v>
+        <v>293852.3750744588</v>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>lstm_reg</t>
+          <t>arima</t>
         </is>
       </c>
     </row>
@@ -5253,11 +5253,11 @@
         <v>44652</v>
       </c>
       <c r="B257" t="n">
-        <v>354906.6924753189</v>
+        <v>219030.1178269128</v>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>lstm_reg</t>
+          <t>arima</t>
         </is>
       </c>
     </row>
@@ -5266,11 +5266,11 @@
         <v>44682</v>
       </c>
       <c r="B258" t="n">
-        <v>346421.5705935955</v>
+        <v>259453.2199462371</v>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>lstm_reg</t>
+          <t>arima</t>
         </is>
       </c>
     </row>
@@ -5279,11 +5279,11 @@
         <v>44713</v>
       </c>
       <c r="B259" t="n">
-        <v>338314.9272682667</v>
+        <v>314243.1274654085</v>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>lstm_reg</t>
+          <t>arima</t>
         </is>
       </c>
     </row>
@@ -5292,11 +5292,11 @@
         <v>44743</v>
       </c>
       <c r="B260" t="n">
-        <v>346494.1852827072</v>
+        <v>330452.4641152457</v>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>lstm_reg</t>
+          <t>arima</t>
         </is>
       </c>
     </row>
@@ -5305,11 +5305,11 @@
         <v>44774</v>
       </c>
       <c r="B261" t="n">
-        <v>350992.0497270823</v>
+        <v>276961.4126227596</v>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>lstm_reg</t>
+          <t>arima</t>
         </is>
       </c>
     </row>
@@ -5318,11 +5318,11 @@
         <v>44805</v>
       </c>
       <c r="B262" t="n">
-        <v>322691.5115282536</v>
+        <v>234784.6115813034</v>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>lstm_reg</t>
+          <t>arima</t>
         </is>
       </c>
     </row>
@@ -5331,11 +5331,11 @@
         <v>44835</v>
       </c>
       <c r="B263" t="n">
-        <v>349378.8910374641</v>
+        <v>278721.0853976347</v>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>lstm_reg</t>
+          <t>arima</t>
         </is>
       </c>
     </row>
@@ -5344,11 +5344,11 @@
         <v>44866</v>
       </c>
       <c r="B264" t="n">
-        <v>346946.8914564848</v>
+        <v>302799.1838191341</v>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>lstm_reg</t>
+          <t>arima</t>
         </is>
       </c>
     </row>
@@ -5357,11 +5357,11 @@
         <v>44896</v>
       </c>
       <c r="B265" t="n">
-        <v>345911.3585894108</v>
+        <v>386671.2633577595</v>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>lstm_reg</t>
+          <t>arima</t>
         </is>
       </c>
     </row>
@@ -5370,11 +5370,11 @@
         <v>44927</v>
       </c>
       <c r="B266" t="n">
-        <v>346090.2619599104</v>
+        <v>304381.7090716425</v>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>lstm_reg</t>
+          <t>arima</t>
         </is>
       </c>
     </row>
@@ -5383,11 +5383,11 @@
         <v>44958</v>
       </c>
       <c r="B267" t="n">
-        <v>345861.5882313251</v>
+        <v>256148.0829751698</v>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>lstm_reg</t>
+          <t>arima</t>
         </is>
       </c>
     </row>
@@ -5396,11 +5396,11 @@
         <v>44986</v>
       </c>
       <c r="B268" t="n">
-        <v>361887.1826982498</v>
+        <v>268057.1055993116</v>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>lstm_reg</t>
+          <t>arima</t>
         </is>
       </c>
     </row>
@@ -5409,11 +5409,11 @@
         <v>45017</v>
       </c>
       <c r="B269" t="n">
-        <v>346553.4686259031</v>
+        <v>212497.6299248364</v>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>lstm_reg</t>
+          <t>arima</t>
         </is>
       </c>
     </row>
@@ -5422,11 +5422,11 @@
         <v>45047</v>
       </c>
       <c r="B270" t="n">
-        <v>346624.766638875</v>
+        <v>257740.1577890346</v>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>lstm_reg</t>
+          <t>arima</t>
         </is>
       </c>
     </row>
@@ -5435,11 +5435,11 @@
         <v>45078</v>
       </c>
       <c r="B271" t="n">
-        <v>340117.4569036961</v>
+        <v>313759.034910945</v>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>lstm_reg</t>
+          <t>arima</t>
         </is>
       </c>
     </row>
@@ -5448,11 +5448,11 @@
         <v>45108</v>
       </c>
       <c r="B272" t="n">
-        <v>350105.0050116777</v>
+        <v>329378.3702304029</v>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>lstm_reg</t>
+          <t>arima</t>
         </is>
       </c>
     </row>
@@ -5461,11 +5461,11 @@
         <v>45139</v>
       </c>
       <c r="B273" t="n">
-        <v>357612.3631919622</v>
+        <v>273766.4568796919</v>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>lstm_reg</t>
+          <t>arima</t>
         </is>
       </c>
     </row>
@@ -5474,11 +5474,11 @@
         <v>45170</v>
       </c>
       <c r="B274" t="n">
-        <v>336255.7774531841</v>
+        <v>231832.9991593398</v>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>lstm_reg</t>
+          <t>arima</t>
         </is>
       </c>
     </row>
@@ -5487,11 +5487,11 @@
         <v>45200</v>
       </c>
       <c r="B275" t="n">
-        <v>355386.8184297085</v>
+        <v>276233.3095742022</v>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>lstm_reg</t>
+          <t>arima</t>
         </is>
       </c>
     </row>
@@ -5500,11 +5500,11 @@
         <v>45231</v>
       </c>
       <c r="B276" t="n">
-        <v>366201.5354056358</v>
+        <v>301167.1510240989</v>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>lstm_reg</t>
+          <t>arima</t>
         </is>
       </c>
     </row>
@@ -5513,11 +5513,11 @@
         <v>45261</v>
       </c>
       <c r="B277" t="n">
-        <v>354714.490675807</v>
+        <v>385408.5213084235</v>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>lstm_reg</t>
+          <t>arima</t>
         </is>
       </c>
     </row>
@@ -5526,11 +5526,11 @@
         <v>45292</v>
       </c>
       <c r="B278" t="n">
-        <v>318285.0902417898</v>
+        <v>303027.2017124582</v>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>lstm_reg</t>
+          <t>arima</t>
         </is>
       </c>
     </row>
@@ -5539,11 +5539,11 @@
         <v>45323</v>
       </c>
       <c r="B279" t="n">
-        <v>355426.9770519733</v>
+        <v>254863.1437533888</v>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>lstm_reg</t>
+          <t>arima</t>
         </is>
       </c>
     </row>
@@ -5552,11 +5552,11 @@
         <v>45352</v>
       </c>
       <c r="B280" t="n">
-        <v>346262.4502820969</v>
+        <v>267098.6845002077</v>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>lstm_reg</t>
+          <t>arima</t>
         </is>
       </c>
     </row>
@@ -5565,11 +5565,11 @@
         <v>45383</v>
       </c>
       <c r="B281" t="n">
-        <v>351644.2981698513</v>
+        <v>211763.4980051675</v>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>lstm_reg</t>
+          <t>arima</t>
         </is>
       </c>
     </row>
@@ -5578,11 +5578,11 @@
         <v>45413</v>
       </c>
       <c r="B282" t="n">
-        <v>346960.3215531111</v>
+        <v>257026.9260475409</v>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>lstm_reg</t>
+          <t>arima</t>
         </is>
       </c>
     </row>
@@ -5591,11 +5591,11 @@
         <v>45444</v>
       </c>
       <c r="B283" t="n">
-        <v>334047.6457328796</v>
+        <v>313075.6465014099</v>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>lstm_reg</t>
+          <t>arima</t>
         </is>
       </c>
     </row>
@@ -5604,11 +5604,11 @@
         <v>45474</v>
       </c>
       <c r="B284" t="n">
-        <v>361842.0207066536</v>
+        <v>328828.6939740207</v>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>lstm_reg</t>
+          <t>arima</t>
         </is>
       </c>
     </row>
@@ -5617,11 +5617,11 @@
         <v>45505</v>
       </c>
       <c r="B285" t="n">
-        <v>353701.99964118</v>
+        <v>273339.5158814964</v>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>lstm_reg</t>
+          <t>arima</t>
         </is>
       </c>
     </row>
@@ -5630,11 +5630,11 @@
         <v>45536</v>
       </c>
       <c r="B286" t="n">
-        <v>361003.0675872564</v>
+        <v>231446.4062612295</v>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>lstm_reg</t>
+          <t>arima</t>
         </is>
       </c>
     </row>
@@ -5643,11 +5643,11 @@
         <v>45566</v>
       </c>
       <c r="B287" t="n">
-        <v>345612.802274704</v>
+        <v>275868.0910850656</v>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>lstm_reg</t>
+          <t>arima</t>
         </is>
       </c>
     </row>
@@ -5656,11 +5656,11 @@
         <v>45597</v>
       </c>
       <c r="B288" t="n">
-        <v>351116.1464532614</v>
+        <v>300858.9567995011</v>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>lstm_reg</t>
+          <t>arima</t>
         </is>
       </c>
     </row>
@@ -5696,22 +5696,22 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>arima</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>lstm</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>weighted_ensemble</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>lstm_reg</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>weighted_ensemble</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>arima</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>lstm</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -5728,16 +5728,16 @@
         <v>467457</v>
       </c>
       <c r="C2" t="n">
-        <v>399418.0371240377</v>
+        <v>451285.4040904046</v>
       </c>
       <c r="D2" t="n">
-        <v>422090.1649738995</v>
+        <v>451292.1817276478</v>
       </c>
       <c r="E2" t="n">
-        <v>451285.4040904046</v>
+        <v>425229.1284100979</v>
       </c>
       <c r="F2" t="n">
-        <v>415423.9390275478</v>
+        <v>359367.3390684128</v>
       </c>
       <c r="G2" t="n">
         <v>439729.0626875589</v>
@@ -5751,16 +5751,16 @@
         <v>360593</v>
       </c>
       <c r="C3" t="n">
-        <v>363486.2015072107</v>
+        <v>358743.2067200664</v>
       </c>
       <c r="D3" t="n">
-        <v>368500.4973921903</v>
+        <v>398170.8663818836</v>
       </c>
       <c r="E3" t="n">
-        <v>358743.2067200664</v>
+        <v>369595.8294542551</v>
       </c>
       <c r="F3" t="n">
-        <v>384516.5966871977</v>
+        <v>350383.1349036694</v>
       </c>
       <c r="G3" t="n">
         <v>363054.4230422495</v>
@@ -5774,16 +5774,16 @@
         <v>397613</v>
       </c>
       <c r="C4" t="n">
-        <v>372365.2234712839</v>
+        <v>375988.6944769993</v>
       </c>
       <c r="D4" t="n">
-        <v>372523.6048643865</v>
+        <v>343621.8296060562</v>
       </c>
       <c r="E4" t="n">
-        <v>375988.6944769993</v>
+        <v>371650.5506300911</v>
       </c>
       <c r="F4" t="n">
-        <v>368387.3777208328</v>
+        <v>398303.9279106855</v>
       </c>
       <c r="G4" t="n">
         <v>380252.5621771832</v>
@@ -5797,16 +5797,16 @@
         <v>420034</v>
       </c>
       <c r="C5" t="n">
-        <v>371264.413156867</v>
+        <v>390126.4097070204</v>
       </c>
       <c r="D5" t="n">
-        <v>340110.4934510293</v>
+        <v>399401.1354324818</v>
       </c>
       <c r="E5" t="n">
-        <v>390126.4097070204</v>
+        <v>384361.9875037709</v>
       </c>
       <c r="F5" t="n">
-        <v>248483.1327154338</v>
+        <v>356959.0656400323</v>
       </c>
       <c r="G5" t="n">
         <v>403479.3642537682</v>
@@ -5820,16 +5820,16 @@
         <v>519636</v>
       </c>
       <c r="C6" t="n">
-        <v>421719.3718055487</v>
+        <v>474111.4002716879</v>
       </c>
       <c r="D6" t="n">
-        <v>426646.4679399829</v>
+        <v>345888.022434175</v>
       </c>
       <c r="E6" t="n">
-        <v>474111.4002716879</v>
+        <v>402430.8654137962</v>
       </c>
       <c r="F6" t="n">
-        <v>379385.1077238321</v>
+        <v>370067.5847921371</v>
       </c>
       <c r="G6" t="n">
         <v>468763.2868875506</v>
@@ -5843,16 +5843,16 @@
         <v>449336</v>
       </c>
       <c r="C7" t="n">
-        <v>357985.8615369201</v>
+        <v>408845.4049488608</v>
       </c>
       <c r="D7" t="n">
-        <v>383056.9213897667</v>
+        <v>395191.5986827612</v>
       </c>
       <c r="E7" t="n">
-        <v>408845.4049488608</v>
+        <v>401143.2926518812</v>
       </c>
       <c r="F7" t="n">
-        <v>379855.1149920225</v>
+        <v>395316.2456355095</v>
       </c>
       <c r="G7" t="n">
         <v>427227.5188353079</v>
@@ -5866,16 +5866,16 @@
         <v>388763</v>
       </c>
       <c r="C8" t="n">
-        <v>358006.9342467785</v>
+        <v>353844.0509543302</v>
       </c>
       <c r="D8" t="n">
-        <v>371808.6059064895</v>
+        <v>427474.2164317369</v>
       </c>
       <c r="E8" t="n">
-        <v>353844.0509543302</v>
+        <v>387614.0617997898</v>
       </c>
       <c r="F8" t="n">
-        <v>402615.2375069857</v>
+        <v>382264.1984442472</v>
       </c>
       <c r="G8" t="n">
         <v>398843.6435050212</v>
@@ -5889,16 +5889,16 @@
         <v>464430</v>
       </c>
       <c r="C9" t="n">
-        <v>334542.4295047522</v>
+        <v>433403.0253548989</v>
       </c>
       <c r="D9" t="n">
-        <v>382491.3564601192</v>
+        <v>362961.0400781631</v>
       </c>
       <c r="E9" t="n">
-        <v>433403.0253548989</v>
+        <v>393220.3976453137</v>
       </c>
       <c r="F9" t="n">
-        <v>375041.9291297197</v>
+        <v>369473.970303297</v>
       </c>
       <c r="G9" t="n">
         <v>463981.1298362083</v>
@@ -5912,16 +5912,16 @@
         <v>392441</v>
       </c>
       <c r="C10" t="n">
-        <v>378316.7709026337</v>
+        <v>388867.2114069504</v>
       </c>
       <c r="D10" t="n">
-        <v>379923.4029940002</v>
+        <v>345758.3339897394</v>
       </c>
       <c r="E10" t="n">
-        <v>388867.2114069504</v>
+        <v>381866.819912001</v>
       </c>
       <c r="F10" t="n">
-        <v>367377.0724586248</v>
+        <v>409887.0996246338</v>
       </c>
       <c r="G10" t="n">
         <v>431775.09488576</v>
@@ -5935,16 +5935,16 @@
         <v>473082</v>
       </c>
       <c r="C11" t="n">
-        <v>363729.5229980946</v>
+        <v>448636.7004745384</v>
       </c>
       <c r="D11" t="n">
-        <v>400742.6489420111</v>
+        <v>362833.3222887516</v>
       </c>
       <c r="E11" t="n">
-        <v>448636.7004745384</v>
+        <v>405820.2489321032</v>
       </c>
       <c r="F11" t="n">
-        <v>387244.5635560751</v>
+        <v>396481.0599235296</v>
       </c>
       <c r="G11" t="n">
         <v>453355.3752934641</v>
@@ -5958,16 +5958,16 @@
         <v>541016</v>
       </c>
       <c r="C12" t="n">
-        <v>343355.2229521275</v>
+        <v>517822.0750035333</v>
       </c>
       <c r="D12" t="n">
-        <v>417860.0558628897</v>
+        <v>428525.2888641357</v>
       </c>
       <c r="E12" t="n">
-        <v>517822.0750035333</v>
+        <v>448563.4915508088</v>
       </c>
       <c r="F12" t="n">
-        <v>388907.5062385798</v>
+        <v>377178.0224565268</v>
       </c>
       <c r="G12" t="n">
         <v>505263.1284690171</v>
@@ -5981,16 +5981,16 @@
         <v>559606</v>
       </c>
       <c r="C13" t="n">
-        <v>367423.3526269197</v>
+        <v>552874.5354405972</v>
       </c>
       <c r="D13" t="n">
-        <v>435129.818593422</v>
+        <v>388014.1345677376</v>
       </c>
       <c r="E13" t="n">
-        <v>552874.5354405972</v>
+        <v>442680.8951542875</v>
       </c>
       <c r="F13" t="n">
-        <v>380339.7510490417</v>
+        <v>357049.848760128</v>
       </c>
       <c r="G13" t="n">
         <v>524639.1196781083</v>
@@ -6004,16 +6004,16 @@
         <v>451152</v>
       </c>
       <c r="C14" t="n">
-        <v>405979.5204201937</v>
+        <v>450726.7466562079</v>
       </c>
       <c r="D14" t="n">
-        <v>410581.2251142781</v>
+        <v>396132.3627934456</v>
       </c>
       <c r="E14" t="n">
-        <v>450726.7466562079</v>
+        <v>415340.3406688068</v>
       </c>
       <c r="F14" t="n">
-        <v>368454.8635879755</v>
+        <v>386211.0214904547</v>
       </c>
       <c r="G14" t="n">
         <v>472539.3794413942</v>
@@ -6027,16 +6027,16 @@
         <v>378001</v>
       </c>
       <c r="C15" t="n">
-        <v>356951.3280988336</v>
+        <v>357715.6281940724</v>
       </c>
       <c r="D15" t="n">
-        <v>377804.952252925</v>
+        <v>149170.3293064646</v>
       </c>
       <c r="E15" t="n">
-        <v>357715.6281940724</v>
+        <v>291113.4880816417</v>
       </c>
       <c r="F15" t="n">
-        <v>421393.4520623684</v>
+        <v>364219.0433779955</v>
       </c>
       <c r="G15" t="n">
         <v>376154.2537129904</v>
@@ -6050,16 +6050,16 @@
         <v>398024</v>
       </c>
       <c r="C16" t="n">
-        <v>388656.3746670485</v>
+        <v>372932.3225724506</v>
       </c>
       <c r="D16" t="n">
-        <v>374581.7762536919</v>
+        <v>433793.3937892914</v>
       </c>
       <c r="E16" t="n">
-        <v>372932.3225724506</v>
+        <v>386813.8517849195</v>
       </c>
       <c r="F16" t="n">
-        <v>357660.2682212591</v>
+        <v>346677.6626933217</v>
       </c>
       <c r="G16" t="n">
         <v>406056.4463552554</v>
@@ -6073,16 +6073,16 @@
         <v>403968</v>
       </c>
       <c r="C17" t="n">
-        <v>367173.3333269358</v>
+        <v>384607.5746850896</v>
       </c>
       <c r="D17" t="n">
-        <v>378754.5161057537</v>
+        <v>400893.9489278793</v>
       </c>
       <c r="E17" t="n">
-        <v>384607.5746850896</v>
+        <v>402425.2565388632</v>
       </c>
       <c r="F17" t="n">
-        <v>381028.8999918699</v>
+        <v>424562.0477226973</v>
       </c>
       <c r="G17" t="n">
         <v>423531.1146833431</v>
@@ -6096,16 +6096,16 @@
         <v>503379</v>
       </c>
       <c r="C18" t="n">
-        <v>380146.5059576035</v>
+        <v>470280.1644497839</v>
       </c>
       <c r="D18" t="n">
-        <v>417457.8671538369</v>
+        <v>386913.6144111156</v>
       </c>
       <c r="E18" t="n">
-        <v>470280.1644497839</v>
+        <v>414158.5655424889</v>
       </c>
       <c r="F18" t="n">
-        <v>398005.7182369232</v>
+        <v>366739.450704217</v>
       </c>
       <c r="G18" t="n">
         <v>482579.6814113411</v>
@@ -6119,16 +6119,16 @@
         <v>426440</v>
       </c>
       <c r="C19" t="n">
-        <v>381788.2429412603</v>
+        <v>405290.18621852</v>
       </c>
       <c r="D19" t="n">
-        <v>394512.5065534462</v>
+        <v>412637.8197005987</v>
       </c>
       <c r="E19" t="n">
-        <v>405290.18621852</v>
+        <v>391088.4303534529</v>
       </c>
       <c r="F19" t="n">
-        <v>391690.4580096006</v>
+        <v>340269.7816798687</v>
       </c>
       <c r="G19" t="n">
         <v>452541.3152518788</v>
@@ -6142,16 +6142,16 @@
         <v>357556</v>
       </c>
       <c r="C20" t="n">
-        <v>360723.4398827553</v>
+        <v>353424.2108102121</v>
       </c>
       <c r="D20" t="n">
-        <v>367606.2699699711</v>
+        <v>350666.8487775922</v>
       </c>
       <c r="E20" t="n">
-        <v>353424.2108102121</v>
+        <v>344683.7784232356</v>
       </c>
       <c r="F20" t="n">
-        <v>384772.5642219782</v>
+        <v>318086.4203218222</v>
       </c>
       <c r="G20" t="n">
         <v>416437.7520822426</v>
@@ -6165,16 +6165,16 @@
         <v>442013</v>
       </c>
       <c r="C21" t="n">
-        <v>351752.6434261203</v>
+        <v>436222.1437917445</v>
       </c>
       <c r="D21" t="n">
-        <v>409696.243011878</v>
+        <v>447734.8955211639</v>
       </c>
       <c r="E21" t="n">
-        <v>436222.1437917445</v>
+        <v>435581.1827476345</v>
       </c>
       <c r="F21" t="n">
-        <v>438909.8429069519</v>
+        <v>414814.6076581478</v>
       </c>
       <c r="G21" t="n">
         <v>483358.0769550246</v>
@@ -6188,16 +6188,16 @@
         <v>414088</v>
       </c>
       <c r="C22" t="n">
-        <v>388654.4402817488</v>
+        <v>392421.4962368557</v>
       </c>
       <c r="D22" t="n">
-        <v>408793.4481022746</v>
+        <v>353084.9150315523</v>
       </c>
       <c r="E22" t="n">
-        <v>392421.4962368557</v>
+        <v>365711.8010415713</v>
       </c>
       <c r="F22" t="n">
-        <v>443531.1861071587</v>
+        <v>336743.0224913955</v>
       </c>
       <c r="G22" t="n">
         <v>449894.7318481408</v>
@@ -6211,16 +6211,16 @@
         <v>458758</v>
       </c>
       <c r="C23" t="n">
-        <v>393870.8487597704</v>
+        <v>452797.5255259827</v>
       </c>
       <c r="D23" t="n">
-        <v>415784.7686625836</v>
+        <v>367883.0351135731</v>
       </c>
       <c r="E23" t="n">
-        <v>452797.5255259827</v>
+        <v>409421.7095907059</v>
       </c>
       <c r="F23" t="n">
-        <v>396053.9960089922</v>
+        <v>395443.1171313524</v>
       </c>
       <c r="G23" t="n">
         <v>475966.4483047994</v>
@@ -6234,16 +6234,16 @@
         <v>537494</v>
       </c>
       <c r="C24" t="n">
-        <v>338281.3665807843</v>
+        <v>522581.954108257</v>
       </c>
       <c r="D24" t="n">
-        <v>427131.7446816267</v>
+        <v>290820.8363760114</v>
       </c>
       <c r="E24" t="n">
-        <v>522581.954108257</v>
+        <v>407895.9659539653</v>
       </c>
       <c r="F24" t="n">
-        <v>417303.2185260057</v>
+        <v>386126.8515501022</v>
       </c>
       <c r="G24" t="n">
         <v>526982.1224159392</v>
@@ -6257,16 +6257,16 @@
         <v>558294</v>
       </c>
       <c r="C25" t="n">
-        <v>396676.3119397163</v>
+        <v>558001.9886874615</v>
       </c>
       <c r="D25" t="n">
-        <v>373479.7887187059</v>
+        <v>384532.0959494114</v>
       </c>
       <c r="E25" t="n">
-        <v>558001.9886874615</v>
+        <v>451741.9851093696</v>
       </c>
       <c r="F25" t="n">
-        <v>142269.7837813795</v>
+        <v>384479.4081298113</v>
       </c>
       <c r="G25" t="n">
         <v>546748.6395281788</v>
@@ -6280,16 +6280,16 @@
         <v>376395</v>
       </c>
       <c r="C26" t="n">
-        <v>499619.2681870461</v>
+        <v>451536.1373969507</v>
       </c>
       <c r="D26" t="n">
-        <v>455411.9732787233</v>
+        <v>418220.0204387903</v>
       </c>
       <c r="E26" t="n">
-        <v>451536.1373969507</v>
+        <v>412069.4852038661</v>
       </c>
       <c r="F26" t="n">
-        <v>407443.1005177498</v>
+        <v>345389.1444653869</v>
       </c>
       <c r="G26" t="n">
         <v>489059.5018820384</v>
@@ -6303,16 +6303,16 @@
         <v>344907</v>
       </c>
       <c r="C27" t="n">
-        <v>417361.9029400349</v>
+        <v>357860.1418151034</v>
       </c>
       <c r="D27" t="n">
-        <v>403192.5333046486</v>
+        <v>228609.1674721837</v>
       </c>
       <c r="E27" t="n">
-        <v>357860.1418151034</v>
+        <v>321800.4911191565</v>
       </c>
       <c r="F27" t="n">
-        <v>434317.2253284454</v>
+        <v>377094.2393932343</v>
       </c>
       <c r="G27" t="n">
         <v>399179.2058357761</v>
@@ -6326,16 +6326,16 @@
         <v>390963</v>
       </c>
       <c r="C28" t="n">
-        <v>352298.4785980582</v>
+        <v>373653.5109094762</v>
       </c>
       <c r="D28" t="n">
-        <v>367414.9764756871</v>
+        <v>439472.9424676895</v>
       </c>
       <c r="E28" t="n">
-        <v>373653.5109094762</v>
+        <v>391261.2591198349</v>
       </c>
       <c r="F28" t="n">
-        <v>371910.4253075123</v>
+        <v>352755.8640021682</v>
       </c>
       <c r="G28" t="n">
         <v>424899.8588521626</v>
@@ -6349,16 +6349,16 @@
         <v>398818</v>
       </c>
       <c r="C29" t="n">
-        <v>404900.9071770906</v>
+        <v>386392.971534946</v>
       </c>
       <c r="D29" t="n">
-        <v>406122.2652312171</v>
+        <v>425736.5339372158</v>
       </c>
       <c r="E29" t="n">
-        <v>386392.971534946</v>
+        <v>402443.8621277717</v>
       </c>
       <c r="F29" t="n">
-        <v>423803.2609090805</v>
+        <v>390515.3672996759</v>
       </c>
       <c r="G29" t="n">
         <v>444240.7294928526</v>
@@ -6372,16 +6372,16 @@
         <v>483044</v>
       </c>
       <c r="C30" t="n">
-        <v>412461.1619631052</v>
+        <v>472667.0816990059</v>
       </c>
       <c r="D30" t="n">
-        <v>437251.7454340222</v>
+        <v>349821.8850988746</v>
       </c>
       <c r="E30" t="n">
-        <v>472667.0816990059</v>
+        <v>389662.7766290797</v>
       </c>
       <c r="F30" t="n">
-        <v>421510.2889344692</v>
+        <v>317293.6245966554</v>
       </c>
       <c r="G30" t="n">
         <v>505465.2829977713</v>
@@ -6395,16 +6395,16 @@
         <v>419855</v>
       </c>
       <c r="C31" t="n">
-        <v>435209.9199644327</v>
+        <v>407427.5660413297</v>
       </c>
       <c r="D31" t="n">
-        <v>425893.8954440007</v>
+        <v>405791.9817653894</v>
       </c>
       <c r="E31" t="n">
-        <v>407427.5660413297</v>
+        <v>403498.4184493686</v>
       </c>
       <c r="F31" t="n">
-        <v>429953.0344740152</v>
+        <v>387847.8499714136</v>
       </c>
       <c r="G31" t="n">
         <v>471580.3279644437</v>
@@ -6418,16 +6418,16 @@
         <v>369121</v>
       </c>
       <c r="C32" t="n">
-        <v>395723.9415172338</v>
+        <v>354603.6608196225</v>
       </c>
       <c r="D32" t="n">
-        <v>387167.0109091083</v>
+        <v>403398.7360928059</v>
       </c>
       <c r="E32" t="n">
-        <v>354603.6608196225</v>
+        <v>383607.8360058476</v>
       </c>
       <c r="F32" t="n">
-        <v>405939.7446224689</v>
+        <v>390919.5571080446</v>
       </c>
       <c r="G32" t="n">
         <v>438012.6146948365</v>
@@ -6441,16 +6441,16 @@
         <v>466849</v>
       </c>
       <c r="C33" t="n">
-        <v>401041.7359647751</v>
+        <v>436229.2164824298</v>
       </c>
       <c r="D33" t="n">
-        <v>434997.0251512838</v>
+        <v>374537.8041408062</v>
       </c>
       <c r="E33" t="n">
-        <v>436229.2164824298</v>
+        <v>399598.0291803606</v>
       </c>
       <c r="F33" t="n">
-        <v>464281.4581159353</v>
+        <v>370476.2236866951</v>
       </c>
       <c r="G33" t="n">
         <v>502689.4012925135</v>
@@ -6464,16 +6464,16 @@
         <v>415682</v>
       </c>
       <c r="C34" t="n">
-        <v>411478.9052877426</v>
+        <v>391572.2352561004</v>
       </c>
       <c r="D34" t="n">
-        <v>369197.4418682369</v>
+        <v>421153.6850044727</v>
       </c>
       <c r="E34" t="n">
-        <v>391572.2352561004</v>
+        <v>392807.1753084706</v>
       </c>
       <c r="F34" t="n">
-        <v>290024.050981164</v>
+        <v>352064.3212575316</v>
       </c>
       <c r="G34" t="n">
         <v>468076.8583801065</v>
@@ -6487,16 +6487,16 @@
         <v>455766</v>
       </c>
       <c r="C35" t="n">
-        <v>451140.5742797852</v>
+        <v>451711.2979979586</v>
       </c>
       <c r="D35" t="n">
-        <v>490925.2379066781</v>
+        <v>408546.7398706675</v>
       </c>
       <c r="E35" t="n">
-        <v>451711.2979979586</v>
+        <v>424147.5714642765</v>
       </c>
       <c r="F35" t="n">
-        <v>573904.8381755352</v>
+        <v>398735.7310692072</v>
       </c>
       <c r="G35" t="n">
         <v>498639.3932488187</v>
@@ -6510,16 +6510,16 @@
         <v>542537</v>
       </c>
       <c r="C36" t="n">
-        <v>344241.1714193821</v>
+        <v>521849.056582364</v>
       </c>
       <c r="D36" t="n">
-        <v>395955.7194208096</v>
+        <v>473322.097971797</v>
       </c>
       <c r="E36" t="n">
-        <v>521849.056582364</v>
+        <v>522189.2100082934</v>
       </c>
       <c r="F36" t="n">
-        <v>308962.7348870635</v>
+        <v>577425.757938385</v>
       </c>
       <c r="G36" t="n">
         <v>548679.2576206472</v>
@@ -6533,16 +6533,16 @@
         <v>552404</v>
       </c>
       <c r="C37" t="n">
-        <v>319280.7218957543</v>
+        <v>557922.8660883973</v>
       </c>
       <c r="D37" t="n">
-        <v>402579.8165105305</v>
+        <v>374570.7854101658</v>
       </c>
       <c r="E37" t="n">
-        <v>557922.8660883973</v>
+        <v>427633.6743749325</v>
       </c>
       <c r="F37" t="n">
-        <v>318869.592480123</v>
+        <v>307539.8373303413</v>
       </c>
       <c r="G37" t="n">
         <v>568760.4043147223</v>
@@ -6556,16 +6556,16 @@
         <v>445793</v>
       </c>
       <c r="C38" t="n">
-        <v>384332.056329608</v>
+        <v>452041.4967882864</v>
       </c>
       <c r="D38" t="n">
-        <v>434922.0413838216</v>
+        <v>404297.8625599146</v>
       </c>
       <c r="E38" t="n">
-        <v>452041.4967882864</v>
+        <v>419033.4215752595</v>
       </c>
       <c r="F38" t="n">
-        <v>465963.2126954794</v>
+        <v>384237.7792260647</v>
       </c>
       <c r="G38" t="n">
         <v>505569.6999794936</v>
@@ -6579,16 +6579,16 @@
         <v>369424</v>
       </c>
       <c r="C39" t="n">
-        <v>441301.6136107445</v>
+        <v>358616.0718913526</v>
       </c>
       <c r="D39" t="n">
-        <v>390399.0704607065</v>
+        <v>432244.0237036943</v>
       </c>
       <c r="E39" t="n">
-        <v>358616.0718913526</v>
+        <v>398198.2114591193</v>
       </c>
       <c r="F39" t="n">
-        <v>363749.9791226387</v>
+        <v>405673.1621483564</v>
       </c>
       <c r="G39" t="n">
         <v>422261.3882097219</v>
@@ -6602,16 +6602,16 @@
         <v>408507</v>
       </c>
       <c r="C40" t="n">
-        <v>365721.5046200752</v>
+        <v>374268.601300222</v>
       </c>
       <c r="D40" t="n">
-        <v>404356.2775406509</v>
+        <v>456875.6398162842</v>
       </c>
       <c r="E40" t="n">
-        <v>374268.601300222</v>
+        <v>409740.6304633925</v>
       </c>
       <c r="F40" t="n">
-        <v>473589.8894367218</v>
+        <v>395303.0192760229</v>
       </c>
       <c r="G40" t="n">
         <v>443746.7561558419</v>
@@ -6625,16 +6625,16 @@
         <v>431053</v>
       </c>
       <c r="C41" t="n">
-        <v>425211.6143063307</v>
+        <v>386612.4113708346</v>
       </c>
       <c r="D41" t="n">
-        <v>426092.1002628992</v>
+        <v>369829.6795800924</v>
       </c>
       <c r="E41" t="n">
-        <v>386612.4113708346</v>
+        <v>375362.3527294273</v>
       </c>
       <c r="F41" t="n">
-        <v>463486.9577137232</v>
+        <v>357117.8665832281</v>
       </c>
       <c r="G41" t="n">
         <v>465005.6817478752</v>
@@ -6648,16 +6648,16 @@
         <v>513430</v>
       </c>
       <c r="C42" t="n">
-        <v>464339.997451067</v>
+        <v>472466.2606356317</v>
       </c>
       <c r="D42" t="n">
-        <v>468989.5489835118</v>
+        <v>425361.1422899961</v>
       </c>
       <c r="E42" t="n">
-        <v>472466.2606356317</v>
+        <v>446666.6620006359</v>
       </c>
       <c r="F42" t="n">
-        <v>464622.949660778</v>
+        <v>429435.7314852476</v>
       </c>
       <c r="G42" t="n">
         <v>528309.2075092979</v>
@@ -6671,16 +6671,16 @@
         <v>440389</v>
       </c>
       <c r="C43" t="n">
-        <v>349179.4394711256</v>
+        <v>406980.7671545794</v>
       </c>
       <c r="D43" t="n">
-        <v>385661.2225930262</v>
+        <v>414111.3860622644</v>
       </c>
       <c r="E43" t="n">
-        <v>406980.7671545794</v>
+        <v>414167.385603588</v>
       </c>
       <c r="F43" t="n">
-        <v>393490.4760704041</v>
+        <v>414539.2962703705</v>
       </c>
       <c r="G43" t="n">
         <v>490590.5174197833</v>
@@ -6694,16 +6694,16 @@
         <v>379682</v>
       </c>
       <c r="C44" t="n">
-        <v>384859.5873806477</v>
+        <v>354166.0119822463</v>
       </c>
       <c r="D44" t="n">
-        <v>396138.7979480809</v>
+        <v>327176.8705991507</v>
       </c>
       <c r="E44" t="n">
-        <v>354166.0119822463</v>
+        <v>383475.466702381</v>
       </c>
       <c r="F44" t="n">
-        <v>445052.1690884829</v>
+        <v>478777.0886967182</v>
       </c>
       <c r="G44" t="n">
         <v>459596.6856832807</v>
@@ -6717,16 +6717,16 @@
         <v>479188</v>
       </c>
       <c r="C45" t="n">
-        <v>418976.9937661886</v>
+        <v>436003.1543473253</v>
       </c>
       <c r="D45" t="n">
-        <v>430078.9444770497</v>
+        <v>399539.0812841654</v>
       </c>
       <c r="E45" t="n">
-        <v>436003.1543473253</v>
+        <v>406571.6777912957</v>
       </c>
       <c r="F45" t="n">
-        <v>427048.0471704006</v>
+        <v>363869.4515947104</v>
       </c>
       <c r="G45" t="n">
         <v>521976.9287469126</v>
@@ -6740,16 +6740,16 @@
         <v>435196</v>
       </c>
       <c r="C46" t="n">
-        <v>450041.9643286467</v>
+        <v>391623.4989193973</v>
       </c>
       <c r="D46" t="n">
-        <v>418495.3477503565</v>
+        <v>414060.5600885153</v>
       </c>
       <c r="E46" t="n">
-        <v>391623.4989193973</v>
+        <v>408053.8229734369</v>
       </c>
       <c r="F46" t="n">
-        <v>404503.6811558008</v>
+        <v>412846.0320982933</v>
       </c>
       <c r="G46" t="n">
         <v>486324.1202335281</v>
@@ -6763,16 +6763,16 @@
         <v>486277</v>
       </c>
       <c r="C47" t="n">
-        <v>377501.6451171637</v>
+        <v>451964.2010382975</v>
       </c>
       <c r="D47" t="n">
-        <v>426327.2413948675</v>
+        <v>406502.4089465141</v>
       </c>
       <c r="E47" t="n">
-        <v>451964.2010382975</v>
+        <v>422302.7265855305</v>
       </c>
       <c r="F47" t="n">
-        <v>444296.0178748369</v>
+        <v>391589.7248951197</v>
       </c>
       <c r="G47" t="n">
         <v>521371.3823265028</v>
@@ -6786,16 +6786,16 @@
         <v>555663</v>
       </c>
       <c r="C48" t="n">
-        <v>421161.0114887953</v>
+        <v>522148.3358096154</v>
       </c>
       <c r="D48" t="n">
-        <v>467492.721398096</v>
+        <v>442530.3109732866</v>
       </c>
       <c r="E48" t="n">
-        <v>522148.3358096154</v>
+        <v>470509.6007889987</v>
       </c>
       <c r="F48" t="n">
-        <v>452309.3540576696</v>
+        <v>426039.2410567999</v>
       </c>
       <c r="G48" t="n">
         <v>570351.7261879757</v>
@@ -6809,16 +6809,16 @@
         <v>550212</v>
       </c>
       <c r="C49" t="n">
-        <v>417899.0817377567</v>
+        <v>558120.8495424639</v>
       </c>
       <c r="D49" t="n">
-        <v>476313.0576495324</v>
+        <v>460679.0765521526</v>
       </c>
       <c r="E49" t="n">
-        <v>558120.8495424639</v>
+        <v>438160.6453433373</v>
       </c>
       <c r="F49" t="n">
-        <v>445528.6081877947</v>
+        <v>240425.4507496059</v>
       </c>
       <c r="G49" t="n">
         <v>590673.8237659035</v>
@@ -6832,16 +6832,16 @@
         <v>479833</v>
       </c>
       <c r="C50" t="n">
-        <v>434727.0973936319</v>
+        <v>452065.3265494981</v>
       </c>
       <c r="D50" t="n">
-        <v>449614.5112306263</v>
+        <v>422417.0078638792</v>
       </c>
       <c r="E50" t="n">
-        <v>452065.3265494981</v>
+        <v>449819.046029201</v>
       </c>
       <c r="F50" t="n">
-        <v>456230.425599575</v>
+        <v>471007.1949038506</v>
       </c>
       <c r="G50" t="n">
         <v>522074.6783233112</v>
@@ -6855,16 +6855,16 @@
         <v>374481</v>
       </c>
       <c r="C51" t="n">
-        <v>428538.2008860111</v>
+        <v>358487.500825932</v>
       </c>
       <c r="D51" t="n">
-        <v>408021.1578653075</v>
+        <v>417140.7059810162</v>
       </c>
       <c r="E51" t="n">
-        <v>358487.500825932</v>
+        <v>390907.4756147551</v>
       </c>
       <c r="F51" t="n">
-        <v>432328.3870825768</v>
+        <v>394944.7469387054</v>
       </c>
       <c r="G51" t="n">
         <v>445400.0386780257</v>
@@ -6878,16 +6878,16 @@
         <v>434298</v>
       </c>
       <c r="C52" t="n">
-        <v>416550.2106884718</v>
+        <v>374076.0917165835</v>
       </c>
       <c r="D52" t="n">
-        <v>424125.9083668927</v>
+        <v>417289.5569298267</v>
       </c>
       <c r="E52" t="n">
-        <v>374076.0917165835</v>
+        <v>392313.8027307875</v>
       </c>
       <c r="F52" t="n">
-        <v>479713.6938790083</v>
+        <v>377876.7224267721</v>
       </c>
       <c r="G52" t="n">
         <v>462598.1778129459</v>
@@ -6901,16 +6901,16 @@
         <v>457767</v>
       </c>
       <c r="C53" t="n">
-        <v>382315.2420363426</v>
+        <v>386457.4794458256</v>
       </c>
       <c r="D53" t="n">
-        <v>382716.0621760033</v>
+        <v>475529.0139803886</v>
       </c>
       <c r="E53" t="n">
-        <v>386457.4794458256</v>
+        <v>428985.2451064862</v>
       </c>
       <c r="F53" t="n">
-        <v>369038.1532952785</v>
+        <v>421613.6092892885</v>
       </c>
       <c r="G53" t="n">
         <v>485824.9798895555</v>
@@ -6924,16 +6924,16 @@
         <v>542765</v>
       </c>
       <c r="C54" t="n">
-        <v>446748.6249963045</v>
+        <v>472413.8487118969</v>
       </c>
       <c r="D54" t="n">
-        <v>449917.5695094463</v>
+        <v>403385.2195755243</v>
       </c>
       <c r="E54" t="n">
-        <v>472413.8487118969</v>
+        <v>434762.0717833421</v>
       </c>
       <c r="F54" t="n">
-        <v>420321.0530320406</v>
+        <v>410276.9749817848</v>
       </c>
       <c r="G54" t="n">
         <v>551108.9025233381</v>
@@ -6947,16 +6947,16 @@
         <v>458189</v>
       </c>
       <c r="C55" t="n">
-        <v>391399.9375174046</v>
+        <v>407035.9494534837</v>
       </c>
       <c r="D55" t="n">
-        <v>402716.7237016011</v>
+        <v>221852.8855313957</v>
       </c>
       <c r="E55" t="n">
-        <v>407035.9494534837</v>
+        <v>356661.0526012392</v>
       </c>
       <c r="F55" t="n">
-        <v>400066.805773735</v>
+        <v>434171.3001374006</v>
       </c>
       <c r="G55" t="n">
         <v>509573.134471083</v>
@@ -6970,16 +6970,16 @@
         <v>395074</v>
       </c>
       <c r="C56" t="n">
-        <v>348108.2615215182</v>
+        <v>354282.9041416887</v>
       </c>
       <c r="D56" t="n">
-        <v>359953.8865873875</v>
+        <v>424607.1914396286</v>
       </c>
       <c r="E56" t="n">
-        <v>354282.9041416887</v>
+        <v>392951.9861232942</v>
       </c>
       <c r="F56" t="n">
-        <v>366650.2030024529</v>
+        <v>394633.9395806789</v>
       </c>
       <c r="G56" t="n">
         <v>481189.2591407957</v>
@@ -6993,16 +6993,16 @@
         <v>222108</v>
       </c>
       <c r="C57" t="n">
-        <v>439840.4031351805</v>
+        <v>436115.8268110618</v>
       </c>
       <c r="D57" t="n">
-        <v>445790.5808653239</v>
+        <v>441101.9850478172</v>
       </c>
       <c r="E57" t="n">
-        <v>436115.8268110618</v>
+        <v>423322.8969711619</v>
       </c>
       <c r="F57" t="n">
-        <v>452165.8226684332</v>
+        <v>371618.212228179</v>
       </c>
       <c r="G57" t="n">
         <v>546326.7454719767</v>
@@ -7016,16 +7016,16 @@
         <v>12647</v>
       </c>
       <c r="C58" t="n">
-        <v>373632.5601801872</v>
+        <v>391680.3879996235</v>
       </c>
       <c r="D58" t="n">
-        <v>413498.513509094</v>
+        <v>421301.230243206</v>
       </c>
       <c r="E58" t="n">
-        <v>391680.3879996235</v>
+        <v>416308.903886113</v>
       </c>
       <c r="F58" t="n">
-        <v>469525.0205276012</v>
+        <v>430511.2255320549</v>
       </c>
       <c r="G58" t="n">
         <v>514120.7105215341</v>
@@ -7039,16 +7039,16 @@
         <v>15108</v>
       </c>
       <c r="C59" t="n">
-        <v>432421.576094389</v>
+        <v>451949.3683868933</v>
       </c>
       <c r="D59" t="n">
-        <v>455326.6575302687</v>
+        <v>445037.346861124</v>
       </c>
       <c r="E59" t="n">
-        <v>451949.3683868933</v>
+        <v>449572.7463367375</v>
       </c>
       <c r="F59" t="n">
-        <v>475911.6353926659</v>
+        <v>441898.1054977179</v>
       </c>
       <c r="G59" t="n">
         <v>535700.9909292457</v>
@@ -7062,16 +7062,16 @@
         <v>30337</v>
       </c>
       <c r="C60" t="n">
-        <v>416236.7919102907</v>
+        <v>522082.1716682678</v>
       </c>
       <c r="D60" t="n">
-        <v>346368.5488066521</v>
+        <v>448191.0235748291</v>
       </c>
       <c r="E60" t="n">
-        <v>522082.1716682678</v>
+        <v>489928.5671608245</v>
       </c>
       <c r="F60" t="n">
-        <v>66091.21829366684</v>
+        <v>486912.3395130634</v>
       </c>
       <c r="G60" t="n">
         <v>587608.7441048066</v>
@@ -7085,16 +7085,16 @@
         <v>57641</v>
       </c>
       <c r="C61" t="n">
-        <v>475538.4924683571</v>
+        <v>558043.7612040136</v>
       </c>
       <c r="D61" t="n">
-        <v>496053.8010297024</v>
+        <v>472787.2162566185</v>
       </c>
       <c r="E61" t="n">
-        <v>558043.7612040136</v>
+        <v>500676.9149693687</v>
       </c>
       <c r="F61" t="n">
-        <v>444213.0327454805</v>
+        <v>448027.0602408648</v>
       </c>
       <c r="G61" t="n">
         <v>606984.7353138692</v>
@@ -7108,16 +7108,16 @@
         <v>67932</v>
       </c>
       <c r="C62" t="n">
-        <v>263324.3593648672</v>
+        <v>452015.1940095781</v>
       </c>
       <c r="D62" t="n">
-        <v>405151.5398701103</v>
+        <v>471414.6731672287</v>
       </c>
       <c r="E62" t="n">
-        <v>452015.1940095781</v>
+        <v>459323.2909633904</v>
       </c>
       <c r="F62" t="n">
-        <v>498154.6483573914</v>
+        <v>443238.6586902142</v>
       </c>
       <c r="G62" t="n">
         <v>554884.9950771797</v>
@@ -7131,16 +7131,16 @@
         <v>83870</v>
       </c>
       <c r="C63" t="n">
-        <v>480202.2228864431</v>
+        <v>358482.5491476187</v>
       </c>
       <c r="D63" t="n">
-        <v>421779.7177379142</v>
+        <v>301934.073361218</v>
       </c>
       <c r="E63" t="n">
-        <v>358482.5491476187</v>
+        <v>367466.9036440413</v>
       </c>
       <c r="F63" t="n">
-        <v>418564.1475836039</v>
+        <v>445992.2561643124</v>
       </c>
       <c r="G63" t="n">
         <v>458499.8693487801</v>
@@ -7154,16 +7154,16 @@
         <v>114801</v>
       </c>
       <c r="C64" t="n">
-        <v>439426.6139397621</v>
+        <v>374110.120253586</v>
       </c>
       <c r="D64" t="n">
-        <v>426282.8399627387</v>
+        <v>374665.5944696665</v>
       </c>
       <c r="E64" t="n">
-        <v>374110.120253586</v>
+        <v>394360.0816419265</v>
       </c>
       <c r="F64" t="n">
-        <v>458914.2884836197</v>
+        <v>432643.5226277113</v>
       </c>
       <c r="G64" t="n">
         <v>488402.0619910226</v>
@@ -7177,16 +7177,16 @@
         <v>137031</v>
       </c>
       <c r="C65" t="n">
-        <v>415705.1019308567</v>
+        <v>386507.3397150005</v>
       </c>
       <c r="D65" t="n">
-        <v>435737.6651234478</v>
+        <v>389199.0664628744</v>
       </c>
       <c r="E65" t="n">
-        <v>386507.3397150005</v>
+        <v>415663.7119934161</v>
       </c>
       <c r="F65" t="n">
-        <v>501011.1067698002</v>
+        <v>473795.6596729755</v>
       </c>
       <c r="G65" t="n">
         <v>505876.730319127</v>
@@ -7200,16 +7200,16 @@
         <v>213203</v>
       </c>
       <c r="C66" t="n">
-        <v>537444.4317755699</v>
+        <v>472453.3909673161</v>
       </c>
       <c r="D66" t="n">
-        <v>484216.6200219933</v>
+        <v>467590.7319471836</v>
       </c>
       <c r="E66" t="n">
-        <v>472453.3909673161</v>
+        <v>457747.2773087639</v>
       </c>
       <c r="F66" t="n">
-        <v>429691.7473796606</v>
+        <v>414835.3539404869</v>
       </c>
       <c r="G66" t="n">
         <v>564925.2970471132</v>
@@ -7223,16 +7223,16 @@
         <v>121733</v>
       </c>
       <c r="C67" t="n">
-        <v>403817.1919927597</v>
+        <v>407048.7395718622</v>
       </c>
       <c r="D67" t="n">
-        <v>416098.8661895001</v>
+        <v>497917.661978364</v>
       </c>
       <c r="E67" t="n">
-        <v>407048.7395718622</v>
+        <v>437234.458361794</v>
       </c>
       <c r="F67" t="n">
-        <v>426969.1967896223</v>
+        <v>392596.4999041557</v>
       </c>
       <c r="G67" t="n">
         <v>534886.9308876521</v>
@@ -7246,16 +7246,16 @@
         <v>89788</v>
       </c>
       <c r="C68" t="n">
-        <v>459893.1116250753</v>
+        <v>354268.0325273531</v>
       </c>
       <c r="D68" t="n">
-        <v>421854.9266156175</v>
+        <v>248437.4872673154</v>
       </c>
       <c r="E68" t="n">
-        <v>354268.0325273531</v>
+        <v>349497.2065892702</v>
       </c>
       <c r="F68" t="n">
-        <v>441398.2361564636</v>
+        <v>445749.8535064459</v>
       </c>
       <c r="G68" t="n">
         <v>498783.367718015</v>
@@ -7269,16 +7269,16 @@
         <v>177155</v>
       </c>
       <c r="C69" t="n">
-        <v>421533.4290186167</v>
+        <v>436085.409766098</v>
       </c>
       <c r="D69" t="n">
-        <v>426141.6272333389</v>
+        <v>431035.1054308414</v>
       </c>
       <c r="E69" t="n">
-        <v>436085.409766098</v>
+        <v>446258.1695376387</v>
       </c>
       <c r="F69" t="n">
-        <v>407111.8370351791</v>
+        <v>463412.145362258</v>
       </c>
       <c r="G69" t="n">
         <v>565703.6925908024</v>
@@ -7292,16 +7292,16 @@
         <v>226409</v>
       </c>
       <c r="C70" t="n">
-        <v>415016.2189660072</v>
+        <v>391651.4859789911</v>
       </c>
       <c r="D70" t="n">
-        <v>424507.5606265413</v>
+        <v>435319.9864879847</v>
       </c>
       <c r="E70" t="n">
-        <v>391651.4859789911</v>
+        <v>421084.1055314744</v>
       </c>
       <c r="F70" t="n">
-        <v>457725.5603573322</v>
+        <v>428928.2213220596</v>
       </c>
       <c r="G70" t="n">
         <v>532240.3474839255</v>
@@ -7315,16 +7315,16 @@
         <v>299382</v>
       </c>
       <c r="C71" t="n">
-        <v>361804.9063441753</v>
+        <v>451935.1274305064</v>
       </c>
       <c r="D71" t="n">
-        <v>432127.6304189381</v>
+        <v>440764.1204754114</v>
       </c>
       <c r="E71" t="n">
-        <v>451935.1274305064</v>
+        <v>440075.1147962095</v>
       </c>
       <c r="F71" t="n">
-        <v>476555.7373378277</v>
+        <v>410359.0170983076</v>
       </c>
       <c r="G71" t="n">
         <v>558312.0639405902</v>
@@ -7338,16 +7338,16 @@
         <v>371306</v>
       </c>
       <c r="C72" t="n">
-        <v>387785.8529225588</v>
+        <v>522086.4508743783</v>
       </c>
       <c r="D72" t="n">
-        <v>465817.8754481332</v>
+        <v>388781.7470142841</v>
       </c>
       <c r="E72" t="n">
-        <v>522086.4508743783</v>
+        <v>473070.667441114</v>
       </c>
       <c r="F72" t="n">
-        <v>479753.5180363655</v>
+        <v>494416.7389235497</v>
       </c>
       <c r="G72" t="n">
         <v>609327.7380517054</v>
@@ -7361,16 +7361,16 @@
         <v>385452</v>
       </c>
       <c r="C73" t="n">
-        <v>436604.4666866064</v>
+        <v>558061.0869353145</v>
       </c>
       <c r="D73" t="n">
-        <v>502330.0792831311</v>
+        <v>511183.7730828524</v>
       </c>
       <c r="E73" t="n">
-        <v>558061.0869353145</v>
+        <v>526565.7906497016</v>
       </c>
       <c r="F73" t="n">
-        <v>504967.2632250786</v>
+        <v>492611.1836848259</v>
       </c>
       <c r="G73" t="n">
         <v>629094.2551639751</v>
@@ -7384,16 +7384,16 @@
         <v>305847</v>
       </c>
       <c r="C74" t="n">
-        <v>424793.1825861931</v>
+        <v>452035.0597524696</v>
       </c>
       <c r="D74" t="n">
-        <v>460020.8877562616</v>
+        <v>389612.8314784765</v>
       </c>
       <c r="E74" t="n">
-        <v>452035.0597524696</v>
+        <v>442825.9699187885</v>
       </c>
       <c r="F74" t="n">
-        <v>495752.383613348</v>
+        <v>479140.3420761824</v>
       </c>
       <c r="G74" t="n">
         <v>571405.1175177998</v>
@@ -7407,16 +7407,16 @@
         <v>252301</v>
       </c>
       <c r="C75" t="n">
-        <v>400459.5343492031</v>
+        <v>358495.2450820481</v>
       </c>
       <c r="D75" t="n">
-        <v>415177.3448328015</v>
+        <v>407494.0232107639</v>
       </c>
       <c r="E75" t="n">
-        <v>358495.2450820481</v>
+        <v>403455.205366404</v>
       </c>
       <c r="F75" t="n">
-        <v>482599.917645216</v>
+        <v>447069.9747542143</v>
       </c>
       <c r="G75" t="n">
         <v>481524.8214715531</v>
@@ -7454,22 +7454,22 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>arima</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>lstm</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>weighted_ensemble</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>lstm_reg</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>weighted_ensemble</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>arima</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>lstm</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -7486,16 +7486,16 @@
         <v>467457</v>
       </c>
       <c r="C2" t="n">
-        <v>399418.0371240377</v>
+        <v>451285.4040904046</v>
       </c>
       <c r="D2" t="n">
-        <v>422090.1649738995</v>
+        <v>451292.1817276478</v>
       </c>
       <c r="E2" t="n">
-        <v>451285.4040904046</v>
+        <v>425229.1284100979</v>
       </c>
       <c r="F2" t="n">
-        <v>415423.9390275478</v>
+        <v>359367.3390684128</v>
       </c>
       <c r="G2" t="n">
         <v>439729.0626875589</v>
@@ -7509,16 +7509,16 @@
         <v>360593</v>
       </c>
       <c r="C3" t="n">
-        <v>363486.2015072107</v>
+        <v>358743.2067200664</v>
       </c>
       <c r="D3" t="n">
-        <v>368500.4973921903</v>
+        <v>398170.8663818836</v>
       </c>
       <c r="E3" t="n">
-        <v>358743.2067200664</v>
+        <v>369595.8294542551</v>
       </c>
       <c r="F3" t="n">
-        <v>384516.5966871977</v>
+        <v>350383.1349036694</v>
       </c>
       <c r="G3" t="n">
         <v>363054.4230422495</v>
@@ -7532,16 +7532,16 @@
         <v>397613</v>
       </c>
       <c r="C4" t="n">
-        <v>372365.2234712839</v>
+        <v>375988.6944769993</v>
       </c>
       <c r="D4" t="n">
-        <v>372523.6048643865</v>
+        <v>343621.8296060562</v>
       </c>
       <c r="E4" t="n">
-        <v>375988.6944769993</v>
+        <v>371650.5506300911</v>
       </c>
       <c r="F4" t="n">
-        <v>368387.3777208328</v>
+        <v>398303.9279106855</v>
       </c>
       <c r="G4" t="n">
         <v>380252.5621771832</v>
@@ -7555,16 +7555,16 @@
         <v>420034</v>
       </c>
       <c r="C5" t="n">
-        <v>371264.413156867</v>
+        <v>390126.4097070204</v>
       </c>
       <c r="D5" t="n">
-        <v>340110.4934510293</v>
+        <v>399401.1354324818</v>
       </c>
       <c r="E5" t="n">
-        <v>390126.4097070204</v>
+        <v>384361.9875037709</v>
       </c>
       <c r="F5" t="n">
-        <v>248483.1327154338</v>
+        <v>356959.0656400323</v>
       </c>
       <c r="G5" t="n">
         <v>403479.3642537682</v>
@@ -7578,16 +7578,16 @@
         <v>519636</v>
       </c>
       <c r="C6" t="n">
-        <v>421719.3718055487</v>
+        <v>474111.4002716879</v>
       </c>
       <c r="D6" t="n">
-        <v>426646.4679399829</v>
+        <v>345888.022434175</v>
       </c>
       <c r="E6" t="n">
-        <v>474111.4002716879</v>
+        <v>402430.8654137962</v>
       </c>
       <c r="F6" t="n">
-        <v>379385.1077238321</v>
+        <v>370067.5847921371</v>
       </c>
       <c r="G6" t="n">
         <v>468763.2868875506</v>
@@ -7601,16 +7601,16 @@
         <v>449336</v>
       </c>
       <c r="C7" t="n">
-        <v>357985.8615369201</v>
+        <v>408845.4049488608</v>
       </c>
       <c r="D7" t="n">
-        <v>383056.9213897667</v>
+        <v>395191.5986827612</v>
       </c>
       <c r="E7" t="n">
-        <v>408845.4049488608</v>
+        <v>401143.2926518812</v>
       </c>
       <c r="F7" t="n">
-        <v>379855.1149920225</v>
+        <v>395316.2456355095</v>
       </c>
       <c r="G7" t="n">
         <v>427227.5188353079</v>
@@ -7624,16 +7624,16 @@
         <v>388763</v>
       </c>
       <c r="C8" t="n">
-        <v>358006.9342467785</v>
+        <v>353844.0509543302</v>
       </c>
       <c r="D8" t="n">
-        <v>371808.6059064895</v>
+        <v>427474.2164317369</v>
       </c>
       <c r="E8" t="n">
-        <v>353844.0509543302</v>
+        <v>387614.0617997898</v>
       </c>
       <c r="F8" t="n">
-        <v>402615.2375069857</v>
+        <v>382264.1984442472</v>
       </c>
       <c r="G8" t="n">
         <v>398843.6435050212</v>
@@ -7647,16 +7647,16 @@
         <v>464430</v>
       </c>
       <c r="C9" t="n">
-        <v>334542.4295047522</v>
+        <v>433403.0253548989</v>
       </c>
       <c r="D9" t="n">
-        <v>382491.3564601192</v>
+        <v>362961.0400781631</v>
       </c>
       <c r="E9" t="n">
-        <v>433403.0253548989</v>
+        <v>393220.3976453137</v>
       </c>
       <c r="F9" t="n">
-        <v>375041.9291297197</v>
+        <v>369473.970303297</v>
       </c>
       <c r="G9" t="n">
         <v>463981.1298362083</v>
@@ -7670,16 +7670,16 @@
         <v>392441</v>
       </c>
       <c r="C10" t="n">
-        <v>378316.7709026337</v>
+        <v>388867.2114069504</v>
       </c>
       <c r="D10" t="n">
-        <v>379923.4029940002</v>
+        <v>345758.3339897394</v>
       </c>
       <c r="E10" t="n">
-        <v>388867.2114069504</v>
+        <v>381866.819912001</v>
       </c>
       <c r="F10" t="n">
-        <v>367377.0724586248</v>
+        <v>409887.0996246338</v>
       </c>
       <c r="G10" t="n">
         <v>431775.09488576</v>
@@ -7693,16 +7693,16 @@
         <v>473082</v>
       </c>
       <c r="C11" t="n">
-        <v>363729.5229980946</v>
+        <v>448636.7004745384</v>
       </c>
       <c r="D11" t="n">
-        <v>400742.6489420111</v>
+        <v>362833.3222887516</v>
       </c>
       <c r="E11" t="n">
-        <v>448636.7004745384</v>
+        <v>405820.2489321032</v>
       </c>
       <c r="F11" t="n">
-        <v>387244.5635560751</v>
+        <v>396481.0599235296</v>
       </c>
       <c r="G11" t="n">
         <v>453355.3752934641</v>
@@ -7716,16 +7716,16 @@
         <v>541016</v>
       </c>
       <c r="C12" t="n">
-        <v>343355.2229521275</v>
+        <v>517822.0750035333</v>
       </c>
       <c r="D12" t="n">
-        <v>417860.0558628897</v>
+        <v>428525.2888641357</v>
       </c>
       <c r="E12" t="n">
-        <v>517822.0750035333</v>
+        <v>448563.4915508088</v>
       </c>
       <c r="F12" t="n">
-        <v>388907.5062385798</v>
+        <v>377178.0224565268</v>
       </c>
       <c r="G12" t="n">
         <v>505263.1284690171</v>
@@ -7739,16 +7739,16 @@
         <v>559606</v>
       </c>
       <c r="C13" t="n">
-        <v>367423.3526269197</v>
+        <v>552874.5354405972</v>
       </c>
       <c r="D13" t="n">
-        <v>435129.818593422</v>
+        <v>388014.1345677376</v>
       </c>
       <c r="E13" t="n">
-        <v>552874.5354405972</v>
+        <v>442680.8951542875</v>
       </c>
       <c r="F13" t="n">
-        <v>380339.7510490417</v>
+        <v>357049.848760128</v>
       </c>
       <c r="G13" t="n">
         <v>524639.1196781083</v>
@@ -7762,16 +7762,16 @@
         <v>451152</v>
       </c>
       <c r="C14" t="n">
-        <v>405979.5204201937</v>
+        <v>450726.7466562079</v>
       </c>
       <c r="D14" t="n">
-        <v>410581.2251142781</v>
+        <v>396132.3627934456</v>
       </c>
       <c r="E14" t="n">
-        <v>450726.7466562079</v>
+        <v>415340.3406688068</v>
       </c>
       <c r="F14" t="n">
-        <v>368454.8635879755</v>
+        <v>386211.0214904547</v>
       </c>
       <c r="G14" t="n">
         <v>472539.3794413942</v>
@@ -7785,16 +7785,16 @@
         <v>378001</v>
       </c>
       <c r="C15" t="n">
-        <v>356951.3280988336</v>
+        <v>357715.6281940724</v>
       </c>
       <c r="D15" t="n">
-        <v>377804.952252925</v>
+        <v>149170.3293064646</v>
       </c>
       <c r="E15" t="n">
-        <v>357715.6281940724</v>
+        <v>291113.4880816417</v>
       </c>
       <c r="F15" t="n">
-        <v>421393.4520623684</v>
+        <v>364219.0433779955</v>
       </c>
       <c r="G15" t="n">
         <v>376154.2537129904</v>
@@ -7808,16 +7808,16 @@
         <v>398024</v>
       </c>
       <c r="C16" t="n">
-        <v>388656.3746670485</v>
+        <v>372932.3225724506</v>
       </c>
       <c r="D16" t="n">
-        <v>374581.7762536919</v>
+        <v>433793.3937892914</v>
       </c>
       <c r="E16" t="n">
-        <v>372932.3225724506</v>
+        <v>386813.8517849195</v>
       </c>
       <c r="F16" t="n">
-        <v>357660.2682212591</v>
+        <v>346677.6626933217</v>
       </c>
       <c r="G16" t="n">
         <v>406056.4463552554</v>
@@ -7831,16 +7831,16 @@
         <v>403968</v>
       </c>
       <c r="C17" t="n">
-        <v>367173.3333269358</v>
+        <v>384607.5746850896</v>
       </c>
       <c r="D17" t="n">
-        <v>378754.5161057537</v>
+        <v>400893.9489278793</v>
       </c>
       <c r="E17" t="n">
-        <v>384607.5746850896</v>
+        <v>402425.2565388632</v>
       </c>
       <c r="F17" t="n">
-        <v>381028.8999918699</v>
+        <v>424562.0477226973</v>
       </c>
       <c r="G17" t="n">
         <v>423531.1146833431</v>
@@ -7854,16 +7854,16 @@
         <v>503379</v>
       </c>
       <c r="C18" t="n">
-        <v>380146.5059576035</v>
+        <v>470280.1644497839</v>
       </c>
       <c r="D18" t="n">
-        <v>417457.8671538369</v>
+        <v>386913.6144111156</v>
       </c>
       <c r="E18" t="n">
-        <v>470280.1644497839</v>
+        <v>414158.5655424889</v>
       </c>
       <c r="F18" t="n">
-        <v>398005.7182369232</v>
+        <v>366739.450704217</v>
       </c>
       <c r="G18" t="n">
         <v>482579.6814113411</v>
@@ -7877,16 +7877,16 @@
         <v>426440</v>
       </c>
       <c r="C19" t="n">
-        <v>381788.2429412603</v>
+        <v>405290.18621852</v>
       </c>
       <c r="D19" t="n">
-        <v>394512.5065534462</v>
+        <v>412637.8197005987</v>
       </c>
       <c r="E19" t="n">
-        <v>405290.18621852</v>
+        <v>391088.4303534529</v>
       </c>
       <c r="F19" t="n">
-        <v>391690.4580096006</v>
+        <v>340269.7816798687</v>
       </c>
       <c r="G19" t="n">
         <v>452541.3152518788</v>
@@ -7900,16 +7900,16 @@
         <v>357556</v>
       </c>
       <c r="C20" t="n">
-        <v>360723.4398827553</v>
+        <v>353424.2108102121</v>
       </c>
       <c r="D20" t="n">
-        <v>367606.2699699711</v>
+        <v>350666.8487775922</v>
       </c>
       <c r="E20" t="n">
-        <v>353424.2108102121</v>
+        <v>344683.7784232356</v>
       </c>
       <c r="F20" t="n">
-        <v>384772.5642219782</v>
+        <v>318086.4203218222</v>
       </c>
       <c r="G20" t="n">
         <v>416437.7520822426</v>
@@ -7923,16 +7923,16 @@
         <v>442013</v>
       </c>
       <c r="C21" t="n">
-        <v>351752.6434261203</v>
+        <v>436222.1437917445</v>
       </c>
       <c r="D21" t="n">
-        <v>409696.243011878</v>
+        <v>447734.8955211639</v>
       </c>
       <c r="E21" t="n">
-        <v>436222.1437917445</v>
+        <v>435581.1827476345</v>
       </c>
       <c r="F21" t="n">
-        <v>438909.8429069519</v>
+        <v>414814.6076581478</v>
       </c>
       <c r="G21" t="n">
         <v>483358.0769550246</v>
@@ -7946,16 +7946,16 @@
         <v>414088</v>
       </c>
       <c r="C22" t="n">
-        <v>388654.4402817488</v>
+        <v>392421.4962368557</v>
       </c>
       <c r="D22" t="n">
-        <v>408793.4481022746</v>
+        <v>353084.9150315523</v>
       </c>
       <c r="E22" t="n">
-        <v>392421.4962368557</v>
+        <v>365711.8010415713</v>
       </c>
       <c r="F22" t="n">
-        <v>443531.1861071587</v>
+        <v>336743.0224913955</v>
       </c>
       <c r="G22" t="n">
         <v>449894.7318481408</v>
@@ -7969,16 +7969,16 @@
         <v>458758</v>
       </c>
       <c r="C23" t="n">
-        <v>393870.8487597704</v>
+        <v>452797.5255259827</v>
       </c>
       <c r="D23" t="n">
-        <v>415784.7686625836</v>
+        <v>367883.0351135731</v>
       </c>
       <c r="E23" t="n">
-        <v>452797.5255259827</v>
+        <v>409421.7095907059</v>
       </c>
       <c r="F23" t="n">
-        <v>396053.9960089922</v>
+        <v>395443.1171313524</v>
       </c>
       <c r="G23" t="n">
         <v>475966.4483047994</v>
@@ -7992,16 +7992,16 @@
         <v>537494</v>
       </c>
       <c r="C24" t="n">
-        <v>338281.3665807843</v>
+        <v>522581.954108257</v>
       </c>
       <c r="D24" t="n">
-        <v>427131.7446816267</v>
+        <v>290820.8363760114</v>
       </c>
       <c r="E24" t="n">
-        <v>522581.954108257</v>
+        <v>407895.9659539653</v>
       </c>
       <c r="F24" t="n">
-        <v>417303.2185260057</v>
+        <v>386126.8515501022</v>
       </c>
       <c r="G24" t="n">
         <v>526982.1224159392</v>
@@ -8015,16 +8015,16 @@
         <v>558294</v>
       </c>
       <c r="C25" t="n">
-        <v>396676.3119397163</v>
+        <v>558001.9886874615</v>
       </c>
       <c r="D25" t="n">
-        <v>373479.7887187059</v>
+        <v>384532.0959494114</v>
       </c>
       <c r="E25" t="n">
-        <v>558001.9886874615</v>
+        <v>451741.9851093696</v>
       </c>
       <c r="F25" t="n">
-        <v>142269.7837813795</v>
+        <v>384479.4081298113</v>
       </c>
       <c r="G25" t="n">
         <v>546748.6395281788</v>
@@ -8038,16 +8038,16 @@
         <v>376395</v>
       </c>
       <c r="C26" t="n">
-        <v>499619.2681870461</v>
+        <v>451536.1373969507</v>
       </c>
       <c r="D26" t="n">
-        <v>455411.9732787233</v>
+        <v>418220.0204387903</v>
       </c>
       <c r="E26" t="n">
-        <v>451536.1373969507</v>
+        <v>412069.4852038661</v>
       </c>
       <c r="F26" t="n">
-        <v>407443.1005177498</v>
+        <v>345389.1444653869</v>
       </c>
       <c r="G26" t="n">
         <v>489059.5018820384</v>
@@ -8061,16 +8061,16 @@
         <v>344907</v>
       </c>
       <c r="C27" t="n">
-        <v>417361.9029400349</v>
+        <v>357860.1418151034</v>
       </c>
       <c r="D27" t="n">
-        <v>403192.5333046486</v>
+        <v>228609.1674721837</v>
       </c>
       <c r="E27" t="n">
-        <v>357860.1418151034</v>
+        <v>321800.4911191565</v>
       </c>
       <c r="F27" t="n">
-        <v>434317.2253284454</v>
+        <v>377094.2393932343</v>
       </c>
       <c r="G27" t="n">
         <v>399179.2058357761</v>
@@ -8084,16 +8084,16 @@
         <v>390963</v>
       </c>
       <c r="C28" t="n">
-        <v>352298.4785980582</v>
+        <v>373653.5109094762</v>
       </c>
       <c r="D28" t="n">
-        <v>367414.9764756871</v>
+        <v>439472.9424676895</v>
       </c>
       <c r="E28" t="n">
-        <v>373653.5109094762</v>
+        <v>391261.2591198349</v>
       </c>
       <c r="F28" t="n">
-        <v>371910.4253075123</v>
+        <v>352755.8640021682</v>
       </c>
       <c r="G28" t="n">
         <v>424899.8588521626</v>
@@ -8107,16 +8107,16 @@
         <v>398818</v>
       </c>
       <c r="C29" t="n">
-        <v>404900.9071770906</v>
+        <v>386392.971534946</v>
       </c>
       <c r="D29" t="n">
-        <v>406122.2652312171</v>
+        <v>425736.5339372158</v>
       </c>
       <c r="E29" t="n">
-        <v>386392.971534946</v>
+        <v>402443.8621277717</v>
       </c>
       <c r="F29" t="n">
-        <v>423803.2609090805</v>
+        <v>390515.3672996759</v>
       </c>
       <c r="G29" t="n">
         <v>444240.7294928526</v>
@@ -8130,16 +8130,16 @@
         <v>483044</v>
       </c>
       <c r="C30" t="n">
-        <v>412461.1619631052</v>
+        <v>472667.0816990059</v>
       </c>
       <c r="D30" t="n">
-        <v>437251.7454340222</v>
+        <v>349821.8850988746</v>
       </c>
       <c r="E30" t="n">
-        <v>472667.0816990059</v>
+        <v>389662.7766290797</v>
       </c>
       <c r="F30" t="n">
-        <v>421510.2889344692</v>
+        <v>317293.6245966554</v>
       </c>
       <c r="G30" t="n">
         <v>505465.2829977713</v>
@@ -8153,16 +8153,16 @@
         <v>419855</v>
       </c>
       <c r="C31" t="n">
-        <v>435209.9199644327</v>
+        <v>407427.5660413297</v>
       </c>
       <c r="D31" t="n">
-        <v>425893.8954440007</v>
+        <v>405791.9817653894</v>
       </c>
       <c r="E31" t="n">
-        <v>407427.5660413297</v>
+        <v>403498.4184493686</v>
       </c>
       <c r="F31" t="n">
-        <v>429953.0344740152</v>
+        <v>387847.8499714136</v>
       </c>
       <c r="G31" t="n">
         <v>471580.3279644437</v>
@@ -8176,16 +8176,16 @@
         <v>369121</v>
       </c>
       <c r="C32" t="n">
-        <v>395723.9415172338</v>
+        <v>354603.6608196225</v>
       </c>
       <c r="D32" t="n">
-        <v>387167.0109091083</v>
+        <v>403398.7360928059</v>
       </c>
       <c r="E32" t="n">
-        <v>354603.6608196225</v>
+        <v>383607.8360058476</v>
       </c>
       <c r="F32" t="n">
-        <v>405939.7446224689</v>
+        <v>390919.5571080446</v>
       </c>
       <c r="G32" t="n">
         <v>438012.6146948365</v>
@@ -8199,16 +8199,16 @@
         <v>466849</v>
       </c>
       <c r="C33" t="n">
-        <v>401041.7359647751</v>
+        <v>436229.2164824298</v>
       </c>
       <c r="D33" t="n">
-        <v>434997.0251512838</v>
+        <v>374537.8041408062</v>
       </c>
       <c r="E33" t="n">
-        <v>436229.2164824298</v>
+        <v>399598.0291803606</v>
       </c>
       <c r="F33" t="n">
-        <v>464281.4581159353</v>
+        <v>370476.2236866951</v>
       </c>
       <c r="G33" t="n">
         <v>502689.4012925135</v>
@@ -8222,16 +8222,16 @@
         <v>415682</v>
       </c>
       <c r="C34" t="n">
-        <v>411478.9052877426</v>
+        <v>391572.2352561004</v>
       </c>
       <c r="D34" t="n">
-        <v>369197.4418682369</v>
+        <v>421153.6850044727</v>
       </c>
       <c r="E34" t="n">
-        <v>391572.2352561004</v>
+        <v>392807.1753084706</v>
       </c>
       <c r="F34" t="n">
-        <v>290024.050981164</v>
+        <v>352064.3212575316</v>
       </c>
       <c r="G34" t="n">
         <v>468076.8583801065</v>
@@ -8245,16 +8245,16 @@
         <v>455766</v>
       </c>
       <c r="C35" t="n">
-        <v>451140.5742797852</v>
+        <v>451711.2979979586</v>
       </c>
       <c r="D35" t="n">
-        <v>490925.2379066781</v>
+        <v>408546.7398706675</v>
       </c>
       <c r="E35" t="n">
-        <v>451711.2979979586</v>
+        <v>424147.5714642765</v>
       </c>
       <c r="F35" t="n">
-        <v>573904.8381755352</v>
+        <v>398735.7310692072</v>
       </c>
       <c r="G35" t="n">
         <v>498639.3932488187</v>
@@ -8268,16 +8268,16 @@
         <v>542537</v>
       </c>
       <c r="C36" t="n">
-        <v>344241.1714193821</v>
+        <v>521849.056582364</v>
       </c>
       <c r="D36" t="n">
-        <v>395955.7194208096</v>
+        <v>473322.097971797</v>
       </c>
       <c r="E36" t="n">
-        <v>521849.056582364</v>
+        <v>522189.2100082934</v>
       </c>
       <c r="F36" t="n">
-        <v>308962.7348870635</v>
+        <v>577425.757938385</v>
       </c>
       <c r="G36" t="n">
         <v>548679.2576206472</v>
@@ -8291,16 +8291,16 @@
         <v>552404</v>
       </c>
       <c r="C37" t="n">
-        <v>319280.7218957543</v>
+        <v>557922.8660883973</v>
       </c>
       <c r="D37" t="n">
-        <v>402579.8165105305</v>
+        <v>374570.7854101658</v>
       </c>
       <c r="E37" t="n">
-        <v>557922.8660883973</v>
+        <v>427633.6743749325</v>
       </c>
       <c r="F37" t="n">
-        <v>318869.592480123</v>
+        <v>307539.8373303413</v>
       </c>
       <c r="G37" t="n">
         <v>568760.4043147223</v>
@@ -8314,16 +8314,16 @@
         <v>445793</v>
       </c>
       <c r="C38" t="n">
-        <v>384332.056329608</v>
+        <v>452041.4967882864</v>
       </c>
       <c r="D38" t="n">
-        <v>434922.0413838216</v>
+        <v>404297.8625599146</v>
       </c>
       <c r="E38" t="n">
-        <v>452041.4967882864</v>
+        <v>419033.4215752595</v>
       </c>
       <c r="F38" t="n">
-        <v>465963.2126954794</v>
+        <v>384237.7792260647</v>
       </c>
       <c r="G38" t="n">
         <v>505569.6999794936</v>
@@ -8337,16 +8337,16 @@
         <v>369424</v>
       </c>
       <c r="C39" t="n">
-        <v>441301.6136107445</v>
+        <v>358616.0718913526</v>
       </c>
       <c r="D39" t="n">
-        <v>390399.0704607065</v>
+        <v>432244.0237036943</v>
       </c>
       <c r="E39" t="n">
-        <v>358616.0718913526</v>
+        <v>398198.2114591193</v>
       </c>
       <c r="F39" t="n">
-        <v>363749.9791226387</v>
+        <v>405673.1621483564</v>
       </c>
       <c r="G39" t="n">
         <v>422261.3882097219</v>
@@ -8360,16 +8360,16 @@
         <v>408507</v>
       </c>
       <c r="C40" t="n">
-        <v>365721.5046200752</v>
+        <v>374268.601300222</v>
       </c>
       <c r="D40" t="n">
-        <v>404356.2775406509</v>
+        <v>456875.6398162842</v>
       </c>
       <c r="E40" t="n">
-        <v>374268.601300222</v>
+        <v>409740.6304633925</v>
       </c>
       <c r="F40" t="n">
-        <v>473589.8894367218</v>
+        <v>395303.0192760229</v>
       </c>
       <c r="G40" t="n">
         <v>443746.7561558419</v>
@@ -8383,16 +8383,16 @@
         <v>431053</v>
       </c>
       <c r="C41" t="n">
-        <v>425211.6143063307</v>
+        <v>386612.4113708346</v>
       </c>
       <c r="D41" t="n">
-        <v>426092.1002628992</v>
+        <v>369829.6795800924</v>
       </c>
       <c r="E41" t="n">
-        <v>386612.4113708346</v>
+        <v>375362.3527294273</v>
       </c>
       <c r="F41" t="n">
-        <v>463486.9577137232</v>
+        <v>357117.8665832281</v>
       </c>
       <c r="G41" t="n">
         <v>465005.6817478752</v>
@@ -8406,16 +8406,16 @@
         <v>513430</v>
       </c>
       <c r="C42" t="n">
-        <v>464339.997451067</v>
+        <v>472466.2606356317</v>
       </c>
       <c r="D42" t="n">
-        <v>468989.5489835118</v>
+        <v>425361.1422899961</v>
       </c>
       <c r="E42" t="n">
-        <v>472466.2606356317</v>
+        <v>446666.6620006359</v>
       </c>
       <c r="F42" t="n">
-        <v>464622.949660778</v>
+        <v>429435.7314852476</v>
       </c>
       <c r="G42" t="n">
         <v>528309.2075092979</v>
@@ -8429,16 +8429,16 @@
         <v>440389</v>
       </c>
       <c r="C43" t="n">
-        <v>349179.4394711256</v>
+        <v>406980.7671545794</v>
       </c>
       <c r="D43" t="n">
-        <v>385661.2225930262</v>
+        <v>414111.3860622644</v>
       </c>
       <c r="E43" t="n">
-        <v>406980.7671545794</v>
+        <v>414167.385603588</v>
       </c>
       <c r="F43" t="n">
-        <v>393490.4760704041</v>
+        <v>414539.2962703705</v>
       </c>
       <c r="G43" t="n">
         <v>490590.5174197833</v>
@@ -8452,16 +8452,16 @@
         <v>379682</v>
       </c>
       <c r="C44" t="n">
-        <v>384859.5873806477</v>
+        <v>354166.0119822463</v>
       </c>
       <c r="D44" t="n">
-        <v>396138.7979480809</v>
+        <v>327176.8705991507</v>
       </c>
       <c r="E44" t="n">
-        <v>354166.0119822463</v>
+        <v>383475.466702381</v>
       </c>
       <c r="F44" t="n">
-        <v>445052.1690884829</v>
+        <v>478777.0886967182</v>
       </c>
       <c r="G44" t="n">
         <v>459596.6856832807</v>
@@ -8475,16 +8475,16 @@
         <v>479188</v>
       </c>
       <c r="C45" t="n">
-        <v>418976.9937661886</v>
+        <v>436003.1543473253</v>
       </c>
       <c r="D45" t="n">
-        <v>430078.9444770497</v>
+        <v>399539.0812841654</v>
       </c>
       <c r="E45" t="n">
-        <v>436003.1543473253</v>
+        <v>406571.6777912957</v>
       </c>
       <c r="F45" t="n">
-        <v>427048.0471704006</v>
+        <v>363869.4515947104</v>
       </c>
       <c r="G45" t="n">
         <v>521976.9287469126</v>
@@ -8498,16 +8498,16 @@
         <v>435196</v>
       </c>
       <c r="C46" t="n">
-        <v>450041.9643286467</v>
+        <v>391623.4989193973</v>
       </c>
       <c r="D46" t="n">
-        <v>418495.3477503565</v>
+        <v>414060.5600885153</v>
       </c>
       <c r="E46" t="n">
-        <v>391623.4989193973</v>
+        <v>408053.8229734369</v>
       </c>
       <c r="F46" t="n">
-        <v>404503.6811558008</v>
+        <v>412846.0320982933</v>
       </c>
       <c r="G46" t="n">
         <v>486324.1202335281</v>
@@ -8521,16 +8521,16 @@
         <v>486277</v>
       </c>
       <c r="C47" t="n">
-        <v>377501.6451171637</v>
+        <v>451964.2010382975</v>
       </c>
       <c r="D47" t="n">
-        <v>426327.2413948675</v>
+        <v>406502.4089465141</v>
       </c>
       <c r="E47" t="n">
-        <v>451964.2010382975</v>
+        <v>422302.7265855305</v>
       </c>
       <c r="F47" t="n">
-        <v>444296.0178748369</v>
+        <v>391589.7248951197</v>
       </c>
       <c r="G47" t="n">
         <v>521371.3823265028</v>
@@ -8544,16 +8544,16 @@
         <v>555663</v>
       </c>
       <c r="C48" t="n">
-        <v>421161.0114887953</v>
+        <v>522148.3358096154</v>
       </c>
       <c r="D48" t="n">
-        <v>467492.721398096</v>
+        <v>442530.3109732866</v>
       </c>
       <c r="E48" t="n">
-        <v>522148.3358096154</v>
+        <v>470509.6007889987</v>
       </c>
       <c r="F48" t="n">
-        <v>452309.3540576696</v>
+        <v>426039.2410567999</v>
       </c>
       <c r="G48" t="n">
         <v>570351.7261879757</v>
@@ -8567,16 +8567,16 @@
         <v>550212</v>
       </c>
       <c r="C49" t="n">
-        <v>417899.0817377567</v>
+        <v>558120.8495424639</v>
       </c>
       <c r="D49" t="n">
-        <v>476313.0576495324</v>
+        <v>460679.0765521526</v>
       </c>
       <c r="E49" t="n">
-        <v>558120.8495424639</v>
+        <v>438160.6453433373</v>
       </c>
       <c r="F49" t="n">
-        <v>445528.6081877947</v>
+        <v>240425.4507496059</v>
       </c>
       <c r="G49" t="n">
         <v>590673.8237659035</v>
@@ -8590,16 +8590,16 @@
         <v>479833</v>
       </c>
       <c r="C50" t="n">
-        <v>434727.0973936319</v>
+        <v>452065.3265494981</v>
       </c>
       <c r="D50" t="n">
-        <v>449614.5112306263</v>
+        <v>422417.0078638792</v>
       </c>
       <c r="E50" t="n">
-        <v>452065.3265494981</v>
+        <v>449819.046029201</v>
       </c>
       <c r="F50" t="n">
-        <v>456230.425599575</v>
+        <v>471007.1949038506</v>
       </c>
       <c r="G50" t="n">
         <v>522074.6783233112</v>
@@ -8613,16 +8613,16 @@
         <v>374481</v>
       </c>
       <c r="C51" t="n">
-        <v>428538.2008860111</v>
+        <v>358487.500825932</v>
       </c>
       <c r="D51" t="n">
-        <v>408021.1578653075</v>
+        <v>417140.7059810162</v>
       </c>
       <c r="E51" t="n">
-        <v>358487.500825932</v>
+        <v>390907.4756147551</v>
       </c>
       <c r="F51" t="n">
-        <v>432328.3870825768</v>
+        <v>394944.7469387054</v>
       </c>
       <c r="G51" t="n">
         <v>445400.0386780257</v>
@@ -8636,16 +8636,16 @@
         <v>434298</v>
       </c>
       <c r="C52" t="n">
-        <v>416550.2106884718</v>
+        <v>374076.0917165835</v>
       </c>
       <c r="D52" t="n">
-        <v>424125.9083668927</v>
+        <v>417289.5569298267</v>
       </c>
       <c r="E52" t="n">
-        <v>374076.0917165835</v>
+        <v>392313.8027307875</v>
       </c>
       <c r="F52" t="n">
-        <v>479713.6938790083</v>
+        <v>377876.7224267721</v>
       </c>
       <c r="G52" t="n">
         <v>462598.1778129459</v>
@@ -8659,16 +8659,16 @@
         <v>457767</v>
       </c>
       <c r="C53" t="n">
-        <v>382315.2420363426</v>
+        <v>386457.4794458256</v>
       </c>
       <c r="D53" t="n">
-        <v>382716.0621760033</v>
+        <v>475529.0139803886</v>
       </c>
       <c r="E53" t="n">
-        <v>386457.4794458256</v>
+        <v>428985.2451064862</v>
       </c>
       <c r="F53" t="n">
-        <v>369038.1532952785</v>
+        <v>421613.6092892885</v>
       </c>
       <c r="G53" t="n">
         <v>485824.9798895555</v>
@@ -8682,16 +8682,16 @@
         <v>542765</v>
       </c>
       <c r="C54" t="n">
-        <v>446748.6249963045</v>
+        <v>472413.8487118969</v>
       </c>
       <c r="D54" t="n">
-        <v>449917.5695094463</v>
+        <v>403385.2195755243</v>
       </c>
       <c r="E54" t="n">
-        <v>472413.8487118969</v>
+        <v>434762.0717833421</v>
       </c>
       <c r="F54" t="n">
-        <v>420321.0530320406</v>
+        <v>410276.9749817848</v>
       </c>
       <c r="G54" t="n">
         <v>551108.9025233381</v>
@@ -8705,16 +8705,16 @@
         <v>458189</v>
       </c>
       <c r="C55" t="n">
-        <v>391399.9375174046</v>
+        <v>407035.9494534837</v>
       </c>
       <c r="D55" t="n">
-        <v>402716.7237016011</v>
+        <v>221852.8855313957</v>
       </c>
       <c r="E55" t="n">
-        <v>407035.9494534837</v>
+        <v>356661.0526012392</v>
       </c>
       <c r="F55" t="n">
-        <v>400066.805773735</v>
+        <v>434171.3001374006</v>
       </c>
       <c r="G55" t="n">
         <v>509573.134471083</v>
@@ -8728,16 +8728,16 @@
         <v>395074</v>
       </c>
       <c r="C56" t="n">
-        <v>348108.2615215182</v>
+        <v>354282.9041416887</v>
       </c>
       <c r="D56" t="n">
-        <v>359953.8865873875</v>
+        <v>424607.1914396286</v>
       </c>
       <c r="E56" t="n">
-        <v>354282.9041416887</v>
+        <v>392951.9861232942</v>
       </c>
       <c r="F56" t="n">
-        <v>366650.2030024529</v>
+        <v>394633.9395806789</v>
       </c>
       <c r="G56" t="n">
         <v>481189.2591407957</v>
@@ -8751,16 +8751,16 @@
         <v>222108</v>
       </c>
       <c r="C57" t="n">
-        <v>439840.4031351805</v>
+        <v>436115.8268110618</v>
       </c>
       <c r="D57" t="n">
-        <v>445790.5808653239</v>
+        <v>441101.9850478172</v>
       </c>
       <c r="E57" t="n">
-        <v>436115.8268110618</v>
+        <v>423322.8969711619</v>
       </c>
       <c r="F57" t="n">
-        <v>452165.8226684332</v>
+        <v>371618.212228179</v>
       </c>
       <c r="G57" t="n">
         <v>546326.7454719767</v>
@@ -8774,16 +8774,16 @@
         <v>12647</v>
       </c>
       <c r="C58" t="n">
-        <v>373632.5601801872</v>
+        <v>391680.3879996235</v>
       </c>
       <c r="D58" t="n">
-        <v>413498.513509094</v>
+        <v>421301.230243206</v>
       </c>
       <c r="E58" t="n">
-        <v>391680.3879996235</v>
+        <v>416308.903886113</v>
       </c>
       <c r="F58" t="n">
-        <v>469525.0205276012</v>
+        <v>430511.2255320549</v>
       </c>
       <c r="G58" t="n">
         <v>514120.7105215341</v>
@@ -8797,16 +8797,16 @@
         <v>15108</v>
       </c>
       <c r="C59" t="n">
-        <v>432421.576094389</v>
+        <v>451949.3683868933</v>
       </c>
       <c r="D59" t="n">
-        <v>455326.6575302687</v>
+        <v>445037.346861124</v>
       </c>
       <c r="E59" t="n">
-        <v>451949.3683868933</v>
+        <v>449572.7463367375</v>
       </c>
       <c r="F59" t="n">
-        <v>475911.6353926659</v>
+        <v>441898.1054977179</v>
       </c>
       <c r="G59" t="n">
         <v>535700.9909292457</v>
@@ -8820,16 +8820,16 @@
         <v>30337</v>
       </c>
       <c r="C60" t="n">
-        <v>416236.7919102907</v>
+        <v>522082.1716682678</v>
       </c>
       <c r="D60" t="n">
-        <v>346368.5488066521</v>
+        <v>448191.0235748291</v>
       </c>
       <c r="E60" t="n">
-        <v>522082.1716682678</v>
+        <v>489928.5671608245</v>
       </c>
       <c r="F60" t="n">
-        <v>66091.21829366684</v>
+        <v>486912.3395130634</v>
       </c>
       <c r="G60" t="n">
         <v>587608.7441048066</v>
@@ -8843,16 +8843,16 @@
         <v>57641</v>
       </c>
       <c r="C61" t="n">
-        <v>475538.4924683571</v>
+        <v>558043.7612040136</v>
       </c>
       <c r="D61" t="n">
-        <v>496053.8010297024</v>
+        <v>472787.2162566185</v>
       </c>
       <c r="E61" t="n">
-        <v>558043.7612040136</v>
+        <v>500676.9149693687</v>
       </c>
       <c r="F61" t="n">
-        <v>444213.0327454805</v>
+        <v>448027.0602408648</v>
       </c>
       <c r="G61" t="n">
         <v>606984.7353138692</v>
@@ -8866,16 +8866,16 @@
         <v>67932</v>
       </c>
       <c r="C62" t="n">
-        <v>263324.3593648672</v>
+        <v>452015.1940095781</v>
       </c>
       <c r="D62" t="n">
-        <v>405151.5398701103</v>
+        <v>471414.6731672287</v>
       </c>
       <c r="E62" t="n">
-        <v>452015.1940095781</v>
+        <v>459323.2909633904</v>
       </c>
       <c r="F62" t="n">
-        <v>498154.6483573914</v>
+        <v>443238.6586902142</v>
       </c>
       <c r="G62" t="n">
         <v>554884.9950771797</v>
@@ -8889,16 +8889,16 @@
         <v>83870</v>
       </c>
       <c r="C63" t="n">
-        <v>480202.2228864431</v>
+        <v>358482.5491476187</v>
       </c>
       <c r="D63" t="n">
-        <v>421779.7177379142</v>
+        <v>301934.073361218</v>
       </c>
       <c r="E63" t="n">
-        <v>358482.5491476187</v>
+        <v>367466.9036440413</v>
       </c>
       <c r="F63" t="n">
-        <v>418564.1475836039</v>
+        <v>445992.2561643124</v>
       </c>
       <c r="G63" t="n">
         <v>458499.8693487801</v>
@@ -8912,16 +8912,16 @@
         <v>114801</v>
       </c>
       <c r="C64" t="n">
-        <v>439426.6139397621</v>
+        <v>374110.120253586</v>
       </c>
       <c r="D64" t="n">
-        <v>426282.8399627387</v>
+        <v>374665.5944696665</v>
       </c>
       <c r="E64" t="n">
-        <v>374110.120253586</v>
+        <v>394360.0816419265</v>
       </c>
       <c r="F64" t="n">
-        <v>458914.2884836197</v>
+        <v>432643.5226277113</v>
       </c>
       <c r="G64" t="n">
         <v>488402.0619910226</v>
@@ -8935,16 +8935,16 @@
         <v>137031</v>
       </c>
       <c r="C65" t="n">
-        <v>415705.1019308567</v>
+        <v>386507.3397150005</v>
       </c>
       <c r="D65" t="n">
-        <v>435737.6651234478</v>
+        <v>389199.0664628744</v>
       </c>
       <c r="E65" t="n">
-        <v>386507.3397150005</v>
+        <v>415663.7119934161</v>
       </c>
       <c r="F65" t="n">
-        <v>501011.1067698002</v>
+        <v>473795.6596729755</v>
       </c>
       <c r="G65" t="n">
         <v>505876.730319127</v>
@@ -8958,16 +8958,16 @@
         <v>213203</v>
       </c>
       <c r="C66" t="n">
-        <v>537444.4317755699</v>
+        <v>472453.3909673161</v>
       </c>
       <c r="D66" t="n">
-        <v>484216.6200219933</v>
+        <v>467590.7319471836</v>
       </c>
       <c r="E66" t="n">
-        <v>472453.3909673161</v>
+        <v>457747.2773087639</v>
       </c>
       <c r="F66" t="n">
-        <v>429691.7473796606</v>
+        <v>414835.3539404869</v>
       </c>
       <c r="G66" t="n">
         <v>564925.2970471132</v>
@@ -8981,16 +8981,16 @@
         <v>121733</v>
       </c>
       <c r="C67" t="n">
-        <v>403817.1919927597</v>
+        <v>407048.7395718622</v>
       </c>
       <c r="D67" t="n">
-        <v>416098.8661895001</v>
+        <v>497917.661978364</v>
       </c>
       <c r="E67" t="n">
-        <v>407048.7395718622</v>
+        <v>437234.458361794</v>
       </c>
       <c r="F67" t="n">
-        <v>426969.1967896223</v>
+        <v>392596.4999041557</v>
       </c>
       <c r="G67" t="n">
         <v>534886.9308876521</v>
@@ -9004,16 +9004,16 @@
         <v>89788</v>
       </c>
       <c r="C68" t="n">
-        <v>459893.1116250753</v>
+        <v>354268.0325273531</v>
       </c>
       <c r="D68" t="n">
-        <v>421854.9266156175</v>
+        <v>248437.4872673154</v>
       </c>
       <c r="E68" t="n">
-        <v>354268.0325273531</v>
+        <v>349497.2065892702</v>
       </c>
       <c r="F68" t="n">
-        <v>441398.2361564636</v>
+        <v>445749.8535064459</v>
       </c>
       <c r="G68" t="n">
         <v>498783.367718015</v>
@@ -9027,16 +9027,16 @@
         <v>177155</v>
       </c>
       <c r="C69" t="n">
-        <v>421533.4290186167</v>
+        <v>436085.409766098</v>
       </c>
       <c r="D69" t="n">
-        <v>426141.6272333389</v>
+        <v>431035.1054308414</v>
       </c>
       <c r="E69" t="n">
-        <v>436085.409766098</v>
+        <v>446258.1695376387</v>
       </c>
       <c r="F69" t="n">
-        <v>407111.8370351791</v>
+        <v>463412.145362258</v>
       </c>
       <c r="G69" t="n">
         <v>565703.6925908024</v>
@@ -9050,16 +9050,16 @@
         <v>226409</v>
       </c>
       <c r="C70" t="n">
-        <v>415016.2189660072</v>
+        <v>391651.4859789911</v>
       </c>
       <c r="D70" t="n">
-        <v>424507.5606265413</v>
+        <v>435319.9864879847</v>
       </c>
       <c r="E70" t="n">
-        <v>391651.4859789911</v>
+        <v>421084.1055314744</v>
       </c>
       <c r="F70" t="n">
-        <v>457725.5603573322</v>
+        <v>428928.2213220596</v>
       </c>
       <c r="G70" t="n">
         <v>532240.3474839255</v>
@@ -9073,16 +9073,16 @@
         <v>299382</v>
       </c>
       <c r="C71" t="n">
-        <v>361804.9063441753</v>
+        <v>451935.1274305064</v>
       </c>
       <c r="D71" t="n">
-        <v>432127.6304189381</v>
+        <v>440764.1204754114</v>
       </c>
       <c r="E71" t="n">
-        <v>451935.1274305064</v>
+        <v>440075.1147962095</v>
       </c>
       <c r="F71" t="n">
-        <v>476555.7373378277</v>
+        <v>410359.0170983076</v>
       </c>
       <c r="G71" t="n">
         <v>558312.0639405902</v>
@@ -9096,16 +9096,16 @@
         <v>371306</v>
       </c>
       <c r="C72" t="n">
-        <v>387785.8529225588</v>
+        <v>522086.4508743783</v>
       </c>
       <c r="D72" t="n">
-        <v>465817.8754481332</v>
+        <v>388781.7470142841</v>
       </c>
       <c r="E72" t="n">
-        <v>522086.4508743783</v>
+        <v>473070.667441114</v>
       </c>
       <c r="F72" t="n">
-        <v>479753.5180363655</v>
+        <v>494416.7389235497</v>
       </c>
       <c r="G72" t="n">
         <v>609327.7380517054</v>
@@ -9119,16 +9119,16 @@
         <v>385452</v>
       </c>
       <c r="C73" t="n">
-        <v>436604.4666866064</v>
+        <v>558061.0869353145</v>
       </c>
       <c r="D73" t="n">
-        <v>502330.0792831311</v>
+        <v>511183.7730828524</v>
       </c>
       <c r="E73" t="n">
-        <v>558061.0869353145</v>
+        <v>526565.7906497016</v>
       </c>
       <c r="F73" t="n">
-        <v>504967.2632250786</v>
+        <v>492611.1836848259</v>
       </c>
       <c r="G73" t="n">
         <v>629094.2551639751</v>
@@ -9142,16 +9142,16 @@
         <v>305847</v>
       </c>
       <c r="C74" t="n">
-        <v>424793.1825861931</v>
+        <v>452035.0597524696</v>
       </c>
       <c r="D74" t="n">
-        <v>460020.8877562616</v>
+        <v>389612.8314784765</v>
       </c>
       <c r="E74" t="n">
-        <v>452035.0597524696</v>
+        <v>442825.9699187885</v>
       </c>
       <c r="F74" t="n">
-        <v>495752.383613348</v>
+        <v>479140.3420761824</v>
       </c>
       <c r="G74" t="n">
         <v>571405.1175177998</v>
@@ -9165,16 +9165,16 @@
         <v>252301</v>
       </c>
       <c r="C75" t="n">
-        <v>400459.5343492031</v>
+        <v>358495.2450820481</v>
       </c>
       <c r="D75" t="n">
-        <v>415177.3448328015</v>
+        <v>407494.0232107639</v>
       </c>
       <c r="E75" t="n">
-        <v>358495.2450820481</v>
+        <v>403455.205366404</v>
       </c>
       <c r="F75" t="n">
-        <v>482599.917645216</v>
+        <v>447069.9747542143</v>
       </c>
       <c r="G75" t="n">
         <v>481524.8214715531</v>
@@ -9207,22 +9207,22 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>arima</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>lstm</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>weighted_ensemble</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>lstm_reg</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>weighted_ensemble</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>arima</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>lstm</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -9236,16 +9236,16 @@
         <v>44470</v>
       </c>
       <c r="B2" t="n">
-        <v>329060.2740166187</v>
+        <v>301421.5766542687</v>
       </c>
       <c r="C2" t="n">
-        <v>312961.9652843496</v>
+        <v>311062.1341077089</v>
       </c>
       <c r="D2" t="n">
-        <v>301421.5766542687</v>
+        <v>312017.1348905842</v>
       </c>
       <c r="E2" t="n">
-        <v>314556.2963306904</v>
+        <v>335303.8864378929</v>
       </c>
       <c r="F2" t="n">
         <v>237909.6658678285</v>
@@ -9256,16 +9256,16 @@
         <v>44501</v>
       </c>
       <c r="B3" t="n">
-        <v>332397.0276070833</v>
+        <v>330448.6784802167</v>
       </c>
       <c r="C3" t="n">
-        <v>325999.9752572625</v>
+        <v>310928.3268949986</v>
       </c>
       <c r="D3" t="n">
-        <v>330448.6784802167</v>
+        <v>318835.6770385852</v>
       </c>
       <c r="E3" t="n">
-        <v>321684.1226136684</v>
+        <v>320965.5136934519</v>
       </c>
       <c r="F3" t="n">
         <v>253360.9167199809</v>
@@ -9276,16 +9276,16 @@
         <v>44531</v>
       </c>
       <c r="B4" t="n">
-        <v>337144.7642658949</v>
+        <v>419332.212600098</v>
       </c>
       <c r="C4" t="n">
-        <v>353537.2358363186</v>
+        <v>296582.547847271</v>
       </c>
       <c r="D4" t="n">
-        <v>419332.212600098</v>
+        <v>357274.0373079934</v>
       </c>
       <c r="E4" t="n">
-        <v>307721.0684028864</v>
+        <v>354176.8588910103</v>
       </c>
       <c r="F4" t="n">
         <v>319890.449488445</v>
@@ -9296,16 +9296,16 @@
         <v>44562</v>
       </c>
       <c r="B5" t="n">
-        <v>331548.0677490234</v>
+        <v>340470.8198964694</v>
       </c>
       <c r="C5" t="n">
-        <v>327135.5392379318</v>
+        <v>298259.3678282499</v>
       </c>
       <c r="D5" t="n">
-        <v>340470.8198964694</v>
+        <v>322906.2079251305</v>
       </c>
       <c r="E5" t="n">
-        <v>314450.1393169165</v>
+        <v>335879.6030800343</v>
       </c>
       <c r="F5" t="n">
         <v>269269.0763516328</v>
@@ -9316,16 +9316,16 @@
         <v>44593</v>
       </c>
       <c r="B6" t="n">
-        <v>332593.7719392776</v>
+        <v>288946.3864360521</v>
       </c>
       <c r="C6" t="n">
-        <v>300552.6468816173</v>
+        <v>295797.4467819929</v>
       </c>
       <c r="D6" t="n">
-        <v>288946.3864360521</v>
+        <v>301701.0939121392</v>
       </c>
       <c r="E6" t="n">
-        <v>284507.1134674549</v>
+        <v>333628.6135513783</v>
       </c>
       <c r="F6" t="n">
         <v>227426.2772998255</v>
@@ -9336,16 +9336,16 @@
         <v>44621</v>
       </c>
       <c r="B7" t="n">
-        <v>357037.9632259607</v>
+        <v>293852.3750744588</v>
       </c>
       <c r="C7" t="n">
-        <v>321372.8507977827</v>
+        <v>303679.563908577</v>
       </c>
       <c r="D7" t="n">
-        <v>293852.3750744588</v>
+        <v>310627.5078783476</v>
       </c>
       <c r="E7" t="n">
-        <v>314269.8863533735</v>
+        <v>343678.30877316</v>
       </c>
       <c r="F7" t="n">
         <v>281555.144882616</v>
@@ -9356,16 +9356,16 @@
         <v>44652</v>
       </c>
       <c r="B8" t="n">
-        <v>354906.6924753189</v>
+        <v>219030.1178269128</v>
       </c>
       <c r="C8" t="n">
-        <v>305109.210918024</v>
+        <v>311170.4636371136</v>
       </c>
       <c r="D8" t="n">
-        <v>219030.1178269128</v>
+        <v>286406.6147958652</v>
       </c>
       <c r="E8" t="n">
-        <v>344902.1592451334</v>
+        <v>348708.9991344213</v>
       </c>
       <c r="F8" t="n">
         <v>239001.292239888</v>
@@ -9376,16 +9376,16 @@
         <v>44682</v>
       </c>
       <c r="B9" t="n">
-        <v>346421.5705935955</v>
+        <v>259453.2199462371</v>
       </c>
       <c r="C9" t="n">
-        <v>301581.7734162269</v>
+        <v>297141.4110348225</v>
       </c>
       <c r="D9" t="n">
-        <v>259453.2199462371</v>
+        <v>296185.953185776</v>
       </c>
       <c r="E9" t="n">
-        <v>298400.6800949574</v>
+        <v>344943.0420392752</v>
       </c>
       <c r="F9" t="n">
         <v>270931.6339870065</v>
@@ -9396,16 +9396,16 @@
         <v>44713</v>
       </c>
       <c r="B10" t="n">
-        <v>338314.9272682667</v>
+        <v>314243.1274654085</v>
       </c>
       <c r="C10" t="n">
-        <v>319636.8995144652</v>
+        <v>288277.1358001828</v>
       </c>
       <c r="D10" t="n">
-        <v>314243.1274654085</v>
+        <v>313549.6076443197</v>
       </c>
       <c r="E10" t="n">
-        <v>304328.356076479</v>
+        <v>341544.2730026245</v>
       </c>
       <c r="F10" t="n">
         <v>322606.7886248189</v>
@@ -9416,16 +9416,16 @@
         <v>44743</v>
       </c>
       <c r="B11" t="n">
-        <v>346494.1852827072</v>
+        <v>330452.4641152457</v>
       </c>
       <c r="C11" t="n">
-        <v>336076.8145165491</v>
+        <v>302314.4999206066</v>
       </c>
       <c r="D11" t="n">
-        <v>330452.4641152457</v>
+        <v>323375.4120435444</v>
       </c>
       <c r="E11" t="n">
-        <v>330251.3721696138</v>
+        <v>337654.0216798782</v>
       </c>
       <c r="F11" t="n">
         <v>337319.5932923692</v>
@@ -9436,16 +9436,16 @@
         <v>44774</v>
       </c>
       <c r="B12" t="n">
-        <v>350992.0497270823</v>
+        <v>276961.4126227596</v>
       </c>
       <c r="C12" t="n">
-        <v>315520.6682949855</v>
+        <v>300799.433603406</v>
       </c>
       <c r="D12" t="n">
-        <v>276961.4126227596</v>
+        <v>309509.4957112208</v>
       </c>
       <c r="E12" t="n">
-        <v>320834.0435808897</v>
+        <v>366443.3100618124</v>
       </c>
       <c r="F12" t="n">
         <v>266376.5056685093</v>
@@ -9456,16 +9456,16 @@
         <v>44805</v>
       </c>
       <c r="B13" t="n">
-        <v>322691.5115282536</v>
+        <v>234784.6115813034</v>
       </c>
       <c r="C13" t="n">
-        <v>294747.3163008558</v>
+        <v>310047.9313941002</v>
       </c>
       <c r="D13" t="n">
-        <v>234784.6115813034</v>
+        <v>291141.8276580974</v>
       </c>
       <c r="E13" t="n">
-        <v>336320.3933347464</v>
+        <v>353217.72615695</v>
       </c>
       <c r="F13" t="n">
         <v>184179.0482621371</v>
@@ -9476,16 +9476,16 @@
         <v>44835</v>
       </c>
       <c r="B14" t="n">
-        <v>349378.8910374641</v>
+        <v>278721.0853976347</v>
       </c>
       <c r="C14" t="n">
-        <v>316647.037843143</v>
+        <v>304344.0903563499</v>
       </c>
       <c r="D14" t="n">
-        <v>278721.0853976347</v>
+        <v>307131.7046099969</v>
       </c>
       <c r="E14" t="n">
-        <v>330253.6105190516</v>
+        <v>358254.835314393</v>
       </c>
       <c r="F14" t="n">
         <v>208124.9386780533</v>
@@ -9496,16 +9496,16 @@
         <v>44866</v>
       </c>
       <c r="B15" t="n">
-        <v>346946.8914564848</v>
+        <v>302799.1838191341</v>
       </c>
       <c r="C15" t="n">
-        <v>327677.3469605164</v>
+        <v>303251.5124955177</v>
       </c>
       <c r="D15" t="n">
-        <v>302799.1838191341</v>
+        <v>308179.3326985317</v>
       </c>
       <c r="E15" t="n">
-        <v>342131.3459764719</v>
+        <v>330518.4270076752</v>
       </c>
       <c r="F15" t="n">
         <v>225350.7003419966</v>
@@ -9516,16 +9516,16 @@
         <v>44896</v>
       </c>
       <c r="B16" t="n">
-        <v>345911.3585894108</v>
+        <v>386671.2633577595</v>
       </c>
       <c r="C16" t="n">
-        <v>349947.1434910939</v>
+        <v>329330.5217943192</v>
       </c>
       <c r="D16" t="n">
-        <v>386671.2633577595</v>
+        <v>355183.2085084548</v>
       </c>
       <c r="E16" t="n">
-        <v>322598.8175280094</v>
+        <v>352815.8107652664</v>
       </c>
       <c r="F16" t="n">
         <v>292693.0546175304</v>
@@ -9536,16 +9536,16 @@
         <v>44927</v>
       </c>
       <c r="B17" t="n">
-        <v>346090.2619599104</v>
+        <v>304381.7090716425</v>
       </c>
       <c r="C17" t="n">
-        <v>321963.9456281844</v>
+        <v>325075.6828484535</v>
       </c>
       <c r="D17" t="n">
-        <v>304381.7090716425</v>
+        <v>321861.9324417282</v>
       </c>
       <c r="E17" t="n">
-        <v>321480.5644824505</v>
+        <v>349775.3422231674</v>
       </c>
       <c r="F17" t="n">
         <v>241180.9959155005</v>
@@ -9556,16 +9556,16 @@
         <v>44958</v>
       </c>
       <c r="B18" t="n">
-        <v>345861.5882313251</v>
+        <v>256148.0829751698</v>
       </c>
       <c r="C18" t="n">
-        <v>309256.9832573687</v>
+        <v>323895.2168552876</v>
       </c>
       <c r="D18" t="n">
-        <v>256148.0829751698</v>
+        <v>299999.2017261811</v>
       </c>
       <c r="E18" t="n">
-        <v>334378.4276961088</v>
+        <v>339593.3210493326</v>
       </c>
       <c r="F18" t="n">
         <v>198074.6162606399</v>
@@ -9576,16 +9576,16 @@
         <v>44986</v>
       </c>
       <c r="B19" t="n">
-        <v>361887.1826982498</v>
+        <v>268057.1055993116</v>
       </c>
       <c r="C19" t="n">
-        <v>320084.2752425017</v>
+        <v>311556.3814136982</v>
       </c>
       <c r="D19" t="n">
-        <v>268057.1055993116</v>
+        <v>304816.0293939998</v>
       </c>
       <c r="E19" t="n">
-        <v>334369.8363842964</v>
+        <v>350287.8913275003</v>
       </c>
       <c r="F19" t="n">
         <v>249157.5171221843</v>
@@ -9596,16 +9596,16 @@
         <v>45017</v>
       </c>
       <c r="B20" t="n">
-        <v>346553.4686259031</v>
+        <v>212497.6299248364</v>
       </c>
       <c r="C20" t="n">
-        <v>292987.7119450206</v>
+        <v>314754.2915052176</v>
       </c>
       <c r="D20" t="n">
-        <v>212497.6299248364</v>
+        <v>284565.7430777927</v>
       </c>
       <c r="E20" t="n">
-        <v>324576.9588435888</v>
+        <v>349546.6684945822</v>
       </c>
       <c r="F20" t="n">
         <v>210426.4297828418</v>
@@ -9616,16 +9616,16 @@
         <v>45047</v>
       </c>
       <c r="B21" t="n">
-        <v>346624.766638875</v>
+        <v>257740.1577890346</v>
       </c>
       <c r="C21" t="n">
-        <v>305628.7905972335</v>
+        <v>318772.9516685009</v>
       </c>
       <c r="D21" t="n">
-        <v>257740.1577890346</v>
+        <v>305224.1092570776</v>
       </c>
       <c r="E21" t="n">
-        <v>315718.7238607407</v>
+        <v>357072.2297224998</v>
       </c>
       <c r="F21" t="n">
         <v>243274.2587527445</v>
@@ -9636,16 +9636,16 @@
         <v>45078</v>
       </c>
       <c r="B22" t="n">
-        <v>340117.4569036961</v>
+        <v>313759.034910945</v>
       </c>
       <c r="C22" t="n">
-        <v>326474.3136146843</v>
+        <v>324425.4094198942</v>
       </c>
       <c r="D22" t="n">
-        <v>313759.034910945</v>
+        <v>324397.1824126565</v>
       </c>
       <c r="E22" t="n">
-        <v>327608.539821744</v>
+        <v>341372.611350894</v>
       </c>
       <c r="F22" t="n">
         <v>295048.2070439143</v>
@@ -9656,16 +9656,16 @@
         <v>45108</v>
       </c>
       <c r="B23" t="n">
-        <v>350105.0050116777</v>
+        <v>329378.3702304029</v>
       </c>
       <c r="C23" t="n">
-        <v>336809.7276230904</v>
+        <v>324492.0003156662</v>
       </c>
       <c r="D23" t="n">
-        <v>329378.3702304029</v>
+        <v>331021.3576025345</v>
       </c>
       <c r="E23" t="n">
-        <v>332619.3812901974</v>
+        <v>343472.3477079868</v>
       </c>
       <c r="F23" t="n">
         <v>308499.171536146</v>
@@ -9676,16 +9676,16 @@
         <v>45139</v>
       </c>
       <c r="B24" t="n">
-        <v>357612.3631919622</v>
+        <v>273766.4568796919</v>
       </c>
       <c r="C24" t="n">
-        <v>318491.1649818686</v>
+        <v>283313.3819621801</v>
       </c>
       <c r="D24" t="n">
-        <v>273766.4568796919</v>
+        <v>300923.1546806172</v>
       </c>
       <c r="E24" t="n">
-        <v>329311.6274917126</v>
+        <v>363911.3418449163</v>
       </c>
       <c r="F24" t="n">
         <v>237095.5833340205</v>
@@ -9696,16 +9696,16 @@
         <v>45170</v>
       </c>
       <c r="B25" t="n">
-        <v>336255.7774531841</v>
+        <v>231832.9991593398</v>
       </c>
       <c r="C25" t="n">
-        <v>299485.2214094835</v>
+        <v>323631.3878737688</v>
       </c>
       <c r="D25" t="n">
-        <v>231832.9991593398</v>
+        <v>293383.510989587</v>
       </c>
       <c r="E25" t="n">
-        <v>342799.0982807875</v>
+        <v>352545.892156601</v>
       </c>
       <c r="F25" t="n">
         <v>153016.9563506184</v>
@@ -9716,16 +9716,16 @@
         <v>45200</v>
       </c>
       <c r="B26" t="n">
-        <v>355386.8184297085</v>
+        <v>276233.3095742022</v>
       </c>
       <c r="C26" t="n">
-        <v>318159.8813842814</v>
+        <v>321585.1744017601</v>
       </c>
       <c r="D26" t="n">
-        <v>276233.3095742022</v>
+        <v>303914.1022948758</v>
       </c>
       <c r="E26" t="n">
-        <v>334032.2735389471</v>
+        <v>332951.6115971804</v>
       </c>
       <c r="F26" t="n">
         <v>178408.4395346413</v>
@@ -9736,16 +9736,16 @@
         <v>45231</v>
       </c>
       <c r="B27" t="n">
-        <v>366201.5354056358</v>
+        <v>301167.1510240989</v>
       </c>
       <c r="C27" t="n">
-        <v>325810.9689181451</v>
+        <v>291560.4158809185</v>
       </c>
       <c r="D27" t="n">
-        <v>301167.1510240989</v>
+        <v>305278.9901498642</v>
       </c>
       <c r="E27" t="n">
-        <v>319426.9447071552</v>
+        <v>339319.6169967651</v>
       </c>
       <c r="F27" t="n">
         <v>197402.8110617171</v>
@@ -9756,16 +9756,16 @@
         <v>45261</v>
       </c>
       <c r="B28" t="n">
-        <v>354714.490675807</v>
+        <v>385408.5213084235</v>
       </c>
       <c r="C28" t="n">
-        <v>356915.103548176</v>
+        <v>293624.4703146219</v>
       </c>
       <c r="D28" t="n">
-        <v>385408.5213084235</v>
+        <v>341997.0797778352</v>
       </c>
       <c r="E28" t="n">
-        <v>339370.9344493151</v>
+        <v>352694.1169730425</v>
       </c>
       <c r="F28" t="n">
         <v>265461.0283505826</v>
@@ -9776,16 +9776,16 @@
         <v>45292</v>
       </c>
       <c r="B29" t="n">
-        <v>318285.0902417898</v>
+        <v>303027.2017124582</v>
       </c>
       <c r="C29" t="n">
-        <v>315729.4847963938</v>
+        <v>328571.3592489958</v>
       </c>
       <c r="D29" t="n">
-        <v>303027.2017124582</v>
+        <v>322612.4524946794</v>
       </c>
       <c r="E29" t="n">
-        <v>336148.7645999193</v>
+        <v>353322.8627467155</v>
       </c>
       <c r="F29" t="n">
         <v>213037.1540754306</v>
@@ -9796,16 +9796,16 @@
         <v>45323</v>
       </c>
       <c r="B30" t="n">
-        <v>355426.9770519733</v>
+        <v>254863.1437533888</v>
       </c>
       <c r="C30" t="n">
-        <v>311839.4119814387</v>
+        <v>324943.0277273655</v>
       </c>
       <c r="D30" t="n">
-        <v>254863.1437533888</v>
+        <v>299843.8358396093</v>
       </c>
       <c r="E30" t="n">
-        <v>336432.8703939915</v>
+        <v>342855.4191026688</v>
       </c>
       <c r="F30" t="n">
         <v>168672.3114747705</v>
@@ -9816,16 +9816,16 @@
         <v>45352</v>
       </c>
       <c r="B31" t="n">
-        <v>346262.4502820969</v>
+        <v>267098.6845002077</v>
       </c>
       <c r="C31" t="n">
-        <v>312334.196696989</v>
+        <v>324224.221305728</v>
       </c>
       <c r="D31" t="n">
-        <v>267098.6845002077</v>
+        <v>307650.9675047272</v>
       </c>
       <c r="E31" t="n">
-        <v>329450.8330765963</v>
+        <v>348852.8460026979</v>
       </c>
       <c r="F31" t="n">
         <v>230241.6692261397</v>
@@ -9836,16 +9836,16 @@
         <v>45383</v>
       </c>
       <c r="B32" t="n">
-        <v>351644.2981698513</v>
+        <v>211763.4980051675</v>
       </c>
       <c r="C32" t="n">
-        <v>297803.2964235063</v>
+        <v>333689.6744073629</v>
       </c>
       <c r="D32" t="n">
-        <v>211763.4980051675</v>
+        <v>295711.8736781023</v>
       </c>
       <c r="E32" t="n">
-        <v>338246.1967737675</v>
+        <v>371448.2923214436</v>
       </c>
       <c r="F32" t="n">
         <v>180307.0920146088</v>
@@ -9856,16 +9856,16 @@
         <v>45413</v>
       </c>
       <c r="B33" t="n">
-        <v>346960.3215531111</v>
+        <v>257026.9260475409</v>
       </c>
       <c r="C33" t="n">
-        <v>307031.273222385</v>
+        <v>321515.6209846735</v>
       </c>
       <c r="D33" t="n">
-        <v>257026.9260475409</v>
+        <v>300607.1815196063</v>
       </c>
       <c r="E33" t="n">
-        <v>323894.7231017351</v>
+        <v>342052.5758264065</v>
       </c>
       <c r="F33" t="n">
         <v>210223.2292145643</v>
@@ -9876,16 +9876,16 @@
         <v>45444</v>
       </c>
       <c r="B34" t="n">
-        <v>334047.6457328796</v>
+        <v>313075.6465014099</v>
       </c>
       <c r="C34" t="n">
-        <v>322576.2594259336</v>
+        <v>319302.3871443272</v>
       </c>
       <c r="D34" t="n">
-        <v>313075.6465014099</v>
+        <v>326930.1365659837</v>
       </c>
       <c r="E34" t="n">
-        <v>325775.167047739</v>
+        <v>361277.9237314463</v>
       </c>
       <c r="F34" t="n">
         <v>261498.5586691144</v>
@@ -9896,16 +9896,16 @@
         <v>45474</v>
       </c>
       <c r="B35" t="n">
-        <v>361842.0207066536</v>
+        <v>328828.6939740207</v>
       </c>
       <c r="C35" t="n">
-        <v>340210.2535484338</v>
+        <v>302911.6125500202</v>
       </c>
       <c r="D35" t="n">
-        <v>328828.6939740207</v>
+        <v>320569.8967981924</v>
       </c>
       <c r="E35" t="n">
-        <v>334219.8998888731</v>
+        <v>335804.1575372219</v>
       </c>
       <c r="F35" t="n">
         <v>278609.4832585234</v>
@@ -9916,16 +9916,16 @@
         <v>45505</v>
       </c>
       <c r="B36" t="n">
-        <v>353701.99964118</v>
+        <v>273339.5158814964</v>
       </c>
       <c r="C36" t="n">
-        <v>309479.8984974974</v>
+        <v>325372.3958165646</v>
       </c>
       <c r="D36" t="n">
-        <v>273339.5158814964</v>
+        <v>312874.7428409922</v>
       </c>
       <c r="E36" t="n">
-        <v>307872.1569899321</v>
+        <v>360720.4430538416</v>
       </c>
       <c r="F36" t="n">
         <v>208645.8245708317</v>
@@ -9936,16 +9936,16 @@
         <v>45536</v>
       </c>
       <c r="B37" t="n">
-        <v>361003.0675872564</v>
+        <v>231446.4062612295</v>
       </c>
       <c r="C37" t="n">
-        <v>300762.8093248437</v>
+        <v>333125.4457645416</v>
       </c>
       <c r="D37" t="n">
-        <v>231446.4062612295</v>
+        <v>293813.2084772428</v>
       </c>
       <c r="E37" t="n">
-        <v>322375.706756115</v>
+        <v>345957.6068388224</v>
       </c>
       <c r="F37" t="n">
         <v>130429.2623455103</v>
@@ -9956,16 +9956,16 @@
         <v>45566</v>
       </c>
       <c r="B38" t="n">
-        <v>345612.802274704</v>
+        <v>275868.0910850656</v>
       </c>
       <c r="C38" t="n">
-        <v>309795.6577790258</v>
+        <v>329010.5036585331</v>
       </c>
       <c r="D38" t="n">
-        <v>275868.0910850656</v>
+        <v>312213.6491474195</v>
       </c>
       <c r="E38" t="n">
-        <v>320888.2906378508</v>
+        <v>357439.1873626709</v>
       </c>
       <c r="F38" t="n">
         <v>151625.9767832904</v>
@@ -9976,16 +9976,16 @@
         <v>45597</v>
       </c>
       <c r="B39" t="n">
-        <v>351116.1464532614</v>
+        <v>300858.9567995011</v>
       </c>
       <c r="C39" t="n">
-        <v>325453.755612376</v>
+        <v>333884.4437253475</v>
       </c>
       <c r="D39" t="n">
-        <v>300858.9567995011</v>
+        <v>320357.328013955</v>
       </c>
       <c r="E39" t="n">
-        <v>338370.5897520781</v>
+        <v>347277.9038380384</v>
       </c>
       <c r="F39" t="n">
         <v>165299.824813613</v>
